--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="935">
   <si>
     <t>Date</t>
   </si>
@@ -18605,10 +18605,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T635"/>
+  <dimension ref="A1:T636"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A631" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C644" sqref="C644"/>
+      <selection activeCell="A637" sqref="A637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -29405,6 +29405,24 @@
       <c r="F635" s="22">
         <f>F634-E635</f>
         <v>3091</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A636" s="24">
+        <v>45358</v>
+      </c>
+      <c r="B636" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C636" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E636" s="22">
+        <v>50</v>
+      </c>
+      <c r="F636" s="22">
+        <f>F635-E636</f>
+        <v>3041</v>
       </c>
     </row>
   </sheetData>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="937">
   <si>
     <t>Date</t>
   </si>
@@ -2842,6 +2842,12 @@
   </si>
   <si>
     <t>0.4 MM LW PU HOSE 254 MM</t>
+  </si>
+  <si>
+    <t>b23-24MQ408</t>
+  </si>
+  <si>
+    <t>Cement dust collector bellow dia245mm</t>
   </si>
 </sst>
 </file>
@@ -3162,7 +3168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3788,6 +3794,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4128,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A282" sqref="A282"/>
+    <sheetView topLeftCell="E199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I217" sqref="I217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4153,25 +4162,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
       <c r="H1" s="32"/>
-      <c r="I1" s="217" t="s">
+      <c r="I1" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
     </row>
     <row r="2" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -4252,13 +4261,13 @@
         <v>140</v>
       </c>
       <c r="H4" s="52"/>
-      <c r="I4" s="211">
+      <c r="I4" s="212">
         <v>45020</v>
       </c>
-      <c r="J4" s="212" t="s">
+      <c r="J4" s="213" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="212" t="s">
+      <c r="K4" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L4" s="59" t="s">
@@ -4267,7 +4276,7 @@
       <c r="M4" s="59">
         <v>5</v>
       </c>
-      <c r="N4" s="212" t="s">
+      <c r="N4" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O4" s="18"/>
@@ -4281,16 +4290,16 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="54"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="212"/>
-      <c r="K5" s="212"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
       <c r="L5" s="59" t="s">
         <v>180</v>
       </c>
       <c r="M5" s="59">
         <v>5</v>
       </c>
-      <c r="N5" s="212"/>
+      <c r="N5" s="213"/>
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4316,16 +4325,16 @@
         <v>140</v>
       </c>
       <c r="H6" s="20"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="213"/>
+      <c r="K6" s="213"/>
       <c r="L6" s="59" t="s">
         <v>181</v>
       </c>
       <c r="M6" s="59">
         <v>6</v>
       </c>
-      <c r="N6" s="212"/>
+      <c r="N6" s="213"/>
       <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4337,26 +4346,26 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="52"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="213"/>
       <c r="L7" s="59" t="s">
         <v>182</v>
       </c>
       <c r="M7" s="59">
         <v>2</v>
       </c>
-      <c r="N7" s="212"/>
+      <c r="N7" s="213"/>
       <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="211">
+      <c r="A8" s="212">
         <v>45033</v>
       </c>
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="213" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="48" t="s">
@@ -4365,10 +4374,10 @@
       <c r="E8" s="48">
         <v>10</v>
       </c>
-      <c r="F8" s="212" t="s">
+      <c r="F8" s="213" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="212" t="s">
+      <c r="G8" s="213" t="s">
         <v>140</v>
       </c>
       <c r="H8" s="62"/>
@@ -4381,25 +4390,25 @@
       <c r="O8" s="63"/>
     </row>
     <row r="9" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="211"/>
-      <c r="B9" s="212"/>
-      <c r="C9" s="212"/>
+      <c r="A9" s="212"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
       <c r="D9" s="48" t="s">
         <v>171</v>
       </c>
       <c r="E9" s="48">
         <v>20</v>
       </c>
-      <c r="F9" s="212"/>
-      <c r="G9" s="212"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="211">
+      <c r="I9" s="212">
         <v>45020</v>
       </c>
-      <c r="J9" s="212" t="s">
+      <c r="J9" s="213" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="212" t="s">
+      <c r="K9" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L9" s="59" t="s">
@@ -4408,59 +4417,59 @@
       <c r="M9" s="59">
         <v>10</v>
       </c>
-      <c r="N9" s="212" t="s">
+      <c r="N9" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="211"/>
-      <c r="B10" s="212"/>
-      <c r="C10" s="212"/>
+      <c r="A10" s="212"/>
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
       <c r="D10" s="48" t="s">
         <v>172</v>
       </c>
       <c r="E10" s="48">
         <v>5</v>
       </c>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="212"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
       <c r="L10" s="59" t="s">
         <v>183</v>
       </c>
       <c r="M10" s="59">
         <v>10</v>
       </c>
-      <c r="N10" s="212"/>
+      <c r="N10" s="213"/>
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="211"/>
-      <c r="B11" s="212"/>
-      <c r="C11" s="212"/>
+      <c r="A11" s="212"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
       <c r="D11" s="48" t="s">
         <v>174</v>
       </c>
       <c r="E11" s="48">
         <v>5</v>
       </c>
-      <c r="F11" s="212"/>
-      <c r="G11" s="212"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
       <c r="L11" s="59" t="s">
         <v>184</v>
       </c>
       <c r="M11" s="59">
         <v>19</v>
       </c>
-      <c r="N11" s="212"/>
+      <c r="N11" s="213"/>
       <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4472,16 +4481,16 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="52"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
       <c r="L12" s="59" t="s">
         <v>185</v>
       </c>
       <c r="M12" s="59">
         <v>2</v>
       </c>
-      <c r="N12" s="212"/>
+      <c r="N12" s="213"/>
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" s="48" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -4507,16 +4516,16 @@
         <v>140</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="213"/>
       <c r="L13" s="59" t="s">
         <v>186</v>
       </c>
       <c r="M13" s="59">
         <v>2</v>
       </c>
-      <c r="N13" s="212"/>
+      <c r="N13" s="213"/>
       <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4528,16 +4537,16 @@
       <c r="F14" s="55"/>
       <c r="G14" s="55"/>
       <c r="H14" s="52"/>
-      <c r="I14" s="211"/>
-      <c r="J14" s="212"/>
-      <c r="K14" s="212"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="213"/>
       <c r="L14" s="59" t="s">
         <v>187</v>
       </c>
       <c r="M14" s="59">
         <v>10</v>
       </c>
-      <c r="N14" s="212"/>
+      <c r="N14" s="213"/>
       <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4601,13 +4610,13 @@
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="211">
+      <c r="A17" s="212">
         <v>45033</v>
       </c>
-      <c r="B17" s="212" t="s">
+      <c r="B17" s="213" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="212" t="s">
+      <c r="C17" s="213" t="s">
         <v>163</v>
       </c>
       <c r="D17" s="57" t="s">
@@ -4616,10 +4625,10 @@
       <c r="E17" s="57">
         <v>10</v>
       </c>
-      <c r="F17" s="212" t="s">
+      <c r="F17" s="213" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="212" t="s">
+      <c r="G17" s="213" t="s">
         <v>140</v>
       </c>
       <c r="H17" s="64"/>
@@ -4632,25 +4641,25 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="211"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="212"/>
+      <c r="A18" s="212"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="213"/>
       <c r="D18" s="57" t="s">
         <v>177</v>
       </c>
       <c r="E18" s="57">
         <v>100</v>
       </c>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="211">
+      <c r="I18" s="212">
         <v>45033</v>
       </c>
-      <c r="J18" s="212" t="s">
+      <c r="J18" s="213" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="212" t="s">
+      <c r="K18" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L18" s="59" t="s">
@@ -4659,7 +4668,7 @@
       <c r="M18" s="59">
         <v>10</v>
       </c>
-      <c r="N18" s="212" t="s">
+      <c r="N18" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O18" s="18"/>
@@ -4673,16 +4682,16 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="52"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="212"/>
-      <c r="K19" s="212"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
       <c r="L19" s="59" t="s">
         <v>179</v>
       </c>
       <c r="M19" s="59">
         <v>15</v>
       </c>
-      <c r="N19" s="212"/>
+      <c r="N19" s="213"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" s="48" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4708,16 +4717,16 @@
         <v>159</v>
       </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="212"/>
-      <c r="K20" s="212"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="213"/>
       <c r="L20" s="59" t="s">
         <v>181</v>
       </c>
       <c r="M20" s="59">
         <v>9</v>
       </c>
-      <c r="N20" s="212"/>
+      <c r="N20" s="213"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4729,16 +4738,16 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="52"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="212"/>
-      <c r="K21" s="212"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="213"/>
       <c r="L21" s="59" t="s">
         <v>187</v>
       </c>
       <c r="M21" s="59">
         <v>5</v>
       </c>
-      <c r="N21" s="212"/>
+      <c r="N21" s="213"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4764,16 +4773,16 @@
         <v>159</v>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="212"/>
-      <c r="K22" s="212"/>
+      <c r="I22" s="212"/>
+      <c r="J22" s="213"/>
+      <c r="K22" s="213"/>
       <c r="L22" s="59" t="s">
         <v>183</v>
       </c>
       <c r="M22" s="59">
         <v>20</v>
       </c>
-      <c r="N22" s="212"/>
+      <c r="N22" s="213"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4785,26 +4794,26 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="52"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="212"/>
-      <c r="K23" s="212"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="213"/>
       <c r="L23" s="59" t="s">
         <v>188</v>
       </c>
       <c r="M23" s="59">
         <v>30.5</v>
       </c>
-      <c r="N23" s="212"/>
+      <c r="N23" s="213"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="211">
+      <c r="A24" s="212">
         <v>45042</v>
       </c>
-      <c r="B24" s="212" t="s">
+      <c r="B24" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="212" t="s">
+      <c r="C24" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="71" t="s">
@@ -4813,37 +4822,37 @@
       <c r="E24" s="71">
         <v>15</v>
       </c>
-      <c r="F24" s="212" t="s">
+      <c r="F24" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="212" t="s">
+      <c r="G24" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H24" s="20"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="212"/>
-      <c r="K24" s="212"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="213"/>
       <c r="L24" s="59" t="s">
         <v>189</v>
       </c>
       <c r="M24" s="59">
         <v>10</v>
       </c>
-      <c r="N24" s="212"/>
+      <c r="N24" s="213"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="211"/>
-      <c r="B25" s="212"/>
-      <c r="C25" s="212"/>
+      <c r="A25" s="212"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="213"/>
       <c r="D25" s="71" t="s">
         <v>172</v>
       </c>
       <c r="E25" s="71">
         <v>17</v>
       </c>
-      <c r="F25" s="212"/>
-      <c r="G25" s="212"/>
+      <c r="F25" s="213"/>
+      <c r="G25" s="213"/>
       <c r="H25" s="62"/>
       <c r="I25" s="53"/>
       <c r="J25" s="21"/>
@@ -4862,13 +4871,13 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="52"/>
-      <c r="I26" s="211">
+      <c r="I26" s="212">
         <v>45033</v>
       </c>
-      <c r="J26" s="212" t="s">
+      <c r="J26" s="213" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="212" t="s">
+      <c r="K26" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L26" s="59" t="s">
@@ -4877,7 +4886,7 @@
       <c r="M26" s="59">
         <v>40</v>
       </c>
-      <c r="N26" s="212" t="s">
+      <c r="N26" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O26" s="18"/>
@@ -4905,16 +4914,16 @@
         <v>159</v>
       </c>
       <c r="H27" s="20"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="212"/>
-      <c r="K27" s="212"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="213"/>
       <c r="L27" s="59" t="s">
         <v>191</v>
       </c>
       <c r="M27" s="59">
         <v>100</v>
       </c>
-      <c r="N27" s="212"/>
+      <c r="N27" s="213"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4957,13 +4966,13 @@
         <v>159</v>
       </c>
       <c r="H29" s="20"/>
-      <c r="I29" s="211">
+      <c r="I29" s="212">
         <v>45038</v>
       </c>
-      <c r="J29" s="212" t="s">
+      <c r="J29" s="213" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="212" t="s">
+      <c r="K29" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L29" s="79" t="s">
@@ -4972,7 +4981,7 @@
       <c r="M29" s="79">
         <v>12</v>
       </c>
-      <c r="N29" s="212" t="s">
+      <c r="N29" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O29" s="18"/>
@@ -4986,26 +4995,26 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="52"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="212"/>
-      <c r="K30" s="212"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="213"/>
+      <c r="K30" s="213"/>
       <c r="L30" s="79" t="s">
         <v>216</v>
       </c>
       <c r="M30" s="79">
         <v>10</v>
       </c>
-      <c r="N30" s="212"/>
+      <c r="N30" s="213"/>
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="211">
+      <c r="A31" s="212">
         <v>45049</v>
       </c>
-      <c r="B31" s="212" t="s">
+      <c r="B31" s="213" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="212" t="s">
+      <c r="C31" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D31" s="77" t="s">
@@ -5014,10 +5023,10 @@
       <c r="E31" s="77">
         <v>20</v>
       </c>
-      <c r="F31" s="212" t="s">
+      <c r="F31" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="G31" s="212" t="s">
+      <c r="G31" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H31" s="62"/>
@@ -5030,25 +5039,25 @@
       <c r="O31" s="63"/>
     </row>
     <row r="32" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="211"/>
-      <c r="B32" s="212"/>
-      <c r="C32" s="212"/>
+      <c r="A32" s="212"/>
+      <c r="B32" s="213"/>
+      <c r="C32" s="213"/>
       <c r="D32" s="77" t="s">
         <v>205</v>
       </c>
       <c r="E32" s="77">
         <v>5</v>
       </c>
-      <c r="F32" s="212"/>
-      <c r="G32" s="212"/>
+      <c r="F32" s="213"/>
+      <c r="G32" s="213"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="211">
+      <c r="I32" s="212">
         <v>45043</v>
       </c>
-      <c r="J32" s="212" t="s">
+      <c r="J32" s="213" t="s">
         <v>203</v>
       </c>
-      <c r="K32" s="212" t="s">
+      <c r="K32" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L32" s="79" t="s">
@@ -5057,34 +5066,34 @@
       <c r="M32" s="79">
         <v>17</v>
       </c>
-      <c r="N32" s="212" t="s">
+      <c r="N32" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="211"/>
-      <c r="B33" s="212"/>
-      <c r="C33" s="212"/>
+      <c r="A33" s="212"/>
+      <c r="B33" s="213"/>
+      <c r="C33" s="213"/>
       <c r="D33" s="77" t="s">
         <v>174</v>
       </c>
       <c r="E33" s="77">
         <v>4</v>
       </c>
-      <c r="F33" s="212"/>
-      <c r="G33" s="212"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="211"/>
-      <c r="J33" s="212"/>
-      <c r="K33" s="212"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="213"/>
       <c r="L33" s="79" t="s">
         <v>185</v>
       </c>
       <c r="M33" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="N33" s="212"/>
+      <c r="N33" s="213"/>
       <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5127,13 +5136,13 @@
         <v>159</v>
       </c>
       <c r="H35" s="20"/>
-      <c r="I35" s="211">
+      <c r="I35" s="212">
         <v>45051</v>
       </c>
-      <c r="J35" s="212" t="s">
+      <c r="J35" s="213" t="s">
         <v>219</v>
       </c>
-      <c r="K35" s="212" t="s">
+      <c r="K35" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L35" s="80" t="s">
@@ -5142,7 +5151,7 @@
       <c r="M35" s="80">
         <v>20</v>
       </c>
-      <c r="N35" s="212" t="s">
+      <c r="N35" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O35" s="18"/>
@@ -5156,26 +5165,26 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="52"/>
-      <c r="I36" s="211"/>
-      <c r="J36" s="212"/>
-      <c r="K36" s="212"/>
+      <c r="I36" s="212"/>
+      <c r="J36" s="213"/>
+      <c r="K36" s="213"/>
       <c r="L36" s="80" t="s">
         <v>187</v>
       </c>
       <c r="M36" s="80">
         <v>3</v>
       </c>
-      <c r="N36" s="212"/>
+      <c r="N36" s="213"/>
       <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="211">
+      <c r="A37" s="212">
         <v>45051</v>
       </c>
-      <c r="B37" s="212" t="s">
+      <c r="B37" s="213" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="212" t="s">
+      <c r="C37" s="213" t="s">
         <v>226</v>
       </c>
       <c r="D37" s="84" t="s">
@@ -5184,37 +5193,37 @@
       <c r="E37" s="84">
         <v>33</v>
       </c>
-      <c r="F37" s="212" t="s">
+      <c r="F37" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="G37" s="212" t="s">
+      <c r="G37" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H37" s="20"/>
-      <c r="I37" s="211"/>
-      <c r="J37" s="212"/>
-      <c r="K37" s="212"/>
+      <c r="I37" s="212"/>
+      <c r="J37" s="213"/>
+      <c r="K37" s="213"/>
       <c r="L37" s="80" t="s">
         <v>190</v>
       </c>
       <c r="M37" s="80">
         <v>30</v>
       </c>
-      <c r="N37" s="212"/>
+      <c r="N37" s="213"/>
       <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="211"/>
-      <c r="B38" s="212"/>
-      <c r="C38" s="212"/>
+      <c r="A38" s="212"/>
+      <c r="B38" s="213"/>
+      <c r="C38" s="213"/>
       <c r="D38" s="84" t="s">
         <v>251</v>
       </c>
       <c r="E38" s="84">
         <v>1</v>
       </c>
-      <c r="F38" s="212"/>
-      <c r="G38" s="212"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
       <c r="H38" s="62"/>
       <c r="I38" s="53"/>
       <c r="J38" s="21"/>
@@ -5225,25 +5234,25 @@
       <c r="O38" s="63"/>
     </row>
     <row r="39" spans="1:15" s="48" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="211"/>
-      <c r="B39" s="212"/>
-      <c r="C39" s="212"/>
+      <c r="A39" s="212"/>
+      <c r="B39" s="213"/>
+      <c r="C39" s="213"/>
       <c r="D39" s="84" t="s">
         <v>252</v>
       </c>
       <c r="E39" s="84">
         <v>1</v>
       </c>
-      <c r="F39" s="212"/>
-      <c r="G39" s="212"/>
+      <c r="F39" s="213"/>
+      <c r="G39" s="213"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="211">
+      <c r="I39" s="212">
         <v>45051</v>
       </c>
-      <c r="J39" s="212" t="s">
+      <c r="J39" s="213" t="s">
         <v>220</v>
       </c>
-      <c r="K39" s="212" t="s">
+      <c r="K39" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L39" s="80" t="s">
@@ -5252,34 +5261,34 @@
       <c r="M39" s="80">
         <v>15</v>
       </c>
-      <c r="N39" s="212" t="s">
+      <c r="N39" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="211"/>
-      <c r="B40" s="212"/>
-      <c r="C40" s="212"/>
+      <c r="A40" s="212"/>
+      <c r="B40" s="213"/>
+      <c r="C40" s="213"/>
       <c r="D40" s="84" t="s">
         <v>253</v>
       </c>
       <c r="E40" s="84">
         <v>1</v>
       </c>
-      <c r="F40" s="212"/>
-      <c r="G40" s="212"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="213"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="211"/>
-      <c r="J40" s="212"/>
-      <c r="K40" s="212"/>
+      <c r="I40" s="212"/>
+      <c r="J40" s="213"/>
+      <c r="K40" s="213"/>
       <c r="L40" s="80" t="s">
         <v>185</v>
       </c>
       <c r="M40" s="80">
         <v>5</v>
       </c>
-      <c r="N40" s="212"/>
+      <c r="N40" s="213"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5291,16 +5300,16 @@
       <c r="F41" s="65"/>
       <c r="G41" s="65"/>
       <c r="H41" s="52"/>
-      <c r="I41" s="211"/>
-      <c r="J41" s="212"/>
-      <c r="K41" s="212"/>
+      <c r="I41" s="212"/>
+      <c r="J41" s="213"/>
+      <c r="K41" s="213"/>
       <c r="L41" s="80" t="s">
         <v>222</v>
       </c>
       <c r="M41" s="80">
         <v>2</v>
       </c>
-      <c r="N41" s="212"/>
+      <c r="N41" s="213"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5403,13 +5412,13 @@
       <c r="F45" s="90"/>
       <c r="G45" s="90"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="211">
+      <c r="I45" s="212">
         <v>45058</v>
       </c>
-      <c r="J45" s="212" t="s">
+      <c r="J45" s="213" t="s">
         <v>244</v>
       </c>
-      <c r="K45" s="212" t="s">
+      <c r="K45" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L45" s="97" t="s">
@@ -5418,19 +5427,19 @@
       <c r="M45" s="97">
         <v>1</v>
       </c>
-      <c r="N45" s="212" t="s">
+      <c r="N45" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O45" s="18"/>
     </row>
     <row r="46" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="214">
+      <c r="A46" s="215">
         <v>45056</v>
       </c>
-      <c r="B46" s="215" t="s">
+      <c r="B46" s="216" t="s">
         <v>255</v>
       </c>
-      <c r="C46" s="215" t="s">
+      <c r="C46" s="216" t="s">
         <v>233</v>
       </c>
       <c r="D46" s="88" t="s">
@@ -5439,37 +5448,37 @@
       <c r="E46" s="88">
         <v>1</v>
       </c>
-      <c r="F46" s="215" t="s">
+      <c r="F46" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="G46" s="215" t="s">
+      <c r="G46" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H46" s="52"/>
-      <c r="I46" s="211"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
+      <c r="I46" s="212"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
       <c r="L46" s="97" t="s">
         <v>269</v>
       </c>
       <c r="M46" s="97">
         <v>4</v>
       </c>
-      <c r="N46" s="212"/>
+      <c r="N46" s="213"/>
       <c r="O46" s="18"/>
     </row>
     <row r="47" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="214"/>
-      <c r="B47" s="215"/>
-      <c r="C47" s="215"/>
+      <c r="A47" s="215"/>
+      <c r="B47" s="216"/>
+      <c r="C47" s="216"/>
       <c r="D47" s="89" t="s">
         <v>257</v>
       </c>
       <c r="E47" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="F47" s="215"/>
-      <c r="G47" s="215"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
       <c r="H47" s="62"/>
       <c r="I47" s="53"/>
       <c r="J47" s="21"/>
@@ -5548,13 +5557,13 @@
       <c r="F50" s="95"/>
       <c r="G50" s="95"/>
       <c r="H50" s="52"/>
-      <c r="I50" s="211">
+      <c r="I50" s="212">
         <v>45063</v>
       </c>
-      <c r="J50" s="212" t="s">
+      <c r="J50" s="213" t="s">
         <v>267</v>
       </c>
-      <c r="K50" s="212" t="s">
+      <c r="K50" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L50" s="97" t="s">
@@ -5563,7 +5572,7 @@
       <c r="M50" s="97">
         <v>8</v>
       </c>
-      <c r="N50" s="212" t="s">
+      <c r="N50" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O50" s="18"/>
@@ -5591,16 +5600,16 @@
         <v>159</v>
       </c>
       <c r="H51" s="20"/>
-      <c r="I51" s="211"/>
-      <c r="J51" s="212"/>
-      <c r="K51" s="212"/>
+      <c r="I51" s="212"/>
+      <c r="J51" s="213"/>
+      <c r="K51" s="213"/>
       <c r="L51" s="97" t="s">
         <v>183</v>
       </c>
       <c r="M51" s="97">
         <v>7</v>
       </c>
-      <c r="N51" s="212"/>
+      <c r="N51" s="213"/>
       <c r="O51" s="18"/>
     </row>
     <row r="52" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5612,16 +5621,16 @@
       <c r="F52" s="90"/>
       <c r="G52" s="90"/>
       <c r="H52" s="52"/>
-      <c r="I52" s="211"/>
-      <c r="J52" s="212"/>
-      <c r="K52" s="212"/>
+      <c r="I52" s="212"/>
+      <c r="J52" s="213"/>
+      <c r="K52" s="213"/>
       <c r="L52" s="97" t="s">
         <v>185</v>
       </c>
       <c r="M52" s="97">
         <v>5</v>
       </c>
-      <c r="N52" s="212"/>
+      <c r="N52" s="213"/>
       <c r="O52" s="18"/>
     </row>
     <row r="53" spans="1:15" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5647,16 +5656,16 @@
         <v>159</v>
       </c>
       <c r="H53" s="20"/>
-      <c r="I53" s="211"/>
-      <c r="J53" s="212"/>
-      <c r="K53" s="212"/>
+      <c r="I53" s="212"/>
+      <c r="J53" s="213"/>
+      <c r="K53" s="213"/>
       <c r="L53" s="97" t="s">
         <v>270</v>
       </c>
       <c r="M53" s="97">
         <v>25</v>
       </c>
-      <c r="N53" s="212"/>
+      <c r="N53" s="213"/>
       <c r="O53" s="18"/>
     </row>
     <row r="54" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5737,13 +5746,13 @@
       <c r="O56" s="63"/>
     </row>
     <row r="57" spans="1:15" s="48" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="211">
+      <c r="A57" s="212">
         <v>45061</v>
       </c>
-      <c r="B57" s="212" t="s">
+      <c r="B57" s="213" t="s">
         <v>263</v>
       </c>
-      <c r="C57" s="212" t="s">
+      <c r="C57" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D57" s="86" t="s">
@@ -5752,20 +5761,20 @@
       <c r="E57" s="86">
         <v>4</v>
       </c>
-      <c r="F57" s="212" t="s">
+      <c r="F57" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="G57" s="212" t="s">
+      <c r="G57" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="211">
+      <c r="I57" s="212">
         <v>45070</v>
       </c>
-      <c r="J57" s="212" t="s">
+      <c r="J57" s="213" t="s">
         <v>278</v>
       </c>
-      <c r="K57" s="212" t="s">
+      <c r="K57" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L57" s="99" t="s">
@@ -5774,48 +5783,48 @@
       <c r="M57" s="98">
         <v>14</v>
       </c>
-      <c r="N57" s="212" t="s">
+      <c r="N57" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O57" s="18"/>
     </row>
     <row r="58" spans="1:15" s="48" customFormat="1" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="211"/>
-      <c r="B58" s="212"/>
-      <c r="C58" s="212"/>
+      <c r="A58" s="212"/>
+      <c r="B58" s="213"/>
+      <c r="C58" s="213"/>
       <c r="D58" s="86" t="s">
         <v>171</v>
       </c>
       <c r="E58" s="86">
         <v>7</v>
       </c>
-      <c r="F58" s="212"/>
-      <c r="G58" s="212"/>
+      <c r="F58" s="213"/>
+      <c r="G58" s="213"/>
       <c r="H58" s="20"/>
-      <c r="I58" s="211"/>
-      <c r="J58" s="212"/>
-      <c r="K58" s="212"/>
+      <c r="I58" s="212"/>
+      <c r="J58" s="213"/>
+      <c r="K58" s="213"/>
       <c r="L58" s="99" t="s">
         <v>281</v>
       </c>
       <c r="M58" s="98">
         <v>10</v>
       </c>
-      <c r="N58" s="212"/>
+      <c r="N58" s="213"/>
       <c r="O58" s="18"/>
     </row>
     <row r="59" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="211"/>
-      <c r="B59" s="212"/>
-      <c r="C59" s="212"/>
+      <c r="A59" s="212"/>
+      <c r="B59" s="213"/>
+      <c r="C59" s="213"/>
       <c r="D59" s="86" t="s">
         <v>205</v>
       </c>
       <c r="E59" s="86">
         <v>5</v>
       </c>
-      <c r="F59" s="212"/>
-      <c r="G59" s="212"/>
+      <c r="F59" s="213"/>
+      <c r="G59" s="213"/>
       <c r="H59" s="62"/>
       <c r="I59" s="53"/>
       <c r="J59" s="21"/>
@@ -5834,13 +5843,13 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
       <c r="H60" s="52"/>
-      <c r="I60" s="211">
+      <c r="I60" s="212">
         <v>45070</v>
       </c>
-      <c r="J60" s="212" t="s">
+      <c r="J60" s="213" t="s">
         <v>279</v>
       </c>
-      <c r="K60" s="212" t="s">
+      <c r="K60" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L60" s="99" t="s">
@@ -5849,7 +5858,7 @@
       <c r="M60" s="98">
         <v>3</v>
       </c>
-      <c r="N60" s="212" t="s">
+      <c r="N60" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O60" s="18"/>
@@ -5877,16 +5886,16 @@
         <v>159</v>
       </c>
       <c r="H61" s="20"/>
-      <c r="I61" s="211"/>
-      <c r="J61" s="212"/>
-      <c r="K61" s="212"/>
+      <c r="I61" s="212"/>
+      <c r="J61" s="213"/>
+      <c r="K61" s="213"/>
       <c r="L61" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M61" s="98">
         <v>2</v>
       </c>
-      <c r="N61" s="212"/>
+      <c r="N61" s="213"/>
       <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5898,26 +5907,26 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="52"/>
-      <c r="I62" s="211"/>
-      <c r="J62" s="212"/>
-      <c r="K62" s="212"/>
+      <c r="I62" s="212"/>
+      <c r="J62" s="213"/>
+      <c r="K62" s="213"/>
       <c r="L62" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M62" s="98">
         <v>7</v>
       </c>
-      <c r="N62" s="212"/>
+      <c r="N62" s="213"/>
       <c r="O62" s="18"/>
     </row>
     <row r="63" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="211">
+      <c r="A63" s="212">
         <v>45065</v>
       </c>
-      <c r="B63" s="212" t="s">
+      <c r="B63" s="213" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="212" t="s">
+      <c r="C63" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D63" s="102" t="s">
@@ -5926,62 +5935,62 @@
       <c r="E63" s="102">
         <v>6</v>
       </c>
-      <c r="F63" s="212" t="s">
+      <c r="F63" s="213" t="s">
         <v>228</v>
       </c>
-      <c r="G63" s="212" t="s">
+      <c r="G63" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H63" s="52"/>
-      <c r="I63" s="211"/>
-      <c r="J63" s="212"/>
-      <c r="K63" s="212"/>
+      <c r="I63" s="212"/>
+      <c r="J63" s="213"/>
+      <c r="K63" s="213"/>
       <c r="L63" s="99" t="s">
         <v>283</v>
       </c>
       <c r="M63" s="98">
         <v>10</v>
       </c>
-      <c r="N63" s="212"/>
+      <c r="N63" s="213"/>
       <c r="O63" s="18"/>
     </row>
     <row r="64" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="211"/>
-      <c r="B64" s="212"/>
-      <c r="C64" s="212"/>
+      <c r="A64" s="212"/>
+      <c r="B64" s="213"/>
+      <c r="C64" s="213"/>
       <c r="D64" s="102" t="s">
         <v>171</v>
       </c>
       <c r="E64" s="102">
         <v>8</v>
       </c>
-      <c r="F64" s="212"/>
-      <c r="G64" s="212"/>
+      <c r="F64" s="213"/>
+      <c r="G64" s="213"/>
       <c r="H64" s="52"/>
-      <c r="I64" s="211"/>
-      <c r="J64" s="212"/>
-      <c r="K64" s="212"/>
+      <c r="I64" s="212"/>
+      <c r="J64" s="213"/>
+      <c r="K64" s="213"/>
       <c r="L64" s="100" t="s">
         <v>284</v>
       </c>
       <c r="M64" s="98">
         <v>3</v>
       </c>
-      <c r="N64" s="212"/>
+      <c r="N64" s="213"/>
       <c r="O64" s="18"/>
     </row>
     <row r="65" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="211"/>
-      <c r="B65" s="212"/>
-      <c r="C65" s="212"/>
+      <c r="A65" s="212"/>
+      <c r="B65" s="213"/>
+      <c r="C65" s="213"/>
       <c r="D65" s="102" t="s">
         <v>290</v>
       </c>
       <c r="E65" s="102">
         <v>10</v>
       </c>
-      <c r="F65" s="212"/>
-      <c r="G65" s="212"/>
+      <c r="F65" s="213"/>
+      <c r="G65" s="213"/>
       <c r="H65" s="64"/>
       <c r="I65" s="53"/>
       <c r="J65" s="21"/>
@@ -5992,25 +6001,25 @@
       <c r="O65" s="63"/>
     </row>
     <row r="66" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="211"/>
-      <c r="B66" s="212"/>
-      <c r="C66" s="212"/>
+      <c r="A66" s="212"/>
+      <c r="B66" s="213"/>
+      <c r="C66" s="213"/>
       <c r="D66" s="102" t="s">
         <v>291</v>
       </c>
       <c r="E66" s="102">
         <v>3</v>
       </c>
-      <c r="F66" s="212"/>
-      <c r="G66" s="212"/>
+      <c r="F66" s="213"/>
+      <c r="G66" s="213"/>
       <c r="H66" s="52"/>
-      <c r="I66" s="211">
+      <c r="I66" s="212">
         <v>45080</v>
       </c>
-      <c r="J66" s="212" t="s">
+      <c r="J66" s="213" t="s">
         <v>313</v>
       </c>
-      <c r="K66" s="212" t="s">
+      <c r="K66" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L66" s="116" t="s">
@@ -6019,7 +6028,7 @@
       <c r="M66" s="116">
         <v>50</v>
       </c>
-      <c r="N66" s="212" t="s">
+      <c r="N66" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O66" s="18"/>
@@ -6033,16 +6042,16 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
       <c r="H67" s="52"/>
-      <c r="I67" s="211"/>
-      <c r="J67" s="212"/>
-      <c r="K67" s="212"/>
+      <c r="I67" s="212"/>
+      <c r="J67" s="213"/>
+      <c r="K67" s="213"/>
       <c r="L67" s="116" t="s">
         <v>222</v>
       </c>
       <c r="M67" s="116">
         <v>54</v>
       </c>
-      <c r="N67" s="212"/>
+      <c r="N67" s="213"/>
       <c r="O67" s="18"/>
     </row>
     <row r="68" spans="1:15" s="48" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
@@ -6068,16 +6077,16 @@
         <v>159</v>
       </c>
       <c r="H68" s="20"/>
-      <c r="I68" s="211"/>
-      <c r="J68" s="212"/>
-      <c r="K68" s="212"/>
+      <c r="I68" s="212"/>
+      <c r="J68" s="213"/>
+      <c r="K68" s="213"/>
       <c r="L68" s="116" t="s">
         <v>191</v>
       </c>
       <c r="M68" s="116">
         <v>70</v>
       </c>
-      <c r="N68" s="212"/>
+      <c r="N68" s="213"/>
       <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6089,16 +6098,16 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
       <c r="H69" s="20"/>
-      <c r="I69" s="211"/>
-      <c r="J69" s="212"/>
-      <c r="K69" s="212"/>
+      <c r="I69" s="212"/>
+      <c r="J69" s="213"/>
+      <c r="K69" s="213"/>
       <c r="L69" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M69" s="116">
         <v>19</v>
       </c>
-      <c r="N69" s="212"/>
+      <c r="N69" s="213"/>
       <c r="O69" s="18"/>
     </row>
     <row r="70" spans="1:15" s="48" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6124,16 +6133,16 @@
         <v>159</v>
       </c>
       <c r="H70" s="20"/>
-      <c r="I70" s="211"/>
-      <c r="J70" s="212"/>
-      <c r="K70" s="212"/>
+      <c r="I70" s="212"/>
+      <c r="J70" s="213"/>
+      <c r="K70" s="213"/>
       <c r="L70" s="116" t="s">
         <v>344</v>
       </c>
       <c r="M70" s="116">
         <v>10</v>
       </c>
-      <c r="N70" s="212"/>
+      <c r="N70" s="213"/>
       <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6145,16 +6154,16 @@
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
       <c r="H71" s="20"/>
-      <c r="I71" s="211"/>
-      <c r="J71" s="212"/>
-      <c r="K71" s="212"/>
+      <c r="I71" s="212"/>
+      <c r="J71" s="213"/>
+      <c r="K71" s="213"/>
       <c r="L71" s="116" t="s">
         <v>187</v>
       </c>
       <c r="M71" s="116">
         <v>13</v>
       </c>
-      <c r="N71" s="212"/>
+      <c r="N71" s="213"/>
       <c r="O71" s="18"/>
     </row>
     <row r="72" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6180,16 +6189,16 @@
         <v>159</v>
       </c>
       <c r="H72" s="20"/>
-      <c r="I72" s="211"/>
-      <c r="J72" s="212"/>
-      <c r="K72" s="212"/>
+      <c r="I72" s="212"/>
+      <c r="J72" s="213"/>
+      <c r="K72" s="213"/>
       <c r="L72" s="116" t="s">
         <v>184</v>
       </c>
       <c r="M72" s="116">
         <v>10</v>
       </c>
-      <c r="N72" s="212"/>
+      <c r="N72" s="213"/>
       <c r="O72" s="18"/>
     </row>
     <row r="73" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6201,16 +6210,16 @@
       <c r="F73" s="65"/>
       <c r="G73" s="65"/>
       <c r="H73" s="52"/>
-      <c r="I73" s="211"/>
-      <c r="J73" s="212"/>
-      <c r="K73" s="212"/>
+      <c r="I73" s="212"/>
+      <c r="J73" s="213"/>
+      <c r="K73" s="213"/>
       <c r="L73" s="116" t="s">
         <v>190</v>
       </c>
       <c r="M73" s="116">
         <v>50</v>
       </c>
-      <c r="N73" s="212"/>
+      <c r="N73" s="213"/>
       <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6253,13 +6262,13 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
       <c r="H75" s="52"/>
-      <c r="I75" s="211">
+      <c r="I75" s="212">
         <v>45080</v>
       </c>
-      <c r="J75" s="212" t="s">
+      <c r="J75" s="213" t="s">
         <v>314</v>
       </c>
-      <c r="K75" s="212" t="s">
+      <c r="K75" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L75" s="116" t="s">
@@ -6268,7 +6277,7 @@
       <c r="M75" s="116">
         <v>7</v>
       </c>
-      <c r="N75" s="212" t="s">
+      <c r="N75" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O75" s="18"/>
@@ -6296,16 +6305,16 @@
         <v>159</v>
       </c>
       <c r="H76" s="20"/>
-      <c r="I76" s="211"/>
-      <c r="J76" s="212"/>
-      <c r="K76" s="212"/>
+      <c r="I76" s="212"/>
+      <c r="J76" s="213"/>
+      <c r="K76" s="213"/>
       <c r="L76" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M76" s="116">
         <v>4</v>
       </c>
-      <c r="N76" s="212"/>
+      <c r="N76" s="213"/>
       <c r="O76" s="18"/>
     </row>
     <row r="77" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6317,16 +6326,16 @@
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
       <c r="H77" s="52"/>
-      <c r="I77" s="211"/>
-      <c r="J77" s="212"/>
-      <c r="K77" s="212"/>
+      <c r="I77" s="212"/>
+      <c r="J77" s="213"/>
+      <c r="K77" s="213"/>
       <c r="L77" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M77" s="116">
         <v>1</v>
       </c>
-      <c r="N77" s="212"/>
+      <c r="N77" s="213"/>
       <c r="O77" s="18"/>
     </row>
     <row r="78" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6352,16 +6361,16 @@
         <v>159</v>
       </c>
       <c r="H78" s="20"/>
-      <c r="I78" s="211"/>
-      <c r="J78" s="212"/>
-      <c r="K78" s="212"/>
+      <c r="I78" s="212"/>
+      <c r="J78" s="213"/>
+      <c r="K78" s="213"/>
       <c r="L78" s="116" t="s">
         <v>182</v>
       </c>
       <c r="M78" s="116">
         <v>1</v>
       </c>
-      <c r="N78" s="212"/>
+      <c r="N78" s="213"/>
       <c r="O78" s="18"/>
     </row>
     <row r="79" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6382,13 +6391,13 @@
       <c r="O79" s="63"/>
     </row>
     <row r="80" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="211">
+      <c r="A80" s="212">
         <v>45078</v>
       </c>
-      <c r="B80" s="212" t="s">
+      <c r="B80" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="C80" s="212" t="s">
+      <c r="C80" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D80" s="105" t="s">
@@ -6397,20 +6406,20 @@
       <c r="E80" s="105">
         <v>10</v>
       </c>
-      <c r="F80" s="212" t="s">
+      <c r="F80" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="G80" s="212" t="s">
+      <c r="G80" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H80" s="20"/>
-      <c r="I80" s="211">
+      <c r="I80" s="212">
         <v>45090</v>
       </c>
-      <c r="J80" s="212" t="s">
+      <c r="J80" s="213" t="s">
         <v>341</v>
       </c>
-      <c r="K80" s="212" t="s">
+      <c r="K80" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L80" s="116" t="s">
@@ -6419,73 +6428,73 @@
       <c r="M80" s="116">
         <v>17</v>
       </c>
-      <c r="N80" s="212" t="s">
+      <c r="N80" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O80" s="18"/>
     </row>
     <row r="81" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="211"/>
-      <c r="B81" s="212"/>
-      <c r="C81" s="212"/>
+      <c r="A81" s="212"/>
+      <c r="B81" s="213"/>
+      <c r="C81" s="213"/>
       <c r="D81" s="105" t="s">
         <v>171</v>
       </c>
       <c r="E81" s="105">
         <v>19</v>
       </c>
-      <c r="F81" s="212"/>
-      <c r="G81" s="212"/>
+      <c r="F81" s="213"/>
+      <c r="G81" s="213"/>
       <c r="H81" s="20"/>
-      <c r="I81" s="211"/>
-      <c r="J81" s="212"/>
-      <c r="K81" s="212"/>
+      <c r="I81" s="212"/>
+      <c r="J81" s="213"/>
+      <c r="K81" s="213"/>
       <c r="L81" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M81" s="116">
         <v>35</v>
       </c>
-      <c r="N81" s="212"/>
+      <c r="N81" s="213"/>
       <c r="O81" s="18"/>
     </row>
     <row r="82" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="211"/>
-      <c r="B82" s="212"/>
-      <c r="C82" s="212"/>
+      <c r="A82" s="212"/>
+      <c r="B82" s="213"/>
+      <c r="C82" s="213"/>
       <c r="D82" s="105" t="s">
         <v>170</v>
       </c>
       <c r="E82" s="105">
         <v>10</v>
       </c>
-      <c r="F82" s="212"/>
-      <c r="G82" s="212"/>
+      <c r="F82" s="213"/>
+      <c r="G82" s="213"/>
       <c r="H82" s="20"/>
-      <c r="I82" s="211"/>
-      <c r="J82" s="212"/>
-      <c r="K82" s="212"/>
+      <c r="I82" s="212"/>
+      <c r="J82" s="213"/>
+      <c r="K82" s="213"/>
       <c r="L82" s="116" t="s">
         <v>345</v>
       </c>
       <c r="M82" s="116">
         <v>1</v>
       </c>
-      <c r="N82" s="212"/>
+      <c r="N82" s="213"/>
       <c r="O82" s="18"/>
     </row>
     <row r="83" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="211"/>
-      <c r="B83" s="212"/>
-      <c r="C83" s="212"/>
+      <c r="A83" s="212"/>
+      <c r="B83" s="213"/>
+      <c r="C83" s="213"/>
       <c r="D83" s="105" t="s">
         <v>172</v>
       </c>
       <c r="E83" s="105">
         <v>13</v>
       </c>
-      <c r="F83" s="212"/>
-      <c r="G83" s="212"/>
+      <c r="F83" s="213"/>
+      <c r="G83" s="213"/>
       <c r="H83" s="62"/>
       <c r="I83" s="21"/>
       <c r="J83" s="21"/>
@@ -6504,13 +6513,13 @@
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
       <c r="H84" s="20"/>
-      <c r="I84" s="211">
+      <c r="I84" s="212">
         <v>45090</v>
       </c>
-      <c r="J84" s="212" t="s">
+      <c r="J84" s="213" t="s">
         <v>342</v>
       </c>
-      <c r="K84" s="212" t="s">
+      <c r="K84" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L84" s="100" t="s">
@@ -6519,7 +6528,7 @@
       <c r="M84" s="116">
         <v>16</v>
       </c>
-      <c r="N84" s="212" t="s">
+      <c r="N84" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O84" s="18"/>
@@ -6547,16 +6556,16 @@
         <v>159</v>
       </c>
       <c r="H85" s="20"/>
-      <c r="I85" s="211"/>
-      <c r="J85" s="212"/>
-      <c r="K85" s="212"/>
+      <c r="I85" s="212"/>
+      <c r="J85" s="213"/>
+      <c r="K85" s="213"/>
       <c r="L85" s="116" t="s">
         <v>346</v>
       </c>
       <c r="M85" s="116">
         <v>10</v>
       </c>
-      <c r="N85" s="212"/>
+      <c r="N85" s="213"/>
       <c r="O85" s="18"/>
     </row>
     <row r="86" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6568,16 +6577,16 @@
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
       <c r="H86" s="20"/>
-      <c r="I86" s="211"/>
-      <c r="J86" s="212"/>
-      <c r="K86" s="212"/>
+      <c r="I86" s="212"/>
+      <c r="J86" s="213"/>
+      <c r="K86" s="213"/>
       <c r="L86" s="116" t="s">
         <v>182</v>
       </c>
       <c r="M86" s="116">
         <v>14</v>
       </c>
-      <c r="N86" s="212"/>
+      <c r="N86" s="213"/>
       <c r="O86" s="18"/>
     </row>
     <row r="87" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6603,16 +6612,16 @@
         <v>159</v>
       </c>
       <c r="H87" s="20"/>
-      <c r="I87" s="211"/>
-      <c r="J87" s="212"/>
-      <c r="K87" s="212"/>
+      <c r="I87" s="212"/>
+      <c r="J87" s="213"/>
+      <c r="K87" s="213"/>
       <c r="L87" s="116" t="s">
         <v>347</v>
       </c>
       <c r="M87" s="116">
         <v>3</v>
       </c>
-      <c r="N87" s="212"/>
+      <c r="N87" s="213"/>
       <c r="O87" s="18"/>
     </row>
     <row r="88" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6624,26 +6633,26 @@
       <c r="F88" s="65"/>
       <c r="G88" s="65"/>
       <c r="H88" s="20"/>
-      <c r="I88" s="211"/>
-      <c r="J88" s="212"/>
-      <c r="K88" s="212"/>
+      <c r="I88" s="212"/>
+      <c r="J88" s="213"/>
+      <c r="K88" s="213"/>
       <c r="L88" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M88" s="116">
         <v>10</v>
       </c>
-      <c r="N88" s="212"/>
+      <c r="N88" s="213"/>
       <c r="O88" s="18"/>
     </row>
     <row r="89" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="211">
+      <c r="A89" s="212">
         <v>45084</v>
       </c>
-      <c r="B89" s="212" t="s">
+      <c r="B89" s="213" t="s">
         <v>317</v>
       </c>
-      <c r="C89" s="212" t="s">
+      <c r="C89" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D89" s="109" t="s">
@@ -6652,62 +6661,62 @@
       <c r="E89" s="109">
         <v>35</v>
       </c>
-      <c r="F89" s="212" t="s">
+      <c r="F89" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="G89" s="212" t="s">
+      <c r="G89" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H89" s="20"/>
-      <c r="I89" s="211"/>
-      <c r="J89" s="212"/>
-      <c r="K89" s="212"/>
+      <c r="I89" s="212"/>
+      <c r="J89" s="213"/>
+      <c r="K89" s="213"/>
       <c r="L89" s="116" t="s">
         <v>187</v>
       </c>
       <c r="M89" s="116">
         <v>8</v>
       </c>
-      <c r="N89" s="212"/>
+      <c r="N89" s="213"/>
       <c r="O89" s="18"/>
     </row>
     <row r="90" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="211"/>
-      <c r="B90" s="212"/>
-      <c r="C90" s="212"/>
+      <c r="A90" s="212"/>
+      <c r="B90" s="213"/>
+      <c r="C90" s="213"/>
       <c r="D90" s="109" t="s">
         <v>172</v>
       </c>
       <c r="E90" s="109">
         <v>17</v>
       </c>
-      <c r="F90" s="212"/>
-      <c r="G90" s="212"/>
+      <c r="F90" s="213"/>
+      <c r="G90" s="213"/>
       <c r="H90" s="20"/>
-      <c r="I90" s="211"/>
-      <c r="J90" s="212"/>
-      <c r="K90" s="212"/>
+      <c r="I90" s="212"/>
+      <c r="J90" s="213"/>
+      <c r="K90" s="213"/>
       <c r="L90" s="116" t="s">
         <v>348</v>
       </c>
       <c r="M90" s="116">
         <v>10</v>
       </c>
-      <c r="N90" s="212"/>
+      <c r="N90" s="213"/>
       <c r="O90" s="18"/>
     </row>
     <row r="91" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="211"/>
-      <c r="B91" s="212"/>
-      <c r="C91" s="212"/>
+      <c r="A91" s="212"/>
+      <c r="B91" s="213"/>
+      <c r="C91" s="213"/>
       <c r="D91" s="109" t="s">
         <v>174</v>
       </c>
       <c r="E91" s="109">
         <v>10</v>
       </c>
-      <c r="F91" s="212"/>
-      <c r="G91" s="212"/>
+      <c r="F91" s="213"/>
+      <c r="G91" s="213"/>
       <c r="H91" s="62"/>
       <c r="I91" s="74"/>
       <c r="J91" s="65"/>
@@ -6718,25 +6727,25 @@
       <c r="O91" s="63"/>
     </row>
     <row r="92" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="211"/>
-      <c r="B92" s="212"/>
-      <c r="C92" s="212"/>
+      <c r="A92" s="212"/>
+      <c r="B92" s="213"/>
+      <c r="C92" s="213"/>
       <c r="D92" s="109" t="s">
         <v>318</v>
       </c>
       <c r="E92" s="109">
         <v>5</v>
       </c>
-      <c r="F92" s="212"/>
-      <c r="G92" s="212"/>
+      <c r="F92" s="213"/>
+      <c r="G92" s="213"/>
       <c r="H92" s="20"/>
-      <c r="I92" s="211">
+      <c r="I92" s="212">
         <v>45097</v>
       </c>
-      <c r="J92" s="212" t="s">
+      <c r="J92" s="213" t="s">
         <v>358</v>
       </c>
-      <c r="K92" s="212" t="s">
+      <c r="K92" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L92" s="121" t="s">
@@ -6745,7 +6754,7 @@
       <c r="M92" s="121">
         <v>3</v>
       </c>
-      <c r="N92" s="212" t="s">
+      <c r="N92" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O92" s="18"/>
@@ -6759,16 +6768,16 @@
       <c r="F93" s="65"/>
       <c r="G93" s="65"/>
       <c r="H93" s="20"/>
-      <c r="I93" s="211"/>
-      <c r="J93" s="212"/>
-      <c r="K93" s="212"/>
+      <c r="I93" s="212"/>
+      <c r="J93" s="213"/>
+      <c r="K93" s="213"/>
       <c r="L93" s="121" t="s">
         <v>187</v>
       </c>
       <c r="M93" s="121">
         <v>12</v>
       </c>
-      <c r="N93" s="212"/>
+      <c r="N93" s="213"/>
       <c r="O93" s="18"/>
     </row>
     <row r="94" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6794,16 +6803,16 @@
         <v>159</v>
       </c>
       <c r="H94" s="20"/>
-      <c r="I94" s="211"/>
-      <c r="J94" s="212"/>
-      <c r="K94" s="212"/>
+      <c r="I94" s="212"/>
+      <c r="J94" s="213"/>
+      <c r="K94" s="213"/>
       <c r="L94" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M94" s="121">
         <v>10</v>
       </c>
-      <c r="N94" s="212"/>
+      <c r="N94" s="213"/>
       <c r="O94" s="18"/>
     </row>
     <row r="95" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6815,16 +6824,16 @@
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
       <c r="H95" s="20"/>
-      <c r="I95" s="211"/>
-      <c r="J95" s="212"/>
-      <c r="K95" s="212"/>
+      <c r="I95" s="212"/>
+      <c r="J95" s="213"/>
+      <c r="K95" s="213"/>
       <c r="L95" s="121" t="s">
         <v>344</v>
       </c>
       <c r="M95" s="121">
         <v>10</v>
       </c>
-      <c r="N95" s="212"/>
+      <c r="N95" s="213"/>
       <c r="O95" s="18"/>
     </row>
     <row r="96" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6888,13 +6897,13 @@
       <c r="O97" s="18"/>
     </row>
     <row r="98" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="211">
+      <c r="A98" s="212">
         <v>45089</v>
       </c>
-      <c r="B98" s="212" t="s">
+      <c r="B98" s="213" t="s">
         <v>336</v>
       </c>
-      <c r="C98" s="212" t="s">
+      <c r="C98" s="213" t="s">
         <v>294</v>
       </c>
       <c r="D98" s="115" t="s">
@@ -6903,10 +6912,10 @@
       <c r="E98" s="115">
         <v>1</v>
       </c>
-      <c r="F98" s="212" t="s">
+      <c r="F98" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="G98" s="212" t="s">
+      <c r="G98" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H98" s="62"/>
@@ -6919,17 +6928,17 @@
       <c r="O98" s="63"/>
     </row>
     <row r="99" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="211"/>
-      <c r="B99" s="212"/>
-      <c r="C99" s="212"/>
+      <c r="A99" s="212"/>
+      <c r="B99" s="213"/>
+      <c r="C99" s="213"/>
       <c r="D99" s="115" t="s">
         <v>338</v>
       </c>
       <c r="E99" s="115">
         <v>1</v>
       </c>
-      <c r="F99" s="212"/>
-      <c r="G99" s="212"/>
+      <c r="F99" s="213"/>
+      <c r="G99" s="213"/>
       <c r="H99" s="20"/>
       <c r="I99" s="123">
         <v>45101</v>
@@ -6991,13 +7000,13 @@
         <v>159</v>
       </c>
       <c r="H101" s="20"/>
-      <c r="I101" s="211">
+      <c r="I101" s="212">
         <v>45122</v>
       </c>
-      <c r="J101" s="212" t="s">
+      <c r="J101" s="213" t="s">
         <v>399</v>
       </c>
-      <c r="K101" s="212" t="s">
+      <c r="K101" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L101" s="100" t="s">
@@ -7006,7 +7015,7 @@
       <c r="M101" s="131">
         <v>10</v>
       </c>
-      <c r="N101" s="212" t="s">
+      <c r="N101" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O101" s="18"/>
@@ -7020,26 +7029,26 @@
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
       <c r="H102" s="20"/>
-      <c r="I102" s="211"/>
-      <c r="J102" s="212"/>
-      <c r="K102" s="212"/>
+      <c r="I102" s="212"/>
+      <c r="J102" s="213"/>
+      <c r="K102" s="213"/>
       <c r="L102" s="131" t="s">
         <v>185</v>
       </c>
       <c r="M102" s="131">
         <v>10</v>
       </c>
-      <c r="N102" s="212"/>
+      <c r="N102" s="213"/>
       <c r="O102" s="18"/>
     </row>
     <row r="103" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="211">
+      <c r="A103" s="212">
         <v>45090</v>
       </c>
-      <c r="B103" s="212" t="s">
+      <c r="B103" s="213" t="s">
         <v>330</v>
       </c>
-      <c r="C103" s="212" t="s">
+      <c r="C103" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D103" s="115" t="s">
@@ -7048,10 +7057,10 @@
       <c r="E103" s="115">
         <v>10</v>
       </c>
-      <c r="F103" s="212" t="s">
+      <c r="F103" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="G103" s="212" t="s">
+      <c r="G103" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H103" s="64"/>
@@ -7064,17 +7073,17 @@
       <c r="O103" s="63"/>
     </row>
     <row r="104" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="211"/>
-      <c r="B104" s="212"/>
-      <c r="C104" s="212"/>
+      <c r="A104" s="212"/>
+      <c r="B104" s="213"/>
+      <c r="C104" s="213"/>
       <c r="D104" s="115" t="s">
         <v>172</v>
       </c>
       <c r="E104" s="115">
         <v>8</v>
       </c>
-      <c r="F104" s="212"/>
-      <c r="G104" s="212"/>
+      <c r="F104" s="213"/>
+      <c r="G104" s="213"/>
       <c r="H104" s="52"/>
       <c r="I104" s="130">
         <v>45122</v>
@@ -7097,17 +7106,17 @@
       <c r="O104" s="18"/>
     </row>
     <row r="105" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="211"/>
-      <c r="B105" s="212"/>
-      <c r="C105" s="212"/>
+      <c r="A105" s="212"/>
+      <c r="B105" s="213"/>
+      <c r="C105" s="213"/>
       <c r="D105" s="115" t="s">
         <v>174</v>
       </c>
       <c r="E105" s="115">
         <v>10</v>
       </c>
-      <c r="F105" s="212"/>
-      <c r="G105" s="212"/>
+      <c r="F105" s="213"/>
+      <c r="G105" s="213"/>
       <c r="H105" s="64"/>
       <c r="I105" s="53"/>
       <c r="J105" s="21"/>
@@ -7118,25 +7127,25 @@
       <c r="O105" s="63"/>
     </row>
     <row r="106" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="211"/>
-      <c r="B106" s="212"/>
-      <c r="C106" s="212"/>
+      <c r="A106" s="212"/>
+      <c r="B106" s="213"/>
+      <c r="C106" s="213"/>
       <c r="D106" s="115" t="s">
         <v>318</v>
       </c>
       <c r="E106" s="115">
         <v>5</v>
       </c>
-      <c r="F106" s="212"/>
-      <c r="G106" s="212"/>
+      <c r="F106" s="213"/>
+      <c r="G106" s="213"/>
       <c r="H106" s="64"/>
-      <c r="I106" s="211">
+      <c r="I106" s="212">
         <v>45143</v>
       </c>
-      <c r="J106" s="212" t="s">
+      <c r="J106" s="213" t="s">
         <v>430</v>
       </c>
-      <c r="K106" s="212" t="s">
+      <c r="K106" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L106" s="167" t="s">
@@ -7145,34 +7154,34 @@
       <c r="M106" s="167">
         <v>10</v>
       </c>
-      <c r="N106" s="212" t="s">
+      <c r="N106" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O106" s="63"/>
     </row>
     <row r="107" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="211"/>
-      <c r="B107" s="212"/>
-      <c r="C107" s="212"/>
+      <c r="A107" s="212"/>
+      <c r="B107" s="213"/>
+      <c r="C107" s="213"/>
       <c r="D107" s="115" t="s">
         <v>339</v>
       </c>
       <c r="E107" s="115">
         <v>10</v>
       </c>
-      <c r="F107" s="212"/>
-      <c r="G107" s="212"/>
+      <c r="F107" s="213"/>
+      <c r="G107" s="213"/>
       <c r="H107" s="52"/>
-      <c r="I107" s="211"/>
-      <c r="J107" s="212"/>
-      <c r="K107" s="212"/>
+      <c r="I107" s="212"/>
+      <c r="J107" s="213"/>
+      <c r="K107" s="213"/>
       <c r="L107" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M107" s="167">
         <v>10</v>
       </c>
-      <c r="N107" s="212"/>
+      <c r="N107" s="213"/>
       <c r="O107" s="18"/>
     </row>
     <row r="108" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -7184,26 +7193,26 @@
       <c r="F108" s="65"/>
       <c r="G108" s="65"/>
       <c r="H108" s="52"/>
-      <c r="I108" s="211"/>
-      <c r="J108" s="212"/>
-      <c r="K108" s="212"/>
+      <c r="I108" s="212"/>
+      <c r="J108" s="213"/>
+      <c r="K108" s="213"/>
       <c r="L108" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M108" s="167">
         <v>10</v>
       </c>
-      <c r="N108" s="212"/>
+      <c r="N108" s="213"/>
       <c r="O108" s="18"/>
     </row>
     <row r="109" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="211">
+      <c r="A109" s="212">
         <v>45093</v>
       </c>
-      <c r="B109" s="212" t="s">
+      <c r="B109" s="213" t="s">
         <v>357</v>
       </c>
-      <c r="C109" s="212" t="s">
+      <c r="C109" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D109" s="117" t="s">
@@ -7212,87 +7221,87 @@
       <c r="E109" s="117">
         <v>10</v>
       </c>
-      <c r="F109" s="212" t="s">
+      <c r="F109" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G109" s="212" t="s">
+      <c r="G109" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H109" s="20"/>
-      <c r="I109" s="211"/>
-      <c r="J109" s="212"/>
-      <c r="K109" s="212"/>
+      <c r="I109" s="212"/>
+      <c r="J109" s="213"/>
+      <c r="K109" s="213"/>
       <c r="L109" s="167" t="s">
         <v>185</v>
       </c>
       <c r="M109" s="167">
         <v>10</v>
       </c>
-      <c r="N109" s="212"/>
+      <c r="N109" s="213"/>
       <c r="O109" s="18"/>
     </row>
     <row r="110" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="211"/>
-      <c r="B110" s="212"/>
-      <c r="C110" s="212"/>
+      <c r="A110" s="212"/>
+      <c r="B110" s="213"/>
+      <c r="C110" s="213"/>
       <c r="D110" s="117" t="s">
         <v>171</v>
       </c>
       <c r="E110" s="117">
         <v>10</v>
       </c>
-      <c r="F110" s="212"/>
-      <c r="G110" s="212"/>
+      <c r="F110" s="213"/>
+      <c r="G110" s="213"/>
       <c r="H110" s="20"/>
-      <c r="I110" s="211"/>
-      <c r="J110" s="212"/>
-      <c r="K110" s="212"/>
+      <c r="I110" s="212"/>
+      <c r="J110" s="213"/>
+      <c r="K110" s="213"/>
       <c r="L110" s="167" t="s">
         <v>284</v>
       </c>
       <c r="M110" s="167">
         <v>10</v>
       </c>
-      <c r="N110" s="212"/>
+      <c r="N110" s="213"/>
       <c r="O110" s="18"/>
     </row>
     <row r="111" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="211"/>
-      <c r="B111" s="212"/>
-      <c r="C111" s="212"/>
+      <c r="A111" s="212"/>
+      <c r="B111" s="213"/>
+      <c r="C111" s="213"/>
       <c r="D111" s="117" t="s">
         <v>172</v>
       </c>
       <c r="E111" s="117">
         <v>12</v>
       </c>
-      <c r="F111" s="212"/>
-      <c r="G111" s="212"/>
+      <c r="F111" s="213"/>
+      <c r="G111" s="213"/>
       <c r="H111" s="20"/>
-      <c r="I111" s="211"/>
-      <c r="J111" s="212"/>
-      <c r="K111" s="212"/>
+      <c r="I111" s="212"/>
+      <c r="J111" s="213"/>
+      <c r="K111" s="213"/>
       <c r="L111" s="167" t="s">
         <v>728</v>
       </c>
       <c r="M111" s="167">
         <v>30</v>
       </c>
-      <c r="N111" s="212"/>
+      <c r="N111" s="213"/>
       <c r="O111" s="18"/>
     </row>
     <row r="112" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="211"/>
-      <c r="B112" s="212"/>
-      <c r="C112" s="212"/>
+      <c r="A112" s="212"/>
+      <c r="B112" s="213"/>
+      <c r="C112" s="213"/>
       <c r="D112" s="117" t="s">
         <v>291</v>
       </c>
       <c r="E112" s="117">
         <v>10</v>
       </c>
-      <c r="F112" s="212"/>
-      <c r="G112" s="212"/>
+      <c r="F112" s="213"/>
+      <c r="G112" s="213"/>
       <c r="H112" s="62"/>
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
@@ -7311,13 +7320,13 @@
       <c r="F113" s="21"/>
       <c r="G113" s="21"/>
       <c r="H113" s="52"/>
-      <c r="I113" s="211">
+      <c r="I113" s="212">
         <v>45148</v>
       </c>
-      <c r="J113" s="212" t="s">
+      <c r="J113" s="213" t="s">
         <v>437</v>
       </c>
-      <c r="K113" s="212" t="s">
+      <c r="K113" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L113" s="167" t="s">
@@ -7326,7 +7335,7 @@
       <c r="M113" s="167">
         <v>16</v>
       </c>
-      <c r="N113" s="212" t="s">
+      <c r="N113" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O113" s="18"/>
@@ -7354,16 +7363,16 @@
         <v>159</v>
       </c>
       <c r="H114" s="20"/>
-      <c r="I114" s="211"/>
-      <c r="J114" s="212"/>
-      <c r="K114" s="212"/>
+      <c r="I114" s="212"/>
+      <c r="J114" s="213"/>
+      <c r="K114" s="213"/>
       <c r="L114" s="167" t="s">
         <v>190</v>
       </c>
       <c r="M114" s="167">
         <v>20</v>
       </c>
-      <c r="N114" s="212"/>
+      <c r="N114" s="213"/>
       <c r="O114" s="18"/>
     </row>
     <row r="115" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -7375,16 +7384,16 @@
       <c r="F115" s="65"/>
       <c r="G115" s="65"/>
       <c r="H115" s="52"/>
-      <c r="I115" s="211"/>
-      <c r="J115" s="212"/>
-      <c r="K115" s="212"/>
+      <c r="I115" s="212"/>
+      <c r="J115" s="213"/>
+      <c r="K115" s="213"/>
       <c r="L115" s="167" t="s">
         <v>191</v>
       </c>
       <c r="M115" s="167">
         <v>140</v>
       </c>
-      <c r="N115" s="212"/>
+      <c r="N115" s="213"/>
       <c r="O115" s="18"/>
     </row>
     <row r="116" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
@@ -7427,13 +7436,13 @@
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
       <c r="H117" s="52"/>
-      <c r="I117" s="211">
+      <c r="I117" s="212">
         <v>45156</v>
       </c>
-      <c r="J117" s="212" t="s">
+      <c r="J117" s="213" t="s">
         <v>448</v>
       </c>
-      <c r="K117" s="212" t="s">
+      <c r="K117" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L117" s="167" t="s">
@@ -7442,19 +7451,19 @@
       <c r="M117" s="167">
         <v>14</v>
       </c>
-      <c r="N117" s="212" t="s">
+      <c r="N117" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O117" s="18"/>
     </row>
     <row r="118" spans="1:15" s="122" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="211">
+      <c r="A118" s="212">
         <v>45119</v>
       </c>
-      <c r="B118" s="212" t="s">
+      <c r="B118" s="213" t="s">
         <v>387</v>
       </c>
-      <c r="C118" s="212" t="s">
+      <c r="C118" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D118" s="128" t="s">
@@ -7463,48 +7472,48 @@
       <c r="E118" s="128">
         <v>8</v>
       </c>
-      <c r="F118" s="212" t="s">
+      <c r="F118" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="G118" s="212" t="s">
+      <c r="G118" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H118" s="20"/>
-      <c r="I118" s="211"/>
-      <c r="J118" s="212"/>
-      <c r="K118" s="212"/>
+      <c r="I118" s="212"/>
+      <c r="J118" s="213"/>
+      <c r="K118" s="213"/>
       <c r="L118" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M118" s="167">
         <v>10</v>
       </c>
-      <c r="N118" s="212"/>
+      <c r="N118" s="213"/>
       <c r="O118" s="18"/>
     </row>
     <row r="119" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="211"/>
-      <c r="B119" s="212"/>
-      <c r="C119" s="212"/>
+      <c r="A119" s="212"/>
+      <c r="B119" s="213"/>
+      <c r="C119" s="213"/>
       <c r="D119" s="128" t="s">
         <v>205</v>
       </c>
       <c r="E119" s="128">
         <v>4</v>
       </c>
-      <c r="F119" s="212"/>
-      <c r="G119" s="212"/>
+      <c r="F119" s="213"/>
+      <c r="G119" s="213"/>
       <c r="H119" s="20"/>
-      <c r="I119" s="211"/>
-      <c r="J119" s="212"/>
-      <c r="K119" s="212"/>
+      <c r="I119" s="212"/>
+      <c r="J119" s="213"/>
+      <c r="K119" s="213"/>
       <c r="L119" s="167" t="s">
         <v>191</v>
       </c>
       <c r="M119" s="167">
         <v>10</v>
       </c>
-      <c r="N119" s="212"/>
+      <c r="N119" s="213"/>
       <c r="O119" s="18"/>
     </row>
     <row r="120" spans="1:15" s="122" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7525,13 +7534,13 @@
       <c r="O120" s="63"/>
     </row>
     <row r="121" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="211">
+      <c r="A121" s="212">
         <v>45121</v>
       </c>
-      <c r="B121" s="212" t="s">
+      <c r="B121" s="213" t="s">
         <v>392</v>
       </c>
-      <c r="C121" s="212" t="s">
+      <c r="C121" s="213" t="s">
         <v>326</v>
       </c>
       <c r="D121" s="129" t="s">
@@ -7540,10 +7549,10 @@
       <c r="E121" s="129">
         <v>2</v>
       </c>
-      <c r="F121" s="212" t="s">
+      <c r="F121" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G121" s="212" t="s">
+      <c r="G121" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H121" s="20"/>
@@ -7568,17 +7577,17 @@
       <c r="O121" s="18"/>
     </row>
     <row r="122" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="211"/>
-      <c r="B122" s="212"/>
-      <c r="C122" s="212"/>
+      <c r="A122" s="212"/>
+      <c r="B122" s="213"/>
+      <c r="C122" s="213"/>
       <c r="D122" s="129" t="s">
         <v>395</v>
       </c>
       <c r="E122" s="129">
         <v>2</v>
       </c>
-      <c r="F122" s="212"/>
-      <c r="G122" s="212"/>
+      <c r="F122" s="213"/>
+      <c r="G122" s="213"/>
       <c r="H122" s="62"/>
       <c r="I122" s="53"/>
       <c r="J122" s="21"/>
@@ -7666,13 +7675,13 @@
       <c r="O125" s="63"/>
     </row>
     <row r="126" spans="1:15" s="122" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="211">
+      <c r="A126" s="212">
         <v>45142</v>
       </c>
-      <c r="B126" s="212" t="s">
+      <c r="B126" s="213" t="s">
         <v>425</v>
       </c>
-      <c r="C126" s="212" t="s">
+      <c r="C126" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D126" s="135" t="s">
@@ -7681,68 +7690,68 @@
       <c r="E126" s="135">
         <v>10</v>
       </c>
-      <c r="F126" s="212" t="s">
+      <c r="F126" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="G126" s="212" t="s">
+      <c r="G126" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H126" s="20"/>
-      <c r="I126" s="211">
+      <c r="I126" s="212">
         <v>45190</v>
       </c>
-      <c r="J126" s="212" t="s">
+      <c r="J126" s="213" t="s">
         <v>491</v>
       </c>
-      <c r="K126" s="212" t="s">
+      <c r="K126" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L126" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="M126" s="218">
+      <c r="M126" s="219">
         <v>10</v>
       </c>
-      <c r="N126" s="212" t="s">
+      <c r="N126" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O126" s="18"/>
     </row>
     <row r="127" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="211"/>
-      <c r="B127" s="212"/>
-      <c r="C127" s="212"/>
+      <c r="A127" s="212"/>
+      <c r="B127" s="213"/>
+      <c r="C127" s="213"/>
       <c r="D127" s="135" t="s">
         <v>171</v>
       </c>
       <c r="E127" s="135">
         <v>10</v>
       </c>
-      <c r="F127" s="212"/>
-      <c r="G127" s="212"/>
+      <c r="F127" s="213"/>
+      <c r="G127" s="213"/>
       <c r="H127" s="20"/>
-      <c r="I127" s="211"/>
-      <c r="J127" s="212"/>
-      <c r="K127" s="212"/>
+      <c r="I127" s="212"/>
+      <c r="J127" s="213"/>
+      <c r="K127" s="213"/>
       <c r="L127" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="M127" s="218"/>
-      <c r="N127" s="212"/>
+      <c r="M127" s="219"/>
+      <c r="N127" s="213"/>
       <c r="O127" s="18"/>
     </row>
     <row r="128" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="211"/>
-      <c r="B128" s="212"/>
-      <c r="C128" s="212"/>
+      <c r="A128" s="212"/>
+      <c r="B128" s="213"/>
+      <c r="C128" s="213"/>
       <c r="D128" s="135" t="s">
         <v>291</v>
       </c>
       <c r="E128" s="135">
         <v>10</v>
       </c>
-      <c r="F128" s="212"/>
-      <c r="G128" s="212"/>
+      <c r="F128" s="213"/>
+      <c r="G128" s="213"/>
       <c r="H128" s="62"/>
       <c r="I128" s="53"/>
       <c r="J128" s="21"/>
@@ -7753,17 +7762,17 @@
       <c r="O128" s="63"/>
     </row>
     <row r="129" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="211"/>
-      <c r="B129" s="212"/>
-      <c r="C129" s="212"/>
+      <c r="A129" s="212"/>
+      <c r="B129" s="213"/>
+      <c r="C129" s="213"/>
       <c r="D129" s="135" t="s">
         <v>205</v>
       </c>
       <c r="E129" s="135">
         <v>10</v>
       </c>
-      <c r="F129" s="212"/>
-      <c r="G129" s="212"/>
+      <c r="F129" s="213"/>
+      <c r="G129" s="213"/>
       <c r="H129" s="20"/>
       <c r="I129" s="170">
         <v>45199</v>
@@ -7825,13 +7834,13 @@
         <v>176</v>
       </c>
       <c r="H131" s="20"/>
-      <c r="I131" s="211">
+      <c r="I131" s="212">
         <v>45211</v>
       </c>
-      <c r="J131" s="212" t="s">
+      <c r="J131" s="213" t="s">
         <v>546</v>
       </c>
-      <c r="K131" s="212" t="s">
+      <c r="K131" s="213" t="s">
         <v>132</v>
       </c>
       <c r="L131" s="172" t="s">
@@ -7840,7 +7849,7 @@
       <c r="M131" s="172">
         <v>4</v>
       </c>
-      <c r="N131" s="212" t="s">
+      <c r="N131" s="213" t="s">
         <v>472</v>
       </c>
       <c r="O131" s="18"/>
@@ -7854,16 +7863,16 @@
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
       <c r="H132" s="52"/>
-      <c r="I132" s="211"/>
-      <c r="J132" s="212"/>
-      <c r="K132" s="212"/>
+      <c r="I132" s="212"/>
+      <c r="J132" s="213"/>
+      <c r="K132" s="213"/>
       <c r="L132" s="172" t="s">
         <v>742</v>
       </c>
       <c r="M132" s="172">
         <v>12</v>
       </c>
-      <c r="N132" s="212"/>
+      <c r="N132" s="213"/>
       <c r="O132" s="18"/>
     </row>
     <row r="133" spans="1:15" s="122" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -7889,16 +7898,16 @@
         <v>159</v>
       </c>
       <c r="H133" s="20"/>
-      <c r="I133" s="211"/>
-      <c r="J133" s="212"/>
-      <c r="K133" s="212"/>
+      <c r="I133" s="212"/>
+      <c r="J133" s="213"/>
+      <c r="K133" s="213"/>
       <c r="L133" s="172" t="s">
         <v>743</v>
       </c>
       <c r="M133" s="172">
         <v>4</v>
       </c>
-      <c r="N133" s="212"/>
+      <c r="N133" s="213"/>
       <c r="O133" s="18"/>
     </row>
     <row r="134" spans="1:15" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -7910,16 +7919,16 @@
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
       <c r="H134" s="52"/>
-      <c r="I134" s="211"/>
-      <c r="J134" s="212"/>
-      <c r="K134" s="212"/>
+      <c r="I134" s="212"/>
+      <c r="J134" s="213"/>
+      <c r="K134" s="213"/>
       <c r="L134" s="172" t="s">
         <v>744</v>
       </c>
       <c r="M134" s="172">
         <v>1</v>
       </c>
-      <c r="N134" s="212"/>
+      <c r="N134" s="213"/>
       <c r="O134" s="18"/>
     </row>
     <row r="135" spans="1:15" s="122" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7931,16 +7940,16 @@
       <c r="F135" s="137"/>
       <c r="G135" s="137"/>
       <c r="H135" s="20"/>
-      <c r="I135" s="211"/>
-      <c r="J135" s="212"/>
-      <c r="K135" s="212"/>
+      <c r="I135" s="212"/>
+      <c r="J135" s="213"/>
+      <c r="K135" s="213"/>
       <c r="L135" s="172" t="s">
         <v>745</v>
       </c>
       <c r="M135" s="172">
         <v>1</v>
       </c>
-      <c r="N135" s="212"/>
+      <c r="N135" s="213"/>
       <c r="O135" s="18"/>
     </row>
     <row r="136" spans="1:15" s="122" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
@@ -7966,16 +7975,16 @@
         <v>159</v>
       </c>
       <c r="H136" s="20"/>
-      <c r="I136" s="211"/>
-      <c r="J136" s="212"/>
-      <c r="K136" s="212"/>
+      <c r="I136" s="212"/>
+      <c r="J136" s="213"/>
+      <c r="K136" s="213"/>
       <c r="L136" s="172" t="s">
         <v>746</v>
       </c>
       <c r="M136" s="172">
         <v>4</v>
       </c>
-      <c r="N136" s="212"/>
+      <c r="N136" s="213"/>
       <c r="O136" s="18"/>
     </row>
     <row r="137" spans="1:15" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -7987,16 +7996,16 @@
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
       <c r="H137" s="52"/>
-      <c r="I137" s="211"/>
-      <c r="J137" s="212"/>
-      <c r="K137" s="212"/>
+      <c r="I137" s="212"/>
+      <c r="J137" s="213"/>
+      <c r="K137" s="213"/>
       <c r="L137" s="172" t="s">
         <v>747</v>
       </c>
       <c r="M137" s="172">
         <v>2</v>
       </c>
-      <c r="N137" s="212"/>
+      <c r="N137" s="213"/>
       <c r="O137" s="18"/>
     </row>
     <row r="138" spans="1:15" s="122" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -8022,16 +8031,16 @@
         <v>159</v>
       </c>
       <c r="H138" s="52"/>
-      <c r="I138" s="211"/>
-      <c r="J138" s="212"/>
-      <c r="K138" s="212"/>
+      <c r="I138" s="212"/>
+      <c r="J138" s="213"/>
+      <c r="K138" s="213"/>
       <c r="L138" s="172" t="s">
         <v>748</v>
       </c>
       <c r="M138" s="172">
         <v>8</v>
       </c>
-      <c r="N138" s="212"/>
+      <c r="N138" s="213"/>
       <c r="O138" s="18"/>
     </row>
     <row r="139" spans="1:15" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8043,26 +8052,26 @@
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
       <c r="H139" s="52"/>
-      <c r="I139" s="211"/>
-      <c r="J139" s="212"/>
-      <c r="K139" s="212"/>
+      <c r="I139" s="212"/>
+      <c r="J139" s="213"/>
+      <c r="K139" s="213"/>
       <c r="L139" s="172" t="s">
         <v>749</v>
       </c>
       <c r="M139" s="172">
         <v>2</v>
       </c>
-      <c r="N139" s="212"/>
+      <c r="N139" s="213"/>
       <c r="O139" s="18"/>
     </row>
     <row r="140" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="211">
+      <c r="A140" s="212">
         <v>45154</v>
       </c>
-      <c r="B140" s="212" t="s">
+      <c r="B140" s="213" t="s">
         <v>439</v>
       </c>
-      <c r="C140" s="212" t="s">
+      <c r="C140" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D140" s="141" t="s">
@@ -8071,48 +8080,48 @@
       <c r="E140" s="141">
         <v>10</v>
       </c>
-      <c r="F140" s="212" t="s">
+      <c r="F140" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G140" s="212" t="s">
+      <c r="G140" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H140" s="52"/>
-      <c r="I140" s="211"/>
-      <c r="J140" s="212"/>
-      <c r="K140" s="212"/>
+      <c r="I140" s="212"/>
+      <c r="J140" s="213"/>
+      <c r="K140" s="213"/>
       <c r="L140" s="172" t="s">
         <v>750</v>
       </c>
       <c r="M140" s="172">
         <v>1</v>
       </c>
-      <c r="N140" s="212"/>
+      <c r="N140" s="213"/>
       <c r="O140" s="18"/>
     </row>
     <row r="141" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="211"/>
-      <c r="B141" s="212"/>
-      <c r="C141" s="212"/>
+      <c r="A141" s="212"/>
+      <c r="B141" s="213"/>
+      <c r="C141" s="213"/>
       <c r="D141" s="141" t="s">
         <v>174</v>
       </c>
       <c r="E141" s="141">
         <v>10</v>
       </c>
-      <c r="F141" s="212"/>
-      <c r="G141" s="212"/>
+      <c r="F141" s="213"/>
+      <c r="G141" s="213"/>
       <c r="H141" s="52"/>
-      <c r="I141" s="211"/>
-      <c r="J141" s="212"/>
-      <c r="K141" s="212"/>
+      <c r="I141" s="212"/>
+      <c r="J141" s="213"/>
+      <c r="K141" s="213"/>
       <c r="L141" s="172" t="s">
         <v>751</v>
       </c>
       <c r="M141" s="172">
         <v>4</v>
       </c>
-      <c r="N141" s="212"/>
+      <c r="N141" s="213"/>
       <c r="O141" s="18"/>
     </row>
     <row r="142" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8124,16 +8133,16 @@
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
       <c r="H142" s="52"/>
-      <c r="I142" s="211"/>
-      <c r="J142" s="212"/>
-      <c r="K142" s="212"/>
+      <c r="I142" s="212"/>
+      <c r="J142" s="213"/>
+      <c r="K142" s="213"/>
       <c r="L142" s="172" t="s">
         <v>752</v>
       </c>
       <c r="M142" s="172">
         <v>1</v>
       </c>
-      <c r="N142" s="212"/>
+      <c r="N142" s="213"/>
       <c r="O142" s="18"/>
     </row>
     <row r="143" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8159,16 +8168,16 @@
         <v>159</v>
       </c>
       <c r="H143" s="20"/>
-      <c r="I143" s="211"/>
-      <c r="J143" s="212"/>
-      <c r="K143" s="212"/>
+      <c r="I143" s="212"/>
+      <c r="J143" s="213"/>
+      <c r="K143" s="213"/>
       <c r="L143" s="172" t="s">
         <v>753</v>
       </c>
       <c r="M143" s="172">
         <v>6</v>
       </c>
-      <c r="N143" s="212"/>
+      <c r="N143" s="213"/>
       <c r="O143" s="18"/>
     </row>
     <row r="144" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8180,16 +8189,16 @@
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
       <c r="H144" s="54"/>
-      <c r="I144" s="211"/>
-      <c r="J144" s="212"/>
-      <c r="K144" s="212"/>
+      <c r="I144" s="212"/>
+      <c r="J144" s="213"/>
+      <c r="K144" s="213"/>
       <c r="L144" s="172" t="s">
         <v>754</v>
       </c>
       <c r="M144" s="172">
         <v>36</v>
       </c>
-      <c r="N144" s="212"/>
+      <c r="N144" s="213"/>
       <c r="O144" s="18"/>
     </row>
     <row r="145" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8215,16 +8224,16 @@
         <v>159</v>
       </c>
       <c r="H145" s="20"/>
-      <c r="I145" s="211"/>
-      <c r="J145" s="212"/>
-      <c r="K145" s="212"/>
+      <c r="I145" s="212"/>
+      <c r="J145" s="213"/>
+      <c r="K145" s="213"/>
       <c r="L145" s="169" t="s">
         <v>755</v>
       </c>
       <c r="M145" s="172">
         <v>60</v>
       </c>
-      <c r="N145" s="212"/>
+      <c r="N145" s="213"/>
       <c r="O145" s="18"/>
     </row>
     <row r="146" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8236,16 +8245,16 @@
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
       <c r="H146" s="54"/>
-      <c r="I146" s="211"/>
-      <c r="J146" s="212"/>
-      <c r="K146" s="212"/>
+      <c r="I146" s="212"/>
+      <c r="J146" s="213"/>
+      <c r="K146" s="213"/>
       <c r="L146" s="172" t="s">
         <v>756</v>
       </c>
       <c r="M146" s="172">
         <v>1</v>
       </c>
-      <c r="N146" s="212"/>
+      <c r="N146" s="213"/>
       <c r="O146" s="18"/>
     </row>
     <row r="147" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8271,16 +8280,16 @@
         <v>159</v>
       </c>
       <c r="H147" s="20"/>
-      <c r="I147" s="211"/>
-      <c r="J147" s="212"/>
-      <c r="K147" s="212"/>
+      <c r="I147" s="212"/>
+      <c r="J147" s="213"/>
+      <c r="K147" s="213"/>
       <c r="L147" s="172" t="s">
         <v>757</v>
       </c>
       <c r="M147" s="172">
         <v>36</v>
       </c>
-      <c r="N147" s="212"/>
+      <c r="N147" s="213"/>
       <c r="O147" s="18"/>
     </row>
     <row r="148" spans="1:15" s="48" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -8292,16 +8301,16 @@
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
       <c r="H148" s="52"/>
-      <c r="I148" s="211"/>
-      <c r="J148" s="212"/>
-      <c r="K148" s="212"/>
+      <c r="I148" s="212"/>
+      <c r="J148" s="213"/>
+      <c r="K148" s="213"/>
       <c r="L148" s="172" t="s">
         <v>758</v>
       </c>
       <c r="M148" s="172">
         <v>3189</v>
       </c>
-      <c r="N148" s="212"/>
+      <c r="N148" s="213"/>
       <c r="O148" s="18"/>
     </row>
     <row r="149" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8327,16 +8336,16 @@
         <v>472</v>
       </c>
       <c r="H149" s="20"/>
-      <c r="I149" s="211"/>
-      <c r="J149" s="212"/>
-      <c r="K149" s="212"/>
+      <c r="I149" s="212"/>
+      <c r="J149" s="213"/>
+      <c r="K149" s="213"/>
       <c r="L149" s="172" t="s">
         <v>759</v>
       </c>
       <c r="M149" s="172">
         <v>4</v>
       </c>
-      <c r="N149" s="212"/>
+      <c r="N149" s="213"/>
       <c r="O149" s="18"/>
     </row>
     <row r="150" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8348,16 +8357,16 @@
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
       <c r="H150" s="52"/>
-      <c r="I150" s="211"/>
-      <c r="J150" s="212"/>
-      <c r="K150" s="212"/>
+      <c r="I150" s="212"/>
+      <c r="J150" s="213"/>
+      <c r="K150" s="213"/>
       <c r="L150" s="172" t="s">
         <v>760</v>
       </c>
       <c r="M150" s="172">
         <v>2</v>
       </c>
-      <c r="N150" s="212"/>
+      <c r="N150" s="213"/>
       <c r="O150" s="18"/>
     </row>
     <row r="151" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8383,16 +8392,16 @@
         <v>159</v>
       </c>
       <c r="H151" s="52"/>
-      <c r="I151" s="211"/>
-      <c r="J151" s="212"/>
-      <c r="K151" s="212"/>
+      <c r="I151" s="212"/>
+      <c r="J151" s="213"/>
+      <c r="K151" s="213"/>
       <c r="L151" s="172" t="s">
         <v>761</v>
       </c>
       <c r="M151" s="172">
         <v>60</v>
       </c>
-      <c r="N151" s="212"/>
+      <c r="N151" s="213"/>
       <c r="O151" s="18"/>
     </row>
     <row r="152" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8404,16 +8413,16 @@
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
       <c r="H152" s="52"/>
-      <c r="I152" s="211"/>
-      <c r="J152" s="212"/>
-      <c r="K152" s="212"/>
+      <c r="I152" s="212"/>
+      <c r="J152" s="213"/>
+      <c r="K152" s="213"/>
       <c r="L152" s="172" t="s">
         <v>762</v>
       </c>
       <c r="M152" s="172">
         <v>10</v>
       </c>
-      <c r="N152" s="212"/>
+      <c r="N152" s="213"/>
       <c r="O152" s="18"/>
     </row>
     <row r="153" spans="1:15" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8439,16 +8448,16 @@
         <v>159</v>
       </c>
       <c r="H153" s="52"/>
-      <c r="I153" s="211"/>
-      <c r="J153" s="212"/>
-      <c r="K153" s="212"/>
+      <c r="I153" s="212"/>
+      <c r="J153" s="213"/>
+      <c r="K153" s="213"/>
       <c r="L153" s="172" t="s">
         <v>763</v>
       </c>
       <c r="M153" s="172">
         <v>21</v>
       </c>
-      <c r="N153" s="212"/>
+      <c r="N153" s="213"/>
       <c r="O153" s="18"/>
     </row>
     <row r="154" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8491,13 +8500,13 @@
         <v>159</v>
       </c>
       <c r="H155" s="52"/>
-      <c r="I155" s="211">
+      <c r="I155" s="212">
         <v>45233</v>
       </c>
-      <c r="J155" s="212" t="s">
+      <c r="J155" s="213" t="s">
         <v>562</v>
       </c>
-      <c r="K155" s="212" t="s">
+      <c r="K155" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L155" s="169" t="s">
@@ -8506,7 +8515,7 @@
       <c r="M155" s="169">
         <v>2</v>
       </c>
-      <c r="N155" s="212" t="s">
+      <c r="N155" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O155" s="18"/>
@@ -8520,16 +8529,16 @@
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
       <c r="H156" s="52"/>
-      <c r="I156" s="211"/>
-      <c r="J156" s="212"/>
-      <c r="K156" s="212"/>
+      <c r="I156" s="212"/>
+      <c r="J156" s="213"/>
+      <c r="K156" s="213"/>
       <c r="L156" s="169" t="s">
         <v>765</v>
       </c>
       <c r="M156" s="169">
         <v>2</v>
       </c>
-      <c r="N156" s="212"/>
+      <c r="N156" s="213"/>
       <c r="O156" s="18"/>
     </row>
     <row r="157" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8572,13 +8581,13 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
       <c r="H158" s="52"/>
-      <c r="I158" s="211">
+      <c r="I158" s="212">
         <v>45233</v>
       </c>
-      <c r="J158" s="212" t="s">
+      <c r="J158" s="213" t="s">
         <v>561</v>
       </c>
-      <c r="K158" s="212" t="s">
+      <c r="K158" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L158" s="169" t="s">
@@ -8587,7 +8596,7 @@
       <c r="M158" s="169">
         <v>20</v>
       </c>
-      <c r="N158" s="212" t="s">
+      <c r="N158" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O158" s="18"/>
@@ -8615,16 +8624,16 @@
         <v>159</v>
       </c>
       <c r="H159" s="20"/>
-      <c r="I159" s="211"/>
-      <c r="J159" s="212"/>
-      <c r="K159" s="212"/>
+      <c r="I159" s="212"/>
+      <c r="J159" s="213"/>
+      <c r="K159" s="213"/>
       <c r="L159" s="169" t="s">
         <v>191</v>
       </c>
       <c r="M159" s="169">
         <v>100</v>
       </c>
-      <c r="N159" s="212"/>
+      <c r="N159" s="213"/>
       <c r="O159" s="18"/>
     </row>
     <row r="160" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8636,16 +8645,16 @@
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
       <c r="H160" s="52"/>
-      <c r="I160" s="211"/>
-      <c r="J160" s="212"/>
-      <c r="K160" s="212"/>
+      <c r="I160" s="212"/>
+      <c r="J160" s="213"/>
+      <c r="K160" s="213"/>
       <c r="L160" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M160" s="169">
         <v>5</v>
       </c>
-      <c r="N160" s="212"/>
+      <c r="N160" s="213"/>
       <c r="O160" s="18"/>
     </row>
     <row r="161" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8671,16 +8680,16 @@
         <v>159</v>
       </c>
       <c r="H161" s="20"/>
-      <c r="I161" s="211"/>
-      <c r="J161" s="212"/>
-      <c r="K161" s="212"/>
+      <c r="I161" s="212"/>
+      <c r="J161" s="213"/>
+      <c r="K161" s="213"/>
       <c r="L161" s="169" t="s">
         <v>184</v>
       </c>
       <c r="M161" s="169">
         <v>10</v>
       </c>
-      <c r="N161" s="212"/>
+      <c r="N161" s="213"/>
       <c r="O161" s="18"/>
     </row>
     <row r="162" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8692,26 +8701,26 @@
       <c r="F162" s="21"/>
       <c r="G162" s="21"/>
       <c r="H162" s="52"/>
-      <c r="I162" s="211"/>
-      <c r="J162" s="212"/>
-      <c r="K162" s="212"/>
+      <c r="I162" s="212"/>
+      <c r="J162" s="213"/>
+      <c r="K162" s="213"/>
       <c r="L162" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M162" s="169">
         <v>7</v>
       </c>
-      <c r="N162" s="212"/>
+      <c r="N162" s="213"/>
       <c r="O162" s="18"/>
     </row>
     <row r="163" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="211">
+      <c r="A163" s="212">
         <v>45199</v>
       </c>
-      <c r="B163" s="212" t="s">
+      <c r="B163" s="213" t="s">
         <v>506</v>
       </c>
-      <c r="C163" s="212" t="s">
+      <c r="C163" s="213" t="s">
         <v>476</v>
       </c>
       <c r="D163" s="152" t="s">
@@ -8720,48 +8729,48 @@
       <c r="E163" s="152">
         <v>6</v>
       </c>
-      <c r="F163" s="212" t="s">
+      <c r="F163" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G163" s="212" t="s">
+      <c r="G163" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H163" s="20"/>
-      <c r="I163" s="211"/>
-      <c r="J163" s="212"/>
-      <c r="K163" s="212"/>
+      <c r="I163" s="212"/>
+      <c r="J163" s="213"/>
+      <c r="K163" s="213"/>
       <c r="L163" s="169" t="s">
         <v>187</v>
       </c>
       <c r="M163" s="169">
         <v>9</v>
       </c>
-      <c r="N163" s="212"/>
+      <c r="N163" s="213"/>
       <c r="O163" s="18"/>
     </row>
     <row r="164" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="211"/>
-      <c r="B164" s="212"/>
-      <c r="C164" s="212"/>
+      <c r="A164" s="212"/>
+      <c r="B164" s="213"/>
+      <c r="C164" s="213"/>
       <c r="D164" s="152" t="s">
         <v>508</v>
       </c>
       <c r="E164" s="152">
         <v>1</v>
       </c>
-      <c r="F164" s="212"/>
-      <c r="G164" s="212"/>
+      <c r="F164" s="213"/>
+      <c r="G164" s="213"/>
       <c r="H164" s="20"/>
-      <c r="I164" s="211"/>
-      <c r="J164" s="212"/>
-      <c r="K164" s="212"/>
+      <c r="I164" s="212"/>
+      <c r="J164" s="213"/>
+      <c r="K164" s="213"/>
       <c r="L164" s="169" t="s">
         <v>185</v>
       </c>
       <c r="M164" s="169">
         <v>5</v>
       </c>
-      <c r="N164" s="212"/>
+      <c r="N164" s="213"/>
       <c r="O164" s="18"/>
     </row>
     <row r="165" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8782,13 +8791,13 @@
       <c r="O165" s="63"/>
     </row>
     <row r="166" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="211">
+      <c r="A166" s="212">
         <v>45199</v>
       </c>
-      <c r="B166" s="212" t="s">
+      <c r="B166" s="213" t="s">
         <v>510</v>
       </c>
-      <c r="C166" s="212" t="s">
+      <c r="C166" s="213" t="s">
         <v>509</v>
       </c>
       <c r="D166" s="152" t="s">
@@ -8797,20 +8806,20 @@
       <c r="E166" s="152">
         <v>20</v>
       </c>
-      <c r="F166" s="212" t="s">
+      <c r="F166" s="213" t="s">
         <v>140</v>
       </c>
-      <c r="G166" s="212" t="s">
+      <c r="G166" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H166" s="20"/>
-      <c r="I166" s="211">
+      <c r="I166" s="212">
         <v>45239</v>
       </c>
-      <c r="J166" s="212" t="s">
+      <c r="J166" s="213" t="s">
         <v>570</v>
       </c>
-      <c r="K166" s="212" t="s">
+      <c r="K166" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L166" s="100" t="s">
@@ -8819,34 +8828,34 @@
       <c r="M166" s="169">
         <v>5</v>
       </c>
-      <c r="N166" s="212" t="s">
+      <c r="N166" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O166" s="18"/>
     </row>
     <row r="167" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="211"/>
-      <c r="B167" s="212"/>
-      <c r="C167" s="212"/>
+      <c r="A167" s="212"/>
+      <c r="B167" s="213"/>
+      <c r="C167" s="213"/>
       <c r="D167" s="152" t="s">
         <v>512</v>
       </c>
       <c r="E167" s="152">
         <v>20</v>
       </c>
-      <c r="F167" s="212"/>
-      <c r="G167" s="212"/>
+      <c r="F167" s="213"/>
+      <c r="G167" s="213"/>
       <c r="H167" s="20"/>
-      <c r="I167" s="211"/>
-      <c r="J167" s="212"/>
-      <c r="K167" s="212"/>
+      <c r="I167" s="212"/>
+      <c r="J167" s="213"/>
+      <c r="K167" s="213"/>
       <c r="L167" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M167" s="169">
         <v>23</v>
       </c>
-      <c r="N167" s="212"/>
+      <c r="N167" s="213"/>
       <c r="O167" s="18"/>
     </row>
     <row r="168" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8858,26 +8867,26 @@
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
       <c r="H168" s="52"/>
-      <c r="I168" s="211"/>
-      <c r="J168" s="212"/>
-      <c r="K168" s="212"/>
+      <c r="I168" s="212"/>
+      <c r="J168" s="213"/>
+      <c r="K168" s="213"/>
       <c r="L168" s="169" t="s">
         <v>187</v>
       </c>
       <c r="M168" s="169">
         <v>21</v>
       </c>
-      <c r="N168" s="212"/>
+      <c r="N168" s="213"/>
       <c r="O168" s="18"/>
     </row>
     <row r="169" spans="1:15" s="48" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="211">
+      <c r="A169" s="212">
         <v>45202</v>
       </c>
-      <c r="B169" s="212" t="s">
+      <c r="B169" s="213" t="s">
         <v>516</v>
       </c>
-      <c r="C169" s="212" t="s">
+      <c r="C169" s="213" t="s">
         <v>517</v>
       </c>
       <c r="D169" s="154" t="s">
@@ -8886,10 +8895,10 @@
       <c r="E169" s="154">
         <v>4</v>
       </c>
-      <c r="F169" s="212" t="s">
+      <c r="F169" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G169" s="212" t="s">
+      <c r="G169" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H169" s="62"/>
@@ -8902,25 +8911,25 @@
       <c r="O169" s="63"/>
     </row>
     <row r="170" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A170" s="211"/>
-      <c r="B170" s="212"/>
-      <c r="C170" s="212"/>
+      <c r="A170" s="212"/>
+      <c r="B170" s="213"/>
+      <c r="C170" s="213"/>
       <c r="D170" s="154" t="s">
         <v>519</v>
       </c>
       <c r="E170" s="154">
         <v>4</v>
       </c>
-      <c r="F170" s="212"/>
-      <c r="G170" s="212"/>
+      <c r="F170" s="213"/>
+      <c r="G170" s="213"/>
       <c r="H170" s="20"/>
-      <c r="I170" s="211">
+      <c r="I170" s="212">
         <v>45239</v>
       </c>
-      <c r="J170" s="212" t="s">
+      <c r="J170" s="213" t="s">
         <v>571</v>
       </c>
-      <c r="K170" s="212" t="s">
+      <c r="K170" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L170" s="173" t="s">
@@ -8929,7 +8938,7 @@
       <c r="M170" s="169">
         <v>2</v>
       </c>
-      <c r="N170" s="212" t="s">
+      <c r="N170" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O170" s="18"/>
@@ -8943,16 +8952,16 @@
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
       <c r="H171" s="52"/>
-      <c r="I171" s="211"/>
-      <c r="J171" s="212"/>
-      <c r="K171" s="212"/>
+      <c r="I171" s="212"/>
+      <c r="J171" s="213"/>
+      <c r="K171" s="213"/>
       <c r="L171" s="99" t="s">
         <v>181</v>
       </c>
       <c r="M171" s="169">
         <v>16</v>
       </c>
-      <c r="N171" s="212"/>
+      <c r="N171" s="213"/>
       <c r="O171" s="18"/>
     </row>
     <row r="172" spans="1:15" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9136,13 +9145,13 @@
       <c r="O177" s="18"/>
     </row>
     <row r="178" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="211">
+      <c r="A178" s="212">
         <v>45233</v>
       </c>
-      <c r="B178" s="212" t="s">
+      <c r="B178" s="213" t="s">
         <v>556</v>
       </c>
-      <c r="C178" s="212" t="s">
+      <c r="C178" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D178" s="160" t="s">
@@ -9151,10 +9160,10 @@
       <c r="E178" s="160">
         <v>10</v>
       </c>
-      <c r="F178" s="212" t="s">
+      <c r="F178" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G178" s="212" t="s">
+      <c r="G178" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H178" s="62"/>
@@ -9167,17 +9176,17 @@
       <c r="O178" s="63"/>
     </row>
     <row r="179" spans="1:15" s="48" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A179" s="211"/>
-      <c r="B179" s="212"/>
-      <c r="C179" s="212"/>
+      <c r="A179" s="212"/>
+      <c r="B179" s="213"/>
+      <c r="C179" s="213"/>
       <c r="D179" s="160" t="s">
         <v>171</v>
       </c>
       <c r="E179" s="160">
         <v>7</v>
       </c>
-      <c r="F179" s="212"/>
-      <c r="G179" s="212"/>
+      <c r="F179" s="213"/>
+      <c r="G179" s="213"/>
       <c r="H179" s="20"/>
       <c r="I179" s="170">
         <v>45257</v>
@@ -9200,17 +9209,17 @@
       <c r="O179" s="18"/>
     </row>
     <row r="180" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="211"/>
-      <c r="B180" s="212"/>
-      <c r="C180" s="212"/>
+      <c r="A180" s="212"/>
+      <c r="B180" s="213"/>
+      <c r="C180" s="213"/>
       <c r="D180" s="160" t="s">
         <v>172</v>
       </c>
       <c r="E180" s="160">
         <v>9</v>
       </c>
-      <c r="F180" s="212"/>
-      <c r="G180" s="212"/>
+      <c r="F180" s="213"/>
+      <c r="G180" s="213"/>
       <c r="H180" s="62"/>
       <c r="I180" s="21"/>
       <c r="J180" s="21"/>
@@ -9221,17 +9230,17 @@
       <c r="O180" s="63"/>
     </row>
     <row r="181" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="211"/>
-      <c r="B181" s="212"/>
-      <c r="C181" s="212"/>
+      <c r="A181" s="212"/>
+      <c r="B181" s="213"/>
+      <c r="C181" s="213"/>
       <c r="D181" s="160" t="s">
         <v>205</v>
       </c>
       <c r="E181" s="160">
         <v>5</v>
       </c>
-      <c r="F181" s="212"/>
-      <c r="G181" s="212"/>
+      <c r="F181" s="213"/>
+      <c r="G181" s="213"/>
       <c r="H181" s="20"/>
       <c r="I181" s="192">
         <v>45258</v>
@@ -9331,13 +9340,13 @@
       <c r="O184" s="63"/>
     </row>
     <row r="185" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="211">
+      <c r="A185" s="212">
         <v>45232</v>
       </c>
-      <c r="B185" s="212" t="s">
+      <c r="B185" s="213" t="s">
         <v>563</v>
       </c>
-      <c r="C185" s="212" t="s">
+      <c r="C185" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D185" s="161" t="s">
@@ -9346,10 +9355,10 @@
       <c r="E185" s="161">
         <v>12</v>
       </c>
-      <c r="F185" s="212" t="s">
+      <c r="F185" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G185" s="212" t="s">
+      <c r="G185" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H185" s="20"/>
@@ -9374,17 +9383,17 @@
       <c r="O185" s="18"/>
     </row>
     <row r="186" spans="1:15" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="211"/>
-      <c r="B186" s="212"/>
-      <c r="C186" s="212"/>
+      <c r="A186" s="212"/>
+      <c r="B186" s="213"/>
+      <c r="C186" s="213"/>
       <c r="D186" s="161" t="s">
         <v>174</v>
       </c>
       <c r="E186" s="161">
         <v>10</v>
       </c>
-      <c r="F186" s="212"/>
-      <c r="G186" s="212"/>
+      <c r="F186" s="213"/>
+      <c r="G186" s="213"/>
       <c r="H186" s="62"/>
       <c r="I186" s="21"/>
       <c r="J186" s="21"/>
@@ -9463,13 +9472,13 @@
       <c r="F189" s="65"/>
       <c r="G189" s="65"/>
       <c r="H189" s="52"/>
-      <c r="I189" s="211">
+      <c r="I189" s="212">
         <v>45297</v>
       </c>
-      <c r="J189" s="212" t="s">
+      <c r="J189" s="213" t="s">
         <v>843</v>
       </c>
-      <c r="K189" s="212" t="s">
+      <c r="K189" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L189" s="100" t="s">
@@ -9478,7 +9487,7 @@
       <c r="M189" s="193">
         <v>15</v>
       </c>
-      <c r="N189" s="212" t="s">
+      <c r="N189" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O189" s="18"/>
@@ -9506,16 +9515,16 @@
         <v>159</v>
       </c>
       <c r="H190" s="20"/>
-      <c r="I190" s="211"/>
-      <c r="J190" s="212"/>
-      <c r="K190" s="212"/>
+      <c r="I190" s="212"/>
+      <c r="J190" s="213"/>
+      <c r="K190" s="213"/>
       <c r="L190" s="193" t="s">
         <v>191</v>
       </c>
       <c r="M190" s="193">
         <v>250</v>
       </c>
-      <c r="N190" s="212"/>
+      <c r="N190" s="213"/>
       <c r="O190" s="18"/>
     </row>
     <row r="191" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9527,16 +9536,16 @@
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
       <c r="H191" s="52"/>
-      <c r="I191" s="211"/>
-      <c r="J191" s="212"/>
-      <c r="K191" s="212"/>
+      <c r="I191" s="212"/>
+      <c r="J191" s="213"/>
+      <c r="K191" s="213"/>
       <c r="L191" s="193" t="s">
         <v>187</v>
       </c>
       <c r="M191" s="193">
         <v>19</v>
       </c>
-      <c r="N191" s="212"/>
+      <c r="N191" s="213"/>
       <c r="O191" s="18"/>
     </row>
     <row r="192" spans="1:15" s="48" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9562,16 +9571,16 @@
         <v>159</v>
       </c>
       <c r="H192" s="20"/>
-      <c r="I192" s="211"/>
-      <c r="J192" s="212"/>
-      <c r="K192" s="212"/>
+      <c r="I192" s="212"/>
+      <c r="J192" s="213"/>
+      <c r="K192" s="213"/>
       <c r="L192" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M192" s="193">
         <v>14</v>
       </c>
-      <c r="N192" s="212"/>
+      <c r="N192" s="213"/>
       <c r="O192" s="18"/>
     </row>
     <row r="193" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9583,16 +9592,16 @@
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
       <c r="H193" s="52"/>
-      <c r="I193" s="211"/>
-      <c r="J193" s="212"/>
-      <c r="K193" s="212"/>
+      <c r="I193" s="212"/>
+      <c r="J193" s="213"/>
+      <c r="K193" s="213"/>
       <c r="L193" s="193" t="s">
         <v>185</v>
       </c>
       <c r="M193" s="193">
         <v>5</v>
       </c>
-      <c r="N193" s="212"/>
+      <c r="N193" s="213"/>
       <c r="O193" s="18"/>
     </row>
     <row r="194" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9618,16 +9627,16 @@
         <v>159</v>
       </c>
       <c r="H194" s="20"/>
-      <c r="I194" s="211"/>
-      <c r="J194" s="212"/>
-      <c r="K194" s="212"/>
+      <c r="I194" s="212"/>
+      <c r="J194" s="213"/>
+      <c r="K194" s="213"/>
       <c r="L194" s="193" t="s">
         <v>284</v>
       </c>
       <c r="M194" s="193">
         <v>4</v>
       </c>
-      <c r="N194" s="212"/>
+      <c r="N194" s="213"/>
       <c r="O194" s="18"/>
     </row>
     <row r="195" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9790,13 +9799,13 @@
         <v>159</v>
       </c>
       <c r="H200" s="20"/>
-      <c r="I200" s="211">
+      <c r="I200" s="212">
         <v>45301</v>
       </c>
-      <c r="J200" s="212" t="s">
+      <c r="J200" s="213" t="s">
         <v>859</v>
       </c>
-      <c r="K200" s="212" t="s">
+      <c r="K200" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L200" s="198" t="s">
@@ -9805,7 +9814,7 @@
       <c r="M200" s="198">
         <v>50</v>
       </c>
-      <c r="N200" s="212" t="s">
+      <c r="N200" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O200" s="18"/>
@@ -9819,111 +9828,111 @@
       <c r="F201" s="65"/>
       <c r="G201" s="65"/>
       <c r="H201" s="52"/>
-      <c r="I201" s="211"/>
-      <c r="J201" s="212"/>
-      <c r="K201" s="212"/>
+      <c r="I201" s="212"/>
+      <c r="J201" s="213"/>
+      <c r="K201" s="213"/>
       <c r="L201" s="198" t="s">
         <v>862</v>
       </c>
       <c r="M201" s="198">
         <v>10</v>
       </c>
-      <c r="N201" s="212"/>
+      <c r="N201" s="213"/>
       <c r="O201" s="18"/>
     </row>
     <row r="202" spans="1:15" s="48" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="211">
+      <c r="A202" s="212">
         <v>45265</v>
       </c>
-      <c r="B202" s="212" t="s">
+      <c r="B202" s="213" t="s">
         <v>777</v>
       </c>
-      <c r="C202" s="212" t="s">
+      <c r="C202" s="213" t="s">
         <v>724</v>
       </c>
       <c r="D202" s="176" t="s">
         <v>779</v>
       </c>
-      <c r="E202" s="212">
+      <c r="E202" s="213">
         <v>6</v>
       </c>
-      <c r="F202" s="212" t="s">
+      <c r="F202" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G202" s="212" t="s">
+      <c r="G202" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H202" s="20"/>
-      <c r="I202" s="211"/>
-      <c r="J202" s="212"/>
-      <c r="K202" s="212"/>
+      <c r="I202" s="212"/>
+      <c r="J202" s="213"/>
+      <c r="K202" s="213"/>
       <c r="L202" s="198" t="s">
         <v>187</v>
       </c>
       <c r="M202" s="198">
         <v>1</v>
       </c>
-      <c r="N202" s="212"/>
+      <c r="N202" s="213"/>
       <c r="O202" s="18"/>
     </row>
     <row r="203" spans="1:15" s="48" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="211"/>
-      <c r="B203" s="212"/>
-      <c r="C203" s="212"/>
+      <c r="A203" s="212"/>
+      <c r="B203" s="213"/>
+      <c r="C203" s="213"/>
       <c r="D203" s="176" t="s">
         <v>780</v>
       </c>
-      <c r="E203" s="212"/>
-      <c r="F203" s="212"/>
-      <c r="G203" s="212"/>
+      <c r="E203" s="213"/>
+      <c r="F203" s="213"/>
+      <c r="G203" s="213"/>
       <c r="H203" s="20"/>
-      <c r="I203" s="211"/>
-      <c r="J203" s="212"/>
-      <c r="K203" s="212"/>
+      <c r="I203" s="212"/>
+      <c r="J203" s="213"/>
+      <c r="K203" s="213"/>
       <c r="L203" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M203" s="198">
         <v>16</v>
       </c>
-      <c r="N203" s="212"/>
+      <c r="N203" s="213"/>
       <c r="O203" s="18"/>
     </row>
     <row r="204" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="211"/>
-      <c r="B204" s="212"/>
-      <c r="C204" s="212"/>
+      <c r="A204" s="212"/>
+      <c r="B204" s="213"/>
+      <c r="C204" s="213"/>
       <c r="D204" s="176" t="s">
         <v>781</v>
       </c>
-      <c r="E204" s="212"/>
-      <c r="F204" s="212"/>
-      <c r="G204" s="212"/>
+      <c r="E204" s="213"/>
+      <c r="F204" s="213"/>
+      <c r="G204" s="213"/>
       <c r="H204" s="20"/>
-      <c r="I204" s="211"/>
-      <c r="J204" s="212"/>
-      <c r="K204" s="212"/>
+      <c r="I204" s="212"/>
+      <c r="J204" s="213"/>
+      <c r="K204" s="213"/>
       <c r="L204" s="198" t="s">
         <v>284</v>
       </c>
       <c r="M204" s="198">
         <v>6</v>
       </c>
-      <c r="N204" s="212"/>
+      <c r="N204" s="213"/>
       <c r="O204" s="18"/>
     </row>
     <row r="205" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="211"/>
-      <c r="B205" s="212"/>
-      <c r="C205" s="212"/>
+      <c r="A205" s="212"/>
+      <c r="B205" s="213"/>
+      <c r="C205" s="213"/>
       <c r="D205" s="176" t="s">
         <v>779</v>
       </c>
-      <c r="E205" s="212">
+      <c r="E205" s="213">
         <v>6</v>
       </c>
-      <c r="F205" s="212"/>
-      <c r="G205" s="212"/>
+      <c r="F205" s="213"/>
+      <c r="G205" s="213"/>
       <c r="H205" s="62"/>
       <c r="I205" s="21"/>
       <c r="J205" s="21"/>
@@ -9934,23 +9943,23 @@
       <c r="O205" s="63"/>
     </row>
     <row r="206" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="211"/>
-      <c r="B206" s="212"/>
-      <c r="C206" s="212"/>
+      <c r="A206" s="212"/>
+      <c r="B206" s="213"/>
+      <c r="C206" s="213"/>
       <c r="D206" s="176" t="s">
         <v>782</v>
       </c>
-      <c r="E206" s="212"/>
-      <c r="F206" s="212"/>
-      <c r="G206" s="212"/>
+      <c r="E206" s="213"/>
+      <c r="F206" s="213"/>
+      <c r="G206" s="213"/>
       <c r="H206" s="20"/>
-      <c r="I206" s="211">
+      <c r="I206" s="212">
         <v>45342</v>
       </c>
-      <c r="J206" s="212" t="s">
+      <c r="J206" s="213" t="s">
         <v>896</v>
       </c>
-      <c r="K206" s="212" t="s">
+      <c r="K206" s="213" t="s">
         <v>178</v>
       </c>
       <c r="L206" s="100" t="s">
@@ -9959,32 +9968,32 @@
       <c r="M206" s="207">
         <v>10</v>
       </c>
-      <c r="N206" s="212" t="s">
+      <c r="N206" s="213" t="s">
         <v>176</v>
       </c>
       <c r="O206" s="18"/>
     </row>
     <row r="207" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="211"/>
-      <c r="B207" s="212"/>
-      <c r="C207" s="212"/>
+      <c r="A207" s="212"/>
+      <c r="B207" s="213"/>
+      <c r="C207" s="213"/>
       <c r="D207" s="176" t="s">
         <v>781</v>
       </c>
-      <c r="E207" s="212"/>
-      <c r="F207" s="212"/>
-      <c r="G207" s="212"/>
+      <c r="E207" s="213"/>
+      <c r="F207" s="213"/>
+      <c r="G207" s="213"/>
       <c r="H207" s="20"/>
-      <c r="I207" s="211"/>
-      <c r="J207" s="212"/>
-      <c r="K207" s="212"/>
+      <c r="I207" s="212"/>
+      <c r="J207" s="213"/>
+      <c r="K207" s="213"/>
       <c r="L207" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M207" s="207">
         <v>10</v>
       </c>
-      <c r="N207" s="212"/>
+      <c r="N207" s="213"/>
       <c r="O207" s="18"/>
     </row>
     <row r="208" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9996,26 +10005,26 @@
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
       <c r="H208" s="52"/>
-      <c r="I208" s="211"/>
-      <c r="J208" s="212"/>
-      <c r="K208" s="212"/>
+      <c r="I208" s="212"/>
+      <c r="J208" s="213"/>
+      <c r="K208" s="213"/>
       <c r="L208" s="207" t="s">
         <v>849</v>
       </c>
       <c r="M208" s="207">
         <v>4</v>
       </c>
-      <c r="N208" s="212"/>
+      <c r="N208" s="213"/>
       <c r="O208" s="18"/>
     </row>
     <row r="209" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="211">
+      <c r="A209" s="212">
         <v>45265</v>
       </c>
-      <c r="B209" s="212">
+      <c r="B209" s="213">
         <v>4270</v>
       </c>
-      <c r="C209" s="212" t="s">
+      <c r="C209" s="213" t="s">
         <v>271</v>
       </c>
       <c r="D209" s="177" t="s">
@@ -10031,22 +10040,22 @@
         <v>159</v>
       </c>
       <c r="H209" s="52"/>
-      <c r="I209" s="211"/>
-      <c r="J209" s="212"/>
-      <c r="K209" s="212"/>
+      <c r="I209" s="212"/>
+      <c r="J209" s="213"/>
+      <c r="K209" s="213"/>
       <c r="L209" s="207" t="s">
         <v>914</v>
       </c>
       <c r="M209" s="207">
         <v>5</v>
       </c>
-      <c r="N209" s="212"/>
+      <c r="N209" s="213"/>
       <c r="O209" s="18"/>
     </row>
     <row r="210" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="211"/>
-      <c r="B210" s="212"/>
-      <c r="C210" s="212"/>
+      <c r="A210" s="212"/>
+      <c r="B210" s="213"/>
+      <c r="C210" s="213"/>
       <c r="D210" s="177" t="s">
         <v>789</v>
       </c>
@@ -10056,22 +10065,22 @@
       <c r="F210" s="177"/>
       <c r="G210" s="177"/>
       <c r="H210" s="52"/>
-      <c r="I210" s="211"/>
-      <c r="J210" s="212"/>
-      <c r="K210" s="212"/>
+      <c r="I210" s="212"/>
+      <c r="J210" s="213"/>
+      <c r="K210" s="213"/>
       <c r="L210" s="207" t="s">
         <v>190</v>
       </c>
       <c r="M210" s="207">
         <v>30</v>
       </c>
-      <c r="N210" s="212"/>
+      <c r="N210" s="213"/>
       <c r="O210" s="18"/>
     </row>
     <row r="211" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="211"/>
-      <c r="B211" s="212"/>
-      <c r="C211" s="212"/>
+      <c r="A211" s="212"/>
+      <c r="B211" s="213"/>
+      <c r="C211" s="213"/>
       <c r="D211" s="177" t="s">
         <v>790</v>
       </c>
@@ -10081,16 +10090,16 @@
       <c r="F211" s="177"/>
       <c r="G211" s="177"/>
       <c r="H211" s="52"/>
-      <c r="I211" s="211"/>
-      <c r="J211" s="212"/>
-      <c r="K211" s="212"/>
+      <c r="I211" s="212"/>
+      <c r="J211" s="213"/>
+      <c r="K211" s="213"/>
       <c r="L211" s="207" t="s">
         <v>191</v>
       </c>
       <c r="M211" s="207">
         <v>30</v>
       </c>
-      <c r="N211" s="212"/>
+      <c r="N211" s="213"/>
       <c r="O211" s="18"/>
     </row>
     <row r="212" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10133,12 +10142,24 @@
         <v>159</v>
       </c>
       <c r="H213" s="20"/>
-      <c r="I213" s="207"/>
-      <c r="J213" s="207"/>
-      <c r="K213" s="207"/>
-      <c r="L213" s="207"/>
-      <c r="M213" s="207"/>
-      <c r="N213" s="207"/>
+      <c r="I213" s="212">
+        <v>45358</v>
+      </c>
+      <c r="J213" s="213" t="s">
+        <v>935</v>
+      </c>
+      <c r="K213" s="213" t="s">
+        <v>178</v>
+      </c>
+      <c r="L213" s="211" t="s">
+        <v>187</v>
+      </c>
+      <c r="M213" s="211">
+        <v>11</v>
+      </c>
+      <c r="N213" s="213" t="s">
+        <v>176</v>
+      </c>
       <c r="O213" s="18"/>
     </row>
     <row r="214" spans="1:15" s="48" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -10150,12 +10171,16 @@
       <c r="F214" s="65"/>
       <c r="G214" s="65"/>
       <c r="H214" s="52"/>
-      <c r="I214" s="207"/>
-      <c r="J214" s="207"/>
-      <c r="K214" s="207"/>
-      <c r="L214" s="207"/>
-      <c r="M214" s="207"/>
-      <c r="N214" s="207"/>
+      <c r="I214" s="212"/>
+      <c r="J214" s="213"/>
+      <c r="K214" s="213"/>
+      <c r="L214" s="211" t="s">
+        <v>728</v>
+      </c>
+      <c r="M214" s="211">
+        <v>15</v>
+      </c>
+      <c r="N214" s="213"/>
       <c r="O214" s="18"/>
     </row>
     <row r="215" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10181,12 +10206,16 @@
         <v>159</v>
       </c>
       <c r="H215" s="20"/>
-      <c r="I215" s="207"/>
-      <c r="J215" s="207"/>
-      <c r="K215" s="207"/>
-      <c r="L215" s="207"/>
-      <c r="M215" s="207"/>
-      <c r="N215" s="207"/>
+      <c r="I215" s="212"/>
+      <c r="J215" s="213"/>
+      <c r="K215" s="213"/>
+      <c r="L215" s="211" t="s">
+        <v>936</v>
+      </c>
+      <c r="M215" s="211">
+        <v>10</v>
+      </c>
+      <c r="N215" s="213"/>
       <c r="O215" s="18"/>
     </row>
     <row r="216" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10197,14 +10226,14 @@
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
-      <c r="H216" s="52"/>
-      <c r="I216" s="207"/>
-      <c r="J216" s="207"/>
-      <c r="K216" s="207"/>
-      <c r="L216" s="207"/>
-      <c r="M216" s="207"/>
-      <c r="N216" s="207"/>
-      <c r="O216" s="18"/>
+      <c r="H216" s="64"/>
+      <c r="I216" s="21"/>
+      <c r="J216" s="21"/>
+      <c r="K216" s="21"/>
+      <c r="L216" s="21"/>
+      <c r="M216" s="21"/>
+      <c r="N216" s="21"/>
+      <c r="O216" s="63"/>
     </row>
     <row r="217" spans="1:15" s="48" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="181">
@@ -10229,12 +10258,12 @@
         <v>159</v>
       </c>
       <c r="H217" s="20"/>
-      <c r="I217" s="207"/>
-      <c r="J217" s="207"/>
-      <c r="K217" s="207"/>
-      <c r="L217" s="207"/>
-      <c r="M217" s="207"/>
-      <c r="N217" s="207"/>
+      <c r="I217" s="211"/>
+      <c r="J217" s="211"/>
+      <c r="K217" s="211"/>
+      <c r="L217" s="211"/>
+      <c r="M217" s="211"/>
+      <c r="N217" s="211"/>
       <c r="O217" s="18"/>
     </row>
     <row r="218" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10246,12 +10275,12 @@
       <c r="F218" s="65"/>
       <c r="G218" s="65"/>
       <c r="H218" s="52"/>
-      <c r="I218" s="207"/>
-      <c r="J218" s="207"/>
-      <c r="K218" s="207"/>
-      <c r="L218" s="207"/>
-      <c r="M218" s="207"/>
-      <c r="N218" s="207"/>
+      <c r="I218" s="211"/>
+      <c r="J218" s="211"/>
+      <c r="K218" s="211"/>
+      <c r="L218" s="211"/>
+      <c r="M218" s="211"/>
+      <c r="N218" s="211"/>
       <c r="O218" s="18"/>
     </row>
     <row r="219" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10277,12 +10306,12 @@
         <v>159</v>
       </c>
       <c r="H219" s="20"/>
-      <c r="I219" s="207"/>
-      <c r="J219" s="207"/>
-      <c r="K219" s="207"/>
-      <c r="L219" s="207"/>
-      <c r="M219" s="207"/>
-      <c r="N219" s="207"/>
+      <c r="I219" s="211"/>
+      <c r="J219" s="211"/>
+      <c r="K219" s="211"/>
+      <c r="L219" s="211"/>
+      <c r="M219" s="211"/>
+      <c r="N219" s="211"/>
       <c r="O219" s="18"/>
     </row>
     <row r="220" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10294,12 +10323,12 @@
       <c r="F220" s="65"/>
       <c r="G220" s="65"/>
       <c r="H220" s="52"/>
-      <c r="I220" s="207"/>
-      <c r="J220" s="207"/>
-      <c r="K220" s="207"/>
-      <c r="L220" s="207"/>
-      <c r="M220" s="207"/>
-      <c r="N220" s="207"/>
+      <c r="I220" s="211"/>
+      <c r="J220" s="211"/>
+      <c r="K220" s="211"/>
+      <c r="L220" s="211"/>
+      <c r="M220" s="211"/>
+      <c r="N220" s="211"/>
       <c r="O220" s="18"/>
     </row>
     <row r="221" spans="1:15" s="48" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10351,13 +10380,13 @@
       <c r="O222" s="18"/>
     </row>
     <row r="223" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="211">
+      <c r="A223" s="212">
         <v>45290</v>
       </c>
-      <c r="B223" s="212" t="s">
+      <c r="B223" s="213" t="s">
         <v>821</v>
       </c>
-      <c r="C223" s="212" t="s">
+      <c r="C223" s="213" t="s">
         <v>811</v>
       </c>
       <c r="D223" s="186" t="s">
@@ -10366,10 +10395,10 @@
       <c r="E223" s="186">
         <v>1</v>
       </c>
-      <c r="F223" s="212" t="s">
+      <c r="F223" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G223" s="212" t="s">
+      <c r="G223" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H223" s="20"/>
@@ -10382,17 +10411,17 @@
       <c r="O223" s="18"/>
     </row>
     <row r="224" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="211"/>
-      <c r="B224" s="212"/>
-      <c r="C224" s="212"/>
+      <c r="A224" s="212"/>
+      <c r="B224" s="213"/>
+      <c r="C224" s="213"/>
       <c r="D224" s="186" t="s">
         <v>825</v>
       </c>
       <c r="E224" s="186">
         <v>100</v>
       </c>
-      <c r="F224" s="212"/>
-      <c r="G224" s="212"/>
+      <c r="F224" s="213"/>
+      <c r="G224" s="213"/>
       <c r="H224" s="20"/>
       <c r="I224" s="207"/>
       <c r="J224" s="207"/>
@@ -10403,17 +10432,17 @@
       <c r="O224" s="18"/>
     </row>
     <row r="225" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="211"/>
-      <c r="B225" s="212"/>
-      <c r="C225" s="212"/>
+      <c r="A225" s="212"/>
+      <c r="B225" s="213"/>
+      <c r="C225" s="213"/>
       <c r="D225" s="186" t="s">
         <v>826</v>
       </c>
       <c r="E225" s="186">
         <v>1</v>
       </c>
-      <c r="F225" s="212"/>
-      <c r="G225" s="212"/>
+      <c r="F225" s="213"/>
+      <c r="G225" s="213"/>
       <c r="H225" s="20"/>
       <c r="I225" s="207"/>
       <c r="J225" s="207"/>
@@ -10424,17 +10453,17 @@
       <c r="O225" s="18"/>
     </row>
     <row r="226" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="211"/>
-      <c r="B226" s="212"/>
-      <c r="C226" s="212"/>
+      <c r="A226" s="212"/>
+      <c r="B226" s="213"/>
+      <c r="C226" s="213"/>
       <c r="D226" s="186" t="s">
         <v>827</v>
       </c>
       <c r="E226" s="186">
         <v>1</v>
       </c>
-      <c r="F226" s="212"/>
-      <c r="G226" s="212"/>
+      <c r="F226" s="213"/>
+      <c r="G226" s="213"/>
       <c r="H226" s="20"/>
       <c r="I226" s="207"/>
       <c r="J226" s="207"/>
@@ -10510,13 +10539,13 @@
       <c r="O229" s="18"/>
     </row>
     <row r="230" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="211">
+      <c r="A230" s="212">
         <v>45292</v>
       </c>
-      <c r="B230" s="212" t="s">
+      <c r="B230" s="213" t="s">
         <v>823</v>
       </c>
-      <c r="C230" s="212" t="s">
+      <c r="C230" s="213" t="s">
         <v>242</v>
       </c>
       <c r="D230" s="186" t="s">
@@ -10525,10 +10554,10 @@
       <c r="E230" s="186">
         <v>1</v>
       </c>
-      <c r="F230" s="212" t="s">
+      <c r="F230" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G230" s="212" t="s">
+      <c r="G230" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H230" s="20"/>
@@ -10541,17 +10570,17 @@
       <c r="O230" s="18"/>
     </row>
     <row r="231" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="211"/>
-      <c r="B231" s="212"/>
-      <c r="C231" s="212"/>
+      <c r="A231" s="212"/>
+      <c r="B231" s="213"/>
+      <c r="C231" s="213"/>
       <c r="D231" s="186" t="s">
         <v>830</v>
       </c>
       <c r="E231" s="186">
         <v>1</v>
       </c>
-      <c r="F231" s="212"/>
-      <c r="G231" s="212"/>
+      <c r="F231" s="213"/>
+      <c r="G231" s="213"/>
       <c r="H231" s="20"/>
       <c r="I231" s="207"/>
       <c r="J231" s="207"/>
@@ -10627,13 +10656,13 @@
       <c r="O234" s="18"/>
     </row>
     <row r="235" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="211">
+      <c r="A235" s="212">
         <v>45297</v>
       </c>
-      <c r="B235" s="212" t="s">
+      <c r="B235" s="213" t="s">
         <v>839</v>
       </c>
-      <c r="C235" s="212" t="s">
+      <c r="C235" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D235" s="189" t="s">
@@ -10642,10 +10671,10 @@
       <c r="E235" s="189">
         <v>10</v>
       </c>
-      <c r="F235" s="212" t="s">
+      <c r="F235" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G235" s="212" t="s">
+      <c r="G235" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H235" s="20"/>
@@ -10658,17 +10687,17 @@
       <c r="O235" s="18"/>
     </row>
     <row r="236" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="211"/>
-      <c r="B236" s="212"/>
-      <c r="C236" s="212"/>
+      <c r="A236" s="212"/>
+      <c r="B236" s="213"/>
+      <c r="C236" s="213"/>
       <c r="D236" s="189" t="s">
         <v>172</v>
       </c>
       <c r="E236" s="189">
         <v>19</v>
       </c>
-      <c r="F236" s="212"/>
-      <c r="G236" s="212"/>
+      <c r="F236" s="213"/>
+      <c r="G236" s="213"/>
       <c r="H236" s="20"/>
       <c r="I236" s="207"/>
       <c r="J236" s="207"/>
@@ -10679,17 +10708,17 @@
       <c r="O236" s="18"/>
     </row>
     <row r="237" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="211"/>
-      <c r="B237" s="212"/>
-      <c r="C237" s="212"/>
+      <c r="A237" s="212"/>
+      <c r="B237" s="213"/>
+      <c r="C237" s="213"/>
       <c r="D237" s="189" t="s">
         <v>171</v>
       </c>
       <c r="E237" s="189">
         <v>14</v>
       </c>
-      <c r="F237" s="212"/>
-      <c r="G237" s="212"/>
+      <c r="F237" s="213"/>
+      <c r="G237" s="213"/>
       <c r="H237" s="20"/>
       <c r="I237" s="207"/>
       <c r="J237" s="207"/>
@@ -10700,17 +10729,17 @@
       <c r="O237" s="18"/>
     </row>
     <row r="238" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="211"/>
-      <c r="B238" s="212"/>
-      <c r="C238" s="212"/>
+      <c r="A238" s="212"/>
+      <c r="B238" s="213"/>
+      <c r="C238" s="213"/>
       <c r="D238" s="189" t="s">
         <v>840</v>
       </c>
       <c r="E238" s="189">
         <v>5</v>
       </c>
-      <c r="F238" s="212"/>
-      <c r="G238" s="212"/>
+      <c r="F238" s="213"/>
+      <c r="G238" s="213"/>
       <c r="H238" s="20"/>
       <c r="I238" s="207"/>
       <c r="J238" s="207"/>
@@ -10721,17 +10750,17 @@
       <c r="O238" s="18"/>
     </row>
     <row r="239" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="211"/>
-      <c r="B239" s="212"/>
-      <c r="C239" s="212"/>
+      <c r="A239" s="212"/>
+      <c r="B239" s="213"/>
+      <c r="C239" s="213"/>
       <c r="D239" s="189" t="s">
         <v>291</v>
       </c>
       <c r="E239" s="189">
         <v>10</v>
       </c>
-      <c r="F239" s="212"/>
-      <c r="G239" s="212"/>
+      <c r="F239" s="213"/>
+      <c r="G239" s="213"/>
       <c r="H239" s="20"/>
       <c r="I239" s="207"/>
       <c r="J239" s="207"/>
@@ -10807,25 +10836,25 @@
       <c r="O242" s="18"/>
     </row>
     <row r="243" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="211">
+      <c r="A243" s="212">
         <v>45299</v>
       </c>
-      <c r="B243" s="212" t="s">
+      <c r="B243" s="213" t="s">
         <v>853</v>
       </c>
-      <c r="C243" s="212" t="s">
+      <c r="C243" s="213" t="s">
         <v>724</v>
       </c>
       <c r="D243" s="194" t="s">
         <v>779</v>
       </c>
-      <c r="E243" s="212">
+      <c r="E243" s="213">
         <v>2</v>
       </c>
-      <c r="F243" s="212" t="s">
+      <c r="F243" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G243" s="212" t="s">
+      <c r="G243" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H243" s="20"/>
@@ -10838,15 +10867,15 @@
       <c r="O243" s="18"/>
     </row>
     <row r="244" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="211"/>
-      <c r="B244" s="212"/>
-      <c r="C244" s="212"/>
+      <c r="A244" s="212"/>
+      <c r="B244" s="213"/>
+      <c r="C244" s="213"/>
       <c r="D244" s="194" t="s">
         <v>780</v>
       </c>
-      <c r="E244" s="212"/>
-      <c r="F244" s="212"/>
-      <c r="G244" s="212"/>
+      <c r="E244" s="213"/>
+      <c r="F244" s="213"/>
+      <c r="G244" s="213"/>
       <c r="H244" s="20"/>
       <c r="I244" s="207"/>
       <c r="J244" s="207"/>
@@ -10857,15 +10886,15 @@
       <c r="O244" s="18"/>
     </row>
     <row r="245" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="211"/>
-      <c r="B245" s="212"/>
-      <c r="C245" s="212"/>
+      <c r="A245" s="212"/>
+      <c r="B245" s="213"/>
+      <c r="C245" s="213"/>
       <c r="D245" s="194" t="s">
         <v>781</v>
       </c>
-      <c r="E245" s="212"/>
-      <c r="F245" s="212"/>
-      <c r="G245" s="212"/>
+      <c r="E245" s="213"/>
+      <c r="F245" s="213"/>
+      <c r="G245" s="213"/>
       <c r="H245" s="20"/>
       <c r="I245" s="207"/>
       <c r="J245" s="207"/>
@@ -10989,13 +11018,13 @@
       <c r="O250" s="18"/>
     </row>
     <row r="251" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="211">
+      <c r="A251" s="212">
         <v>45301</v>
       </c>
-      <c r="B251" s="212" t="s">
+      <c r="B251" s="213" t="s">
         <v>860</v>
       </c>
-      <c r="C251" s="212" t="s">
+      <c r="C251" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D251" s="197" t="s">
@@ -11004,10 +11033,10 @@
       <c r="E251" s="197">
         <v>1</v>
       </c>
-      <c r="F251" s="212" t="s">
+      <c r="F251" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="G251" s="212" t="s">
+      <c r="G251" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H251" s="20"/>
@@ -11020,17 +11049,17 @@
       <c r="O251" s="18"/>
     </row>
     <row r="252" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="211"/>
-      <c r="B252" s="212"/>
-      <c r="C252" s="212"/>
+      <c r="A252" s="212"/>
+      <c r="B252" s="213"/>
+      <c r="C252" s="213"/>
       <c r="D252" s="197" t="s">
         <v>171</v>
       </c>
       <c r="E252" s="197">
         <v>16</v>
       </c>
-      <c r="F252" s="212"/>
-      <c r="G252" s="212"/>
+      <c r="F252" s="213"/>
+      <c r="G252" s="213"/>
       <c r="H252" s="20"/>
       <c r="O252" s="18"/>
     </row>
@@ -11154,94 +11183,94 @@
       <c r="O259" s="18"/>
     </row>
     <row r="260" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="211">
+      <c r="A260" s="212">
         <v>45328</v>
       </c>
-      <c r="B260" s="212" t="s">
+      <c r="B260" s="213" t="s">
         <v>883</v>
       </c>
-      <c r="C260" s="212" t="s">
+      <c r="C260" s="213" t="s">
         <v>724</v>
       </c>
       <c r="D260" s="204" t="s">
         <v>779</v>
       </c>
-      <c r="E260" s="212">
+      <c r="E260" s="213">
         <v>2</v>
       </c>
-      <c r="F260" s="212" t="s">
+      <c r="F260" s="213" t="s">
         <v>140</v>
       </c>
-      <c r="G260" s="212" t="s">
+      <c r="G260" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H260" s="20"/>
       <c r="O260" s="18"/>
     </row>
     <row r="261" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="211"/>
-      <c r="B261" s="212"/>
-      <c r="C261" s="212"/>
+      <c r="A261" s="212"/>
+      <c r="B261" s="213"/>
+      <c r="C261" s="213"/>
       <c r="D261" s="204" t="s">
         <v>780</v>
       </c>
-      <c r="E261" s="212"/>
-      <c r="F261" s="212"/>
-      <c r="G261" s="212"/>
+      <c r="E261" s="213"/>
+      <c r="F261" s="213"/>
+      <c r="G261" s="213"/>
       <c r="H261" s="20"/>
       <c r="O261" s="18"/>
     </row>
     <row r="262" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="211"/>
-      <c r="B262" s="212"/>
-      <c r="C262" s="212"/>
+      <c r="A262" s="212"/>
+      <c r="B262" s="213"/>
+      <c r="C262" s="213"/>
       <c r="D262" s="204" t="s">
         <v>781</v>
       </c>
-      <c r="E262" s="212"/>
-      <c r="F262" s="212"/>
-      <c r="G262" s="212"/>
+      <c r="E262" s="213"/>
+      <c r="F262" s="213"/>
+      <c r="G262" s="213"/>
       <c r="H262" s="20"/>
       <c r="O262" s="18"/>
     </row>
     <row r="263" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="211"/>
-      <c r="B263" s="212"/>
-      <c r="C263" s="212"/>
+      <c r="A263" s="212"/>
+      <c r="B263" s="213"/>
+      <c r="C263" s="213"/>
       <c r="D263" s="204" t="s">
         <v>779</v>
       </c>
-      <c r="E263" s="212">
+      <c r="E263" s="213">
         <v>2</v>
       </c>
-      <c r="F263" s="212"/>
-      <c r="G263" s="212"/>
+      <c r="F263" s="213"/>
+      <c r="G263" s="213"/>
       <c r="H263" s="20"/>
       <c r="O263" s="18"/>
     </row>
     <row r="264" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="211"/>
-      <c r="B264" s="212"/>
-      <c r="C264" s="212"/>
+      <c r="A264" s="212"/>
+      <c r="B264" s="213"/>
+      <c r="C264" s="213"/>
       <c r="D264" s="204" t="s">
         <v>782</v>
       </c>
-      <c r="E264" s="212"/>
-      <c r="F264" s="212"/>
-      <c r="G264" s="212"/>
+      <c r="E264" s="213"/>
+      <c r="F264" s="213"/>
+      <c r="G264" s="213"/>
       <c r="H264" s="20"/>
       <c r="O264" s="18"/>
     </row>
     <row r="265" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="211"/>
-      <c r="B265" s="212"/>
-      <c r="C265" s="212"/>
+      <c r="A265" s="212"/>
+      <c r="B265" s="213"/>
+      <c r="C265" s="213"/>
       <c r="D265" s="204" t="s">
         <v>781</v>
       </c>
-      <c r="E265" s="212"/>
-      <c r="F265" s="212"/>
-      <c r="G265" s="212"/>
+      <c r="E265" s="213"/>
+      <c r="F265" s="213"/>
+      <c r="G265" s="213"/>
       <c r="H265" s="20"/>
       <c r="O265" s="18"/>
     </row>
@@ -11257,13 +11286,13 @@
       <c r="O266" s="18"/>
     </row>
     <row r="267" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="211">
+      <c r="A267" s="212">
         <v>45334</v>
       </c>
-      <c r="B267" s="212" t="s">
+      <c r="B267" s="213" t="s">
         <v>888</v>
       </c>
-      <c r="C267" s="212" t="s">
+      <c r="C267" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D267" s="204" t="s">
@@ -11272,42 +11301,42 @@
       <c r="E267" s="204">
         <v>10</v>
       </c>
-      <c r="F267" s="212" t="s">
+      <c r="F267" s="213" t="s">
         <v>887</v>
       </c>
-      <c r="G267" s="212" t="s">
+      <c r="G267" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H267" s="20"/>
       <c r="O267" s="18"/>
     </row>
     <row r="268" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="211"/>
-      <c r="B268" s="212"/>
-      <c r="C268" s="212"/>
+      <c r="A268" s="212"/>
+      <c r="B268" s="213"/>
+      <c r="C268" s="213"/>
       <c r="D268" s="204" t="s">
         <v>171</v>
       </c>
       <c r="E268" s="204">
         <v>10</v>
       </c>
-      <c r="F268" s="212"/>
-      <c r="G268" s="212"/>
+      <c r="F268" s="213"/>
+      <c r="G268" s="213"/>
       <c r="H268" s="20"/>
       <c r="O268" s="18"/>
     </row>
     <row r="269" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="211"/>
-      <c r="B269" s="212"/>
-      <c r="C269" s="212"/>
+      <c r="A269" s="212"/>
+      <c r="B269" s="213"/>
+      <c r="C269" s="213"/>
       <c r="D269" s="204" t="s">
         <v>318</v>
       </c>
       <c r="E269" s="204">
         <v>5</v>
       </c>
-      <c r="F269" s="212"/>
-      <c r="G269" s="212"/>
+      <c r="F269" s="213"/>
+      <c r="G269" s="213"/>
       <c r="H269" s="20"/>
       <c r="O269" s="18"/>
     </row>
@@ -11323,13 +11352,13 @@
       <c r="O270" s="18"/>
     </row>
     <row r="271" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="211">
+      <c r="A271" s="212">
         <v>45336</v>
       </c>
-      <c r="B271" s="212" t="s">
+      <c r="B271" s="213" t="s">
         <v>891</v>
       </c>
-      <c r="C271" s="213" t="s">
+      <c r="C271" s="214" t="s">
         <v>163</v>
       </c>
       <c r="D271" s="206" t="s">
@@ -11338,27 +11367,27 @@
       <c r="E271" s="206">
         <v>30</v>
       </c>
-      <c r="F271" s="212" t="s">
+      <c r="F271" s="213" t="s">
         <v>887</v>
       </c>
-      <c r="G271" s="212" t="s">
+      <c r="G271" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H271" s="20"/>
       <c r="O271" s="18"/>
     </row>
     <row r="272" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="211"/>
-      <c r="B272" s="212"/>
-      <c r="C272" s="213"/>
+      <c r="A272" s="212"/>
+      <c r="B272" s="213"/>
+      <c r="C272" s="214"/>
       <c r="D272" s="206" t="s">
         <v>175</v>
       </c>
       <c r="E272" s="206">
         <v>30</v>
       </c>
-      <c r="F272" s="212"/>
-      <c r="G272" s="212"/>
+      <c r="F272" s="213"/>
+      <c r="G272" s="213"/>
       <c r="H272" s="20"/>
       <c r="O272" s="18"/>
     </row>
@@ -11410,13 +11439,13 @@
       <c r="O275" s="18"/>
     </row>
     <row r="276" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="211">
+      <c r="A276" s="212">
         <v>45357</v>
       </c>
-      <c r="B276" s="212" t="s">
+      <c r="B276" s="213" t="s">
         <v>929</v>
       </c>
-      <c r="C276" s="212" t="s">
+      <c r="C276" s="213" t="s">
         <v>169</v>
       </c>
       <c r="D276" s="209" t="s">
@@ -11425,27 +11454,27 @@
       <c r="E276" s="209">
         <v>11</v>
       </c>
-      <c r="F276" s="212" t="s">
+      <c r="F276" s="213" t="s">
         <v>887</v>
       </c>
-      <c r="G276" s="212" t="s">
+      <c r="G276" s="213" t="s">
         <v>159</v>
       </c>
       <c r="H276" s="20"/>
       <c r="O276" s="18"/>
     </row>
     <row r="277" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="211"/>
-      <c r="B277" s="212"/>
-      <c r="C277" s="212"/>
+      <c r="A277" s="212"/>
+      <c r="B277" s="213"/>
+      <c r="C277" s="213"/>
       <c r="D277" s="209" t="s">
         <v>171</v>
       </c>
       <c r="E277" s="209">
         <v>5</v>
       </c>
-      <c r="F277" s="212"/>
-      <c r="G277" s="212"/>
+      <c r="F277" s="213"/>
+      <c r="G277" s="213"/>
       <c r="H277" s="20"/>
       <c r="O277" s="18"/>
     </row>
@@ -11461,13 +11490,13 @@
       <c r="O278" s="18"/>
     </row>
     <row r="279" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="211">
+      <c r="A279" s="212">
         <v>45358</v>
       </c>
-      <c r="B279" s="212" t="s">
+      <c r="B279" s="213" t="s">
         <v>933</v>
       </c>
-      <c r="C279" s="212" t="s">
+      <c r="C279" s="213" t="s">
         <v>432</v>
       </c>
       <c r="D279" s="209" t="s">
@@ -11476,27 +11505,27 @@
       <c r="E279" s="209">
         <v>15</v>
       </c>
-      <c r="F279" s="212" t="s">
+      <c r="F279" s="213" t="s">
         <v>887</v>
       </c>
-      <c r="G279" s="212" t="s">
+      <c r="G279" s="213" t="s">
         <v>176</v>
       </c>
       <c r="H279" s="20"/>
       <c r="O279" s="18"/>
     </row>
     <row r="280" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="211"/>
-      <c r="B280" s="212"/>
-      <c r="C280" s="212"/>
+      <c r="A280" s="212"/>
+      <c r="B280" s="213"/>
+      <c r="C280" s="213"/>
       <c r="D280" s="209" t="s">
         <v>934</v>
       </c>
       <c r="E280" s="209">
         <v>10</v>
       </c>
-      <c r="F280" s="212"/>
-      <c r="G280" s="212"/>
+      <c r="F280" s="213"/>
+      <c r="G280" s="213"/>
       <c r="H280" s="20"/>
       <c r="O280" s="18"/>
     </row>
@@ -11987,7 +12016,11 @@
       <c r="O344" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="296">
+  <mergeCells count="300">
+    <mergeCell ref="I213:I215"/>
+    <mergeCell ref="J213:J215"/>
+    <mergeCell ref="K213:K215"/>
+    <mergeCell ref="N213:N215"/>
     <mergeCell ref="A276:A277"/>
     <mergeCell ref="B276:B277"/>
     <mergeCell ref="C276:C277"/>
@@ -12292,12 +12325,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A54" sqref="A54"/>
-      <selection pane="bottomLeft" activeCell="C205" sqref="C205"/>
+      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16867,6 +16900,27 @@
         <v>45358</v>
       </c>
       <c r="G203" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="42">
+        <v>45358</v>
+      </c>
+      <c r="B204" s="43"/>
+      <c r="C204" s="43" t="s">
+        <v>656</v>
+      </c>
+      <c r="D204" s="43">
+        <v>360</v>
+      </c>
+      <c r="E204" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F204" s="42">
+        <v>45358</v>
+      </c>
+      <c r="G204" s="43" t="s">
         <v>58</v>
       </c>
     </row>
@@ -17004,10 +17058,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="220"/>
+      <c r="C2" s="221"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -17127,12 +17181,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C170" sqref="C170"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18576,6 +18630,20 @@
       </c>
       <c r="H60" s="69"/>
       <c r="I60" s="70"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="44">
+        <v>45358</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>935</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="29">
+        <v>168741</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -18605,10 +18673,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T636"/>
+  <dimension ref="A1:T638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A631" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A637" sqref="A637"/>
+    <sheetView tabSelected="1" topLeftCell="A628" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A639" sqref="A639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -18629,28 +18697,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="221"/>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="221"/>
-      <c r="S1" s="221"/>
-      <c r="T1" s="221"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="222"/>
+      <c r="T1" s="222"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -29265,7 +29333,7 @@
         <v>65</v>
       </c>
       <c r="F627" s="22">
-        <f>F626-E627</f>
+        <f t="shared" ref="F627:F633" si="37">F626-E627</f>
         <v>2241</v>
       </c>
     </row>
@@ -29283,7 +29351,7 @@
         <v>1000</v>
       </c>
       <c r="F628" s="22">
-        <f>F627-E628</f>
+        <f t="shared" si="37"/>
         <v>1241</v>
       </c>
     </row>
@@ -29301,7 +29369,7 @@
         <v>50</v>
       </c>
       <c r="F629" s="22">
-        <f>F628-E629</f>
+        <f t="shared" si="37"/>
         <v>1191</v>
       </c>
     </row>
@@ -29319,7 +29387,7 @@
         <v>200</v>
       </c>
       <c r="F630" s="22">
-        <f>F629-E630</f>
+        <f t="shared" si="37"/>
         <v>991</v>
       </c>
     </row>
@@ -29337,7 +29405,7 @@
         <v>80</v>
       </c>
       <c r="F631" s="22">
-        <f>F630-E631</f>
+        <f t="shared" si="37"/>
         <v>911</v>
       </c>
     </row>
@@ -29355,7 +29423,7 @@
         <v>20</v>
       </c>
       <c r="F632" s="22">
-        <f>F631-E632</f>
+        <f t="shared" si="37"/>
         <v>891</v>
       </c>
     </row>
@@ -29373,7 +29441,7 @@
         <v>200</v>
       </c>
       <c r="F633" s="22">
-        <f>F632-E633</f>
+        <f t="shared" si="37"/>
         <v>691</v>
       </c>
     </row>
@@ -29423,6 +29491,42 @@
       <c r="F636" s="22">
         <f>F635-E636</f>
         <v>3041</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A637" s="24">
+        <v>45358</v>
+      </c>
+      <c r="B637" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="C637" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E637" s="22">
+        <v>1200</v>
+      </c>
+      <c r="F637" s="22">
+        <f>F636-E637</f>
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A638" s="24">
+        <v>45359</v>
+      </c>
+      <c r="B638" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C638" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E638" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F638" s="22">
+        <f>F637-E638</f>
+        <v>841</v>
       </c>
     </row>
   </sheetData>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="939">
   <si>
     <t>Date</t>
   </si>
@@ -2848,6 +2848,12 @@
   </si>
   <si>
     <t>Cement dust collector bellow dia245mm</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>Petrol (7597)</t>
   </si>
 </sst>
 </file>
@@ -4137,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView topLeftCell="E199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I217" sqref="I217"/>
+    <sheetView topLeftCell="A272" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12026,6 +12032,13 @@
     <mergeCell ref="C276:C277"/>
     <mergeCell ref="F276:F277"/>
     <mergeCell ref="G276:G277"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="E243:E245"/>
+    <mergeCell ref="F243:F245"/>
+    <mergeCell ref="G243:G245"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="C235:C239"/>
     <mergeCell ref="A279:A280"/>
     <mergeCell ref="B279:B280"/>
     <mergeCell ref="C279:C280"/>
@@ -12044,6 +12057,12 @@
     <mergeCell ref="C230:C231"/>
     <mergeCell ref="F230:F231"/>
     <mergeCell ref="G230:G231"/>
+    <mergeCell ref="F235:F239"/>
+    <mergeCell ref="G235:G239"/>
+    <mergeCell ref="B260:B265"/>
+    <mergeCell ref="C260:C265"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="B243:B245"/>
     <mergeCell ref="I200:I204"/>
     <mergeCell ref="J200:J204"/>
     <mergeCell ref="K158:K164"/>
@@ -12077,15 +12096,6 @@
     <mergeCell ref="N155:N156"/>
     <mergeCell ref="I126:I127"/>
     <mergeCell ref="J126:J127"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="N92:N95"/>
-    <mergeCell ref="K101:K102"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="J45:J46"/>
     <mergeCell ref="K45:K46"/>
@@ -12097,11 +12107,10 @@
     <mergeCell ref="J84:J90"/>
     <mergeCell ref="K84:K90"/>
     <mergeCell ref="N84:N90"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I60:I64"/>
     <mergeCell ref="A178:A181"/>
     <mergeCell ref="B178:B181"/>
     <mergeCell ref="C178:C181"/>
@@ -12198,10 +12207,15 @@
     <mergeCell ref="C37:C40"/>
     <mergeCell ref="F37:F40"/>
     <mergeCell ref="G37:G40"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
     <mergeCell ref="K60:K64"/>
     <mergeCell ref="N60:N64"/>
     <mergeCell ref="I66:I73"/>
@@ -12213,17 +12227,25 @@
     <mergeCell ref="K75:K78"/>
     <mergeCell ref="N75:N78"/>
     <mergeCell ref="J80:J82"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="N92:N95"/>
+    <mergeCell ref="I117:I119"/>
+    <mergeCell ref="J117:J119"/>
+    <mergeCell ref="K117:K119"/>
+    <mergeCell ref="N117:N119"/>
+    <mergeCell ref="K113:K115"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="K101:K102"/>
     <mergeCell ref="N101:N102"/>
     <mergeCell ref="A109:A112"/>
     <mergeCell ref="B109:B112"/>
@@ -12241,13 +12263,6 @@
     <mergeCell ref="N106:N111"/>
     <mergeCell ref="I101:I102"/>
     <mergeCell ref="J101:J102"/>
-    <mergeCell ref="I117:I119"/>
-    <mergeCell ref="J117:J119"/>
-    <mergeCell ref="K117:K119"/>
-    <mergeCell ref="N117:N119"/>
-    <mergeCell ref="F235:F239"/>
-    <mergeCell ref="G235:G239"/>
-    <mergeCell ref="K113:K115"/>
     <mergeCell ref="N113:N115"/>
     <mergeCell ref="A169:A170"/>
     <mergeCell ref="B169:B170"/>
@@ -12269,15 +12284,9 @@
     <mergeCell ref="A118:A119"/>
     <mergeCell ref="B118:B119"/>
     <mergeCell ref="C118:C119"/>
-    <mergeCell ref="B260:B265"/>
-    <mergeCell ref="C260:C265"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="E243:E245"/>
-    <mergeCell ref="F243:F245"/>
-    <mergeCell ref="G243:G245"/>
     <mergeCell ref="G126:G129"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
     <mergeCell ref="A202:A207"/>
     <mergeCell ref="B202:B207"/>
     <mergeCell ref="C202:C207"/>
@@ -12290,9 +12299,6 @@
     <mergeCell ref="C185:C186"/>
     <mergeCell ref="F185:F186"/>
     <mergeCell ref="G185:G186"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="B235:B239"/>
-    <mergeCell ref="C235:C239"/>
     <mergeCell ref="I206:I211"/>
     <mergeCell ref="J206:J211"/>
     <mergeCell ref="K206:K211"/>
@@ -12328,7 +12334,7 @@
   <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A54" sqref="A54"/>
       <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
     </sheetView>
@@ -15060,21 +15066,27 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="40">
+      <c r="A120" s="42">
         <v>45240</v>
       </c>
-      <c r="B120" s="39" t="s">
+      <c r="B120" s="43" t="s">
         <v>592</v>
       </c>
-      <c r="C120" s="39" t="s">
+      <c r="C120" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="D120" s="39">
+      <c r="D120" s="43">
         <v>39412</v>
       </c>
-      <c r="E120" s="39"/>
-      <c r="F120" s="40"/>
-      <c r="G120" s="39"/>
+      <c r="E120" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" s="42">
+        <v>45360</v>
+      </c>
+      <c r="G120" s="43" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="42">
@@ -17185,8 +17197,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C170" sqref="C170"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <selection activeCell="H617" sqref="H617"/>
+      <selection pane="bottomLeft" activeCell="H617" sqref="H617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18673,10 +18685,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T638"/>
+  <dimension ref="A1:T644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A628" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A639" sqref="A639"/>
+    <sheetView tabSelected="1" topLeftCell="A627" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A645" sqref="A645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -29177,8 +29189,8 @@
         <v>2686</v>
       </c>
       <c r="H617" s="22">
-        <f>-263-51+3000+13426-13426-500+3700-3700-1900-65-1000-50+2000-200-80-200</f>
-        <v>691</v>
+        <f>-263-51+3000+13426-13426-500+3700-3700-1900-65-1000-50+2000-200-80-200-80-208-142-150-112</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.3">
@@ -29471,7 +29483,7 @@
         <v>1100</v>
       </c>
       <c r="F635" s="22">
-        <f>F634-E635</f>
+        <f t="shared" ref="F635:F641" si="38">F634-E635</f>
         <v>3091</v>
       </c>
     </row>
@@ -29489,7 +29501,7 @@
         <v>50</v>
       </c>
       <c r="F636" s="22">
-        <f>F635-E636</f>
+        <f t="shared" si="38"/>
         <v>3041</v>
       </c>
     </row>
@@ -29507,7 +29519,7 @@
         <v>1200</v>
       </c>
       <c r="F637" s="22">
-        <f>F636-E637</f>
+        <f t="shared" si="38"/>
         <v>1841</v>
       </c>
     </row>
@@ -29525,8 +29537,116 @@
         <v>1000</v>
       </c>
       <c r="F638" s="22">
-        <f>F637-E638</f>
+        <f t="shared" si="38"/>
         <v>841</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A639" s="24">
+        <v>45360</v>
+      </c>
+      <c r="B639" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C639" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E639" s="22">
+        <v>80</v>
+      </c>
+      <c r="F639" s="22">
+        <f t="shared" si="38"/>
+        <v>761</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A640" s="24">
+        <v>45360</v>
+      </c>
+      <c r="B640" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C640" s="22" t="s">
+        <v>937</v>
+      </c>
+      <c r="E640" s="22">
+        <v>99</v>
+      </c>
+      <c r="F640" s="22">
+        <f t="shared" si="38"/>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A641" s="24">
+        <v>45360</v>
+      </c>
+      <c r="B641" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C641" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="E641" s="22">
+        <v>109</v>
+      </c>
+      <c r="F641" s="22">
+        <f t="shared" si="38"/>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A642" s="24">
+        <v>45362</v>
+      </c>
+      <c r="B642" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C642" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E642" s="22">
+        <v>142</v>
+      </c>
+      <c r="F642" s="22">
+        <f>F641-E642</f>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A643" s="24">
+        <v>45362</v>
+      </c>
+      <c r="B643" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C643" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="E643" s="22">
+        <v>150</v>
+      </c>
+      <c r="F643" s="22">
+        <f>F642-E643</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A644" s="24">
+        <v>45362</v>
+      </c>
+      <c r="B644" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C644" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E644" s="22">
+        <v>112</v>
+      </c>
+      <c r="F644" s="22">
+        <f>F643-E644</f>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -29543,8 +29663,8 @@
   <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F211" sqref="F211:F212"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3294" uniqueCount="943">
   <si>
     <t>Date</t>
   </si>
@@ -2854,6 +2854,18 @@
   </si>
   <si>
     <t>Petrol (7597)</t>
+  </si>
+  <si>
+    <t>giga 8</t>
+  </si>
+  <si>
+    <t>100 8</t>
+  </si>
+  <si>
+    <t>Gauresh</t>
+  </si>
+  <si>
+    <t>Anil</t>
   </si>
 </sst>
 </file>
@@ -3809,7 +3821,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3818,13 +3836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4168,25 +4180,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
       <c r="H1" s="32"/>
-      <c r="I1" s="218" t="s">
+      <c r="I1" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
     </row>
     <row r="2" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -5439,13 +5451,13 @@
       <c r="O45" s="18"/>
     </row>
     <row r="46" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="215">
+      <c r="A46" s="217">
         <v>45056</v>
       </c>
-      <c r="B46" s="216" t="s">
+      <c r="B46" s="218" t="s">
         <v>255</v>
       </c>
-      <c r="C46" s="216" t="s">
+      <c r="C46" s="218" t="s">
         <v>233</v>
       </c>
       <c r="D46" s="88" t="s">
@@ -5454,10 +5466,10 @@
       <c r="E46" s="88">
         <v>1</v>
       </c>
-      <c r="F46" s="216" t="s">
+      <c r="F46" s="218" t="s">
         <v>198</v>
       </c>
-      <c r="G46" s="216" t="s">
+      <c r="G46" s="218" t="s">
         <v>159</v>
       </c>
       <c r="H46" s="52"/>
@@ -5474,17 +5486,17 @@
       <c r="O46" s="18"/>
     </row>
     <row r="47" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="215"/>
-      <c r="B47" s="216"/>
-      <c r="C47" s="216"/>
+      <c r="A47" s="217"/>
+      <c r="B47" s="218"/>
+      <c r="C47" s="218"/>
       <c r="D47" s="89" t="s">
         <v>257</v>
       </c>
       <c r="E47" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="F47" s="216"/>
-      <c r="G47" s="216"/>
+      <c r="F47" s="218"/>
+      <c r="G47" s="218"/>
       <c r="H47" s="62"/>
       <c r="I47" s="53"/>
       <c r="J47" s="21"/>
@@ -7715,7 +7727,7 @@
       <c r="L126" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="M126" s="219">
+      <c r="M126" s="214">
         <v>10</v>
       </c>
       <c r="N126" s="213" t="s">
@@ -7742,7 +7754,7 @@
       <c r="L127" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="M127" s="219"/>
+      <c r="M127" s="214"/>
       <c r="N127" s="213"/>
       <c r="O127" s="18"/>
     </row>
@@ -11364,7 +11376,7 @@
       <c r="B271" s="213" t="s">
         <v>891</v>
       </c>
-      <c r="C271" s="214" t="s">
+      <c r="C271" s="219" t="s">
         <v>163</v>
       </c>
       <c r="D271" s="206" t="s">
@@ -11385,7 +11397,7 @@
     <row r="272" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="212"/>
       <c r="B272" s="213"/>
-      <c r="C272" s="214"/>
+      <c r="C272" s="219"/>
       <c r="D272" s="206" t="s">
         <v>175</v>
       </c>
@@ -12023,22 +12035,266 @@
     </row>
   </sheetData>
   <mergeCells count="300">
-    <mergeCell ref="I213:I215"/>
-    <mergeCell ref="J213:J215"/>
-    <mergeCell ref="K213:K215"/>
-    <mergeCell ref="N213:N215"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="F276:F277"/>
-    <mergeCell ref="G276:G277"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="E243:E245"/>
-    <mergeCell ref="F243:F245"/>
-    <mergeCell ref="G243:G245"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="B235:B239"/>
-    <mergeCell ref="C235:C239"/>
+    <mergeCell ref="I206:I211"/>
+    <mergeCell ref="J206:J211"/>
+    <mergeCell ref="K206:K211"/>
+    <mergeCell ref="N206:N211"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="F271:F272"/>
+    <mergeCell ref="G271:G272"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="F251:F252"/>
+    <mergeCell ref="G251:G252"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="F267:F269"/>
+    <mergeCell ref="G267:G269"/>
+    <mergeCell ref="E260:E262"/>
+    <mergeCell ref="E263:E265"/>
+    <mergeCell ref="F260:F265"/>
+    <mergeCell ref="G260:G265"/>
+    <mergeCell ref="A260:A265"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="A202:A207"/>
+    <mergeCell ref="B202:B207"/>
+    <mergeCell ref="C202:C207"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="E205:E207"/>
+    <mergeCell ref="F202:F207"/>
+    <mergeCell ref="G202:G207"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="F103:F107"/>
+    <mergeCell ref="I106:I111"/>
+    <mergeCell ref="J106:J111"/>
+    <mergeCell ref="K106:K111"/>
+    <mergeCell ref="N106:N111"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="N113:N115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="I117:I119"/>
+    <mergeCell ref="J117:J119"/>
+    <mergeCell ref="K117:K119"/>
+    <mergeCell ref="N117:N119"/>
+    <mergeCell ref="K113:K115"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="G103:G107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="N75:N78"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="N92:N95"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="I18:I24"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="K18:K24"/>
+    <mergeCell ref="N18:N24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="N9:N14"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="F178:F181"/>
+    <mergeCell ref="G178:G181"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="N80:N82"/>
+    <mergeCell ref="I84:I90"/>
+    <mergeCell ref="J84:J90"/>
+    <mergeCell ref="K84:K90"/>
+    <mergeCell ref="N84:N90"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="I66:I73"/>
+    <mergeCell ref="J66:J73"/>
+    <mergeCell ref="K66:K73"/>
+    <mergeCell ref="N66:N73"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="M126:M127"/>
+    <mergeCell ref="N126:N127"/>
+    <mergeCell ref="I131:I153"/>
+    <mergeCell ref="J131:J153"/>
+    <mergeCell ref="K131:K153"/>
+    <mergeCell ref="N131:N153"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="I200:I204"/>
+    <mergeCell ref="J200:J204"/>
+    <mergeCell ref="K158:K164"/>
+    <mergeCell ref="N158:N164"/>
+    <mergeCell ref="I166:I168"/>
+    <mergeCell ref="J166:J168"/>
+    <mergeCell ref="K166:K168"/>
+    <mergeCell ref="N166:N168"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="I158:I164"/>
+    <mergeCell ref="J158:J164"/>
+    <mergeCell ref="K200:K204"/>
+    <mergeCell ref="N200:N204"/>
+    <mergeCell ref="I189:I194"/>
+    <mergeCell ref="J189:J194"/>
+    <mergeCell ref="K189:K194"/>
+    <mergeCell ref="N189:N194"/>
     <mergeCell ref="A279:A280"/>
     <mergeCell ref="B279:B280"/>
     <mergeCell ref="C279:C280"/>
@@ -12063,266 +12319,22 @@
     <mergeCell ref="C260:C265"/>
     <mergeCell ref="A243:A245"/>
     <mergeCell ref="B243:B245"/>
-    <mergeCell ref="I200:I204"/>
-    <mergeCell ref="J200:J204"/>
-    <mergeCell ref="K158:K164"/>
-    <mergeCell ref="N158:N164"/>
-    <mergeCell ref="I166:I168"/>
-    <mergeCell ref="J166:J168"/>
-    <mergeCell ref="K166:K168"/>
-    <mergeCell ref="N166:N168"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="I158:I164"/>
-    <mergeCell ref="J158:J164"/>
-    <mergeCell ref="K200:K204"/>
-    <mergeCell ref="N200:N204"/>
-    <mergeCell ref="I189:I194"/>
-    <mergeCell ref="J189:J194"/>
-    <mergeCell ref="K189:K194"/>
-    <mergeCell ref="N189:N194"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="M126:M127"/>
-    <mergeCell ref="N126:N127"/>
-    <mergeCell ref="I131:I153"/>
-    <mergeCell ref="J131:J153"/>
-    <mergeCell ref="K131:K153"/>
-    <mergeCell ref="N131:N153"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="N80:N82"/>
-    <mergeCell ref="I84:I90"/>
-    <mergeCell ref="J84:J90"/>
-    <mergeCell ref="K84:K90"/>
-    <mergeCell ref="N84:N90"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="F178:F181"/>
-    <mergeCell ref="G178:G181"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="K9:K14"/>
-    <mergeCell ref="N9:N14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="I18:I24"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="K18:K24"/>
-    <mergeCell ref="N18:N24"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="J66:J73"/>
-    <mergeCell ref="K66:K73"/>
-    <mergeCell ref="N66:N73"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="N75:N78"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="N92:N95"/>
-    <mergeCell ref="I117:I119"/>
-    <mergeCell ref="J117:J119"/>
-    <mergeCell ref="K117:K119"/>
-    <mergeCell ref="N117:N119"/>
-    <mergeCell ref="K113:K115"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="G103:G107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="F103:F107"/>
-    <mergeCell ref="I106:I111"/>
-    <mergeCell ref="J106:J111"/>
-    <mergeCell ref="K106:K111"/>
-    <mergeCell ref="N106:N111"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="N113:N115"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="A202:A207"/>
-    <mergeCell ref="B202:B207"/>
-    <mergeCell ref="C202:C207"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="E205:E207"/>
-    <mergeCell ref="F202:F207"/>
-    <mergeCell ref="G202:G207"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="I206:I211"/>
-    <mergeCell ref="J206:J211"/>
-    <mergeCell ref="K206:K211"/>
-    <mergeCell ref="N206:N211"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="F271:F272"/>
-    <mergeCell ref="G271:G272"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="F251:F252"/>
-    <mergeCell ref="G251:G252"/>
-    <mergeCell ref="A267:A269"/>
-    <mergeCell ref="B267:B269"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="F267:F269"/>
-    <mergeCell ref="G267:G269"/>
-    <mergeCell ref="E260:E262"/>
-    <mergeCell ref="E263:E265"/>
-    <mergeCell ref="F260:F265"/>
-    <mergeCell ref="G260:G265"/>
-    <mergeCell ref="A260:A265"/>
+    <mergeCell ref="I213:I215"/>
+    <mergeCell ref="J213:J215"/>
+    <mergeCell ref="K213:K215"/>
+    <mergeCell ref="N213:N215"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="F276:F277"/>
+    <mergeCell ref="G276:G277"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="E243:E245"/>
+    <mergeCell ref="F243:F245"/>
+    <mergeCell ref="G243:G245"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="C235:C239"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -18685,10 +18697,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T644"/>
+  <dimension ref="A1:T686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A627" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A645" sqref="A645"/>
+    <sheetView tabSelected="1" topLeftCell="A663" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C678" sqref="C678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -18702,7 +18714,7 @@
     <col min="7" max="7" width="11.109375" style="22" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="22" customWidth="1"/>
     <col min="9" max="9" width="5.44140625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="22" customWidth="1"/>
     <col min="11" max="11" width="5.21875" style="22" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" style="22" customWidth="1"/>
     <col min="13" max="16384" width="9.109375" style="22"/>
@@ -29189,8 +29201,8 @@
         <v>2686</v>
       </c>
       <c r="H617" s="22">
-        <f>-263-51+3000+13426-13426-500+3700-3700-1900-65-1000-50+2000-200-80-200-80-208-142-150-112</f>
-        <v>-1</v>
+        <f>-263-51+3000+13426-13426-500+3700-3700-1900-65-1000-50+2000-200-80-200-80-208-142-150-112-51</f>
+        <v>-52</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.3">
@@ -29647,6 +29659,113 @@
       <c r="F644" s="22">
         <f>F643-E644</f>
         <v>149</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A645" s="24">
+        <v>45362</v>
+      </c>
+      <c r="B645" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C645" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="E645" s="22">
+        <v>20</v>
+      </c>
+      <c r="F645" s="22">
+        <f>F644-E645</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A646" s="24">
+        <v>45362</v>
+      </c>
+      <c r="B646" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C646" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E646" s="22">
+        <v>51</v>
+      </c>
+      <c r="F646" s="22">
+        <f>F645-E646</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="681" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H681" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="J681" s="22" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="682" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H682" s="22">
+        <f>11400*2</f>
+        <v>22800</v>
+      </c>
+      <c r="J682" s="22">
+        <f>11800*2</f>
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="683" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C683" s="22">
+        <f>6000*1.18</f>
+        <v>7080</v>
+      </c>
+      <c r="D683" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="H683" s="22">
+        <f>6900*5</f>
+        <v>34500</v>
+      </c>
+      <c r="J683" s="22">
+        <f>7080*5</f>
+        <v>35400</v>
+      </c>
+    </row>
+    <row r="684" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C684" s="22">
+        <f>3950*1.18</f>
+        <v>4661</v>
+      </c>
+      <c r="D684" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="H684" s="22">
+        <f>SUM(H682:H683)</f>
+        <v>57300</v>
+      </c>
+      <c r="J684" s="22">
+        <f>SUM(J682:J683)</f>
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="685" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C685" s="22">
+        <f>10000*1.18</f>
+        <v>11800</v>
+      </c>
+      <c r="D685" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="686" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C686" s="22">
+        <f>SUM(C683:C685)</f>
+        <v>23541</v>
+      </c>
+      <c r="J686" s="22">
+        <f>J684-H684</f>
+        <v>1700</v>
       </c>
     </row>
   </sheetData>
@@ -29663,8 +29782,8 @@
   <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3294" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="939">
   <si>
     <t>Date</t>
   </si>
@@ -2854,18 +2854,6 @@
   </si>
   <si>
     <t>Petrol (7597)</t>
-  </si>
-  <si>
-    <t>giga 8</t>
-  </si>
-  <si>
-    <t>100 8</t>
-  </si>
-  <si>
-    <t>Gauresh</t>
-  </si>
-  <si>
-    <t>Anil</t>
   </si>
 </sst>
 </file>
@@ -3186,7 +3174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3815,13 +3803,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3830,13 +3827,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3846,6 +3837,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4180,25 +4177,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
       <c r="H1" s="32"/>
-      <c r="I1" s="216" t="s">
+      <c r="I1" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-      <c r="M1" s="216"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="216"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
     </row>
     <row r="2" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -4279,13 +4276,13 @@
         <v>140</v>
       </c>
       <c r="H4" s="52"/>
-      <c r="I4" s="212">
+      <c r="I4" s="213">
         <v>45020</v>
       </c>
-      <c r="J4" s="213" t="s">
+      <c r="J4" s="214" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="213" t="s">
+      <c r="K4" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L4" s="59" t="s">
@@ -4294,7 +4291,7 @@
       <c r="M4" s="59">
         <v>5</v>
       </c>
-      <c r="N4" s="213" t="s">
+      <c r="N4" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O4" s="18"/>
@@ -4308,16 +4305,16 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="54"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="214"/>
       <c r="L5" s="59" t="s">
         <v>180</v>
       </c>
       <c r="M5" s="59">
         <v>5</v>
       </c>
-      <c r="N5" s="213"/>
+      <c r="N5" s="214"/>
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4343,16 +4340,16 @@
         <v>140</v>
       </c>
       <c r="H6" s="20"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="213"/>
-      <c r="K6" s="213"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
       <c r="L6" s="59" t="s">
         <v>181</v>
       </c>
       <c r="M6" s="59">
         <v>6</v>
       </c>
-      <c r="N6" s="213"/>
+      <c r="N6" s="214"/>
       <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4364,26 +4361,26 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="52"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="213"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="59" t="s">
         <v>182</v>
       </c>
       <c r="M7" s="59">
         <v>2</v>
       </c>
-      <c r="N7" s="213"/>
+      <c r="N7" s="214"/>
       <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="212">
+      <c r="A8" s="213">
         <v>45033</v>
       </c>
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="214" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="48" t="s">
@@ -4392,10 +4389,10 @@
       <c r="E8" s="48">
         <v>10</v>
       </c>
-      <c r="F8" s="213" t="s">
+      <c r="F8" s="214" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="213" t="s">
+      <c r="G8" s="214" t="s">
         <v>140</v>
       </c>
       <c r="H8" s="62"/>
@@ -4408,25 +4405,25 @@
       <c r="O8" s="63"/>
     </row>
     <row r="9" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="212"/>
-      <c r="B9" s="213"/>
-      <c r="C9" s="213"/>
+      <c r="A9" s="213"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="214"/>
       <c r="D9" s="48" t="s">
         <v>171</v>
       </c>
       <c r="E9" s="48">
         <v>20</v>
       </c>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="212">
+      <c r="I9" s="213">
         <v>45020</v>
       </c>
-      <c r="J9" s="213" t="s">
+      <c r="J9" s="214" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="213" t="s">
+      <c r="K9" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L9" s="59" t="s">
@@ -4435,59 +4432,59 @@
       <c r="M9" s="59">
         <v>10</v>
       </c>
-      <c r="N9" s="213" t="s">
+      <c r="N9" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="212"/>
-      <c r="B10" s="213"/>
-      <c r="C10" s="213"/>
+      <c r="A10" s="213"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="214"/>
       <c r="D10" s="48" t="s">
         <v>172</v>
       </c>
       <c r="E10" s="48">
         <v>5</v>
       </c>
-      <c r="F10" s="213"/>
-      <c r="G10" s="213"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
       <c r="L10" s="59" t="s">
         <v>183</v>
       </c>
       <c r="M10" s="59">
         <v>10</v>
       </c>
-      <c r="N10" s="213"/>
+      <c r="N10" s="214"/>
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="212"/>
-      <c r="B11" s="213"/>
-      <c r="C11" s="213"/>
+      <c r="A11" s="213"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="214"/>
       <c r="D11" s="48" t="s">
         <v>174</v>
       </c>
       <c r="E11" s="48">
         <v>5</v>
       </c>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="214"/>
       <c r="L11" s="59" t="s">
         <v>184</v>
       </c>
       <c r="M11" s="59">
         <v>19</v>
       </c>
-      <c r="N11" s="213"/>
+      <c r="N11" s="214"/>
       <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4499,16 +4496,16 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="52"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="214"/>
+      <c r="K12" s="214"/>
       <c r="L12" s="59" t="s">
         <v>185</v>
       </c>
       <c r="M12" s="59">
         <v>2</v>
       </c>
-      <c r="N12" s="213"/>
+      <c r="N12" s="214"/>
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" s="48" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -4534,16 +4531,16 @@
         <v>140</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="213"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="214"/>
       <c r="L13" s="59" t="s">
         <v>186</v>
       </c>
       <c r="M13" s="59">
         <v>2</v>
       </c>
-      <c r="N13" s="213"/>
+      <c r="N13" s="214"/>
       <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4555,16 +4552,16 @@
       <c r="F14" s="55"/>
       <c r="G14" s="55"/>
       <c r="H14" s="52"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="213"/>
-      <c r="K14" s="213"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="214"/>
       <c r="L14" s="59" t="s">
         <v>187</v>
       </c>
       <c r="M14" s="59">
         <v>10</v>
       </c>
-      <c r="N14" s="213"/>
+      <c r="N14" s="214"/>
       <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4628,13 +4625,13 @@
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="212">
+      <c r="A17" s="213">
         <v>45033</v>
       </c>
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="214" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="213" t="s">
+      <c r="C17" s="214" t="s">
         <v>163</v>
       </c>
       <c r="D17" s="57" t="s">
@@ -4643,10 +4640,10 @@
       <c r="E17" s="57">
         <v>10</v>
       </c>
-      <c r="F17" s="213" t="s">
+      <c r="F17" s="214" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="213" t="s">
+      <c r="G17" s="214" t="s">
         <v>140</v>
       </c>
       <c r="H17" s="64"/>
@@ -4659,25 +4656,25 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="212"/>
-      <c r="B18" s="213"/>
-      <c r="C18" s="213"/>
+      <c r="A18" s="213"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="214"/>
       <c r="D18" s="57" t="s">
         <v>177</v>
       </c>
       <c r="E18" s="57">
         <v>100</v>
       </c>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="212">
+      <c r="I18" s="213">
         <v>45033</v>
       </c>
-      <c r="J18" s="213" t="s">
+      <c r="J18" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="213" t="s">
+      <c r="K18" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L18" s="59" t="s">
@@ -4686,7 +4683,7 @@
       <c r="M18" s="59">
         <v>10</v>
       </c>
-      <c r="N18" s="213" t="s">
+      <c r="N18" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O18" s="18"/>
@@ -4700,16 +4697,16 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="52"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="214"/>
       <c r="L19" s="59" t="s">
         <v>179</v>
       </c>
       <c r="M19" s="59">
         <v>15</v>
       </c>
-      <c r="N19" s="213"/>
+      <c r="N19" s="214"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" s="48" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4735,16 +4732,16 @@
         <v>159</v>
       </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="213"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="214"/>
+      <c r="K20" s="214"/>
       <c r="L20" s="59" t="s">
         <v>181</v>
       </c>
       <c r="M20" s="59">
         <v>9</v>
       </c>
-      <c r="N20" s="213"/>
+      <c r="N20" s="214"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4756,16 +4753,16 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="52"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="213"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="214"/>
+      <c r="K21" s="214"/>
       <c r="L21" s="59" t="s">
         <v>187</v>
       </c>
       <c r="M21" s="59">
         <v>5</v>
       </c>
-      <c r="N21" s="213"/>
+      <c r="N21" s="214"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4791,16 +4788,16 @@
         <v>159</v>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="212"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="213"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="214"/>
       <c r="L22" s="59" t="s">
         <v>183</v>
       </c>
       <c r="M22" s="59">
         <v>20</v>
       </c>
-      <c r="N22" s="213"/>
+      <c r="N22" s="214"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4812,26 +4809,26 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="52"/>
-      <c r="I23" s="212"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="213"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="214"/>
+      <c r="K23" s="214"/>
       <c r="L23" s="59" t="s">
         <v>188</v>
       </c>
       <c r="M23" s="59">
         <v>30.5</v>
       </c>
-      <c r="N23" s="213"/>
+      <c r="N23" s="214"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="212">
+      <c r="A24" s="213">
         <v>45042</v>
       </c>
-      <c r="B24" s="213" t="s">
+      <c r="B24" s="214" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="213" t="s">
+      <c r="C24" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="71" t="s">
@@ -4840,37 +4837,37 @@
       <c r="E24" s="71">
         <v>15</v>
       </c>
-      <c r="F24" s="213" t="s">
+      <c r="F24" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="213" t="s">
+      <c r="G24" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H24" s="20"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="213"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="214"/>
       <c r="L24" s="59" t="s">
         <v>189</v>
       </c>
       <c r="M24" s="59">
         <v>10</v>
       </c>
-      <c r="N24" s="213"/>
+      <c r="N24" s="214"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="212"/>
-      <c r="B25" s="213"/>
-      <c r="C25" s="213"/>
+      <c r="A25" s="213"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="214"/>
       <c r="D25" s="71" t="s">
         <v>172</v>
       </c>
       <c r="E25" s="71">
         <v>17</v>
       </c>
-      <c r="F25" s="213"/>
-      <c r="G25" s="213"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
       <c r="H25" s="62"/>
       <c r="I25" s="53"/>
       <c r="J25" s="21"/>
@@ -4889,13 +4886,13 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="52"/>
-      <c r="I26" s="212">
+      <c r="I26" s="213">
         <v>45033</v>
       </c>
-      <c r="J26" s="213" t="s">
+      <c r="J26" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="213" t="s">
+      <c r="K26" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L26" s="59" t="s">
@@ -4904,7 +4901,7 @@
       <c r="M26" s="59">
         <v>40</v>
       </c>
-      <c r="N26" s="213" t="s">
+      <c r="N26" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O26" s="18"/>
@@ -4932,16 +4929,16 @@
         <v>159</v>
       </c>
       <c r="H27" s="20"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="213"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="214"/>
       <c r="L27" s="59" t="s">
         <v>191</v>
       </c>
       <c r="M27" s="59">
         <v>100</v>
       </c>
-      <c r="N27" s="213"/>
+      <c r="N27" s="214"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4984,13 +4981,13 @@
         <v>159</v>
       </c>
       <c r="H29" s="20"/>
-      <c r="I29" s="212">
+      <c r="I29" s="213">
         <v>45038</v>
       </c>
-      <c r="J29" s="213" t="s">
+      <c r="J29" s="214" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="213" t="s">
+      <c r="K29" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L29" s="79" t="s">
@@ -4999,7 +4996,7 @@
       <c r="M29" s="79">
         <v>12</v>
       </c>
-      <c r="N29" s="213" t="s">
+      <c r="N29" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O29" s="18"/>
@@ -5013,26 +5010,26 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="52"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="213"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="214"/>
+      <c r="K30" s="214"/>
       <c r="L30" s="79" t="s">
         <v>216</v>
       </c>
       <c r="M30" s="79">
         <v>10</v>
       </c>
-      <c r="N30" s="213"/>
+      <c r="N30" s="214"/>
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="212">
+      <c r="A31" s="213">
         <v>45049</v>
       </c>
-      <c r="B31" s="213" t="s">
+      <c r="B31" s="214" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="213" t="s">
+      <c r="C31" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D31" s="77" t="s">
@@ -5041,10 +5038,10 @@
       <c r="E31" s="77">
         <v>20</v>
       </c>
-      <c r="F31" s="213" t="s">
+      <c r="F31" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="G31" s="213" t="s">
+      <c r="G31" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H31" s="62"/>
@@ -5057,25 +5054,25 @@
       <c r="O31" s="63"/>
     </row>
     <row r="32" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="212"/>
-      <c r="B32" s="213"/>
-      <c r="C32" s="213"/>
+      <c r="A32" s="213"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="214"/>
       <c r="D32" s="77" t="s">
         <v>205</v>
       </c>
       <c r="E32" s="77">
         <v>5</v>
       </c>
-      <c r="F32" s="213"/>
-      <c r="G32" s="213"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="214"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="212">
+      <c r="I32" s="213">
         <v>45043</v>
       </c>
-      <c r="J32" s="213" t="s">
+      <c r="J32" s="214" t="s">
         <v>203</v>
       </c>
-      <c r="K32" s="213" t="s">
+      <c r="K32" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L32" s="79" t="s">
@@ -5084,34 +5081,34 @@
       <c r="M32" s="79">
         <v>17</v>
       </c>
-      <c r="N32" s="213" t="s">
+      <c r="N32" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="212"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
+      <c r="A33" s="213"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="214"/>
       <c r="D33" s="77" t="s">
         <v>174</v>
       </c>
       <c r="E33" s="77">
         <v>4</v>
       </c>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="214"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="212"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="214"/>
+      <c r="K33" s="214"/>
       <c r="L33" s="79" t="s">
         <v>185</v>
       </c>
       <c r="M33" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="N33" s="213"/>
+      <c r="N33" s="214"/>
       <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5154,13 +5151,13 @@
         <v>159</v>
       </c>
       <c r="H35" s="20"/>
-      <c r="I35" s="212">
+      <c r="I35" s="213">
         <v>45051</v>
       </c>
-      <c r="J35" s="213" t="s">
+      <c r="J35" s="214" t="s">
         <v>219</v>
       </c>
-      <c r="K35" s="213" t="s">
+      <c r="K35" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L35" s="80" t="s">
@@ -5169,7 +5166,7 @@
       <c r="M35" s="80">
         <v>20</v>
       </c>
-      <c r="N35" s="213" t="s">
+      <c r="N35" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O35" s="18"/>
@@ -5183,26 +5180,26 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="52"/>
-      <c r="I36" s="212"/>
-      <c r="J36" s="213"/>
-      <c r="K36" s="213"/>
+      <c r="I36" s="213"/>
+      <c r="J36" s="214"/>
+      <c r="K36" s="214"/>
       <c r="L36" s="80" t="s">
         <v>187</v>
       </c>
       <c r="M36" s="80">
         <v>3</v>
       </c>
-      <c r="N36" s="213"/>
+      <c r="N36" s="214"/>
       <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="212">
+      <c r="A37" s="213">
         <v>45051</v>
       </c>
-      <c r="B37" s="213" t="s">
+      <c r="B37" s="214" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="213" t="s">
+      <c r="C37" s="214" t="s">
         <v>226</v>
       </c>
       <c r="D37" s="84" t="s">
@@ -5211,37 +5208,37 @@
       <c r="E37" s="84">
         <v>33</v>
       </c>
-      <c r="F37" s="213" t="s">
+      <c r="F37" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="G37" s="213" t="s">
+      <c r="G37" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H37" s="20"/>
-      <c r="I37" s="212"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="213"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="214"/>
+      <c r="K37" s="214"/>
       <c r="L37" s="80" t="s">
         <v>190</v>
       </c>
       <c r="M37" s="80">
         <v>30</v>
       </c>
-      <c r="N37" s="213"/>
+      <c r="N37" s="214"/>
       <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="212"/>
-      <c r="B38" s="213"/>
-      <c r="C38" s="213"/>
+      <c r="A38" s="213"/>
+      <c r="B38" s="214"/>
+      <c r="C38" s="214"/>
       <c r="D38" s="84" t="s">
         <v>251</v>
       </c>
       <c r="E38" s="84">
         <v>1</v>
       </c>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
       <c r="H38" s="62"/>
       <c r="I38" s="53"/>
       <c r="J38" s="21"/>
@@ -5252,25 +5249,25 @@
       <c r="O38" s="63"/>
     </row>
     <row r="39" spans="1:15" s="48" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="212"/>
-      <c r="B39" s="213"/>
-      <c r="C39" s="213"/>
+      <c r="A39" s="213"/>
+      <c r="B39" s="214"/>
+      <c r="C39" s="214"/>
       <c r="D39" s="84" t="s">
         <v>252</v>
       </c>
       <c r="E39" s="84">
         <v>1</v>
       </c>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
+      <c r="F39" s="214"/>
+      <c r="G39" s="214"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="212">
+      <c r="I39" s="213">
         <v>45051</v>
       </c>
-      <c r="J39" s="213" t="s">
+      <c r="J39" s="214" t="s">
         <v>220</v>
       </c>
-      <c r="K39" s="213" t="s">
+      <c r="K39" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L39" s="80" t="s">
@@ -5279,34 +5276,34 @@
       <c r="M39" s="80">
         <v>15</v>
       </c>
-      <c r="N39" s="213" t="s">
+      <c r="N39" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="212"/>
-      <c r="B40" s="213"/>
-      <c r="C40" s="213"/>
+      <c r="A40" s="213"/>
+      <c r="B40" s="214"/>
+      <c r="C40" s="214"/>
       <c r="D40" s="84" t="s">
         <v>253</v>
       </c>
       <c r="E40" s="84">
         <v>1</v>
       </c>
-      <c r="F40" s="213"/>
-      <c r="G40" s="213"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="212"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="213"/>
+      <c r="I40" s="213"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="214"/>
       <c r="L40" s="80" t="s">
         <v>185</v>
       </c>
       <c r="M40" s="80">
         <v>5</v>
       </c>
-      <c r="N40" s="213"/>
+      <c r="N40" s="214"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5318,16 +5315,16 @@
       <c r="F41" s="65"/>
       <c r="G41" s="65"/>
       <c r="H41" s="52"/>
-      <c r="I41" s="212"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="213"/>
+      <c r="I41" s="213"/>
+      <c r="J41" s="214"/>
+      <c r="K41" s="214"/>
       <c r="L41" s="80" t="s">
         <v>222</v>
       </c>
       <c r="M41" s="80">
         <v>2</v>
       </c>
-      <c r="N41" s="213"/>
+      <c r="N41" s="214"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5430,13 +5427,13 @@
       <c r="F45" s="90"/>
       <c r="G45" s="90"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="212">
+      <c r="I45" s="213">
         <v>45058</v>
       </c>
-      <c r="J45" s="213" t="s">
+      <c r="J45" s="214" t="s">
         <v>244</v>
       </c>
-      <c r="K45" s="213" t="s">
+      <c r="K45" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L45" s="97" t="s">
@@ -5445,19 +5442,19 @@
       <c r="M45" s="97">
         <v>1</v>
       </c>
-      <c r="N45" s="213" t="s">
+      <c r="N45" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O45" s="18"/>
     </row>
     <row r="46" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="217">
+      <c r="A46" s="216">
         <v>45056</v>
       </c>
-      <c r="B46" s="218" t="s">
+      <c r="B46" s="217" t="s">
         <v>255</v>
       </c>
-      <c r="C46" s="218" t="s">
+      <c r="C46" s="217" t="s">
         <v>233</v>
       </c>
       <c r="D46" s="88" t="s">
@@ -5466,37 +5463,37 @@
       <c r="E46" s="88">
         <v>1</v>
       </c>
-      <c r="F46" s="218" t="s">
+      <c r="F46" s="217" t="s">
         <v>198</v>
       </c>
-      <c r="G46" s="218" t="s">
+      <c r="G46" s="217" t="s">
         <v>159</v>
       </c>
       <c r="H46" s="52"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="213"/>
-      <c r="K46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="214"/>
+      <c r="K46" s="214"/>
       <c r="L46" s="97" t="s">
         <v>269</v>
       </c>
       <c r="M46" s="97">
         <v>4</v>
       </c>
-      <c r="N46" s="213"/>
+      <c r="N46" s="214"/>
       <c r="O46" s="18"/>
     </row>
     <row r="47" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="217"/>
-      <c r="B47" s="218"/>
-      <c r="C47" s="218"/>
+      <c r="A47" s="216"/>
+      <c r="B47" s="217"/>
+      <c r="C47" s="217"/>
       <c r="D47" s="89" t="s">
         <v>257</v>
       </c>
       <c r="E47" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="F47" s="218"/>
-      <c r="G47" s="218"/>
+      <c r="F47" s="217"/>
+      <c r="G47" s="217"/>
       <c r="H47" s="62"/>
       <c r="I47" s="53"/>
       <c r="J47" s="21"/>
@@ -5575,13 +5572,13 @@
       <c r="F50" s="95"/>
       <c r="G50" s="95"/>
       <c r="H50" s="52"/>
-      <c r="I50" s="212">
+      <c r="I50" s="213">
         <v>45063</v>
       </c>
-      <c r="J50" s="213" t="s">
+      <c r="J50" s="214" t="s">
         <v>267</v>
       </c>
-      <c r="K50" s="213" t="s">
+      <c r="K50" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L50" s="97" t="s">
@@ -5590,7 +5587,7 @@
       <c r="M50" s="97">
         <v>8</v>
       </c>
-      <c r="N50" s="213" t="s">
+      <c r="N50" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O50" s="18"/>
@@ -5618,16 +5615,16 @@
         <v>159</v>
       </c>
       <c r="H51" s="20"/>
-      <c r="I51" s="212"/>
-      <c r="J51" s="213"/>
-      <c r="K51" s="213"/>
+      <c r="I51" s="213"/>
+      <c r="J51" s="214"/>
+      <c r="K51" s="214"/>
       <c r="L51" s="97" t="s">
         <v>183</v>
       </c>
       <c r="M51" s="97">
         <v>7</v>
       </c>
-      <c r="N51" s="213"/>
+      <c r="N51" s="214"/>
       <c r="O51" s="18"/>
     </row>
     <row r="52" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5639,16 +5636,16 @@
       <c r="F52" s="90"/>
       <c r="G52" s="90"/>
       <c r="H52" s="52"/>
-      <c r="I52" s="212"/>
-      <c r="J52" s="213"/>
-      <c r="K52" s="213"/>
+      <c r="I52" s="213"/>
+      <c r="J52" s="214"/>
+      <c r="K52" s="214"/>
       <c r="L52" s="97" t="s">
         <v>185</v>
       </c>
       <c r="M52" s="97">
         <v>5</v>
       </c>
-      <c r="N52" s="213"/>
+      <c r="N52" s="214"/>
       <c r="O52" s="18"/>
     </row>
     <row r="53" spans="1:15" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5674,16 +5671,16 @@
         <v>159</v>
       </c>
       <c r="H53" s="20"/>
-      <c r="I53" s="212"/>
-      <c r="J53" s="213"/>
-      <c r="K53" s="213"/>
+      <c r="I53" s="213"/>
+      <c r="J53" s="214"/>
+      <c r="K53" s="214"/>
       <c r="L53" s="97" t="s">
         <v>270</v>
       </c>
       <c r="M53" s="97">
         <v>25</v>
       </c>
-      <c r="N53" s="213"/>
+      <c r="N53" s="214"/>
       <c r="O53" s="18"/>
     </row>
     <row r="54" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5764,13 +5761,13 @@
       <c r="O56" s="63"/>
     </row>
     <row r="57" spans="1:15" s="48" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="212">
+      <c r="A57" s="213">
         <v>45061</v>
       </c>
-      <c r="B57" s="213" t="s">
+      <c r="B57" s="214" t="s">
         <v>263</v>
       </c>
-      <c r="C57" s="213" t="s">
+      <c r="C57" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D57" s="86" t="s">
@@ -5779,20 +5776,20 @@
       <c r="E57" s="86">
         <v>4</v>
       </c>
-      <c r="F57" s="213" t="s">
+      <c r="F57" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="G57" s="213" t="s">
+      <c r="G57" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="212">
+      <c r="I57" s="213">
         <v>45070</v>
       </c>
-      <c r="J57" s="213" t="s">
+      <c r="J57" s="214" t="s">
         <v>278</v>
       </c>
-      <c r="K57" s="213" t="s">
+      <c r="K57" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L57" s="99" t="s">
@@ -5801,48 +5798,48 @@
       <c r="M57" s="98">
         <v>14</v>
       </c>
-      <c r="N57" s="213" t="s">
+      <c r="N57" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O57" s="18"/>
     </row>
     <row r="58" spans="1:15" s="48" customFormat="1" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="212"/>
-      <c r="B58" s="213"/>
-      <c r="C58" s="213"/>
+      <c r="A58" s="213"/>
+      <c r="B58" s="214"/>
+      <c r="C58" s="214"/>
       <c r="D58" s="86" t="s">
         <v>171</v>
       </c>
       <c r="E58" s="86">
         <v>7</v>
       </c>
-      <c r="F58" s="213"/>
-      <c r="G58" s="213"/>
+      <c r="F58" s="214"/>
+      <c r="G58" s="214"/>
       <c r="H58" s="20"/>
-      <c r="I58" s="212"/>
-      <c r="J58" s="213"/>
-      <c r="K58" s="213"/>
+      <c r="I58" s="213"/>
+      <c r="J58" s="214"/>
+      <c r="K58" s="214"/>
       <c r="L58" s="99" t="s">
         <v>281</v>
       </c>
       <c r="M58" s="98">
         <v>10</v>
       </c>
-      <c r="N58" s="213"/>
+      <c r="N58" s="214"/>
       <c r="O58" s="18"/>
     </row>
     <row r="59" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="212"/>
-      <c r="B59" s="213"/>
-      <c r="C59" s="213"/>
+      <c r="A59" s="213"/>
+      <c r="B59" s="214"/>
+      <c r="C59" s="214"/>
       <c r="D59" s="86" t="s">
         <v>205</v>
       </c>
       <c r="E59" s="86">
         <v>5</v>
       </c>
-      <c r="F59" s="213"/>
-      <c r="G59" s="213"/>
+      <c r="F59" s="214"/>
+      <c r="G59" s="214"/>
       <c r="H59" s="62"/>
       <c r="I59" s="53"/>
       <c r="J59" s="21"/>
@@ -5861,13 +5858,13 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
       <c r="H60" s="52"/>
-      <c r="I60" s="212">
+      <c r="I60" s="213">
         <v>45070</v>
       </c>
-      <c r="J60" s="213" t="s">
+      <c r="J60" s="214" t="s">
         <v>279</v>
       </c>
-      <c r="K60" s="213" t="s">
+      <c r="K60" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L60" s="99" t="s">
@@ -5876,7 +5873,7 @@
       <c r="M60" s="98">
         <v>3</v>
       </c>
-      <c r="N60" s="213" t="s">
+      <c r="N60" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O60" s="18"/>
@@ -5904,16 +5901,16 @@
         <v>159</v>
       </c>
       <c r="H61" s="20"/>
-      <c r="I61" s="212"/>
-      <c r="J61" s="213"/>
-      <c r="K61" s="213"/>
+      <c r="I61" s="213"/>
+      <c r="J61" s="214"/>
+      <c r="K61" s="214"/>
       <c r="L61" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M61" s="98">
         <v>2</v>
       </c>
-      <c r="N61" s="213"/>
+      <c r="N61" s="214"/>
       <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5925,26 +5922,26 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="52"/>
-      <c r="I62" s="212"/>
-      <c r="J62" s="213"/>
-      <c r="K62" s="213"/>
+      <c r="I62" s="213"/>
+      <c r="J62" s="214"/>
+      <c r="K62" s="214"/>
       <c r="L62" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M62" s="98">
         <v>7</v>
       </c>
-      <c r="N62" s="213"/>
+      <c r="N62" s="214"/>
       <c r="O62" s="18"/>
     </row>
     <row r="63" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="212">
+      <c r="A63" s="213">
         <v>45065</v>
       </c>
-      <c r="B63" s="213" t="s">
+      <c r="B63" s="214" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="213" t="s">
+      <c r="C63" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D63" s="102" t="s">
@@ -5953,62 +5950,62 @@
       <c r="E63" s="102">
         <v>6</v>
       </c>
-      <c r="F63" s="213" t="s">
+      <c r="F63" s="214" t="s">
         <v>228</v>
       </c>
-      <c r="G63" s="213" t="s">
+      <c r="G63" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H63" s="52"/>
-      <c r="I63" s="212"/>
-      <c r="J63" s="213"/>
-      <c r="K63" s="213"/>
+      <c r="I63" s="213"/>
+      <c r="J63" s="214"/>
+      <c r="K63" s="214"/>
       <c r="L63" s="99" t="s">
         <v>283</v>
       </c>
       <c r="M63" s="98">
         <v>10</v>
       </c>
-      <c r="N63" s="213"/>
+      <c r="N63" s="214"/>
       <c r="O63" s="18"/>
     </row>
     <row r="64" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="212"/>
-      <c r="B64" s="213"/>
-      <c r="C64" s="213"/>
+      <c r="A64" s="213"/>
+      <c r="B64" s="214"/>
+      <c r="C64" s="214"/>
       <c r="D64" s="102" t="s">
         <v>171</v>
       </c>
       <c r="E64" s="102">
         <v>8</v>
       </c>
-      <c r="F64" s="213"/>
-      <c r="G64" s="213"/>
+      <c r="F64" s="214"/>
+      <c r="G64" s="214"/>
       <c r="H64" s="52"/>
-      <c r="I64" s="212"/>
-      <c r="J64" s="213"/>
-      <c r="K64" s="213"/>
+      <c r="I64" s="213"/>
+      <c r="J64" s="214"/>
+      <c r="K64" s="214"/>
       <c r="L64" s="100" t="s">
         <v>284</v>
       </c>
       <c r="M64" s="98">
         <v>3</v>
       </c>
-      <c r="N64" s="213"/>
+      <c r="N64" s="214"/>
       <c r="O64" s="18"/>
     </row>
     <row r="65" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="212"/>
-      <c r="B65" s="213"/>
-      <c r="C65" s="213"/>
+      <c r="A65" s="213"/>
+      <c r="B65" s="214"/>
+      <c r="C65" s="214"/>
       <c r="D65" s="102" t="s">
         <v>290</v>
       </c>
       <c r="E65" s="102">
         <v>10</v>
       </c>
-      <c r="F65" s="213"/>
-      <c r="G65" s="213"/>
+      <c r="F65" s="214"/>
+      <c r="G65" s="214"/>
       <c r="H65" s="64"/>
       <c r="I65" s="53"/>
       <c r="J65" s="21"/>
@@ -6019,25 +6016,25 @@
       <c r="O65" s="63"/>
     </row>
     <row r="66" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="212"/>
-      <c r="B66" s="213"/>
-      <c r="C66" s="213"/>
+      <c r="A66" s="213"/>
+      <c r="B66" s="214"/>
+      <c r="C66" s="214"/>
       <c r="D66" s="102" t="s">
         <v>291</v>
       </c>
       <c r="E66" s="102">
         <v>3</v>
       </c>
-      <c r="F66" s="213"/>
-      <c r="G66" s="213"/>
+      <c r="F66" s="214"/>
+      <c r="G66" s="214"/>
       <c r="H66" s="52"/>
-      <c r="I66" s="212">
+      <c r="I66" s="213">
         <v>45080</v>
       </c>
-      <c r="J66" s="213" t="s">
+      <c r="J66" s="214" t="s">
         <v>313</v>
       </c>
-      <c r="K66" s="213" t="s">
+      <c r="K66" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L66" s="116" t="s">
@@ -6046,7 +6043,7 @@
       <c r="M66" s="116">
         <v>50</v>
       </c>
-      <c r="N66" s="213" t="s">
+      <c r="N66" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O66" s="18"/>
@@ -6060,16 +6057,16 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
       <c r="H67" s="52"/>
-      <c r="I67" s="212"/>
-      <c r="J67" s="213"/>
-      <c r="K67" s="213"/>
+      <c r="I67" s="213"/>
+      <c r="J67" s="214"/>
+      <c r="K67" s="214"/>
       <c r="L67" s="116" t="s">
         <v>222</v>
       </c>
       <c r="M67" s="116">
         <v>54</v>
       </c>
-      <c r="N67" s="213"/>
+      <c r="N67" s="214"/>
       <c r="O67" s="18"/>
     </row>
     <row r="68" spans="1:15" s="48" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
@@ -6095,16 +6092,16 @@
         <v>159</v>
       </c>
       <c r="H68" s="20"/>
-      <c r="I68" s="212"/>
-      <c r="J68" s="213"/>
-      <c r="K68" s="213"/>
+      <c r="I68" s="213"/>
+      <c r="J68" s="214"/>
+      <c r="K68" s="214"/>
       <c r="L68" s="116" t="s">
         <v>191</v>
       </c>
       <c r="M68" s="116">
         <v>70</v>
       </c>
-      <c r="N68" s="213"/>
+      <c r="N68" s="214"/>
       <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6116,16 +6113,16 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
       <c r="H69" s="20"/>
-      <c r="I69" s="212"/>
-      <c r="J69" s="213"/>
-      <c r="K69" s="213"/>
+      <c r="I69" s="213"/>
+      <c r="J69" s="214"/>
+      <c r="K69" s="214"/>
       <c r="L69" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M69" s="116">
         <v>19</v>
       </c>
-      <c r="N69" s="213"/>
+      <c r="N69" s="214"/>
       <c r="O69" s="18"/>
     </row>
     <row r="70" spans="1:15" s="48" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6151,16 +6148,16 @@
         <v>159</v>
       </c>
       <c r="H70" s="20"/>
-      <c r="I70" s="212"/>
-      <c r="J70" s="213"/>
-      <c r="K70" s="213"/>
+      <c r="I70" s="213"/>
+      <c r="J70" s="214"/>
+      <c r="K70" s="214"/>
       <c r="L70" s="116" t="s">
         <v>344</v>
       </c>
       <c r="M70" s="116">
         <v>10</v>
       </c>
-      <c r="N70" s="213"/>
+      <c r="N70" s="214"/>
       <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6172,16 +6169,16 @@
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
       <c r="H71" s="20"/>
-      <c r="I71" s="212"/>
-      <c r="J71" s="213"/>
-      <c r="K71" s="213"/>
+      <c r="I71" s="213"/>
+      <c r="J71" s="214"/>
+      <c r="K71" s="214"/>
       <c r="L71" s="116" t="s">
         <v>187</v>
       </c>
       <c r="M71" s="116">
         <v>13</v>
       </c>
-      <c r="N71" s="213"/>
+      <c r="N71" s="214"/>
       <c r="O71" s="18"/>
     </row>
     <row r="72" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6207,16 +6204,16 @@
         <v>159</v>
       </c>
       <c r="H72" s="20"/>
-      <c r="I72" s="212"/>
-      <c r="J72" s="213"/>
-      <c r="K72" s="213"/>
+      <c r="I72" s="213"/>
+      <c r="J72" s="214"/>
+      <c r="K72" s="214"/>
       <c r="L72" s="116" t="s">
         <v>184</v>
       </c>
       <c r="M72" s="116">
         <v>10</v>
       </c>
-      <c r="N72" s="213"/>
+      <c r="N72" s="214"/>
       <c r="O72" s="18"/>
     </row>
     <row r="73" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6228,16 +6225,16 @@
       <c r="F73" s="65"/>
       <c r="G73" s="65"/>
       <c r="H73" s="52"/>
-      <c r="I73" s="212"/>
-      <c r="J73" s="213"/>
-      <c r="K73" s="213"/>
+      <c r="I73" s="213"/>
+      <c r="J73" s="214"/>
+      <c r="K73" s="214"/>
       <c r="L73" s="116" t="s">
         <v>190</v>
       </c>
       <c r="M73" s="116">
         <v>50</v>
       </c>
-      <c r="N73" s="213"/>
+      <c r="N73" s="214"/>
       <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6280,13 +6277,13 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
       <c r="H75" s="52"/>
-      <c r="I75" s="212">
+      <c r="I75" s="213">
         <v>45080</v>
       </c>
-      <c r="J75" s="213" t="s">
+      <c r="J75" s="214" t="s">
         <v>314</v>
       </c>
-      <c r="K75" s="213" t="s">
+      <c r="K75" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L75" s="116" t="s">
@@ -6295,7 +6292,7 @@
       <c r="M75" s="116">
         <v>7</v>
       </c>
-      <c r="N75" s="213" t="s">
+      <c r="N75" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O75" s="18"/>
@@ -6323,16 +6320,16 @@
         <v>159</v>
       </c>
       <c r="H76" s="20"/>
-      <c r="I76" s="212"/>
-      <c r="J76" s="213"/>
-      <c r="K76" s="213"/>
+      <c r="I76" s="213"/>
+      <c r="J76" s="214"/>
+      <c r="K76" s="214"/>
       <c r="L76" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M76" s="116">
         <v>4</v>
       </c>
-      <c r="N76" s="213"/>
+      <c r="N76" s="214"/>
       <c r="O76" s="18"/>
     </row>
     <row r="77" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6344,16 +6341,16 @@
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
       <c r="H77" s="52"/>
-      <c r="I77" s="212"/>
-      <c r="J77" s="213"/>
-      <c r="K77" s="213"/>
+      <c r="I77" s="213"/>
+      <c r="J77" s="214"/>
+      <c r="K77" s="214"/>
       <c r="L77" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M77" s="116">
         <v>1</v>
       </c>
-      <c r="N77" s="213"/>
+      <c r="N77" s="214"/>
       <c r="O77" s="18"/>
     </row>
     <row r="78" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6379,16 +6376,16 @@
         <v>159</v>
       </c>
       <c r="H78" s="20"/>
-      <c r="I78" s="212"/>
-      <c r="J78" s="213"/>
-      <c r="K78" s="213"/>
+      <c r="I78" s="213"/>
+      <c r="J78" s="214"/>
+      <c r="K78" s="214"/>
       <c r="L78" s="116" t="s">
         <v>182</v>
       </c>
       <c r="M78" s="116">
         <v>1</v>
       </c>
-      <c r="N78" s="213"/>
+      <c r="N78" s="214"/>
       <c r="O78" s="18"/>
     </row>
     <row r="79" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6409,13 +6406,13 @@
       <c r="O79" s="63"/>
     </row>
     <row r="80" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="212">
+      <c r="A80" s="213">
         <v>45078</v>
       </c>
-      <c r="B80" s="213" t="s">
+      <c r="B80" s="214" t="s">
         <v>301</v>
       </c>
-      <c r="C80" s="213" t="s">
+      <c r="C80" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D80" s="105" t="s">
@@ -6424,20 +6421,20 @@
       <c r="E80" s="105">
         <v>10</v>
       </c>
-      <c r="F80" s="213" t="s">
+      <c r="F80" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="G80" s="213" t="s">
+      <c r="G80" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H80" s="20"/>
-      <c r="I80" s="212">
+      <c r="I80" s="213">
         <v>45090</v>
       </c>
-      <c r="J80" s="213" t="s">
+      <c r="J80" s="214" t="s">
         <v>341</v>
       </c>
-      <c r="K80" s="213" t="s">
+      <c r="K80" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L80" s="116" t="s">
@@ -6446,73 +6443,73 @@
       <c r="M80" s="116">
         <v>17</v>
       </c>
-      <c r="N80" s="213" t="s">
+      <c r="N80" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O80" s="18"/>
     </row>
     <row r="81" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="212"/>
-      <c r="B81" s="213"/>
-      <c r="C81" s="213"/>
+      <c r="A81" s="213"/>
+      <c r="B81" s="214"/>
+      <c r="C81" s="214"/>
       <c r="D81" s="105" t="s">
         <v>171</v>
       </c>
       <c r="E81" s="105">
         <v>19</v>
       </c>
-      <c r="F81" s="213"/>
-      <c r="G81" s="213"/>
+      <c r="F81" s="214"/>
+      <c r="G81" s="214"/>
       <c r="H81" s="20"/>
-      <c r="I81" s="212"/>
-      <c r="J81" s="213"/>
-      <c r="K81" s="213"/>
+      <c r="I81" s="213"/>
+      <c r="J81" s="214"/>
+      <c r="K81" s="214"/>
       <c r="L81" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M81" s="116">
         <v>35</v>
       </c>
-      <c r="N81" s="213"/>
+      <c r="N81" s="214"/>
       <c r="O81" s="18"/>
     </row>
     <row r="82" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="212"/>
-      <c r="B82" s="213"/>
-      <c r="C82" s="213"/>
+      <c r="A82" s="213"/>
+      <c r="B82" s="214"/>
+      <c r="C82" s="214"/>
       <c r="D82" s="105" t="s">
         <v>170</v>
       </c>
       <c r="E82" s="105">
         <v>10</v>
       </c>
-      <c r="F82" s="213"/>
-      <c r="G82" s="213"/>
+      <c r="F82" s="214"/>
+      <c r="G82" s="214"/>
       <c r="H82" s="20"/>
-      <c r="I82" s="212"/>
-      <c r="J82" s="213"/>
-      <c r="K82" s="213"/>
+      <c r="I82" s="213"/>
+      <c r="J82" s="214"/>
+      <c r="K82" s="214"/>
       <c r="L82" s="116" t="s">
         <v>345</v>
       </c>
       <c r="M82" s="116">
         <v>1</v>
       </c>
-      <c r="N82" s="213"/>
+      <c r="N82" s="214"/>
       <c r="O82" s="18"/>
     </row>
     <row r="83" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="212"/>
-      <c r="B83" s="213"/>
-      <c r="C83" s="213"/>
+      <c r="A83" s="213"/>
+      <c r="B83" s="214"/>
+      <c r="C83" s="214"/>
       <c r="D83" s="105" t="s">
         <v>172</v>
       </c>
       <c r="E83" s="105">
         <v>13</v>
       </c>
-      <c r="F83" s="213"/>
-      <c r="G83" s="213"/>
+      <c r="F83" s="214"/>
+      <c r="G83" s="214"/>
       <c r="H83" s="62"/>
       <c r="I83" s="21"/>
       <c r="J83" s="21"/>
@@ -6531,13 +6528,13 @@
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
       <c r="H84" s="20"/>
-      <c r="I84" s="212">
+      <c r="I84" s="213">
         <v>45090</v>
       </c>
-      <c r="J84" s="213" t="s">
+      <c r="J84" s="214" t="s">
         <v>342</v>
       </c>
-      <c r="K84" s="213" t="s">
+      <c r="K84" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L84" s="100" t="s">
@@ -6546,7 +6543,7 @@
       <c r="M84" s="116">
         <v>16</v>
       </c>
-      <c r="N84" s="213" t="s">
+      <c r="N84" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O84" s="18"/>
@@ -6574,16 +6571,16 @@
         <v>159</v>
       </c>
       <c r="H85" s="20"/>
-      <c r="I85" s="212"/>
-      <c r="J85" s="213"/>
-      <c r="K85" s="213"/>
+      <c r="I85" s="213"/>
+      <c r="J85" s="214"/>
+      <c r="K85" s="214"/>
       <c r="L85" s="116" t="s">
         <v>346</v>
       </c>
       <c r="M85" s="116">
         <v>10</v>
       </c>
-      <c r="N85" s="213"/>
+      <c r="N85" s="214"/>
       <c r="O85" s="18"/>
     </row>
     <row r="86" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6595,16 +6592,16 @@
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
       <c r="H86" s="20"/>
-      <c r="I86" s="212"/>
-      <c r="J86" s="213"/>
-      <c r="K86" s="213"/>
+      <c r="I86" s="213"/>
+      <c r="J86" s="214"/>
+      <c r="K86" s="214"/>
       <c r="L86" s="116" t="s">
         <v>182</v>
       </c>
       <c r="M86" s="116">
         <v>14</v>
       </c>
-      <c r="N86" s="213"/>
+      <c r="N86" s="214"/>
       <c r="O86" s="18"/>
     </row>
     <row r="87" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6630,16 +6627,16 @@
         <v>159</v>
       </c>
       <c r="H87" s="20"/>
-      <c r="I87" s="212"/>
-      <c r="J87" s="213"/>
-      <c r="K87" s="213"/>
+      <c r="I87" s="213"/>
+      <c r="J87" s="214"/>
+      <c r="K87" s="214"/>
       <c r="L87" s="116" t="s">
         <v>347</v>
       </c>
       <c r="M87" s="116">
         <v>3</v>
       </c>
-      <c r="N87" s="213"/>
+      <c r="N87" s="214"/>
       <c r="O87" s="18"/>
     </row>
     <row r="88" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6651,26 +6648,26 @@
       <c r="F88" s="65"/>
       <c r="G88" s="65"/>
       <c r="H88" s="20"/>
-      <c r="I88" s="212"/>
-      <c r="J88" s="213"/>
-      <c r="K88" s="213"/>
+      <c r="I88" s="213"/>
+      <c r="J88" s="214"/>
+      <c r="K88" s="214"/>
       <c r="L88" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M88" s="116">
         <v>10</v>
       </c>
-      <c r="N88" s="213"/>
+      <c r="N88" s="214"/>
       <c r="O88" s="18"/>
     </row>
     <row r="89" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="212">
+      <c r="A89" s="213">
         <v>45084</v>
       </c>
-      <c r="B89" s="213" t="s">
+      <c r="B89" s="214" t="s">
         <v>317</v>
       </c>
-      <c r="C89" s="213" t="s">
+      <c r="C89" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D89" s="109" t="s">
@@ -6679,62 +6676,62 @@
       <c r="E89" s="109">
         <v>35</v>
       </c>
-      <c r="F89" s="213" t="s">
+      <c r="F89" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="G89" s="213" t="s">
+      <c r="G89" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H89" s="20"/>
-      <c r="I89" s="212"/>
-      <c r="J89" s="213"/>
-      <c r="K89" s="213"/>
+      <c r="I89" s="213"/>
+      <c r="J89" s="214"/>
+      <c r="K89" s="214"/>
       <c r="L89" s="116" t="s">
         <v>187</v>
       </c>
       <c r="M89" s="116">
         <v>8</v>
       </c>
-      <c r="N89" s="213"/>
+      <c r="N89" s="214"/>
       <c r="O89" s="18"/>
     </row>
     <row r="90" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="212"/>
-      <c r="B90" s="213"/>
-      <c r="C90" s="213"/>
+      <c r="A90" s="213"/>
+      <c r="B90" s="214"/>
+      <c r="C90" s="214"/>
       <c r="D90" s="109" t="s">
         <v>172</v>
       </c>
       <c r="E90" s="109">
         <v>17</v>
       </c>
-      <c r="F90" s="213"/>
-      <c r="G90" s="213"/>
+      <c r="F90" s="214"/>
+      <c r="G90" s="214"/>
       <c r="H90" s="20"/>
-      <c r="I90" s="212"/>
-      <c r="J90" s="213"/>
-      <c r="K90" s="213"/>
+      <c r="I90" s="213"/>
+      <c r="J90" s="214"/>
+      <c r="K90" s="214"/>
       <c r="L90" s="116" t="s">
         <v>348</v>
       </c>
       <c r="M90" s="116">
         <v>10</v>
       </c>
-      <c r="N90" s="213"/>
+      <c r="N90" s="214"/>
       <c r="O90" s="18"/>
     </row>
     <row r="91" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="212"/>
-      <c r="B91" s="213"/>
-      <c r="C91" s="213"/>
+      <c r="A91" s="213"/>
+      <c r="B91" s="214"/>
+      <c r="C91" s="214"/>
       <c r="D91" s="109" t="s">
         <v>174</v>
       </c>
       <c r="E91" s="109">
         <v>10</v>
       </c>
-      <c r="F91" s="213"/>
-      <c r="G91" s="213"/>
+      <c r="F91" s="214"/>
+      <c r="G91" s="214"/>
       <c r="H91" s="62"/>
       <c r="I91" s="74"/>
       <c r="J91" s="65"/>
@@ -6745,25 +6742,25 @@
       <c r="O91" s="63"/>
     </row>
     <row r="92" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="212"/>
-      <c r="B92" s="213"/>
-      <c r="C92" s="213"/>
+      <c r="A92" s="213"/>
+      <c r="B92" s="214"/>
+      <c r="C92" s="214"/>
       <c r="D92" s="109" t="s">
         <v>318</v>
       </c>
       <c r="E92" s="109">
         <v>5</v>
       </c>
-      <c r="F92" s="213"/>
-      <c r="G92" s="213"/>
+      <c r="F92" s="214"/>
+      <c r="G92" s="214"/>
       <c r="H92" s="20"/>
-      <c r="I92" s="212">
+      <c r="I92" s="213">
         <v>45097</v>
       </c>
-      <c r="J92" s="213" t="s">
+      <c r="J92" s="214" t="s">
         <v>358</v>
       </c>
-      <c r="K92" s="213" t="s">
+      <c r="K92" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L92" s="121" t="s">
@@ -6772,7 +6769,7 @@
       <c r="M92" s="121">
         <v>3</v>
       </c>
-      <c r="N92" s="213" t="s">
+      <c r="N92" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O92" s="18"/>
@@ -6786,16 +6783,16 @@
       <c r="F93" s="65"/>
       <c r="G93" s="65"/>
       <c r="H93" s="20"/>
-      <c r="I93" s="212"/>
-      <c r="J93" s="213"/>
-      <c r="K93" s="213"/>
+      <c r="I93" s="213"/>
+      <c r="J93" s="214"/>
+      <c r="K93" s="214"/>
       <c r="L93" s="121" t="s">
         <v>187</v>
       </c>
       <c r="M93" s="121">
         <v>12</v>
       </c>
-      <c r="N93" s="213"/>
+      <c r="N93" s="214"/>
       <c r="O93" s="18"/>
     </row>
     <row r="94" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6821,16 +6818,16 @@
         <v>159</v>
       </c>
       <c r="H94" s="20"/>
-      <c r="I94" s="212"/>
-      <c r="J94" s="213"/>
-      <c r="K94" s="213"/>
+      <c r="I94" s="213"/>
+      <c r="J94" s="214"/>
+      <c r="K94" s="214"/>
       <c r="L94" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M94" s="121">
         <v>10</v>
       </c>
-      <c r="N94" s="213"/>
+      <c r="N94" s="214"/>
       <c r="O94" s="18"/>
     </row>
     <row r="95" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6842,16 +6839,16 @@
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
       <c r="H95" s="20"/>
-      <c r="I95" s="212"/>
-      <c r="J95" s="213"/>
-      <c r="K95" s="213"/>
+      <c r="I95" s="213"/>
+      <c r="J95" s="214"/>
+      <c r="K95" s="214"/>
       <c r="L95" s="121" t="s">
         <v>344</v>
       </c>
       <c r="M95" s="121">
         <v>10</v>
       </c>
-      <c r="N95" s="213"/>
+      <c r="N95" s="214"/>
       <c r="O95" s="18"/>
     </row>
     <row r="96" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6915,13 +6912,13 @@
       <c r="O97" s="18"/>
     </row>
     <row r="98" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="212">
+      <c r="A98" s="213">
         <v>45089</v>
       </c>
-      <c r="B98" s="213" t="s">
+      <c r="B98" s="214" t="s">
         <v>336</v>
       </c>
-      <c r="C98" s="213" t="s">
+      <c r="C98" s="214" t="s">
         <v>294</v>
       </c>
       <c r="D98" s="115" t="s">
@@ -6930,10 +6927,10 @@
       <c r="E98" s="115">
         <v>1</v>
       </c>
-      <c r="F98" s="213" t="s">
+      <c r="F98" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="G98" s="213" t="s">
+      <c r="G98" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H98" s="62"/>
@@ -6946,17 +6943,17 @@
       <c r="O98" s="63"/>
     </row>
     <row r="99" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="212"/>
-      <c r="B99" s="213"/>
-      <c r="C99" s="213"/>
+      <c r="A99" s="213"/>
+      <c r="B99" s="214"/>
+      <c r="C99" s="214"/>
       <c r="D99" s="115" t="s">
         <v>338</v>
       </c>
       <c r="E99" s="115">
         <v>1</v>
       </c>
-      <c r="F99" s="213"/>
-      <c r="G99" s="213"/>
+      <c r="F99" s="214"/>
+      <c r="G99" s="214"/>
       <c r="H99" s="20"/>
       <c r="I99" s="123">
         <v>45101</v>
@@ -7018,13 +7015,13 @@
         <v>159</v>
       </c>
       <c r="H101" s="20"/>
-      <c r="I101" s="212">
+      <c r="I101" s="213">
         <v>45122</v>
       </c>
-      <c r="J101" s="213" t="s">
+      <c r="J101" s="214" t="s">
         <v>399</v>
       </c>
-      <c r="K101" s="213" t="s">
+      <c r="K101" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L101" s="100" t="s">
@@ -7033,7 +7030,7 @@
       <c r="M101" s="131">
         <v>10</v>
       </c>
-      <c r="N101" s="213" t="s">
+      <c r="N101" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O101" s="18"/>
@@ -7047,26 +7044,26 @@
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
       <c r="H102" s="20"/>
-      <c r="I102" s="212"/>
-      <c r="J102" s="213"/>
-      <c r="K102" s="213"/>
+      <c r="I102" s="213"/>
+      <c r="J102" s="214"/>
+      <c r="K102" s="214"/>
       <c r="L102" s="131" t="s">
         <v>185</v>
       </c>
       <c r="M102" s="131">
         <v>10</v>
       </c>
-      <c r="N102" s="213"/>
+      <c r="N102" s="214"/>
       <c r="O102" s="18"/>
     </row>
     <row r="103" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="212">
+      <c r="A103" s="213">
         <v>45090</v>
       </c>
-      <c r="B103" s="213" t="s">
+      <c r="B103" s="214" t="s">
         <v>330</v>
       </c>
-      <c r="C103" s="213" t="s">
+      <c r="C103" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D103" s="115" t="s">
@@ -7075,10 +7072,10 @@
       <c r="E103" s="115">
         <v>10</v>
       </c>
-      <c r="F103" s="213" t="s">
+      <c r="F103" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="G103" s="213" t="s">
+      <c r="G103" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H103" s="64"/>
@@ -7091,17 +7088,17 @@
       <c r="O103" s="63"/>
     </row>
     <row r="104" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="212"/>
-      <c r="B104" s="213"/>
-      <c r="C104" s="213"/>
+      <c r="A104" s="213"/>
+      <c r="B104" s="214"/>
+      <c r="C104" s="214"/>
       <c r="D104" s="115" t="s">
         <v>172</v>
       </c>
       <c r="E104" s="115">
         <v>8</v>
       </c>
-      <c r="F104" s="213"/>
-      <c r="G104" s="213"/>
+      <c r="F104" s="214"/>
+      <c r="G104" s="214"/>
       <c r="H104" s="52"/>
       <c r="I104" s="130">
         <v>45122</v>
@@ -7124,17 +7121,17 @@
       <c r="O104" s="18"/>
     </row>
     <row r="105" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="212"/>
-      <c r="B105" s="213"/>
-      <c r="C105" s="213"/>
+      <c r="A105" s="213"/>
+      <c r="B105" s="214"/>
+      <c r="C105" s="214"/>
       <c r="D105" s="115" t="s">
         <v>174</v>
       </c>
       <c r="E105" s="115">
         <v>10</v>
       </c>
-      <c r="F105" s="213"/>
-      <c r="G105" s="213"/>
+      <c r="F105" s="214"/>
+      <c r="G105" s="214"/>
       <c r="H105" s="64"/>
       <c r="I105" s="53"/>
       <c r="J105" s="21"/>
@@ -7145,25 +7142,25 @@
       <c r="O105" s="63"/>
     </row>
     <row r="106" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="212"/>
-      <c r="B106" s="213"/>
-      <c r="C106" s="213"/>
+      <c r="A106" s="213"/>
+      <c r="B106" s="214"/>
+      <c r="C106" s="214"/>
       <c r="D106" s="115" t="s">
         <v>318</v>
       </c>
       <c r="E106" s="115">
         <v>5</v>
       </c>
-      <c r="F106" s="213"/>
-      <c r="G106" s="213"/>
+      <c r="F106" s="214"/>
+      <c r="G106" s="214"/>
       <c r="H106" s="64"/>
-      <c r="I106" s="212">
+      <c r="I106" s="213">
         <v>45143</v>
       </c>
-      <c r="J106" s="213" t="s">
+      <c r="J106" s="214" t="s">
         <v>430</v>
       </c>
-      <c r="K106" s="213" t="s">
+      <c r="K106" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L106" s="167" t="s">
@@ -7172,34 +7169,34 @@
       <c r="M106" s="167">
         <v>10</v>
       </c>
-      <c r="N106" s="213" t="s">
+      <c r="N106" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O106" s="63"/>
     </row>
     <row r="107" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="212"/>
-      <c r="B107" s="213"/>
-      <c r="C107" s="213"/>
+      <c r="A107" s="213"/>
+      <c r="B107" s="214"/>
+      <c r="C107" s="214"/>
       <c r="D107" s="115" t="s">
         <v>339</v>
       </c>
       <c r="E107" s="115">
         <v>10</v>
       </c>
-      <c r="F107" s="213"/>
-      <c r="G107" s="213"/>
+      <c r="F107" s="214"/>
+      <c r="G107" s="214"/>
       <c r="H107" s="52"/>
-      <c r="I107" s="212"/>
-      <c r="J107" s="213"/>
-      <c r="K107" s="213"/>
+      <c r="I107" s="213"/>
+      <c r="J107" s="214"/>
+      <c r="K107" s="214"/>
       <c r="L107" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M107" s="167">
         <v>10</v>
       </c>
-      <c r="N107" s="213"/>
+      <c r="N107" s="214"/>
       <c r="O107" s="18"/>
     </row>
     <row r="108" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -7211,26 +7208,26 @@
       <c r="F108" s="65"/>
       <c r="G108" s="65"/>
       <c r="H108" s="52"/>
-      <c r="I108" s="212"/>
-      <c r="J108" s="213"/>
-      <c r="K108" s="213"/>
+      <c r="I108" s="213"/>
+      <c r="J108" s="214"/>
+      <c r="K108" s="214"/>
       <c r="L108" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M108" s="167">
         <v>10</v>
       </c>
-      <c r="N108" s="213"/>
+      <c r="N108" s="214"/>
       <c r="O108" s="18"/>
     </row>
     <row r="109" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="212">
+      <c r="A109" s="213">
         <v>45093</v>
       </c>
-      <c r="B109" s="213" t="s">
+      <c r="B109" s="214" t="s">
         <v>357</v>
       </c>
-      <c r="C109" s="213" t="s">
+      <c r="C109" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D109" s="117" t="s">
@@ -7239,87 +7236,87 @@
       <c r="E109" s="117">
         <v>10</v>
       </c>
-      <c r="F109" s="213" t="s">
+      <c r="F109" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G109" s="213" t="s">
+      <c r="G109" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H109" s="20"/>
-      <c r="I109" s="212"/>
-      <c r="J109" s="213"/>
-      <c r="K109" s="213"/>
+      <c r="I109" s="213"/>
+      <c r="J109" s="214"/>
+      <c r="K109" s="214"/>
       <c r="L109" s="167" t="s">
         <v>185</v>
       </c>
       <c r="M109" s="167">
         <v>10</v>
       </c>
-      <c r="N109" s="213"/>
+      <c r="N109" s="214"/>
       <c r="O109" s="18"/>
     </row>
     <row r="110" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="212"/>
-      <c r="B110" s="213"/>
-      <c r="C110" s="213"/>
+      <c r="A110" s="213"/>
+      <c r="B110" s="214"/>
+      <c r="C110" s="214"/>
       <c r="D110" s="117" t="s">
         <v>171</v>
       </c>
       <c r="E110" s="117">
         <v>10</v>
       </c>
-      <c r="F110" s="213"/>
-      <c r="G110" s="213"/>
+      <c r="F110" s="214"/>
+      <c r="G110" s="214"/>
       <c r="H110" s="20"/>
-      <c r="I110" s="212"/>
-      <c r="J110" s="213"/>
-      <c r="K110" s="213"/>
+      <c r="I110" s="213"/>
+      <c r="J110" s="214"/>
+      <c r="K110" s="214"/>
       <c r="L110" s="167" t="s">
         <v>284</v>
       </c>
       <c r="M110" s="167">
         <v>10</v>
       </c>
-      <c r="N110" s="213"/>
+      <c r="N110" s="214"/>
       <c r="O110" s="18"/>
     </row>
     <row r="111" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="212"/>
-      <c r="B111" s="213"/>
-      <c r="C111" s="213"/>
+      <c r="A111" s="213"/>
+      <c r="B111" s="214"/>
+      <c r="C111" s="214"/>
       <c r="D111" s="117" t="s">
         <v>172</v>
       </c>
       <c r="E111" s="117">
         <v>12</v>
       </c>
-      <c r="F111" s="213"/>
-      <c r="G111" s="213"/>
+      <c r="F111" s="214"/>
+      <c r="G111" s="214"/>
       <c r="H111" s="20"/>
-      <c r="I111" s="212"/>
-      <c r="J111" s="213"/>
-      <c r="K111" s="213"/>
+      <c r="I111" s="213"/>
+      <c r="J111" s="214"/>
+      <c r="K111" s="214"/>
       <c r="L111" s="167" t="s">
         <v>728</v>
       </c>
       <c r="M111" s="167">
         <v>30</v>
       </c>
-      <c r="N111" s="213"/>
+      <c r="N111" s="214"/>
       <c r="O111" s="18"/>
     </row>
     <row r="112" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="212"/>
-      <c r="B112" s="213"/>
-      <c r="C112" s="213"/>
+      <c r="A112" s="213"/>
+      <c r="B112" s="214"/>
+      <c r="C112" s="214"/>
       <c r="D112" s="117" t="s">
         <v>291</v>
       </c>
       <c r="E112" s="117">
         <v>10</v>
       </c>
-      <c r="F112" s="213"/>
-      <c r="G112" s="213"/>
+      <c r="F112" s="214"/>
+      <c r="G112" s="214"/>
       <c r="H112" s="62"/>
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
@@ -7338,13 +7335,13 @@
       <c r="F113" s="21"/>
       <c r="G113" s="21"/>
       <c r="H113" s="52"/>
-      <c r="I113" s="212">
+      <c r="I113" s="213">
         <v>45148</v>
       </c>
-      <c r="J113" s="213" t="s">
+      <c r="J113" s="214" t="s">
         <v>437</v>
       </c>
-      <c r="K113" s="213" t="s">
+      <c r="K113" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L113" s="167" t="s">
@@ -7353,7 +7350,7 @@
       <c r="M113" s="167">
         <v>16</v>
       </c>
-      <c r="N113" s="213" t="s">
+      <c r="N113" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O113" s="18"/>
@@ -7381,16 +7378,16 @@
         <v>159</v>
       </c>
       <c r="H114" s="20"/>
-      <c r="I114" s="212"/>
-      <c r="J114" s="213"/>
-      <c r="K114" s="213"/>
+      <c r="I114" s="213"/>
+      <c r="J114" s="214"/>
+      <c r="K114" s="214"/>
       <c r="L114" s="167" t="s">
         <v>190</v>
       </c>
       <c r="M114" s="167">
         <v>20</v>
       </c>
-      <c r="N114" s="213"/>
+      <c r="N114" s="214"/>
       <c r="O114" s="18"/>
     </row>
     <row r="115" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -7402,16 +7399,16 @@
       <c r="F115" s="65"/>
       <c r="G115" s="65"/>
       <c r="H115" s="52"/>
-      <c r="I115" s="212"/>
-      <c r="J115" s="213"/>
-      <c r="K115" s="213"/>
+      <c r="I115" s="213"/>
+      <c r="J115" s="214"/>
+      <c r="K115" s="214"/>
       <c r="L115" s="167" t="s">
         <v>191</v>
       </c>
       <c r="M115" s="167">
         <v>140</v>
       </c>
-      <c r="N115" s="213"/>
+      <c r="N115" s="214"/>
       <c r="O115" s="18"/>
     </row>
     <row r="116" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
@@ -7454,13 +7451,13 @@
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
       <c r="H117" s="52"/>
-      <c r="I117" s="212">
+      <c r="I117" s="213">
         <v>45156</v>
       </c>
-      <c r="J117" s="213" t="s">
+      <c r="J117" s="214" t="s">
         <v>448</v>
       </c>
-      <c r="K117" s="213" t="s">
+      <c r="K117" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L117" s="167" t="s">
@@ -7469,19 +7466,19 @@
       <c r="M117" s="167">
         <v>14</v>
       </c>
-      <c r="N117" s="213" t="s">
+      <c r="N117" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O117" s="18"/>
     </row>
     <row r="118" spans="1:15" s="122" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="212">
+      <c r="A118" s="213">
         <v>45119</v>
       </c>
-      <c r="B118" s="213" t="s">
+      <c r="B118" s="214" t="s">
         <v>387</v>
       </c>
-      <c r="C118" s="213" t="s">
+      <c r="C118" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D118" s="128" t="s">
@@ -7490,48 +7487,48 @@
       <c r="E118" s="128">
         <v>8</v>
       </c>
-      <c r="F118" s="213" t="s">
+      <c r="F118" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="G118" s="213" t="s">
+      <c r="G118" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H118" s="20"/>
-      <c r="I118" s="212"/>
-      <c r="J118" s="213"/>
-      <c r="K118" s="213"/>
+      <c r="I118" s="213"/>
+      <c r="J118" s="214"/>
+      <c r="K118" s="214"/>
       <c r="L118" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M118" s="167">
         <v>10</v>
       </c>
-      <c r="N118" s="213"/>
+      <c r="N118" s="214"/>
       <c r="O118" s="18"/>
     </row>
     <row r="119" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="212"/>
-      <c r="B119" s="213"/>
-      <c r="C119" s="213"/>
+      <c r="A119" s="213"/>
+      <c r="B119" s="214"/>
+      <c r="C119" s="214"/>
       <c r="D119" s="128" t="s">
         <v>205</v>
       </c>
       <c r="E119" s="128">
         <v>4</v>
       </c>
-      <c r="F119" s="213"/>
-      <c r="G119" s="213"/>
+      <c r="F119" s="214"/>
+      <c r="G119" s="214"/>
       <c r="H119" s="20"/>
-      <c r="I119" s="212"/>
-      <c r="J119" s="213"/>
-      <c r="K119" s="213"/>
+      <c r="I119" s="213"/>
+      <c r="J119" s="214"/>
+      <c r="K119" s="214"/>
       <c r="L119" s="167" t="s">
         <v>191</v>
       </c>
       <c r="M119" s="167">
         <v>10</v>
       </c>
-      <c r="N119" s="213"/>
+      <c r="N119" s="214"/>
       <c r="O119" s="18"/>
     </row>
     <row r="120" spans="1:15" s="122" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7552,13 +7549,13 @@
       <c r="O120" s="63"/>
     </row>
     <row r="121" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="212">
+      <c r="A121" s="213">
         <v>45121</v>
       </c>
-      <c r="B121" s="213" t="s">
+      <c r="B121" s="214" t="s">
         <v>392</v>
       </c>
-      <c r="C121" s="213" t="s">
+      <c r="C121" s="214" t="s">
         <v>326</v>
       </c>
       <c r="D121" s="129" t="s">
@@ -7567,10 +7564,10 @@
       <c r="E121" s="129">
         <v>2</v>
       </c>
-      <c r="F121" s="213" t="s">
+      <c r="F121" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G121" s="213" t="s">
+      <c r="G121" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H121" s="20"/>
@@ -7595,17 +7592,17 @@
       <c r="O121" s="18"/>
     </row>
     <row r="122" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="212"/>
-      <c r="B122" s="213"/>
-      <c r="C122" s="213"/>
+      <c r="A122" s="213"/>
+      <c r="B122" s="214"/>
+      <c r="C122" s="214"/>
       <c r="D122" s="129" t="s">
         <v>395</v>
       </c>
       <c r="E122" s="129">
         <v>2</v>
       </c>
-      <c r="F122" s="213"/>
-      <c r="G122" s="213"/>
+      <c r="F122" s="214"/>
+      <c r="G122" s="214"/>
       <c r="H122" s="62"/>
       <c r="I122" s="53"/>
       <c r="J122" s="21"/>
@@ -7693,13 +7690,13 @@
       <c r="O125" s="63"/>
     </row>
     <row r="126" spans="1:15" s="122" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="212">
+      <c r="A126" s="213">
         <v>45142</v>
       </c>
-      <c r="B126" s="213" t="s">
+      <c r="B126" s="214" t="s">
         <v>425</v>
       </c>
-      <c r="C126" s="213" t="s">
+      <c r="C126" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D126" s="135" t="s">
@@ -7708,68 +7705,68 @@
       <c r="E126" s="135">
         <v>10</v>
       </c>
-      <c r="F126" s="213" t="s">
+      <c r="F126" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="G126" s="213" t="s">
+      <c r="G126" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H126" s="20"/>
-      <c r="I126" s="212">
+      <c r="I126" s="213">
         <v>45190</v>
       </c>
-      <c r="J126" s="213" t="s">
+      <c r="J126" s="214" t="s">
         <v>491</v>
       </c>
-      <c r="K126" s="213" t="s">
+      <c r="K126" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L126" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="M126" s="214">
+      <c r="M126" s="220">
         <v>10</v>
       </c>
-      <c r="N126" s="213" t="s">
+      <c r="N126" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O126" s="18"/>
     </row>
     <row r="127" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="212"/>
-      <c r="B127" s="213"/>
-      <c r="C127" s="213"/>
+      <c r="A127" s="213"/>
+      <c r="B127" s="214"/>
+      <c r="C127" s="214"/>
       <c r="D127" s="135" t="s">
         <v>171</v>
       </c>
       <c r="E127" s="135">
         <v>10</v>
       </c>
-      <c r="F127" s="213"/>
-      <c r="G127" s="213"/>
+      <c r="F127" s="214"/>
+      <c r="G127" s="214"/>
       <c r="H127" s="20"/>
-      <c r="I127" s="212"/>
-      <c r="J127" s="213"/>
-      <c r="K127" s="213"/>
+      <c r="I127" s="213"/>
+      <c r="J127" s="214"/>
+      <c r="K127" s="214"/>
       <c r="L127" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="M127" s="214"/>
-      <c r="N127" s="213"/>
+      <c r="M127" s="220"/>
+      <c r="N127" s="214"/>
       <c r="O127" s="18"/>
     </row>
     <row r="128" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="212"/>
-      <c r="B128" s="213"/>
-      <c r="C128" s="213"/>
+      <c r="A128" s="213"/>
+      <c r="B128" s="214"/>
+      <c r="C128" s="214"/>
       <c r="D128" s="135" t="s">
         <v>291</v>
       </c>
       <c r="E128" s="135">
         <v>10</v>
       </c>
-      <c r="F128" s="213"/>
-      <c r="G128" s="213"/>
+      <c r="F128" s="214"/>
+      <c r="G128" s="214"/>
       <c r="H128" s="62"/>
       <c r="I128" s="53"/>
       <c r="J128" s="21"/>
@@ -7780,17 +7777,17 @@
       <c r="O128" s="63"/>
     </row>
     <row r="129" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="212"/>
-      <c r="B129" s="213"/>
-      <c r="C129" s="213"/>
+      <c r="A129" s="213"/>
+      <c r="B129" s="214"/>
+      <c r="C129" s="214"/>
       <c r="D129" s="135" t="s">
         <v>205</v>
       </c>
       <c r="E129" s="135">
         <v>10</v>
       </c>
-      <c r="F129" s="213"/>
-      <c r="G129" s="213"/>
+      <c r="F129" s="214"/>
+      <c r="G129" s="214"/>
       <c r="H129" s="20"/>
       <c r="I129" s="170">
         <v>45199</v>
@@ -7852,13 +7849,13 @@
         <v>176</v>
       </c>
       <c r="H131" s="20"/>
-      <c r="I131" s="212">
+      <c r="I131" s="213">
         <v>45211</v>
       </c>
-      <c r="J131" s="213" t="s">
+      <c r="J131" s="214" t="s">
         <v>546</v>
       </c>
-      <c r="K131" s="213" t="s">
+      <c r="K131" s="214" t="s">
         <v>132</v>
       </c>
       <c r="L131" s="172" t="s">
@@ -7867,7 +7864,7 @@
       <c r="M131" s="172">
         <v>4</v>
       </c>
-      <c r="N131" s="213" t="s">
+      <c r="N131" s="214" t="s">
         <v>472</v>
       </c>
       <c r="O131" s="18"/>
@@ -7881,16 +7878,16 @@
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
       <c r="H132" s="52"/>
-      <c r="I132" s="212"/>
-      <c r="J132" s="213"/>
-      <c r="K132" s="213"/>
+      <c r="I132" s="213"/>
+      <c r="J132" s="214"/>
+      <c r="K132" s="214"/>
       <c r="L132" s="172" t="s">
         <v>742</v>
       </c>
       <c r="M132" s="172">
         <v>12</v>
       </c>
-      <c r="N132" s="213"/>
+      <c r="N132" s="214"/>
       <c r="O132" s="18"/>
     </row>
     <row r="133" spans="1:15" s="122" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -7916,16 +7913,16 @@
         <v>159</v>
       </c>
       <c r="H133" s="20"/>
-      <c r="I133" s="212"/>
-      <c r="J133" s="213"/>
-      <c r="K133" s="213"/>
+      <c r="I133" s="213"/>
+      <c r="J133" s="214"/>
+      <c r="K133" s="214"/>
       <c r="L133" s="172" t="s">
         <v>743</v>
       </c>
       <c r="M133" s="172">
         <v>4</v>
       </c>
-      <c r="N133" s="213"/>
+      <c r="N133" s="214"/>
       <c r="O133" s="18"/>
     </row>
     <row r="134" spans="1:15" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -7937,16 +7934,16 @@
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
       <c r="H134" s="52"/>
-      <c r="I134" s="212"/>
-      <c r="J134" s="213"/>
-      <c r="K134" s="213"/>
+      <c r="I134" s="213"/>
+      <c r="J134" s="214"/>
+      <c r="K134" s="214"/>
       <c r="L134" s="172" t="s">
         <v>744</v>
       </c>
       <c r="M134" s="172">
         <v>1</v>
       </c>
-      <c r="N134" s="213"/>
+      <c r="N134" s="214"/>
       <c r="O134" s="18"/>
     </row>
     <row r="135" spans="1:15" s="122" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7958,16 +7955,16 @@
       <c r="F135" s="137"/>
       <c r="G135" s="137"/>
       <c r="H135" s="20"/>
-      <c r="I135" s="212"/>
-      <c r="J135" s="213"/>
-      <c r="K135" s="213"/>
+      <c r="I135" s="213"/>
+      <c r="J135" s="214"/>
+      <c r="K135" s="214"/>
       <c r="L135" s="172" t="s">
         <v>745</v>
       </c>
       <c r="M135" s="172">
         <v>1</v>
       </c>
-      <c r="N135" s="213"/>
+      <c r="N135" s="214"/>
       <c r="O135" s="18"/>
     </row>
     <row r="136" spans="1:15" s="122" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
@@ -7993,16 +7990,16 @@
         <v>159</v>
       </c>
       <c r="H136" s="20"/>
-      <c r="I136" s="212"/>
-      <c r="J136" s="213"/>
-      <c r="K136" s="213"/>
+      <c r="I136" s="213"/>
+      <c r="J136" s="214"/>
+      <c r="K136" s="214"/>
       <c r="L136" s="172" t="s">
         <v>746</v>
       </c>
       <c r="M136" s="172">
         <v>4</v>
       </c>
-      <c r="N136" s="213"/>
+      <c r="N136" s="214"/>
       <c r="O136" s="18"/>
     </row>
     <row r="137" spans="1:15" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8014,16 +8011,16 @@
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
       <c r="H137" s="52"/>
-      <c r="I137" s="212"/>
-      <c r="J137" s="213"/>
-      <c r="K137" s="213"/>
+      <c r="I137" s="213"/>
+      <c r="J137" s="214"/>
+      <c r="K137" s="214"/>
       <c r="L137" s="172" t="s">
         <v>747</v>
       </c>
       <c r="M137" s="172">
         <v>2</v>
       </c>
-      <c r="N137" s="213"/>
+      <c r="N137" s="214"/>
       <c r="O137" s="18"/>
     </row>
     <row r="138" spans="1:15" s="122" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -8049,16 +8046,16 @@
         <v>159</v>
       </c>
       <c r="H138" s="52"/>
-      <c r="I138" s="212"/>
-      <c r="J138" s="213"/>
-      <c r="K138" s="213"/>
+      <c r="I138" s="213"/>
+      <c r="J138" s="214"/>
+      <c r="K138" s="214"/>
       <c r="L138" s="172" t="s">
         <v>748</v>
       </c>
       <c r="M138" s="172">
         <v>8</v>
       </c>
-      <c r="N138" s="213"/>
+      <c r="N138" s="214"/>
       <c r="O138" s="18"/>
     </row>
     <row r="139" spans="1:15" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8070,26 +8067,26 @@
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
       <c r="H139" s="52"/>
-      <c r="I139" s="212"/>
-      <c r="J139" s="213"/>
-      <c r="K139" s="213"/>
+      <c r="I139" s="213"/>
+      <c r="J139" s="214"/>
+      <c r="K139" s="214"/>
       <c r="L139" s="172" t="s">
         <v>749</v>
       </c>
       <c r="M139" s="172">
         <v>2</v>
       </c>
-      <c r="N139" s="213"/>
+      <c r="N139" s="214"/>
       <c r="O139" s="18"/>
     </row>
     <row r="140" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="212">
+      <c r="A140" s="213">
         <v>45154</v>
       </c>
-      <c r="B140" s="213" t="s">
+      <c r="B140" s="214" t="s">
         <v>439</v>
       </c>
-      <c r="C140" s="213" t="s">
+      <c r="C140" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D140" s="141" t="s">
@@ -8098,48 +8095,48 @@
       <c r="E140" s="141">
         <v>10</v>
       </c>
-      <c r="F140" s="213" t="s">
+      <c r="F140" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G140" s="213" t="s">
+      <c r="G140" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H140" s="52"/>
-      <c r="I140" s="212"/>
-      <c r="J140" s="213"/>
-      <c r="K140" s="213"/>
+      <c r="I140" s="213"/>
+      <c r="J140" s="214"/>
+      <c r="K140" s="214"/>
       <c r="L140" s="172" t="s">
         <v>750</v>
       </c>
       <c r="M140" s="172">
         <v>1</v>
       </c>
-      <c r="N140" s="213"/>
+      <c r="N140" s="214"/>
       <c r="O140" s="18"/>
     </row>
     <row r="141" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="212"/>
-      <c r="B141" s="213"/>
-      <c r="C141" s="213"/>
+      <c r="A141" s="213"/>
+      <c r="B141" s="214"/>
+      <c r="C141" s="214"/>
       <c r="D141" s="141" t="s">
         <v>174</v>
       </c>
       <c r="E141" s="141">
         <v>10</v>
       </c>
-      <c r="F141" s="213"/>
-      <c r="G141" s="213"/>
+      <c r="F141" s="214"/>
+      <c r="G141" s="214"/>
       <c r="H141" s="52"/>
-      <c r="I141" s="212"/>
-      <c r="J141" s="213"/>
-      <c r="K141" s="213"/>
+      <c r="I141" s="213"/>
+      <c r="J141" s="214"/>
+      <c r="K141" s="214"/>
       <c r="L141" s="172" t="s">
         <v>751</v>
       </c>
       <c r="M141" s="172">
         <v>4</v>
       </c>
-      <c r="N141" s="213"/>
+      <c r="N141" s="214"/>
       <c r="O141" s="18"/>
     </row>
     <row r="142" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8151,16 +8148,16 @@
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
       <c r="H142" s="52"/>
-      <c r="I142" s="212"/>
-      <c r="J142" s="213"/>
-      <c r="K142" s="213"/>
+      <c r="I142" s="213"/>
+      <c r="J142" s="214"/>
+      <c r="K142" s="214"/>
       <c r="L142" s="172" t="s">
         <v>752</v>
       </c>
       <c r="M142" s="172">
         <v>1</v>
       </c>
-      <c r="N142" s="213"/>
+      <c r="N142" s="214"/>
       <c r="O142" s="18"/>
     </row>
     <row r="143" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8186,16 +8183,16 @@
         <v>159</v>
       </c>
       <c r="H143" s="20"/>
-      <c r="I143" s="212"/>
-      <c r="J143" s="213"/>
-      <c r="K143" s="213"/>
+      <c r="I143" s="213"/>
+      <c r="J143" s="214"/>
+      <c r="K143" s="214"/>
       <c r="L143" s="172" t="s">
         <v>753</v>
       </c>
       <c r="M143" s="172">
         <v>6</v>
       </c>
-      <c r="N143" s="213"/>
+      <c r="N143" s="214"/>
       <c r="O143" s="18"/>
     </row>
     <row r="144" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8207,16 +8204,16 @@
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
       <c r="H144" s="54"/>
-      <c r="I144" s="212"/>
-      <c r="J144" s="213"/>
-      <c r="K144" s="213"/>
+      <c r="I144" s="213"/>
+      <c r="J144" s="214"/>
+      <c r="K144" s="214"/>
       <c r="L144" s="172" t="s">
         <v>754</v>
       </c>
       <c r="M144" s="172">
         <v>36</v>
       </c>
-      <c r="N144" s="213"/>
+      <c r="N144" s="214"/>
       <c r="O144" s="18"/>
     </row>
     <row r="145" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8242,16 +8239,16 @@
         <v>159</v>
       </c>
       <c r="H145" s="20"/>
-      <c r="I145" s="212"/>
-      <c r="J145" s="213"/>
-      <c r="K145" s="213"/>
+      <c r="I145" s="213"/>
+      <c r="J145" s="214"/>
+      <c r="K145" s="214"/>
       <c r="L145" s="169" t="s">
         <v>755</v>
       </c>
       <c r="M145" s="172">
         <v>60</v>
       </c>
-      <c r="N145" s="213"/>
+      <c r="N145" s="214"/>
       <c r="O145" s="18"/>
     </row>
     <row r="146" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8263,16 +8260,16 @@
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
       <c r="H146" s="54"/>
-      <c r="I146" s="212"/>
-      <c r="J146" s="213"/>
-      <c r="K146" s="213"/>
+      <c r="I146" s="213"/>
+      <c r="J146" s="214"/>
+      <c r="K146" s="214"/>
       <c r="L146" s="172" t="s">
         <v>756</v>
       </c>
       <c r="M146" s="172">
         <v>1</v>
       </c>
-      <c r="N146" s="213"/>
+      <c r="N146" s="214"/>
       <c r="O146" s="18"/>
     </row>
     <row r="147" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8298,16 +8295,16 @@
         <v>159</v>
       </c>
       <c r="H147" s="20"/>
-      <c r="I147" s="212"/>
-      <c r="J147" s="213"/>
-      <c r="K147" s="213"/>
+      <c r="I147" s="213"/>
+      <c r="J147" s="214"/>
+      <c r="K147" s="214"/>
       <c r="L147" s="172" t="s">
         <v>757</v>
       </c>
       <c r="M147" s="172">
         <v>36</v>
       </c>
-      <c r="N147" s="213"/>
+      <c r="N147" s="214"/>
       <c r="O147" s="18"/>
     </row>
     <row r="148" spans="1:15" s="48" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -8319,16 +8316,16 @@
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
       <c r="H148" s="52"/>
-      <c r="I148" s="212"/>
-      <c r="J148" s="213"/>
-      <c r="K148" s="213"/>
+      <c r="I148" s="213"/>
+      <c r="J148" s="214"/>
+      <c r="K148" s="214"/>
       <c r="L148" s="172" t="s">
         <v>758</v>
       </c>
       <c r="M148" s="172">
         <v>3189</v>
       </c>
-      <c r="N148" s="213"/>
+      <c r="N148" s="214"/>
       <c r="O148" s="18"/>
     </row>
     <row r="149" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8354,16 +8351,16 @@
         <v>472</v>
       </c>
       <c r="H149" s="20"/>
-      <c r="I149" s="212"/>
-      <c r="J149" s="213"/>
-      <c r="K149" s="213"/>
+      <c r="I149" s="213"/>
+      <c r="J149" s="214"/>
+      <c r="K149" s="214"/>
       <c r="L149" s="172" t="s">
         <v>759</v>
       </c>
       <c r="M149" s="172">
         <v>4</v>
       </c>
-      <c r="N149" s="213"/>
+      <c r="N149" s="214"/>
       <c r="O149" s="18"/>
     </row>
     <row r="150" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8375,16 +8372,16 @@
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
       <c r="H150" s="52"/>
-      <c r="I150" s="212"/>
-      <c r="J150" s="213"/>
-      <c r="K150" s="213"/>
+      <c r="I150" s="213"/>
+      <c r="J150" s="214"/>
+      <c r="K150" s="214"/>
       <c r="L150" s="172" t="s">
         <v>760</v>
       </c>
       <c r="M150" s="172">
         <v>2</v>
       </c>
-      <c r="N150" s="213"/>
+      <c r="N150" s="214"/>
       <c r="O150" s="18"/>
     </row>
     <row r="151" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8410,16 +8407,16 @@
         <v>159</v>
       </c>
       <c r="H151" s="52"/>
-      <c r="I151" s="212"/>
-      <c r="J151" s="213"/>
-      <c r="K151" s="213"/>
+      <c r="I151" s="213"/>
+      <c r="J151" s="214"/>
+      <c r="K151" s="214"/>
       <c r="L151" s="172" t="s">
         <v>761</v>
       </c>
       <c r="M151" s="172">
         <v>60</v>
       </c>
-      <c r="N151" s="213"/>
+      <c r="N151" s="214"/>
       <c r="O151" s="18"/>
     </row>
     <row r="152" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8431,16 +8428,16 @@
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
       <c r="H152" s="52"/>
-      <c r="I152" s="212"/>
-      <c r="J152" s="213"/>
-      <c r="K152" s="213"/>
+      <c r="I152" s="213"/>
+      <c r="J152" s="214"/>
+      <c r="K152" s="214"/>
       <c r="L152" s="172" t="s">
         <v>762</v>
       </c>
       <c r="M152" s="172">
         <v>10</v>
       </c>
-      <c r="N152" s="213"/>
+      <c r="N152" s="214"/>
       <c r="O152" s="18"/>
     </row>
     <row r="153" spans="1:15" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8466,16 +8463,16 @@
         <v>159</v>
       </c>
       <c r="H153" s="52"/>
-      <c r="I153" s="212"/>
-      <c r="J153" s="213"/>
-      <c r="K153" s="213"/>
+      <c r="I153" s="213"/>
+      <c r="J153" s="214"/>
+      <c r="K153" s="214"/>
       <c r="L153" s="172" t="s">
         <v>763</v>
       </c>
       <c r="M153" s="172">
         <v>21</v>
       </c>
-      <c r="N153" s="213"/>
+      <c r="N153" s="214"/>
       <c r="O153" s="18"/>
     </row>
     <row r="154" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8518,13 +8515,13 @@
         <v>159</v>
       </c>
       <c r="H155" s="52"/>
-      <c r="I155" s="212">
+      <c r="I155" s="213">
         <v>45233</v>
       </c>
-      <c r="J155" s="213" t="s">
+      <c r="J155" s="214" t="s">
         <v>562</v>
       </c>
-      <c r="K155" s="213" t="s">
+      <c r="K155" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L155" s="169" t="s">
@@ -8533,7 +8530,7 @@
       <c r="M155" s="169">
         <v>2</v>
       </c>
-      <c r="N155" s="213" t="s">
+      <c r="N155" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O155" s="18"/>
@@ -8547,16 +8544,16 @@
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
       <c r="H156" s="52"/>
-      <c r="I156" s="212"/>
-      <c r="J156" s="213"/>
-      <c r="K156" s="213"/>
+      <c r="I156" s="213"/>
+      <c r="J156" s="214"/>
+      <c r="K156" s="214"/>
       <c r="L156" s="169" t="s">
         <v>765</v>
       </c>
       <c r="M156" s="169">
         <v>2</v>
       </c>
-      <c r="N156" s="213"/>
+      <c r="N156" s="214"/>
       <c r="O156" s="18"/>
     </row>
     <row r="157" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8599,13 +8596,13 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
       <c r="H158" s="52"/>
-      <c r="I158" s="212">
+      <c r="I158" s="213">
         <v>45233</v>
       </c>
-      <c r="J158" s="213" t="s">
+      <c r="J158" s="214" t="s">
         <v>561</v>
       </c>
-      <c r="K158" s="213" t="s">
+      <c r="K158" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L158" s="169" t="s">
@@ -8614,7 +8611,7 @@
       <c r="M158" s="169">
         <v>20</v>
       </c>
-      <c r="N158" s="213" t="s">
+      <c r="N158" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O158" s="18"/>
@@ -8642,16 +8639,16 @@
         <v>159</v>
       </c>
       <c r="H159" s="20"/>
-      <c r="I159" s="212"/>
-      <c r="J159" s="213"/>
-      <c r="K159" s="213"/>
+      <c r="I159" s="213"/>
+      <c r="J159" s="214"/>
+      <c r="K159" s="214"/>
       <c r="L159" s="169" t="s">
         <v>191</v>
       </c>
       <c r="M159" s="169">
         <v>100</v>
       </c>
-      <c r="N159" s="213"/>
+      <c r="N159" s="214"/>
       <c r="O159" s="18"/>
     </row>
     <row r="160" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8663,16 +8660,16 @@
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
       <c r="H160" s="52"/>
-      <c r="I160" s="212"/>
-      <c r="J160" s="213"/>
-      <c r="K160" s="213"/>
+      <c r="I160" s="213"/>
+      <c r="J160" s="214"/>
+      <c r="K160" s="214"/>
       <c r="L160" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M160" s="169">
         <v>5</v>
       </c>
-      <c r="N160" s="213"/>
+      <c r="N160" s="214"/>
       <c r="O160" s="18"/>
     </row>
     <row r="161" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8698,16 +8695,16 @@
         <v>159</v>
       </c>
       <c r="H161" s="20"/>
-      <c r="I161" s="212"/>
-      <c r="J161" s="213"/>
-      <c r="K161" s="213"/>
+      <c r="I161" s="213"/>
+      <c r="J161" s="214"/>
+      <c r="K161" s="214"/>
       <c r="L161" s="169" t="s">
         <v>184</v>
       </c>
       <c r="M161" s="169">
         <v>10</v>
       </c>
-      <c r="N161" s="213"/>
+      <c r="N161" s="214"/>
       <c r="O161" s="18"/>
     </row>
     <row r="162" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8719,26 +8716,26 @@
       <c r="F162" s="21"/>
       <c r="G162" s="21"/>
       <c r="H162" s="52"/>
-      <c r="I162" s="212"/>
-      <c r="J162" s="213"/>
-      <c r="K162" s="213"/>
+      <c r="I162" s="213"/>
+      <c r="J162" s="214"/>
+      <c r="K162" s="214"/>
       <c r="L162" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M162" s="169">
         <v>7</v>
       </c>
-      <c r="N162" s="213"/>
+      <c r="N162" s="214"/>
       <c r="O162" s="18"/>
     </row>
     <row r="163" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="212">
+      <c r="A163" s="213">
         <v>45199</v>
       </c>
-      <c r="B163" s="213" t="s">
+      <c r="B163" s="214" t="s">
         <v>506</v>
       </c>
-      <c r="C163" s="213" t="s">
+      <c r="C163" s="214" t="s">
         <v>476</v>
       </c>
       <c r="D163" s="152" t="s">
@@ -8747,48 +8744,48 @@
       <c r="E163" s="152">
         <v>6</v>
       </c>
-      <c r="F163" s="213" t="s">
+      <c r="F163" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G163" s="213" t="s">
+      <c r="G163" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H163" s="20"/>
-      <c r="I163" s="212"/>
-      <c r="J163" s="213"/>
-      <c r="K163" s="213"/>
+      <c r="I163" s="213"/>
+      <c r="J163" s="214"/>
+      <c r="K163" s="214"/>
       <c r="L163" s="169" t="s">
         <v>187</v>
       </c>
       <c r="M163" s="169">
         <v>9</v>
       </c>
-      <c r="N163" s="213"/>
+      <c r="N163" s="214"/>
       <c r="O163" s="18"/>
     </row>
     <row r="164" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="212"/>
-      <c r="B164" s="213"/>
-      <c r="C164" s="213"/>
+      <c r="A164" s="213"/>
+      <c r="B164" s="214"/>
+      <c r="C164" s="214"/>
       <c r="D164" s="152" t="s">
         <v>508</v>
       </c>
       <c r="E164" s="152">
         <v>1</v>
       </c>
-      <c r="F164" s="213"/>
-      <c r="G164" s="213"/>
+      <c r="F164" s="214"/>
+      <c r="G164" s="214"/>
       <c r="H164" s="20"/>
-      <c r="I164" s="212"/>
-      <c r="J164" s="213"/>
-      <c r="K164" s="213"/>
+      <c r="I164" s="213"/>
+      <c r="J164" s="214"/>
+      <c r="K164" s="214"/>
       <c r="L164" s="169" t="s">
         <v>185</v>
       </c>
       <c r="M164" s="169">
         <v>5</v>
       </c>
-      <c r="N164" s="213"/>
+      <c r="N164" s="214"/>
       <c r="O164" s="18"/>
     </row>
     <row r="165" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8809,13 +8806,13 @@
       <c r="O165" s="63"/>
     </row>
     <row r="166" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="212">
+      <c r="A166" s="213">
         <v>45199</v>
       </c>
-      <c r="B166" s="213" t="s">
+      <c r="B166" s="214" t="s">
         <v>510</v>
       </c>
-      <c r="C166" s="213" t="s">
+      <c r="C166" s="214" t="s">
         <v>509</v>
       </c>
       <c r="D166" s="152" t="s">
@@ -8824,20 +8821,20 @@
       <c r="E166" s="152">
         <v>20</v>
       </c>
-      <c r="F166" s="213" t="s">
+      <c r="F166" s="214" t="s">
         <v>140</v>
       </c>
-      <c r="G166" s="213" t="s">
+      <c r="G166" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H166" s="20"/>
-      <c r="I166" s="212">
+      <c r="I166" s="213">
         <v>45239</v>
       </c>
-      <c r="J166" s="213" t="s">
+      <c r="J166" s="214" t="s">
         <v>570</v>
       </c>
-      <c r="K166" s="213" t="s">
+      <c r="K166" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L166" s="100" t="s">
@@ -8846,34 +8843,34 @@
       <c r="M166" s="169">
         <v>5</v>
       </c>
-      <c r="N166" s="213" t="s">
+      <c r="N166" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O166" s="18"/>
     </row>
     <row r="167" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="212"/>
-      <c r="B167" s="213"/>
-      <c r="C167" s="213"/>
+      <c r="A167" s="213"/>
+      <c r="B167" s="214"/>
+      <c r="C167" s="214"/>
       <c r="D167" s="152" t="s">
         <v>512</v>
       </c>
       <c r="E167" s="152">
         <v>20</v>
       </c>
-      <c r="F167" s="213"/>
-      <c r="G167" s="213"/>
+      <c r="F167" s="214"/>
+      <c r="G167" s="214"/>
       <c r="H167" s="20"/>
-      <c r="I167" s="212"/>
-      <c r="J167" s="213"/>
-      <c r="K167" s="213"/>
+      <c r="I167" s="213"/>
+      <c r="J167" s="214"/>
+      <c r="K167" s="214"/>
       <c r="L167" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M167" s="169">
         <v>23</v>
       </c>
-      <c r="N167" s="213"/>
+      <c r="N167" s="214"/>
       <c r="O167" s="18"/>
     </row>
     <row r="168" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8885,26 +8882,26 @@
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
       <c r="H168" s="52"/>
-      <c r="I168" s="212"/>
-      <c r="J168" s="213"/>
-      <c r="K168" s="213"/>
+      <c r="I168" s="213"/>
+      <c r="J168" s="214"/>
+      <c r="K168" s="214"/>
       <c r="L168" s="169" t="s">
         <v>187</v>
       </c>
       <c r="M168" s="169">
         <v>21</v>
       </c>
-      <c r="N168" s="213"/>
+      <c r="N168" s="214"/>
       <c r="O168" s="18"/>
     </row>
     <row r="169" spans="1:15" s="48" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="212">
+      <c r="A169" s="213">
         <v>45202</v>
       </c>
-      <c r="B169" s="213" t="s">
+      <c r="B169" s="214" t="s">
         <v>516</v>
       </c>
-      <c r="C169" s="213" t="s">
+      <c r="C169" s="214" t="s">
         <v>517</v>
       </c>
       <c r="D169" s="154" t="s">
@@ -8913,10 +8910,10 @@
       <c r="E169" s="154">
         <v>4</v>
       </c>
-      <c r="F169" s="213" t="s">
+      <c r="F169" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G169" s="213" t="s">
+      <c r="G169" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H169" s="62"/>
@@ -8929,25 +8926,25 @@
       <c r="O169" s="63"/>
     </row>
     <row r="170" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A170" s="212"/>
-      <c r="B170" s="213"/>
-      <c r="C170" s="213"/>
+      <c r="A170" s="213"/>
+      <c r="B170" s="214"/>
+      <c r="C170" s="214"/>
       <c r="D170" s="154" t="s">
         <v>519</v>
       </c>
       <c r="E170" s="154">
         <v>4</v>
       </c>
-      <c r="F170" s="213"/>
-      <c r="G170" s="213"/>
+      <c r="F170" s="214"/>
+      <c r="G170" s="214"/>
       <c r="H170" s="20"/>
-      <c r="I170" s="212">
+      <c r="I170" s="213">
         <v>45239</v>
       </c>
-      <c r="J170" s="213" t="s">
+      <c r="J170" s="214" t="s">
         <v>571</v>
       </c>
-      <c r="K170" s="213" t="s">
+      <c r="K170" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L170" s="173" t="s">
@@ -8956,7 +8953,7 @@
       <c r="M170" s="169">
         <v>2</v>
       </c>
-      <c r="N170" s="213" t="s">
+      <c r="N170" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O170" s="18"/>
@@ -8970,16 +8967,16 @@
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
       <c r="H171" s="52"/>
-      <c r="I171" s="212"/>
-      <c r="J171" s="213"/>
-      <c r="K171" s="213"/>
+      <c r="I171" s="213"/>
+      <c r="J171" s="214"/>
+      <c r="K171" s="214"/>
       <c r="L171" s="99" t="s">
         <v>181</v>
       </c>
       <c r="M171" s="169">
         <v>16</v>
       </c>
-      <c r="N171" s="213"/>
+      <c r="N171" s="214"/>
       <c r="O171" s="18"/>
     </row>
     <row r="172" spans="1:15" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9163,13 +9160,13 @@
       <c r="O177" s="18"/>
     </row>
     <row r="178" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="212">
+      <c r="A178" s="213">
         <v>45233</v>
       </c>
-      <c r="B178" s="213" t="s">
+      <c r="B178" s="214" t="s">
         <v>556</v>
       </c>
-      <c r="C178" s="213" t="s">
+      <c r="C178" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D178" s="160" t="s">
@@ -9178,10 +9175,10 @@
       <c r="E178" s="160">
         <v>10</v>
       </c>
-      <c r="F178" s="213" t="s">
+      <c r="F178" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G178" s="213" t="s">
+      <c r="G178" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H178" s="62"/>
@@ -9194,17 +9191,17 @@
       <c r="O178" s="63"/>
     </row>
     <row r="179" spans="1:15" s="48" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A179" s="212"/>
-      <c r="B179" s="213"/>
-      <c r="C179" s="213"/>
+      <c r="A179" s="213"/>
+      <c r="B179" s="214"/>
+      <c r="C179" s="214"/>
       <c r="D179" s="160" t="s">
         <v>171</v>
       </c>
       <c r="E179" s="160">
         <v>7</v>
       </c>
-      <c r="F179" s="213"/>
-      <c r="G179" s="213"/>
+      <c r="F179" s="214"/>
+      <c r="G179" s="214"/>
       <c r="H179" s="20"/>
       <c r="I179" s="170">
         <v>45257</v>
@@ -9227,17 +9224,17 @@
       <c r="O179" s="18"/>
     </row>
     <row r="180" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="212"/>
-      <c r="B180" s="213"/>
-      <c r="C180" s="213"/>
+      <c r="A180" s="213"/>
+      <c r="B180" s="214"/>
+      <c r="C180" s="214"/>
       <c r="D180" s="160" t="s">
         <v>172</v>
       </c>
       <c r="E180" s="160">
         <v>9</v>
       </c>
-      <c r="F180" s="213"/>
-      <c r="G180" s="213"/>
+      <c r="F180" s="214"/>
+      <c r="G180" s="214"/>
       <c r="H180" s="62"/>
       <c r="I180" s="21"/>
       <c r="J180" s="21"/>
@@ -9248,17 +9245,17 @@
       <c r="O180" s="63"/>
     </row>
     <row r="181" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="212"/>
-      <c r="B181" s="213"/>
-      <c r="C181" s="213"/>
+      <c r="A181" s="213"/>
+      <c r="B181" s="214"/>
+      <c r="C181" s="214"/>
       <c r="D181" s="160" t="s">
         <v>205</v>
       </c>
       <c r="E181" s="160">
         <v>5</v>
       </c>
-      <c r="F181" s="213"/>
-      <c r="G181" s="213"/>
+      <c r="F181" s="214"/>
+      <c r="G181" s="214"/>
       <c r="H181" s="20"/>
       <c r="I181" s="192">
         <v>45258</v>
@@ -9358,13 +9355,13 @@
       <c r="O184" s="63"/>
     </row>
     <row r="185" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="212">
+      <c r="A185" s="213">
         <v>45232</v>
       </c>
-      <c r="B185" s="213" t="s">
+      <c r="B185" s="214" t="s">
         <v>563</v>
       </c>
-      <c r="C185" s="213" t="s">
+      <c r="C185" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D185" s="161" t="s">
@@ -9373,10 +9370,10 @@
       <c r="E185" s="161">
         <v>12</v>
       </c>
-      <c r="F185" s="213" t="s">
+      <c r="F185" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G185" s="213" t="s">
+      <c r="G185" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H185" s="20"/>
@@ -9401,17 +9398,17 @@
       <c r="O185" s="18"/>
     </row>
     <row r="186" spans="1:15" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="212"/>
-      <c r="B186" s="213"/>
-      <c r="C186" s="213"/>
+      <c r="A186" s="213"/>
+      <c r="B186" s="214"/>
+      <c r="C186" s="214"/>
       <c r="D186" s="161" t="s">
         <v>174</v>
       </c>
       <c r="E186" s="161">
         <v>10</v>
       </c>
-      <c r="F186" s="213"/>
-      <c r="G186" s="213"/>
+      <c r="F186" s="214"/>
+      <c r="G186" s="214"/>
       <c r="H186" s="62"/>
       <c r="I186" s="21"/>
       <c r="J186" s="21"/>
@@ -9490,13 +9487,13 @@
       <c r="F189" s="65"/>
       <c r="G189" s="65"/>
       <c r="H189" s="52"/>
-      <c r="I189" s="212">
+      <c r="I189" s="213">
         <v>45297</v>
       </c>
-      <c r="J189" s="213" t="s">
+      <c r="J189" s="214" t="s">
         <v>843</v>
       </c>
-      <c r="K189" s="213" t="s">
+      <c r="K189" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L189" s="100" t="s">
@@ -9505,7 +9502,7 @@
       <c r="M189" s="193">
         <v>15</v>
       </c>
-      <c r="N189" s="213" t="s">
+      <c r="N189" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O189" s="18"/>
@@ -9533,16 +9530,16 @@
         <v>159</v>
       </c>
       <c r="H190" s="20"/>
-      <c r="I190" s="212"/>
-      <c r="J190" s="213"/>
-      <c r="K190" s="213"/>
+      <c r="I190" s="213"/>
+      <c r="J190" s="214"/>
+      <c r="K190" s="214"/>
       <c r="L190" s="193" t="s">
         <v>191</v>
       </c>
       <c r="M190" s="193">
         <v>250</v>
       </c>
-      <c r="N190" s="213"/>
+      <c r="N190" s="214"/>
       <c r="O190" s="18"/>
     </row>
     <row r="191" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9554,16 +9551,16 @@
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
       <c r="H191" s="52"/>
-      <c r="I191" s="212"/>
-      <c r="J191" s="213"/>
-      <c r="K191" s="213"/>
+      <c r="I191" s="213"/>
+      <c r="J191" s="214"/>
+      <c r="K191" s="214"/>
       <c r="L191" s="193" t="s">
         <v>187</v>
       </c>
       <c r="M191" s="193">
         <v>19</v>
       </c>
-      <c r="N191" s="213"/>
+      <c r="N191" s="214"/>
       <c r="O191" s="18"/>
     </row>
     <row r="192" spans="1:15" s="48" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9589,16 +9586,16 @@
         <v>159</v>
       </c>
       <c r="H192" s="20"/>
-      <c r="I192" s="212"/>
-      <c r="J192" s="213"/>
-      <c r="K192" s="213"/>
+      <c r="I192" s="213"/>
+      <c r="J192" s="214"/>
+      <c r="K192" s="214"/>
       <c r="L192" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M192" s="193">
         <v>14</v>
       </c>
-      <c r="N192" s="213"/>
+      <c r="N192" s="214"/>
       <c r="O192" s="18"/>
     </row>
     <row r="193" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9610,16 +9607,16 @@
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
       <c r="H193" s="52"/>
-      <c r="I193" s="212"/>
-      <c r="J193" s="213"/>
-      <c r="K193" s="213"/>
+      <c r="I193" s="213"/>
+      <c r="J193" s="214"/>
+      <c r="K193" s="214"/>
       <c r="L193" s="193" t="s">
         <v>185</v>
       </c>
       <c r="M193" s="193">
         <v>5</v>
       </c>
-      <c r="N193" s="213"/>
+      <c r="N193" s="214"/>
       <c r="O193" s="18"/>
     </row>
     <row r="194" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9645,16 +9642,16 @@
         <v>159</v>
       </c>
       <c r="H194" s="20"/>
-      <c r="I194" s="212"/>
-      <c r="J194" s="213"/>
-      <c r="K194" s="213"/>
+      <c r="I194" s="213"/>
+      <c r="J194" s="214"/>
+      <c r="K194" s="214"/>
       <c r="L194" s="193" t="s">
         <v>284</v>
       </c>
       <c r="M194" s="193">
         <v>4</v>
       </c>
-      <c r="N194" s="213"/>
+      <c r="N194" s="214"/>
       <c r="O194" s="18"/>
     </row>
     <row r="195" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9817,13 +9814,13 @@
         <v>159</v>
       </c>
       <c r="H200" s="20"/>
-      <c r="I200" s="212">
+      <c r="I200" s="213">
         <v>45301</v>
       </c>
-      <c r="J200" s="213" t="s">
+      <c r="J200" s="214" t="s">
         <v>859</v>
       </c>
-      <c r="K200" s="213" t="s">
+      <c r="K200" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L200" s="198" t="s">
@@ -9832,7 +9829,7 @@
       <c r="M200" s="198">
         <v>50</v>
       </c>
-      <c r="N200" s="213" t="s">
+      <c r="N200" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O200" s="18"/>
@@ -9846,111 +9843,111 @@
       <c r="F201" s="65"/>
       <c r="G201" s="65"/>
       <c r="H201" s="52"/>
-      <c r="I201" s="212"/>
-      <c r="J201" s="213"/>
-      <c r="K201" s="213"/>
+      <c r="I201" s="213"/>
+      <c r="J201" s="214"/>
+      <c r="K201" s="214"/>
       <c r="L201" s="198" t="s">
         <v>862</v>
       </c>
       <c r="M201" s="198">
         <v>10</v>
       </c>
-      <c r="N201" s="213"/>
+      <c r="N201" s="214"/>
       <c r="O201" s="18"/>
     </row>
     <row r="202" spans="1:15" s="48" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="212">
+      <c r="A202" s="213">
         <v>45265</v>
       </c>
-      <c r="B202" s="213" t="s">
+      <c r="B202" s="214" t="s">
         <v>777</v>
       </c>
-      <c r="C202" s="213" t="s">
+      <c r="C202" s="214" t="s">
         <v>724</v>
       </c>
       <c r="D202" s="176" t="s">
         <v>779</v>
       </c>
-      <c r="E202" s="213">
+      <c r="E202" s="214">
         <v>6</v>
       </c>
-      <c r="F202" s="213" t="s">
+      <c r="F202" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G202" s="213" t="s">
+      <c r="G202" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H202" s="20"/>
-      <c r="I202" s="212"/>
-      <c r="J202" s="213"/>
-      <c r="K202" s="213"/>
+      <c r="I202" s="213"/>
+      <c r="J202" s="214"/>
+      <c r="K202" s="214"/>
       <c r="L202" s="198" t="s">
         <v>187</v>
       </c>
       <c r="M202" s="198">
         <v>1</v>
       </c>
-      <c r="N202" s="213"/>
+      <c r="N202" s="214"/>
       <c r="O202" s="18"/>
     </row>
     <row r="203" spans="1:15" s="48" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="212"/>
-      <c r="B203" s="213"/>
-      <c r="C203" s="213"/>
+      <c r="A203" s="213"/>
+      <c r="B203" s="214"/>
+      <c r="C203" s="214"/>
       <c r="D203" s="176" t="s">
         <v>780</v>
       </c>
-      <c r="E203" s="213"/>
-      <c r="F203" s="213"/>
-      <c r="G203" s="213"/>
+      <c r="E203" s="214"/>
+      <c r="F203" s="214"/>
+      <c r="G203" s="214"/>
       <c r="H203" s="20"/>
-      <c r="I203" s="212"/>
-      <c r="J203" s="213"/>
-      <c r="K203" s="213"/>
+      <c r="I203" s="213"/>
+      <c r="J203" s="214"/>
+      <c r="K203" s="214"/>
       <c r="L203" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M203" s="198">
         <v>16</v>
       </c>
-      <c r="N203" s="213"/>
+      <c r="N203" s="214"/>
       <c r="O203" s="18"/>
     </row>
     <row r="204" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="212"/>
-      <c r="B204" s="213"/>
-      <c r="C204" s="213"/>
+      <c r="A204" s="213"/>
+      <c r="B204" s="214"/>
+      <c r="C204" s="214"/>
       <c r="D204" s="176" t="s">
         <v>781</v>
       </c>
-      <c r="E204" s="213"/>
-      <c r="F204" s="213"/>
-      <c r="G204" s="213"/>
+      <c r="E204" s="214"/>
+      <c r="F204" s="214"/>
+      <c r="G204" s="214"/>
       <c r="H204" s="20"/>
-      <c r="I204" s="212"/>
-      <c r="J204" s="213"/>
-      <c r="K204" s="213"/>
+      <c r="I204" s="213"/>
+      <c r="J204" s="214"/>
+      <c r="K204" s="214"/>
       <c r="L204" s="198" t="s">
         <v>284</v>
       </c>
       <c r="M204" s="198">
         <v>6</v>
       </c>
-      <c r="N204" s="213"/>
+      <c r="N204" s="214"/>
       <c r="O204" s="18"/>
     </row>
     <row r="205" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="212"/>
-      <c r="B205" s="213"/>
-      <c r="C205" s="213"/>
+      <c r="A205" s="213"/>
+      <c r="B205" s="214"/>
+      <c r="C205" s="214"/>
       <c r="D205" s="176" t="s">
         <v>779</v>
       </c>
-      <c r="E205" s="213">
+      <c r="E205" s="214">
         <v>6</v>
       </c>
-      <c r="F205" s="213"/>
-      <c r="G205" s="213"/>
+      <c r="F205" s="214"/>
+      <c r="G205" s="214"/>
       <c r="H205" s="62"/>
       <c r="I205" s="21"/>
       <c r="J205" s="21"/>
@@ -9961,23 +9958,23 @@
       <c r="O205" s="63"/>
     </row>
     <row r="206" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="212"/>
-      <c r="B206" s="213"/>
-      <c r="C206" s="213"/>
+      <c r="A206" s="213"/>
+      <c r="B206" s="214"/>
+      <c r="C206" s="214"/>
       <c r="D206" s="176" t="s">
         <v>782</v>
       </c>
-      <c r="E206" s="213"/>
-      <c r="F206" s="213"/>
-      <c r="G206" s="213"/>
+      <c r="E206" s="214"/>
+      <c r="F206" s="214"/>
+      <c r="G206" s="214"/>
       <c r="H206" s="20"/>
-      <c r="I206" s="212">
+      <c r="I206" s="213">
         <v>45342</v>
       </c>
-      <c r="J206" s="213" t="s">
+      <c r="J206" s="214" t="s">
         <v>896</v>
       </c>
-      <c r="K206" s="213" t="s">
+      <c r="K206" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L206" s="100" t="s">
@@ -9986,32 +9983,32 @@
       <c r="M206" s="207">
         <v>10</v>
       </c>
-      <c r="N206" s="213" t="s">
+      <c r="N206" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O206" s="18"/>
     </row>
     <row r="207" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="212"/>
-      <c r="B207" s="213"/>
-      <c r="C207" s="213"/>
+      <c r="A207" s="213"/>
+      <c r="B207" s="214"/>
+      <c r="C207" s="214"/>
       <c r="D207" s="176" t="s">
         <v>781</v>
       </c>
-      <c r="E207" s="213"/>
-      <c r="F207" s="213"/>
-      <c r="G207" s="213"/>
+      <c r="E207" s="214"/>
+      <c r="F207" s="214"/>
+      <c r="G207" s="214"/>
       <c r="H207" s="20"/>
-      <c r="I207" s="212"/>
-      <c r="J207" s="213"/>
-      <c r="K207" s="213"/>
+      <c r="I207" s="213"/>
+      <c r="J207" s="214"/>
+      <c r="K207" s="214"/>
       <c r="L207" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M207" s="207">
         <v>10</v>
       </c>
-      <c r="N207" s="213"/>
+      <c r="N207" s="214"/>
       <c r="O207" s="18"/>
     </row>
     <row r="208" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10023,26 +10020,26 @@
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
       <c r="H208" s="52"/>
-      <c r="I208" s="212"/>
-      <c r="J208" s="213"/>
-      <c r="K208" s="213"/>
+      <c r="I208" s="213"/>
+      <c r="J208" s="214"/>
+      <c r="K208" s="214"/>
       <c r="L208" s="207" t="s">
         <v>849</v>
       </c>
       <c r="M208" s="207">
         <v>4</v>
       </c>
-      <c r="N208" s="213"/>
+      <c r="N208" s="214"/>
       <c r="O208" s="18"/>
     </row>
     <row r="209" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="212">
+      <c r="A209" s="213">
         <v>45265</v>
       </c>
-      <c r="B209" s="213">
+      <c r="B209" s="214">
         <v>4270</v>
       </c>
-      <c r="C209" s="213" t="s">
+      <c r="C209" s="214" t="s">
         <v>271</v>
       </c>
       <c r="D209" s="177" t="s">
@@ -10058,22 +10055,22 @@
         <v>159</v>
       </c>
       <c r="H209" s="52"/>
-      <c r="I209" s="212"/>
-      <c r="J209" s="213"/>
-      <c r="K209" s="213"/>
+      <c r="I209" s="213"/>
+      <c r="J209" s="214"/>
+      <c r="K209" s="214"/>
       <c r="L209" s="207" t="s">
         <v>914</v>
       </c>
       <c r="M209" s="207">
         <v>5</v>
       </c>
-      <c r="N209" s="213"/>
+      <c r="N209" s="214"/>
       <c r="O209" s="18"/>
     </row>
     <row r="210" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="212"/>
-      <c r="B210" s="213"/>
-      <c r="C210" s="213"/>
+      <c r="A210" s="213"/>
+      <c r="B210" s="214"/>
+      <c r="C210" s="214"/>
       <c r="D210" s="177" t="s">
         <v>789</v>
       </c>
@@ -10083,22 +10080,22 @@
       <c r="F210" s="177"/>
       <c r="G210" s="177"/>
       <c r="H210" s="52"/>
-      <c r="I210" s="212"/>
-      <c r="J210" s="213"/>
-      <c r="K210" s="213"/>
+      <c r="I210" s="213"/>
+      <c r="J210" s="214"/>
+      <c r="K210" s="214"/>
       <c r="L210" s="207" t="s">
         <v>190</v>
       </c>
       <c r="M210" s="207">
         <v>30</v>
       </c>
-      <c r="N210" s="213"/>
+      <c r="N210" s="214"/>
       <c r="O210" s="18"/>
     </row>
     <row r="211" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="212"/>
-      <c r="B211" s="213"/>
-      <c r="C211" s="213"/>
+      <c r="A211" s="213"/>
+      <c r="B211" s="214"/>
+      <c r="C211" s="214"/>
       <c r="D211" s="177" t="s">
         <v>790</v>
       </c>
@@ -10108,16 +10105,16 @@
       <c r="F211" s="177"/>
       <c r="G211" s="177"/>
       <c r="H211" s="52"/>
-      <c r="I211" s="212"/>
-      <c r="J211" s="213"/>
-      <c r="K211" s="213"/>
+      <c r="I211" s="213"/>
+      <c r="J211" s="214"/>
+      <c r="K211" s="214"/>
       <c r="L211" s="207" t="s">
         <v>191</v>
       </c>
       <c r="M211" s="207">
         <v>30</v>
       </c>
-      <c r="N211" s="213"/>
+      <c r="N211" s="214"/>
       <c r="O211" s="18"/>
     </row>
     <row r="212" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10160,13 +10157,13 @@
         <v>159</v>
       </c>
       <c r="H213" s="20"/>
-      <c r="I213" s="212">
+      <c r="I213" s="213">
         <v>45358</v>
       </c>
-      <c r="J213" s="213" t="s">
+      <c r="J213" s="214" t="s">
         <v>935</v>
       </c>
-      <c r="K213" s="213" t="s">
+      <c r="K213" s="214" t="s">
         <v>178</v>
       </c>
       <c r="L213" s="211" t="s">
@@ -10175,7 +10172,7 @@
       <c r="M213" s="211">
         <v>11</v>
       </c>
-      <c r="N213" s="213" t="s">
+      <c r="N213" s="214" t="s">
         <v>176</v>
       </c>
       <c r="O213" s="18"/>
@@ -10189,16 +10186,16 @@
       <c r="F214" s="65"/>
       <c r="G214" s="65"/>
       <c r="H214" s="52"/>
-      <c r="I214" s="212"/>
-      <c r="J214" s="213"/>
-      <c r="K214" s="213"/>
+      <c r="I214" s="213"/>
+      <c r="J214" s="214"/>
+      <c r="K214" s="214"/>
       <c r="L214" s="211" t="s">
         <v>728</v>
       </c>
       <c r="M214" s="211">
         <v>15</v>
       </c>
-      <c r="N214" s="213"/>
+      <c r="N214" s="214"/>
       <c r="O214" s="18"/>
     </row>
     <row r="215" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10224,16 +10221,16 @@
         <v>159</v>
       </c>
       <c r="H215" s="20"/>
-      <c r="I215" s="212"/>
-      <c r="J215" s="213"/>
-      <c r="K215" s="213"/>
+      <c r="I215" s="213"/>
+      <c r="J215" s="214"/>
+      <c r="K215" s="214"/>
       <c r="L215" s="211" t="s">
         <v>936</v>
       </c>
       <c r="M215" s="211">
         <v>10</v>
       </c>
-      <c r="N215" s="213"/>
+      <c r="N215" s="214"/>
       <c r="O215" s="18"/>
     </row>
     <row r="216" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10398,13 +10395,13 @@
       <c r="O222" s="18"/>
     </row>
     <row r="223" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="212">
+      <c r="A223" s="213">
         <v>45290</v>
       </c>
-      <c r="B223" s="213" t="s">
+      <c r="B223" s="214" t="s">
         <v>821</v>
       </c>
-      <c r="C223" s="213" t="s">
+      <c r="C223" s="214" t="s">
         <v>811</v>
       </c>
       <c r="D223" s="186" t="s">
@@ -10413,10 +10410,10 @@
       <c r="E223" s="186">
         <v>1</v>
       </c>
-      <c r="F223" s="213" t="s">
+      <c r="F223" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G223" s="213" t="s">
+      <c r="G223" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H223" s="20"/>
@@ -10429,17 +10426,17 @@
       <c r="O223" s="18"/>
     </row>
     <row r="224" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="212"/>
-      <c r="B224" s="213"/>
-      <c r="C224" s="213"/>
+      <c r="A224" s="213"/>
+      <c r="B224" s="214"/>
+      <c r="C224" s="214"/>
       <c r="D224" s="186" t="s">
         <v>825</v>
       </c>
       <c r="E224" s="186">
         <v>100</v>
       </c>
-      <c r="F224" s="213"/>
-      <c r="G224" s="213"/>
+      <c r="F224" s="214"/>
+      <c r="G224" s="214"/>
       <c r="H224" s="20"/>
       <c r="I224" s="207"/>
       <c r="J224" s="207"/>
@@ -10450,17 +10447,17 @@
       <c r="O224" s="18"/>
     </row>
     <row r="225" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="212"/>
-      <c r="B225" s="213"/>
-      <c r="C225" s="213"/>
+      <c r="A225" s="213"/>
+      <c r="B225" s="214"/>
+      <c r="C225" s="214"/>
       <c r="D225" s="186" t="s">
         <v>826</v>
       </c>
       <c r="E225" s="186">
         <v>1</v>
       </c>
-      <c r="F225" s="213"/>
-      <c r="G225" s="213"/>
+      <c r="F225" s="214"/>
+      <c r="G225" s="214"/>
       <c r="H225" s="20"/>
       <c r="I225" s="207"/>
       <c r="J225" s="207"/>
@@ -10471,17 +10468,17 @@
       <c r="O225" s="18"/>
     </row>
     <row r="226" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="212"/>
-      <c r="B226" s="213"/>
-      <c r="C226" s="213"/>
+      <c r="A226" s="213"/>
+      <c r="B226" s="214"/>
+      <c r="C226" s="214"/>
       <c r="D226" s="186" t="s">
         <v>827</v>
       </c>
       <c r="E226" s="186">
         <v>1</v>
       </c>
-      <c r="F226" s="213"/>
-      <c r="G226" s="213"/>
+      <c r="F226" s="214"/>
+      <c r="G226" s="214"/>
       <c r="H226" s="20"/>
       <c r="I226" s="207"/>
       <c r="J226" s="207"/>
@@ -10557,13 +10554,13 @@
       <c r="O229" s="18"/>
     </row>
     <row r="230" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="212">
+      <c r="A230" s="213">
         <v>45292</v>
       </c>
-      <c r="B230" s="213" t="s">
+      <c r="B230" s="214" t="s">
         <v>823</v>
       </c>
-      <c r="C230" s="213" t="s">
+      <c r="C230" s="214" t="s">
         <v>242</v>
       </c>
       <c r="D230" s="186" t="s">
@@ -10572,10 +10569,10 @@
       <c r="E230" s="186">
         <v>1</v>
       </c>
-      <c r="F230" s="213" t="s">
+      <c r="F230" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G230" s="213" t="s">
+      <c r="G230" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H230" s="20"/>
@@ -10588,17 +10585,17 @@
       <c r="O230" s="18"/>
     </row>
     <row r="231" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="212"/>
-      <c r="B231" s="213"/>
-      <c r="C231" s="213"/>
+      <c r="A231" s="213"/>
+      <c r="B231" s="214"/>
+      <c r="C231" s="214"/>
       <c r="D231" s="186" t="s">
         <v>830</v>
       </c>
       <c r="E231" s="186">
         <v>1</v>
       </c>
-      <c r="F231" s="213"/>
-      <c r="G231" s="213"/>
+      <c r="F231" s="214"/>
+      <c r="G231" s="214"/>
       <c r="H231" s="20"/>
       <c r="I231" s="207"/>
       <c r="J231" s="207"/>
@@ -10674,13 +10671,13 @@
       <c r="O234" s="18"/>
     </row>
     <row r="235" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="212">
+      <c r="A235" s="213">
         <v>45297</v>
       </c>
-      <c r="B235" s="213" t="s">
+      <c r="B235" s="214" t="s">
         <v>839</v>
       </c>
-      <c r="C235" s="213" t="s">
+      <c r="C235" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D235" s="189" t="s">
@@ -10689,10 +10686,10 @@
       <c r="E235" s="189">
         <v>10</v>
       </c>
-      <c r="F235" s="213" t="s">
+      <c r="F235" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G235" s="213" t="s">
+      <c r="G235" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H235" s="20"/>
@@ -10705,17 +10702,17 @@
       <c r="O235" s="18"/>
     </row>
     <row r="236" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="212"/>
-      <c r="B236" s="213"/>
-      <c r="C236" s="213"/>
+      <c r="A236" s="213"/>
+      <c r="B236" s="214"/>
+      <c r="C236" s="214"/>
       <c r="D236" s="189" t="s">
         <v>172</v>
       </c>
       <c r="E236" s="189">
         <v>19</v>
       </c>
-      <c r="F236" s="213"/>
-      <c r="G236" s="213"/>
+      <c r="F236" s="214"/>
+      <c r="G236" s="214"/>
       <c r="H236" s="20"/>
       <c r="I236" s="207"/>
       <c r="J236" s="207"/>
@@ -10726,17 +10723,17 @@
       <c r="O236" s="18"/>
     </row>
     <row r="237" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="212"/>
-      <c r="B237" s="213"/>
-      <c r="C237" s="213"/>
+      <c r="A237" s="213"/>
+      <c r="B237" s="214"/>
+      <c r="C237" s="214"/>
       <c r="D237" s="189" t="s">
         <v>171</v>
       </c>
       <c r="E237" s="189">
         <v>14</v>
       </c>
-      <c r="F237" s="213"/>
-      <c r="G237" s="213"/>
+      <c r="F237" s="214"/>
+      <c r="G237" s="214"/>
       <c r="H237" s="20"/>
       <c r="I237" s="207"/>
       <c r="J237" s="207"/>
@@ -10747,17 +10744,17 @@
       <c r="O237" s="18"/>
     </row>
     <row r="238" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="212"/>
-      <c r="B238" s="213"/>
-      <c r="C238" s="213"/>
+      <c r="A238" s="213"/>
+      <c r="B238" s="214"/>
+      <c r="C238" s="214"/>
       <c r="D238" s="189" t="s">
         <v>840</v>
       </c>
       <c r="E238" s="189">
         <v>5</v>
       </c>
-      <c r="F238" s="213"/>
-      <c r="G238" s="213"/>
+      <c r="F238" s="214"/>
+      <c r="G238" s="214"/>
       <c r="H238" s="20"/>
       <c r="I238" s="207"/>
       <c r="J238" s="207"/>
@@ -10768,17 +10765,17 @@
       <c r="O238" s="18"/>
     </row>
     <row r="239" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="212"/>
-      <c r="B239" s="213"/>
-      <c r="C239" s="213"/>
+      <c r="A239" s="213"/>
+      <c r="B239" s="214"/>
+      <c r="C239" s="214"/>
       <c r="D239" s="189" t="s">
         <v>291</v>
       </c>
       <c r="E239" s="189">
         <v>10</v>
       </c>
-      <c r="F239" s="213"/>
-      <c r="G239" s="213"/>
+      <c r="F239" s="214"/>
+      <c r="G239" s="214"/>
       <c r="H239" s="20"/>
       <c r="I239" s="207"/>
       <c r="J239" s="207"/>
@@ -10854,25 +10851,25 @@
       <c r="O242" s="18"/>
     </row>
     <row r="243" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="212">
+      <c r="A243" s="213">
         <v>45299</v>
       </c>
-      <c r="B243" s="213" t="s">
+      <c r="B243" s="214" t="s">
         <v>853</v>
       </c>
-      <c r="C243" s="213" t="s">
+      <c r="C243" s="214" t="s">
         <v>724</v>
       </c>
       <c r="D243" s="194" t="s">
         <v>779</v>
       </c>
-      <c r="E243" s="213">
+      <c r="E243" s="214">
         <v>2</v>
       </c>
-      <c r="F243" s="213" t="s">
+      <c r="F243" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G243" s="213" t="s">
+      <c r="G243" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H243" s="20"/>
@@ -10885,15 +10882,15 @@
       <c r="O243" s="18"/>
     </row>
     <row r="244" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="212"/>
-      <c r="B244" s="213"/>
-      <c r="C244" s="213"/>
+      <c r="A244" s="213"/>
+      <c r="B244" s="214"/>
+      <c r="C244" s="214"/>
       <c r="D244" s="194" t="s">
         <v>780</v>
       </c>
-      <c r="E244" s="213"/>
-      <c r="F244" s="213"/>
-      <c r="G244" s="213"/>
+      <c r="E244" s="214"/>
+      <c r="F244" s="214"/>
+      <c r="G244" s="214"/>
       <c r="H244" s="20"/>
       <c r="I244" s="207"/>
       <c r="J244" s="207"/>
@@ -10904,15 +10901,15 @@
       <c r="O244" s="18"/>
     </row>
     <row r="245" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="212"/>
-      <c r="B245" s="213"/>
-      <c r="C245" s="213"/>
+      <c r="A245" s="213"/>
+      <c r="B245" s="214"/>
+      <c r="C245" s="214"/>
       <c r="D245" s="194" t="s">
         <v>781</v>
       </c>
-      <c r="E245" s="213"/>
-      <c r="F245" s="213"/>
-      <c r="G245" s="213"/>
+      <c r="E245" s="214"/>
+      <c r="F245" s="214"/>
+      <c r="G245" s="214"/>
       <c r="H245" s="20"/>
       <c r="I245" s="207"/>
       <c r="J245" s="207"/>
@@ -11036,13 +11033,13 @@
       <c r="O250" s="18"/>
     </row>
     <row r="251" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="212">
+      <c r="A251" s="213">
         <v>45301</v>
       </c>
-      <c r="B251" s="213" t="s">
+      <c r="B251" s="214" t="s">
         <v>860</v>
       </c>
-      <c r="C251" s="213" t="s">
+      <c r="C251" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D251" s="197" t="s">
@@ -11051,10 +11048,10 @@
       <c r="E251" s="197">
         <v>1</v>
       </c>
-      <c r="F251" s="213" t="s">
+      <c r="F251" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G251" s="213" t="s">
+      <c r="G251" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H251" s="20"/>
@@ -11067,17 +11064,17 @@
       <c r="O251" s="18"/>
     </row>
     <row r="252" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="212"/>
-      <c r="B252" s="213"/>
-      <c r="C252" s="213"/>
+      <c r="A252" s="213"/>
+      <c r="B252" s="214"/>
+      <c r="C252" s="214"/>
       <c r="D252" s="197" t="s">
         <v>171</v>
       </c>
       <c r="E252" s="197">
         <v>16</v>
       </c>
-      <c r="F252" s="213"/>
-      <c r="G252" s="213"/>
+      <c r="F252" s="214"/>
+      <c r="G252" s="214"/>
       <c r="H252" s="20"/>
       <c r="O252" s="18"/>
     </row>
@@ -11201,94 +11198,94 @@
       <c r="O259" s="18"/>
     </row>
     <row r="260" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="212">
+      <c r="A260" s="213">
         <v>45328</v>
       </c>
-      <c r="B260" s="213" t="s">
+      <c r="B260" s="214" t="s">
         <v>883</v>
       </c>
-      <c r="C260" s="213" t="s">
+      <c r="C260" s="214" t="s">
         <v>724</v>
       </c>
       <c r="D260" s="204" t="s">
         <v>779</v>
       </c>
-      <c r="E260" s="213">
+      <c r="E260" s="214">
         <v>2</v>
       </c>
-      <c r="F260" s="213" t="s">
+      <c r="F260" s="214" t="s">
         <v>140</v>
       </c>
-      <c r="G260" s="213" t="s">
+      <c r="G260" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H260" s="20"/>
       <c r="O260" s="18"/>
     </row>
     <row r="261" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="212"/>
-      <c r="B261" s="213"/>
-      <c r="C261" s="213"/>
+      <c r="A261" s="213"/>
+      <c r="B261" s="214"/>
+      <c r="C261" s="214"/>
       <c r="D261" s="204" t="s">
         <v>780</v>
       </c>
-      <c r="E261" s="213"/>
-      <c r="F261" s="213"/>
-      <c r="G261" s="213"/>
+      <c r="E261" s="214"/>
+      <c r="F261" s="214"/>
+      <c r="G261" s="214"/>
       <c r="H261" s="20"/>
       <c r="O261" s="18"/>
     </row>
     <row r="262" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="212"/>
-      <c r="B262" s="213"/>
-      <c r="C262" s="213"/>
+      <c r="A262" s="213"/>
+      <c r="B262" s="214"/>
+      <c r="C262" s="214"/>
       <c r="D262" s="204" t="s">
         <v>781</v>
       </c>
-      <c r="E262" s="213"/>
-      <c r="F262" s="213"/>
-      <c r="G262" s="213"/>
+      <c r="E262" s="214"/>
+      <c r="F262" s="214"/>
+      <c r="G262" s="214"/>
       <c r="H262" s="20"/>
       <c r="O262" s="18"/>
     </row>
     <row r="263" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="212"/>
-      <c r="B263" s="213"/>
-      <c r="C263" s="213"/>
+      <c r="A263" s="213"/>
+      <c r="B263" s="214"/>
+      <c r="C263" s="214"/>
       <c r="D263" s="204" t="s">
         <v>779</v>
       </c>
-      <c r="E263" s="213">
+      <c r="E263" s="214">
         <v>2</v>
       </c>
-      <c r="F263" s="213"/>
-      <c r="G263" s="213"/>
+      <c r="F263" s="214"/>
+      <c r="G263" s="214"/>
       <c r="H263" s="20"/>
       <c r="O263" s="18"/>
     </row>
     <row r="264" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="212"/>
-      <c r="B264" s="213"/>
-      <c r="C264" s="213"/>
+      <c r="A264" s="213"/>
+      <c r="B264" s="214"/>
+      <c r="C264" s="214"/>
       <c r="D264" s="204" t="s">
         <v>782</v>
       </c>
-      <c r="E264" s="213"/>
-      <c r="F264" s="213"/>
-      <c r="G264" s="213"/>
+      <c r="E264" s="214"/>
+      <c r="F264" s="214"/>
+      <c r="G264" s="214"/>
       <c r="H264" s="20"/>
       <c r="O264" s="18"/>
     </row>
     <row r="265" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="212"/>
-      <c r="B265" s="213"/>
-      <c r="C265" s="213"/>
+      <c r="A265" s="213"/>
+      <c r="B265" s="214"/>
+      <c r="C265" s="214"/>
       <c r="D265" s="204" t="s">
         <v>781</v>
       </c>
-      <c r="E265" s="213"/>
-      <c r="F265" s="213"/>
-      <c r="G265" s="213"/>
+      <c r="E265" s="214"/>
+      <c r="F265" s="214"/>
+      <c r="G265" s="214"/>
       <c r="H265" s="20"/>
       <c r="O265" s="18"/>
     </row>
@@ -11304,13 +11301,13 @@
       <c r="O266" s="18"/>
     </row>
     <row r="267" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="212">
+      <c r="A267" s="213">
         <v>45334</v>
       </c>
-      <c r="B267" s="213" t="s">
+      <c r="B267" s="214" t="s">
         <v>888</v>
       </c>
-      <c r="C267" s="213" t="s">
+      <c r="C267" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D267" s="204" t="s">
@@ -11319,42 +11316,42 @@
       <c r="E267" s="204">
         <v>10</v>
       </c>
-      <c r="F267" s="213" t="s">
+      <c r="F267" s="214" t="s">
         <v>887</v>
       </c>
-      <c r="G267" s="213" t="s">
+      <c r="G267" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H267" s="20"/>
       <c r="O267" s="18"/>
     </row>
     <row r="268" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="212"/>
-      <c r="B268" s="213"/>
-      <c r="C268" s="213"/>
+      <c r="A268" s="213"/>
+      <c r="B268" s="214"/>
+      <c r="C268" s="214"/>
       <c r="D268" s="204" t="s">
         <v>171</v>
       </c>
       <c r="E268" s="204">
         <v>10</v>
       </c>
-      <c r="F268" s="213"/>
-      <c r="G268" s="213"/>
+      <c r="F268" s="214"/>
+      <c r="G268" s="214"/>
       <c r="H268" s="20"/>
       <c r="O268" s="18"/>
     </row>
     <row r="269" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="212"/>
-      <c r="B269" s="213"/>
-      <c r="C269" s="213"/>
+      <c r="A269" s="213"/>
+      <c r="B269" s="214"/>
+      <c r="C269" s="214"/>
       <c r="D269" s="204" t="s">
         <v>318</v>
       </c>
       <c r="E269" s="204">
         <v>5</v>
       </c>
-      <c r="F269" s="213"/>
-      <c r="G269" s="213"/>
+      <c r="F269" s="214"/>
+      <c r="G269" s="214"/>
       <c r="H269" s="20"/>
       <c r="O269" s="18"/>
     </row>
@@ -11370,13 +11367,13 @@
       <c r="O270" s="18"/>
     </row>
     <row r="271" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="212">
+      <c r="A271" s="213">
         <v>45336</v>
       </c>
-      <c r="B271" s="213" t="s">
+      <c r="B271" s="214" t="s">
         <v>891</v>
       </c>
-      <c r="C271" s="219" t="s">
+      <c r="C271" s="215" t="s">
         <v>163</v>
       </c>
       <c r="D271" s="206" t="s">
@@ -11385,27 +11382,27 @@
       <c r="E271" s="206">
         <v>30</v>
       </c>
-      <c r="F271" s="213" t="s">
+      <c r="F271" s="214" t="s">
         <v>887</v>
       </c>
-      <c r="G271" s="213" t="s">
+      <c r="G271" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H271" s="20"/>
       <c r="O271" s="18"/>
     </row>
     <row r="272" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="212"/>
-      <c r="B272" s="213"/>
-      <c r="C272" s="219"/>
+      <c r="A272" s="213"/>
+      <c r="B272" s="214"/>
+      <c r="C272" s="215"/>
       <c r="D272" s="206" t="s">
         <v>175</v>
       </c>
       <c r="E272" s="206">
         <v>30</v>
       </c>
-      <c r="F272" s="213"/>
-      <c r="G272" s="213"/>
+      <c r="F272" s="214"/>
+      <c r="G272" s="214"/>
       <c r="H272" s="20"/>
       <c r="O272" s="18"/>
     </row>
@@ -11457,13 +11454,13 @@
       <c r="O275" s="18"/>
     </row>
     <row r="276" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="212">
+      <c r="A276" s="213">
         <v>45357</v>
       </c>
-      <c r="B276" s="213" t="s">
+      <c r="B276" s="214" t="s">
         <v>929</v>
       </c>
-      <c r="C276" s="213" t="s">
+      <c r="C276" s="214" t="s">
         <v>169</v>
       </c>
       <c r="D276" s="209" t="s">
@@ -11472,27 +11469,27 @@
       <c r="E276" s="209">
         <v>11</v>
       </c>
-      <c r="F276" s="213" t="s">
+      <c r="F276" s="214" t="s">
         <v>887</v>
       </c>
-      <c r="G276" s="213" t="s">
+      <c r="G276" s="214" t="s">
         <v>159</v>
       </c>
       <c r="H276" s="20"/>
       <c r="O276" s="18"/>
     </row>
     <row r="277" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="212"/>
-      <c r="B277" s="213"/>
-      <c r="C277" s="213"/>
+      <c r="A277" s="213"/>
+      <c r="B277" s="214"/>
+      <c r="C277" s="214"/>
       <c r="D277" s="209" t="s">
         <v>171</v>
       </c>
       <c r="E277" s="209">
         <v>5</v>
       </c>
-      <c r="F277" s="213"/>
-      <c r="G277" s="213"/>
+      <c r="F277" s="214"/>
+      <c r="G277" s="214"/>
       <c r="H277" s="20"/>
       <c r="O277" s="18"/>
     </row>
@@ -11508,13 +11505,13 @@
       <c r="O278" s="18"/>
     </row>
     <row r="279" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="212">
+      <c r="A279" s="213">
         <v>45358</v>
       </c>
-      <c r="B279" s="213" t="s">
+      <c r="B279" s="214" t="s">
         <v>933</v>
       </c>
-      <c r="C279" s="213" t="s">
+      <c r="C279" s="214" t="s">
         <v>432</v>
       </c>
       <c r="D279" s="209" t="s">
@@ -11523,27 +11520,27 @@
       <c r="E279" s="209">
         <v>15</v>
       </c>
-      <c r="F279" s="213" t="s">
+      <c r="F279" s="214" t="s">
         <v>887</v>
       </c>
-      <c r="G279" s="213" t="s">
+      <c r="G279" s="214" t="s">
         <v>176</v>
       </c>
       <c r="H279" s="20"/>
       <c r="O279" s="18"/>
     </row>
     <row r="280" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="212"/>
-      <c r="B280" s="213"/>
-      <c r="C280" s="213"/>
+      <c r="A280" s="213"/>
+      <c r="B280" s="214"/>
+      <c r="C280" s="214"/>
       <c r="D280" s="209" t="s">
         <v>934</v>
       </c>
       <c r="E280" s="209">
         <v>10</v>
       </c>
-      <c r="F280" s="213"/>
-      <c r="G280" s="213"/>
+      <c r="F280" s="214"/>
+      <c r="G280" s="214"/>
       <c r="H280" s="20"/>
       <c r="O280" s="18"/>
     </row>
@@ -12035,6 +12032,282 @@
     </row>
   </sheetData>
   <mergeCells count="300">
+    <mergeCell ref="I213:I215"/>
+    <mergeCell ref="J213:J215"/>
+    <mergeCell ref="K213:K215"/>
+    <mergeCell ref="N213:N215"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="F276:F277"/>
+    <mergeCell ref="G276:G277"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="E243:E245"/>
+    <mergeCell ref="F243:F245"/>
+    <mergeCell ref="G243:G245"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="C235:C239"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="F279:F280"/>
+    <mergeCell ref="G279:G280"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="B209:B211"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="F223:F226"/>
+    <mergeCell ref="G223:G226"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="F230:F231"/>
+    <mergeCell ref="G230:G231"/>
+    <mergeCell ref="F235:F239"/>
+    <mergeCell ref="G235:G239"/>
+    <mergeCell ref="B260:B265"/>
+    <mergeCell ref="C260:C265"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="I200:I204"/>
+    <mergeCell ref="J200:J204"/>
+    <mergeCell ref="K158:K164"/>
+    <mergeCell ref="N158:N164"/>
+    <mergeCell ref="I166:I168"/>
+    <mergeCell ref="J166:J168"/>
+    <mergeCell ref="K166:K168"/>
+    <mergeCell ref="N166:N168"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="I158:I164"/>
+    <mergeCell ref="J158:J164"/>
+    <mergeCell ref="K200:K204"/>
+    <mergeCell ref="N200:N204"/>
+    <mergeCell ref="I189:I194"/>
+    <mergeCell ref="J189:J194"/>
+    <mergeCell ref="K189:K194"/>
+    <mergeCell ref="N189:N194"/>
+    <mergeCell ref="M126:M127"/>
+    <mergeCell ref="N126:N127"/>
+    <mergeCell ref="I131:I153"/>
+    <mergeCell ref="J131:J153"/>
+    <mergeCell ref="K131:K153"/>
+    <mergeCell ref="N131:N153"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="N80:N82"/>
+    <mergeCell ref="I84:I90"/>
+    <mergeCell ref="J84:J90"/>
+    <mergeCell ref="K84:K90"/>
+    <mergeCell ref="N84:N90"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="I66:I73"/>
+    <mergeCell ref="J66:J73"/>
+    <mergeCell ref="K66:K73"/>
+    <mergeCell ref="N66:N73"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="N75:N78"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="F178:F181"/>
+    <mergeCell ref="G178:G181"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="N9:N14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="I18:I24"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="K18:K24"/>
+    <mergeCell ref="N18:N24"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="N92:N95"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="G103:G107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="N106:N111"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="N113:N115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="I117:I119"/>
+    <mergeCell ref="J117:J119"/>
+    <mergeCell ref="K117:K119"/>
+    <mergeCell ref="N117:N119"/>
+    <mergeCell ref="K113:K115"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="F103:F107"/>
+    <mergeCell ref="I106:I111"/>
+    <mergeCell ref="J106:J111"/>
+    <mergeCell ref="K106:K111"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="A202:A207"/>
+    <mergeCell ref="B202:B207"/>
+    <mergeCell ref="C202:C207"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="E205:E207"/>
+    <mergeCell ref="F202:F207"/>
+    <mergeCell ref="G202:G207"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="A166:A167"/>
     <mergeCell ref="I206:I211"/>
     <mergeCell ref="J206:J211"/>
     <mergeCell ref="K206:K211"/>
@@ -12059,282 +12332,6 @@
     <mergeCell ref="F260:F265"/>
     <mergeCell ref="G260:G265"/>
     <mergeCell ref="A260:A265"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="A202:A207"/>
-    <mergeCell ref="B202:B207"/>
-    <mergeCell ref="C202:C207"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="E205:E207"/>
-    <mergeCell ref="F202:F207"/>
-    <mergeCell ref="G202:G207"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="F103:F107"/>
-    <mergeCell ref="I106:I111"/>
-    <mergeCell ref="J106:J111"/>
-    <mergeCell ref="K106:K111"/>
-    <mergeCell ref="N106:N111"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="N113:N115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="I117:I119"/>
-    <mergeCell ref="J117:J119"/>
-    <mergeCell ref="K117:K119"/>
-    <mergeCell ref="N117:N119"/>
-    <mergeCell ref="K113:K115"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="G103:G107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="N75:N78"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="N92:N95"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="I18:I24"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="K18:K24"/>
-    <mergeCell ref="N18:N24"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="K9:K14"/>
-    <mergeCell ref="N9:N14"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="F178:F181"/>
-    <mergeCell ref="G178:G181"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="N80:N82"/>
-    <mergeCell ref="I84:I90"/>
-    <mergeCell ref="J84:J90"/>
-    <mergeCell ref="K84:K90"/>
-    <mergeCell ref="N84:N90"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="J66:J73"/>
-    <mergeCell ref="K66:K73"/>
-    <mergeCell ref="N66:N73"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="M126:M127"/>
-    <mergeCell ref="N126:N127"/>
-    <mergeCell ref="I131:I153"/>
-    <mergeCell ref="J131:J153"/>
-    <mergeCell ref="K131:K153"/>
-    <mergeCell ref="N131:N153"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="I200:I204"/>
-    <mergeCell ref="J200:J204"/>
-    <mergeCell ref="K158:K164"/>
-    <mergeCell ref="N158:N164"/>
-    <mergeCell ref="I166:I168"/>
-    <mergeCell ref="J166:J168"/>
-    <mergeCell ref="K166:K168"/>
-    <mergeCell ref="N166:N168"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="I158:I164"/>
-    <mergeCell ref="J158:J164"/>
-    <mergeCell ref="K200:K204"/>
-    <mergeCell ref="N200:N204"/>
-    <mergeCell ref="I189:I194"/>
-    <mergeCell ref="J189:J194"/>
-    <mergeCell ref="K189:K194"/>
-    <mergeCell ref="N189:N194"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="F279:F280"/>
-    <mergeCell ref="G279:G280"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="B209:B211"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="F223:F226"/>
-    <mergeCell ref="G223:G226"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="B230:B231"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="F230:F231"/>
-    <mergeCell ref="G230:G231"/>
-    <mergeCell ref="F235:F239"/>
-    <mergeCell ref="G235:G239"/>
-    <mergeCell ref="B260:B265"/>
-    <mergeCell ref="C260:C265"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="I213:I215"/>
-    <mergeCell ref="J213:J215"/>
-    <mergeCell ref="K213:K215"/>
-    <mergeCell ref="N213:N215"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="F276:F277"/>
-    <mergeCell ref="G276:G277"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="E243:E245"/>
-    <mergeCell ref="F243:F245"/>
-    <mergeCell ref="G243:G245"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="B235:B239"/>
-    <mergeCell ref="C235:C239"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -12343,12 +12340,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A54" sqref="A54"/>
-      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
+      <selection pane="bottomLeft" activeCell="C243" sqref="C241:C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16947,6 +16944,266 @@
       <c r="G204" s="43" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="212"/>
+      <c r="B220" s="212"/>
+      <c r="C220" s="212"/>
+      <c r="D220" s="212"/>
+      <c r="E220" s="212"/>
+      <c r="F220" s="212"/>
+      <c r="G220" s="212"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="212"/>
+      <c r="B221" s="224"/>
+      <c r="C221" s="224"/>
+      <c r="D221" s="224"/>
+      <c r="E221" s="224"/>
+      <c r="F221" s="224"/>
+      <c r="G221" s="212"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="212"/>
+      <c r="B222" s="224">
+        <f>11400*2</f>
+        <v>22800</v>
+      </c>
+      <c r="C222" s="224">
+        <f>11537*2</f>
+        <v>23074</v>
+      </c>
+      <c r="D222" s="224">
+        <f>C222*2%</f>
+        <v>461.48</v>
+      </c>
+      <c r="E222" s="224"/>
+      <c r="F222" s="224"/>
+      <c r="G222" s="212"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="212"/>
+      <c r="B223" s="224">
+        <f>4150*5</f>
+        <v>20750</v>
+      </c>
+      <c r="C223" s="224">
+        <f>4307*5</f>
+        <v>21535</v>
+      </c>
+      <c r="D223" s="224"/>
+      <c r="E223" s="224"/>
+      <c r="F223" s="224"/>
+      <c r="G223" s="212"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="212"/>
+      <c r="B224" s="224">
+        <v>150</v>
+      </c>
+      <c r="C224" s="224">
+        <f>SUM(C222:C223)</f>
+        <v>44609</v>
+      </c>
+      <c r="D224" s="224"/>
+      <c r="E224" s="224"/>
+      <c r="F224" s="224"/>
+      <c r="G224" s="212"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="212"/>
+      <c r="B225" s="224">
+        <f>SUM(B222:B224)</f>
+        <v>43700</v>
+      </c>
+      <c r="C225" s="224">
+        <f>C224*2%</f>
+        <v>892.18000000000006</v>
+      </c>
+      <c r="D225" s="224"/>
+      <c r="E225" s="224"/>
+      <c r="F225" s="224"/>
+      <c r="G225" s="212"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="212"/>
+      <c r="B226" s="224">
+        <f>B225*1.5%</f>
+        <v>655.5</v>
+      </c>
+      <c r="C226" s="224">
+        <f>C224-C225</f>
+        <v>43716.82</v>
+      </c>
+      <c r="D226" s="224">
+        <f>C226-200</f>
+        <v>43516.82</v>
+      </c>
+      <c r="E226" s="224"/>
+      <c r="F226" s="224"/>
+      <c r="G226" s="212"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="212"/>
+      <c r="B227" s="225">
+        <f>B225-B226</f>
+        <v>43044.5</v>
+      </c>
+      <c r="C227" s="224"/>
+      <c r="D227" s="224">
+        <f>D226-B227</f>
+        <v>472.31999999999971</v>
+      </c>
+      <c r="E227" s="224"/>
+      <c r="F227" s="224"/>
+      <c r="G227" s="212"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="212"/>
+      <c r="B228" s="224"/>
+      <c r="C228" s="224"/>
+      <c r="D228" s="224"/>
+      <c r="E228" s="224"/>
+      <c r="F228" s="224"/>
+      <c r="G228" s="212"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="212"/>
+      <c r="B229" s="224"/>
+      <c r="C229" s="224"/>
+      <c r="D229" s="224"/>
+      <c r="E229" s="224"/>
+      <c r="F229" s="224"/>
+      <c r="G229" s="212"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="212"/>
+      <c r="B230" s="225"/>
+      <c r="C230" s="224"/>
+      <c r="D230" s="224"/>
+      <c r="E230" s="224"/>
+      <c r="F230" s="224"/>
+      <c r="G230" s="212"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="212"/>
+      <c r="B231" s="212"/>
+      <c r="C231" s="212"/>
+      <c r="D231" s="212"/>
+      <c r="E231" s="212"/>
+      <c r="F231" s="212"/>
+      <c r="G231" s="212"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="212"/>
+      <c r="B232" s="212"/>
+      <c r="C232" s="212"/>
+      <c r="D232" s="212"/>
+      <c r="E232" s="212"/>
+      <c r="F232" s="212"/>
+      <c r="G232" s="212"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="212"/>
+      <c r="B233" s="212"/>
+      <c r="C233" s="212">
+        <f>43712-B227</f>
+        <v>667.5</v>
+      </c>
+      <c r="D233" s="212"/>
+      <c r="E233" s="212"/>
+      <c r="F233" s="212"/>
+      <c r="G233" s="212"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="212"/>
+      <c r="B234" s="212"/>
+      <c r="C234" s="212"/>
+      <c r="D234" s="212"/>
+      <c r="E234" s="212"/>
+      <c r="F234" s="212"/>
+      <c r="G234" s="212"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="212"/>
+      <c r="B235" s="212"/>
+      <c r="C235" s="212"/>
+      <c r="D235" s="212"/>
+      <c r="E235" s="212"/>
+      <c r="F235" s="212"/>
+      <c r="G235" s="212"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="212"/>
+      <c r="B236" s="212"/>
+      <c r="C236" s="212"/>
+      <c r="D236" s="212"/>
+      <c r="E236" s="212"/>
+      <c r="F236" s="212"/>
+      <c r="G236" s="212"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="212"/>
+      <c r="B237" s="212"/>
+      <c r="C237" s="212"/>
+      <c r="D237" s="212"/>
+      <c r="E237" s="212"/>
+      <c r="F237" s="212"/>
+      <c r="G237" s="212"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="212"/>
+      <c r="B238" s="212"/>
+      <c r="C238" s="212"/>
+      <c r="D238" s="212"/>
+      <c r="E238" s="212"/>
+      <c r="F238" s="212"/>
+      <c r="G238" s="212"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" s="212"/>
+      <c r="B239" s="212"/>
+      <c r="C239" s="212"/>
+      <c r="D239" s="212"/>
+      <c r="E239" s="212"/>
+      <c r="F239" s="212"/>
+      <c r="G239" s="212"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="212"/>
+      <c r="B240" s="212"/>
+      <c r="C240" s="212"/>
+      <c r="D240" s="212"/>
+      <c r="E240" s="212"/>
+      <c r="F240" s="212"/>
+      <c r="G240" s="212"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="212"/>
+      <c r="B241" s="212"/>
+      <c r="C241" s="212"/>
+      <c r="D241" s="212"/>
+      <c r="E241" s="212"/>
+      <c r="F241" s="212"/>
+      <c r="G241" s="212"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="212"/>
+      <c r="B242" s="212"/>
+      <c r="C242" s="212"/>
+      <c r="D242" s="212"/>
+      <c r="E242" s="212"/>
+      <c r="F242" s="212"/>
+      <c r="G242" s="212"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="212"/>
+      <c r="B243" s="212"/>
+      <c r="C243" s="212"/>
+      <c r="D243" s="212"/>
+      <c r="E243" s="212"/>
+      <c r="F243" s="212"/>
+      <c r="G243" s="212"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17082,10 +17339,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="221"/>
+      <c r="C2" s="222"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -18697,10 +18954,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T686"/>
+  <dimension ref="A1:T653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A663" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C678" sqref="C678"/>
+    <sheetView tabSelected="1" topLeftCell="A643" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A654" sqref="A654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -18721,28 +18978,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="222"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="223"/>
+      <c r="R1" s="223"/>
+      <c r="S1" s="223"/>
+      <c r="T1" s="223"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -29201,8 +29458,8 @@
         <v>2686</v>
       </c>
       <c r="H617" s="22">
-        <f>-263-51+3000+13426-13426-500+3700-3700-1900-65-1000-50+2000-200-80-200-80-208-142-150-112-51</f>
-        <v>-52</v>
+        <f>+-263-51+3000+13426-13426-500+3700-3700-1900-65-1000-50+2000-200-80-200-80-208-142-150-112-51+500-100-2000+2000</f>
+        <v>348</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.3">
@@ -29663,7 +29920,7 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" s="24">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B645" s="22" t="s">
         <v>887</v>
@@ -29672,100 +29929,137 @@
         <v>803</v>
       </c>
       <c r="E645" s="22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F645" s="22">
         <f>F644-E645</f>
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" s="24">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B646" s="22" t="s">
-        <v>140</v>
+        <v>887</v>
       </c>
       <c r="C646" s="22" t="s">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="E646" s="22">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F646" s="22">
         <f>F645-E646</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="681" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="H681" s="22" t="s">
-        <v>942</v>
-      </c>
-      <c r="J681" s="22" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="682" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="H682" s="22">
-        <f>11400*2</f>
-        <v>22800</v>
-      </c>
-      <c r="J682" s="22">
-        <f>11800*2</f>
-        <v>23600</v>
-      </c>
-    </row>
-    <row r="683" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C683" s="22">
-        <f>6000*1.18</f>
-        <v>7080</v>
-      </c>
-      <c r="D683" s="22" t="s">
-        <v>939</v>
-      </c>
-      <c r="H683" s="22">
-        <f>6900*5</f>
-        <v>34500</v>
-      </c>
-      <c r="J683" s="22">
-        <f>7080*5</f>
-        <v>35400</v>
-      </c>
-    </row>
-    <row r="684" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C684" s="22">
-        <f>3950*1.18</f>
-        <v>4661</v>
-      </c>
-      <c r="D684" s="22" t="s">
-        <v>940</v>
-      </c>
-      <c r="H684" s="22">
-        <f>SUM(H682:H683)</f>
-        <v>57300</v>
-      </c>
-      <c r="J684" s="22">
-        <f>SUM(J682:J683)</f>
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="685" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C685" s="22">
-        <f>10000*1.18</f>
-        <v>11800</v>
-      </c>
-      <c r="D685" s="22">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="686" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C686" s="22">
-        <f>SUM(C683:C685)</f>
-        <v>23541</v>
-      </c>
-      <c r="J686" s="22">
-        <f>J684-H684</f>
-        <v>1700</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A647" s="24">
+        <v>45363</v>
+      </c>
+      <c r="D647" s="22">
+        <v>500</v>
+      </c>
+      <c r="F647" s="22">
+        <f>F646+D647</f>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A648" s="24">
+        <v>45363</v>
+      </c>
+      <c r="B648" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C648" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E648" s="22">
+        <v>51</v>
+      </c>
+      <c r="F648" s="22">
+        <f>F647-E648</f>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A649" s="24">
+        <v>45363</v>
+      </c>
+      <c r="B649" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C649" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E649" s="22">
+        <v>40</v>
+      </c>
+      <c r="F649" s="22">
+        <f>F648-E649</f>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A650" s="24">
+        <v>45364</v>
+      </c>
+      <c r="B650" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C650" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E650" s="22">
+        <v>100</v>
+      </c>
+      <c r="F650" s="22">
+        <f>F649-E650</f>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A651" s="24">
+        <v>45364</v>
+      </c>
+      <c r="D651" s="22">
+        <v>2000</v>
+      </c>
+      <c r="F651" s="22">
+        <f>F650+D651</f>
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A652" s="24">
+        <v>45364</v>
+      </c>
+      <c r="B652" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C652" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E652" s="22">
+        <v>2000</v>
+      </c>
+      <c r="F652" s="22">
+        <f>F651-E652</f>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A653" s="24">
+        <v>45364</v>
+      </c>
+      <c r="D653" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F653" s="22">
+        <f>F652+D653</f>
+        <v>1408</v>
       </c>
     </row>
   </sheetData>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -3806,13 +3806,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3821,13 +3833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3837,12 +3843,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4276,13 +4276,13 @@
         <v>140</v>
       </c>
       <c r="H4" s="52"/>
-      <c r="I4" s="213">
+      <c r="I4" s="215">
         <v>45020</v>
       </c>
-      <c r="J4" s="214" t="s">
+      <c r="J4" s="216" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="214" t="s">
+      <c r="K4" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L4" s="59" t="s">
@@ -4291,7 +4291,7 @@
       <c r="M4" s="59">
         <v>5</v>
       </c>
-      <c r="N4" s="214" t="s">
+      <c r="N4" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O4" s="18"/>
@@ -4305,16 +4305,16 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="54"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="214"/>
-      <c r="K5" s="214"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
       <c r="L5" s="59" t="s">
         <v>180</v>
       </c>
       <c r="M5" s="59">
         <v>5</v>
       </c>
-      <c r="N5" s="214"/>
+      <c r="N5" s="216"/>
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4340,16 +4340,16 @@
         <v>140</v>
       </c>
       <c r="H6" s="20"/>
-      <c r="I6" s="213"/>
-      <c r="J6" s="214"/>
-      <c r="K6" s="214"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
       <c r="L6" s="59" t="s">
         <v>181</v>
       </c>
       <c r="M6" s="59">
         <v>6</v>
       </c>
-      <c r="N6" s="214"/>
+      <c r="N6" s="216"/>
       <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4361,26 +4361,26 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="52"/>
-      <c r="I7" s="213"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="59" t="s">
         <v>182</v>
       </c>
       <c r="M7" s="59">
         <v>2</v>
       </c>
-      <c r="N7" s="214"/>
+      <c r="N7" s="216"/>
       <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="213">
+      <c r="A8" s="215">
         <v>45033</v>
       </c>
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="216" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="214" t="s">
+      <c r="C8" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="48" t="s">
@@ -4389,10 +4389,10 @@
       <c r="E8" s="48">
         <v>10</v>
       </c>
-      <c r="F8" s="214" t="s">
+      <c r="F8" s="216" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="214" t="s">
+      <c r="G8" s="216" t="s">
         <v>140</v>
       </c>
       <c r="H8" s="62"/>
@@ -4405,25 +4405,25 @@
       <c r="O8" s="63"/>
     </row>
     <row r="9" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="213"/>
-      <c r="B9" s="214"/>
-      <c r="C9" s="214"/>
+      <c r="A9" s="215"/>
+      <c r="B9" s="216"/>
+      <c r="C9" s="216"/>
       <c r="D9" s="48" t="s">
         <v>171</v>
       </c>
       <c r="E9" s="48">
         <v>20</v>
       </c>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="213">
+      <c r="I9" s="215">
         <v>45020</v>
       </c>
-      <c r="J9" s="214" t="s">
+      <c r="J9" s="216" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="214" t="s">
+      <c r="K9" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L9" s="59" t="s">
@@ -4432,59 +4432,59 @@
       <c r="M9" s="59">
         <v>10</v>
       </c>
-      <c r="N9" s="214" t="s">
+      <c r="N9" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="213"/>
-      <c r="B10" s="214"/>
-      <c r="C10" s="214"/>
+      <c r="A10" s="215"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="216"/>
       <c r="D10" s="48" t="s">
         <v>172</v>
       </c>
       <c r="E10" s="48">
         <v>5</v>
       </c>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="216"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="214"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="216"/>
       <c r="L10" s="59" t="s">
         <v>183</v>
       </c>
       <c r="M10" s="59">
         <v>10</v>
       </c>
-      <c r="N10" s="214"/>
+      <c r="N10" s="216"/>
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="213"/>
-      <c r="B11" s="214"/>
-      <c r="C11" s="214"/>
+      <c r="A11" s="215"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
       <c r="D11" s="48" t="s">
         <v>174</v>
       </c>
       <c r="E11" s="48">
         <v>5</v>
       </c>
-      <c r="F11" s="214"/>
-      <c r="G11" s="214"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="214"/>
-      <c r="K11" s="214"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="216"/>
       <c r="L11" s="59" t="s">
         <v>184</v>
       </c>
       <c r="M11" s="59">
         <v>19</v>
       </c>
-      <c r="N11" s="214"/>
+      <c r="N11" s="216"/>
       <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4496,16 +4496,16 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="52"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="214"/>
-      <c r="K12" s="214"/>
+      <c r="I12" s="215"/>
+      <c r="J12" s="216"/>
+      <c r="K12" s="216"/>
       <c r="L12" s="59" t="s">
         <v>185</v>
       </c>
       <c r="M12" s="59">
         <v>2</v>
       </c>
-      <c r="N12" s="214"/>
+      <c r="N12" s="216"/>
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" s="48" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -4531,16 +4531,16 @@
         <v>140</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="214"/>
-      <c r="K13" s="214"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="216"/>
+      <c r="K13" s="216"/>
       <c r="L13" s="59" t="s">
         <v>186</v>
       </c>
       <c r="M13" s="59">
         <v>2</v>
       </c>
-      <c r="N13" s="214"/>
+      <c r="N13" s="216"/>
       <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4552,16 +4552,16 @@
       <c r="F14" s="55"/>
       <c r="G14" s="55"/>
       <c r="H14" s="52"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="214"/>
-      <c r="K14" s="214"/>
+      <c r="I14" s="215"/>
+      <c r="J14" s="216"/>
+      <c r="K14" s="216"/>
       <c r="L14" s="59" t="s">
         <v>187</v>
       </c>
       <c r="M14" s="59">
         <v>10</v>
       </c>
-      <c r="N14" s="214"/>
+      <c r="N14" s="216"/>
       <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4625,13 +4625,13 @@
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="213">
+      <c r="A17" s="215">
         <v>45033</v>
       </c>
-      <c r="B17" s="214" t="s">
+      <c r="B17" s="216" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="214" t="s">
+      <c r="C17" s="216" t="s">
         <v>163</v>
       </c>
       <c r="D17" s="57" t="s">
@@ -4640,10 +4640,10 @@
       <c r="E17" s="57">
         <v>10</v>
       </c>
-      <c r="F17" s="214" t="s">
+      <c r="F17" s="216" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="214" t="s">
+      <c r="G17" s="216" t="s">
         <v>140</v>
       </c>
       <c r="H17" s="64"/>
@@ -4656,25 +4656,25 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="213"/>
-      <c r="B18" s="214"/>
-      <c r="C18" s="214"/>
+      <c r="A18" s="215"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="216"/>
       <c r="D18" s="57" t="s">
         <v>177</v>
       </c>
       <c r="E18" s="57">
         <v>100</v>
       </c>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="213">
+      <c r="I18" s="215">
         <v>45033</v>
       </c>
-      <c r="J18" s="214" t="s">
+      <c r="J18" s="216" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="214" t="s">
+      <c r="K18" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L18" s="59" t="s">
@@ -4683,7 +4683,7 @@
       <c r="M18" s="59">
         <v>10</v>
       </c>
-      <c r="N18" s="214" t="s">
+      <c r="N18" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O18" s="18"/>
@@ -4697,16 +4697,16 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="52"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="214"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="216"/>
+      <c r="K19" s="216"/>
       <c r="L19" s="59" t="s">
         <v>179</v>
       </c>
       <c r="M19" s="59">
         <v>15</v>
       </c>
-      <c r="N19" s="214"/>
+      <c r="N19" s="216"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" s="48" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4732,16 +4732,16 @@
         <v>159</v>
       </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="214"/>
-      <c r="K20" s="214"/>
+      <c r="I20" s="215"/>
+      <c r="J20" s="216"/>
+      <c r="K20" s="216"/>
       <c r="L20" s="59" t="s">
         <v>181</v>
       </c>
       <c r="M20" s="59">
         <v>9</v>
       </c>
-      <c r="N20" s="214"/>
+      <c r="N20" s="216"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4753,16 +4753,16 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="52"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="214"/>
-      <c r="K21" s="214"/>
+      <c r="I21" s="215"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="216"/>
       <c r="L21" s="59" t="s">
         <v>187</v>
       </c>
       <c r="M21" s="59">
         <v>5</v>
       </c>
-      <c r="N21" s="214"/>
+      <c r="N21" s="216"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4788,16 +4788,16 @@
         <v>159</v>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="214"/>
-      <c r="K22" s="214"/>
+      <c r="I22" s="215"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="216"/>
       <c r="L22" s="59" t="s">
         <v>183</v>
       </c>
       <c r="M22" s="59">
         <v>20</v>
       </c>
-      <c r="N22" s="214"/>
+      <c r="N22" s="216"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4809,26 +4809,26 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="52"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="214"/>
-      <c r="K23" s="214"/>
+      <c r="I23" s="215"/>
+      <c r="J23" s="216"/>
+      <c r="K23" s="216"/>
       <c r="L23" s="59" t="s">
         <v>188</v>
       </c>
       <c r="M23" s="59">
         <v>30.5</v>
       </c>
-      <c r="N23" s="214"/>
+      <c r="N23" s="216"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="213">
+      <c r="A24" s="215">
         <v>45042</v>
       </c>
-      <c r="B24" s="214" t="s">
+      <c r="B24" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="214" t="s">
+      <c r="C24" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="71" t="s">
@@ -4837,37 +4837,37 @@
       <c r="E24" s="71">
         <v>15</v>
       </c>
-      <c r="F24" s="214" t="s">
+      <c r="F24" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="214" t="s">
+      <c r="G24" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H24" s="20"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="214"/>
+      <c r="I24" s="215"/>
+      <c r="J24" s="216"/>
+      <c r="K24" s="216"/>
       <c r="L24" s="59" t="s">
         <v>189</v>
       </c>
       <c r="M24" s="59">
         <v>10</v>
       </c>
-      <c r="N24" s="214"/>
+      <c r="N24" s="216"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="213"/>
-      <c r="B25" s="214"/>
-      <c r="C25" s="214"/>
+      <c r="A25" s="215"/>
+      <c r="B25" s="216"/>
+      <c r="C25" s="216"/>
       <c r="D25" s="71" t="s">
         <v>172</v>
       </c>
       <c r="E25" s="71">
         <v>17</v>
       </c>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="216"/>
       <c r="H25" s="62"/>
       <c r="I25" s="53"/>
       <c r="J25" s="21"/>
@@ -4886,13 +4886,13 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="52"/>
-      <c r="I26" s="213">
+      <c r="I26" s="215">
         <v>45033</v>
       </c>
-      <c r="J26" s="214" t="s">
+      <c r="J26" s="216" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="214" t="s">
+      <c r="K26" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L26" s="59" t="s">
@@ -4901,7 +4901,7 @@
       <c r="M26" s="59">
         <v>40</v>
       </c>
-      <c r="N26" s="214" t="s">
+      <c r="N26" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O26" s="18"/>
@@ -4929,16 +4929,16 @@
         <v>159</v>
       </c>
       <c r="H27" s="20"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="214"/>
-      <c r="K27" s="214"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="216"/>
       <c r="L27" s="59" t="s">
         <v>191</v>
       </c>
       <c r="M27" s="59">
         <v>100</v>
       </c>
-      <c r="N27" s="214"/>
+      <c r="N27" s="216"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4981,13 +4981,13 @@
         <v>159</v>
       </c>
       <c r="H29" s="20"/>
-      <c r="I29" s="213">
+      <c r="I29" s="215">
         <v>45038</v>
       </c>
-      <c r="J29" s="214" t="s">
+      <c r="J29" s="216" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="214" t="s">
+      <c r="K29" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L29" s="79" t="s">
@@ -4996,7 +4996,7 @@
       <c r="M29" s="79">
         <v>12</v>
       </c>
-      <c r="N29" s="214" t="s">
+      <c r="N29" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O29" s="18"/>
@@ -5010,26 +5010,26 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="52"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="214"/>
-      <c r="K30" s="214"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="216"/>
       <c r="L30" s="79" t="s">
         <v>216</v>
       </c>
       <c r="M30" s="79">
         <v>10</v>
       </c>
-      <c r="N30" s="214"/>
+      <c r="N30" s="216"/>
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="213">
+      <c r="A31" s="215">
         <v>45049</v>
       </c>
-      <c r="B31" s="214" t="s">
+      <c r="B31" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="214" t="s">
+      <c r="C31" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D31" s="77" t="s">
@@ -5038,10 +5038,10 @@
       <c r="E31" s="77">
         <v>20</v>
       </c>
-      <c r="F31" s="214" t="s">
+      <c r="F31" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="G31" s="214" t="s">
+      <c r="G31" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H31" s="62"/>
@@ -5054,25 +5054,25 @@
       <c r="O31" s="63"/>
     </row>
     <row r="32" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="213"/>
-      <c r="B32" s="214"/>
-      <c r="C32" s="214"/>
+      <c r="A32" s="215"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="216"/>
       <c r="D32" s="77" t="s">
         <v>205</v>
       </c>
       <c r="E32" s="77">
         <v>5</v>
       </c>
-      <c r="F32" s="214"/>
-      <c r="G32" s="214"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="213">
+      <c r="I32" s="215">
         <v>45043</v>
       </c>
-      <c r="J32" s="214" t="s">
+      <c r="J32" s="216" t="s">
         <v>203</v>
       </c>
-      <c r="K32" s="214" t="s">
+      <c r="K32" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L32" s="79" t="s">
@@ -5081,34 +5081,34 @@
       <c r="M32" s="79">
         <v>17</v>
       </c>
-      <c r="N32" s="214" t="s">
+      <c r="N32" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="213"/>
-      <c r="B33" s="214"/>
-      <c r="C33" s="214"/>
+      <c r="A33" s="215"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="216"/>
       <c r="D33" s="77" t="s">
         <v>174</v>
       </c>
       <c r="E33" s="77">
         <v>4</v>
       </c>
-      <c r="F33" s="214"/>
-      <c r="G33" s="214"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="214"/>
-      <c r="K33" s="214"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="216"/>
       <c r="L33" s="79" t="s">
         <v>185</v>
       </c>
       <c r="M33" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="N33" s="214"/>
+      <c r="N33" s="216"/>
       <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5151,13 +5151,13 @@
         <v>159</v>
       </c>
       <c r="H35" s="20"/>
-      <c r="I35" s="213">
+      <c r="I35" s="215">
         <v>45051</v>
       </c>
-      <c r="J35" s="214" t="s">
+      <c r="J35" s="216" t="s">
         <v>219</v>
       </c>
-      <c r="K35" s="214" t="s">
+      <c r="K35" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L35" s="80" t="s">
@@ -5166,7 +5166,7 @@
       <c r="M35" s="80">
         <v>20</v>
       </c>
-      <c r="N35" s="214" t="s">
+      <c r="N35" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O35" s="18"/>
@@ -5180,26 +5180,26 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="52"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="214"/>
-      <c r="K36" s="214"/>
+      <c r="I36" s="215"/>
+      <c r="J36" s="216"/>
+      <c r="K36" s="216"/>
       <c r="L36" s="80" t="s">
         <v>187</v>
       </c>
       <c r="M36" s="80">
         <v>3</v>
       </c>
-      <c r="N36" s="214"/>
+      <c r="N36" s="216"/>
       <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="213">
+      <c r="A37" s="215">
         <v>45051</v>
       </c>
-      <c r="B37" s="214" t="s">
+      <c r="B37" s="216" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="214" t="s">
+      <c r="C37" s="216" t="s">
         <v>226</v>
       </c>
       <c r="D37" s="84" t="s">
@@ -5208,37 +5208,37 @@
       <c r="E37" s="84">
         <v>33</v>
       </c>
-      <c r="F37" s="214" t="s">
+      <c r="F37" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="G37" s="214" t="s">
+      <c r="G37" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H37" s="20"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="214"/>
-      <c r="K37" s="214"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="216"/>
       <c r="L37" s="80" t="s">
         <v>190</v>
       </c>
       <c r="M37" s="80">
         <v>30</v>
       </c>
-      <c r="N37" s="214"/>
+      <c r="N37" s="216"/>
       <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="213"/>
-      <c r="B38" s="214"/>
-      <c r="C38" s="214"/>
+      <c r="A38" s="215"/>
+      <c r="B38" s="216"/>
+      <c r="C38" s="216"/>
       <c r="D38" s="84" t="s">
         <v>251</v>
       </c>
       <c r="E38" s="84">
         <v>1</v>
       </c>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
+      <c r="F38" s="216"/>
+      <c r="G38" s="216"/>
       <c r="H38" s="62"/>
       <c r="I38" s="53"/>
       <c r="J38" s="21"/>
@@ -5249,25 +5249,25 @@
       <c r="O38" s="63"/>
     </row>
     <row r="39" spans="1:15" s="48" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="213"/>
-      <c r="B39" s="214"/>
-      <c r="C39" s="214"/>
+      <c r="A39" s="215"/>
+      <c r="B39" s="216"/>
+      <c r="C39" s="216"/>
       <c r="D39" s="84" t="s">
         <v>252</v>
       </c>
       <c r="E39" s="84">
         <v>1</v>
       </c>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="216"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="213">
+      <c r="I39" s="215">
         <v>45051</v>
       </c>
-      <c r="J39" s="214" t="s">
+      <c r="J39" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="K39" s="214" t="s">
+      <c r="K39" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L39" s="80" t="s">
@@ -5276,34 +5276,34 @@
       <c r="M39" s="80">
         <v>15</v>
       </c>
-      <c r="N39" s="214" t="s">
+      <c r="N39" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="213"/>
-      <c r="B40" s="214"/>
-      <c r="C40" s="214"/>
+      <c r="A40" s="215"/>
+      <c r="B40" s="216"/>
+      <c r="C40" s="216"/>
       <c r="D40" s="84" t="s">
         <v>253</v>
       </c>
       <c r="E40" s="84">
         <v>1</v>
       </c>
-      <c r="F40" s="214"/>
-      <c r="G40" s="214"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="214"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="216"/>
       <c r="L40" s="80" t="s">
         <v>185</v>
       </c>
       <c r="M40" s="80">
         <v>5</v>
       </c>
-      <c r="N40" s="214"/>
+      <c r="N40" s="216"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5315,16 +5315,16 @@
       <c r="F41" s="65"/>
       <c r="G41" s="65"/>
       <c r="H41" s="52"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="214"/>
-      <c r="K41" s="214"/>
+      <c r="I41" s="215"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="216"/>
       <c r="L41" s="80" t="s">
         <v>222</v>
       </c>
       <c r="M41" s="80">
         <v>2</v>
       </c>
-      <c r="N41" s="214"/>
+      <c r="N41" s="216"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5427,13 +5427,13 @@
       <c r="F45" s="90"/>
       <c r="G45" s="90"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="213">
+      <c r="I45" s="215">
         <v>45058</v>
       </c>
-      <c r="J45" s="214" t="s">
+      <c r="J45" s="216" t="s">
         <v>244</v>
       </c>
-      <c r="K45" s="214" t="s">
+      <c r="K45" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L45" s="97" t="s">
@@ -5442,19 +5442,19 @@
       <c r="M45" s="97">
         <v>1</v>
       </c>
-      <c r="N45" s="214" t="s">
+      <c r="N45" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O45" s="18"/>
     </row>
     <row r="46" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="216">
+      <c r="A46" s="220">
         <v>45056</v>
       </c>
-      <c r="B46" s="217" t="s">
+      <c r="B46" s="221" t="s">
         <v>255</v>
       </c>
-      <c r="C46" s="217" t="s">
+      <c r="C46" s="221" t="s">
         <v>233</v>
       </c>
       <c r="D46" s="88" t="s">
@@ -5463,37 +5463,37 @@
       <c r="E46" s="88">
         <v>1</v>
       </c>
-      <c r="F46" s="217" t="s">
+      <c r="F46" s="221" t="s">
         <v>198</v>
       </c>
-      <c r="G46" s="217" t="s">
+      <c r="G46" s="221" t="s">
         <v>159</v>
       </c>
       <c r="H46" s="52"/>
-      <c r="I46" s="213"/>
-      <c r="J46" s="214"/>
-      <c r="K46" s="214"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="216"/>
+      <c r="K46" s="216"/>
       <c r="L46" s="97" t="s">
         <v>269</v>
       </c>
       <c r="M46" s="97">
         <v>4</v>
       </c>
-      <c r="N46" s="214"/>
+      <c r="N46" s="216"/>
       <c r="O46" s="18"/>
     </row>
     <row r="47" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="216"/>
-      <c r="B47" s="217"/>
-      <c r="C47" s="217"/>
+      <c r="A47" s="220"/>
+      <c r="B47" s="221"/>
+      <c r="C47" s="221"/>
       <c r="D47" s="89" t="s">
         <v>257</v>
       </c>
       <c r="E47" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="F47" s="217"/>
-      <c r="G47" s="217"/>
+      <c r="F47" s="221"/>
+      <c r="G47" s="221"/>
       <c r="H47" s="62"/>
       <c r="I47" s="53"/>
       <c r="J47" s="21"/>
@@ -5572,13 +5572,13 @@
       <c r="F50" s="95"/>
       <c r="G50" s="95"/>
       <c r="H50" s="52"/>
-      <c r="I50" s="213">
+      <c r="I50" s="215">
         <v>45063</v>
       </c>
-      <c r="J50" s="214" t="s">
+      <c r="J50" s="216" t="s">
         <v>267</v>
       </c>
-      <c r="K50" s="214" t="s">
+      <c r="K50" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L50" s="97" t="s">
@@ -5587,7 +5587,7 @@
       <c r="M50" s="97">
         <v>8</v>
       </c>
-      <c r="N50" s="214" t="s">
+      <c r="N50" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O50" s="18"/>
@@ -5615,16 +5615,16 @@
         <v>159</v>
       </c>
       <c r="H51" s="20"/>
-      <c r="I51" s="213"/>
-      <c r="J51" s="214"/>
-      <c r="K51" s="214"/>
+      <c r="I51" s="215"/>
+      <c r="J51" s="216"/>
+      <c r="K51" s="216"/>
       <c r="L51" s="97" t="s">
         <v>183</v>
       </c>
       <c r="M51" s="97">
         <v>7</v>
       </c>
-      <c r="N51" s="214"/>
+      <c r="N51" s="216"/>
       <c r="O51" s="18"/>
     </row>
     <row r="52" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5636,16 +5636,16 @@
       <c r="F52" s="90"/>
       <c r="G52" s="90"/>
       <c r="H52" s="52"/>
-      <c r="I52" s="213"/>
-      <c r="J52" s="214"/>
-      <c r="K52" s="214"/>
+      <c r="I52" s="215"/>
+      <c r="J52" s="216"/>
+      <c r="K52" s="216"/>
       <c r="L52" s="97" t="s">
         <v>185</v>
       </c>
       <c r="M52" s="97">
         <v>5</v>
       </c>
-      <c r="N52" s="214"/>
+      <c r="N52" s="216"/>
       <c r="O52" s="18"/>
     </row>
     <row r="53" spans="1:15" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5671,16 +5671,16 @@
         <v>159</v>
       </c>
       <c r="H53" s="20"/>
-      <c r="I53" s="213"/>
-      <c r="J53" s="214"/>
-      <c r="K53" s="214"/>
+      <c r="I53" s="215"/>
+      <c r="J53" s="216"/>
+      <c r="K53" s="216"/>
       <c r="L53" s="97" t="s">
         <v>270</v>
       </c>
       <c r="M53" s="97">
         <v>25</v>
       </c>
-      <c r="N53" s="214"/>
+      <c r="N53" s="216"/>
       <c r="O53" s="18"/>
     </row>
     <row r="54" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5761,13 +5761,13 @@
       <c r="O56" s="63"/>
     </row>
     <row r="57" spans="1:15" s="48" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="213">
+      <c r="A57" s="215">
         <v>45061</v>
       </c>
-      <c r="B57" s="214" t="s">
+      <c r="B57" s="216" t="s">
         <v>263</v>
       </c>
-      <c r="C57" s="214" t="s">
+      <c r="C57" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D57" s="86" t="s">
@@ -5776,20 +5776,20 @@
       <c r="E57" s="86">
         <v>4</v>
       </c>
-      <c r="F57" s="214" t="s">
+      <c r="F57" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="G57" s="214" t="s">
+      <c r="G57" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="213">
+      <c r="I57" s="215">
         <v>45070</v>
       </c>
-      <c r="J57" s="214" t="s">
+      <c r="J57" s="216" t="s">
         <v>278</v>
       </c>
-      <c r="K57" s="214" t="s">
+      <c r="K57" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L57" s="99" t="s">
@@ -5798,48 +5798,48 @@
       <c r="M57" s="98">
         <v>14</v>
       </c>
-      <c r="N57" s="214" t="s">
+      <c r="N57" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O57" s="18"/>
     </row>
     <row r="58" spans="1:15" s="48" customFormat="1" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="213"/>
-      <c r="B58" s="214"/>
-      <c r="C58" s="214"/>
+      <c r="A58" s="215"/>
+      <c r="B58" s="216"/>
+      <c r="C58" s="216"/>
       <c r="D58" s="86" t="s">
         <v>171</v>
       </c>
       <c r="E58" s="86">
         <v>7</v>
       </c>
-      <c r="F58" s="214"/>
-      <c r="G58" s="214"/>
+      <c r="F58" s="216"/>
+      <c r="G58" s="216"/>
       <c r="H58" s="20"/>
-      <c r="I58" s="213"/>
-      <c r="J58" s="214"/>
-      <c r="K58" s="214"/>
+      <c r="I58" s="215"/>
+      <c r="J58" s="216"/>
+      <c r="K58" s="216"/>
       <c r="L58" s="99" t="s">
         <v>281</v>
       </c>
       <c r="M58" s="98">
         <v>10</v>
       </c>
-      <c r="N58" s="214"/>
+      <c r="N58" s="216"/>
       <c r="O58" s="18"/>
     </row>
     <row r="59" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="213"/>
-      <c r="B59" s="214"/>
-      <c r="C59" s="214"/>
+      <c r="A59" s="215"/>
+      <c r="B59" s="216"/>
+      <c r="C59" s="216"/>
       <c r="D59" s="86" t="s">
         <v>205</v>
       </c>
       <c r="E59" s="86">
         <v>5</v>
       </c>
-      <c r="F59" s="214"/>
-      <c r="G59" s="214"/>
+      <c r="F59" s="216"/>
+      <c r="G59" s="216"/>
       <c r="H59" s="62"/>
       <c r="I59" s="53"/>
       <c r="J59" s="21"/>
@@ -5858,13 +5858,13 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
       <c r="H60" s="52"/>
-      <c r="I60" s="213">
+      <c r="I60" s="215">
         <v>45070</v>
       </c>
-      <c r="J60" s="214" t="s">
+      <c r="J60" s="216" t="s">
         <v>279</v>
       </c>
-      <c r="K60" s="214" t="s">
+      <c r="K60" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L60" s="99" t="s">
@@ -5873,7 +5873,7 @@
       <c r="M60" s="98">
         <v>3</v>
       </c>
-      <c r="N60" s="214" t="s">
+      <c r="N60" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O60" s="18"/>
@@ -5901,16 +5901,16 @@
         <v>159</v>
       </c>
       <c r="H61" s="20"/>
-      <c r="I61" s="213"/>
-      <c r="J61" s="214"/>
-      <c r="K61" s="214"/>
+      <c r="I61" s="215"/>
+      <c r="J61" s="216"/>
+      <c r="K61" s="216"/>
       <c r="L61" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M61" s="98">
         <v>2</v>
       </c>
-      <c r="N61" s="214"/>
+      <c r="N61" s="216"/>
       <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5922,26 +5922,26 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="52"/>
-      <c r="I62" s="213"/>
-      <c r="J62" s="214"/>
-      <c r="K62" s="214"/>
+      <c r="I62" s="215"/>
+      <c r="J62" s="216"/>
+      <c r="K62" s="216"/>
       <c r="L62" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M62" s="98">
         <v>7</v>
       </c>
-      <c r="N62" s="214"/>
+      <c r="N62" s="216"/>
       <c r="O62" s="18"/>
     </row>
     <row r="63" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="213">
+      <c r="A63" s="215">
         <v>45065</v>
       </c>
-      <c r="B63" s="214" t="s">
+      <c r="B63" s="216" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="214" t="s">
+      <c r="C63" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D63" s="102" t="s">
@@ -5950,62 +5950,62 @@
       <c r="E63" s="102">
         <v>6</v>
       </c>
-      <c r="F63" s="214" t="s">
+      <c r="F63" s="216" t="s">
         <v>228</v>
       </c>
-      <c r="G63" s="214" t="s">
+      <c r="G63" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H63" s="52"/>
-      <c r="I63" s="213"/>
-      <c r="J63" s="214"/>
-      <c r="K63" s="214"/>
+      <c r="I63" s="215"/>
+      <c r="J63" s="216"/>
+      <c r="K63" s="216"/>
       <c r="L63" s="99" t="s">
         <v>283</v>
       </c>
       <c r="M63" s="98">
         <v>10</v>
       </c>
-      <c r="N63" s="214"/>
+      <c r="N63" s="216"/>
       <c r="O63" s="18"/>
     </row>
     <row r="64" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="213"/>
-      <c r="B64" s="214"/>
-      <c r="C64" s="214"/>
+      <c r="A64" s="215"/>
+      <c r="B64" s="216"/>
+      <c r="C64" s="216"/>
       <c r="D64" s="102" t="s">
         <v>171</v>
       </c>
       <c r="E64" s="102">
         <v>8</v>
       </c>
-      <c r="F64" s="214"/>
-      <c r="G64" s="214"/>
+      <c r="F64" s="216"/>
+      <c r="G64" s="216"/>
       <c r="H64" s="52"/>
-      <c r="I64" s="213"/>
-      <c r="J64" s="214"/>
-      <c r="K64" s="214"/>
+      <c r="I64" s="215"/>
+      <c r="J64" s="216"/>
+      <c r="K64" s="216"/>
       <c r="L64" s="100" t="s">
         <v>284</v>
       </c>
       <c r="M64" s="98">
         <v>3</v>
       </c>
-      <c r="N64" s="214"/>
+      <c r="N64" s="216"/>
       <c r="O64" s="18"/>
     </row>
     <row r="65" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="213"/>
-      <c r="B65" s="214"/>
-      <c r="C65" s="214"/>
+      <c r="A65" s="215"/>
+      <c r="B65" s="216"/>
+      <c r="C65" s="216"/>
       <c r="D65" s="102" t="s">
         <v>290</v>
       </c>
       <c r="E65" s="102">
         <v>10</v>
       </c>
-      <c r="F65" s="214"/>
-      <c r="G65" s="214"/>
+      <c r="F65" s="216"/>
+      <c r="G65" s="216"/>
       <c r="H65" s="64"/>
       <c r="I65" s="53"/>
       <c r="J65" s="21"/>
@@ -6016,25 +6016,25 @@
       <c r="O65" s="63"/>
     </row>
     <row r="66" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="213"/>
-      <c r="B66" s="214"/>
-      <c r="C66" s="214"/>
+      <c r="A66" s="215"/>
+      <c r="B66" s="216"/>
+      <c r="C66" s="216"/>
       <c r="D66" s="102" t="s">
         <v>291</v>
       </c>
       <c r="E66" s="102">
         <v>3</v>
       </c>
-      <c r="F66" s="214"/>
-      <c r="G66" s="214"/>
+      <c r="F66" s="216"/>
+      <c r="G66" s="216"/>
       <c r="H66" s="52"/>
-      <c r="I66" s="213">
+      <c r="I66" s="215">
         <v>45080</v>
       </c>
-      <c r="J66" s="214" t="s">
+      <c r="J66" s="216" t="s">
         <v>313</v>
       </c>
-      <c r="K66" s="214" t="s">
+      <c r="K66" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L66" s="116" t="s">
@@ -6043,7 +6043,7 @@
       <c r="M66" s="116">
         <v>50</v>
       </c>
-      <c r="N66" s="214" t="s">
+      <c r="N66" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O66" s="18"/>
@@ -6057,16 +6057,16 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
       <c r="H67" s="52"/>
-      <c r="I67" s="213"/>
-      <c r="J67" s="214"/>
-      <c r="K67" s="214"/>
+      <c r="I67" s="215"/>
+      <c r="J67" s="216"/>
+      <c r="K67" s="216"/>
       <c r="L67" s="116" t="s">
         <v>222</v>
       </c>
       <c r="M67" s="116">
         <v>54</v>
       </c>
-      <c r="N67" s="214"/>
+      <c r="N67" s="216"/>
       <c r="O67" s="18"/>
     </row>
     <row r="68" spans="1:15" s="48" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
@@ -6092,16 +6092,16 @@
         <v>159</v>
       </c>
       <c r="H68" s="20"/>
-      <c r="I68" s="213"/>
-      <c r="J68" s="214"/>
-      <c r="K68" s="214"/>
+      <c r="I68" s="215"/>
+      <c r="J68" s="216"/>
+      <c r="K68" s="216"/>
       <c r="L68" s="116" t="s">
         <v>191</v>
       </c>
       <c r="M68" s="116">
         <v>70</v>
       </c>
-      <c r="N68" s="214"/>
+      <c r="N68" s="216"/>
       <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6113,16 +6113,16 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
       <c r="H69" s="20"/>
-      <c r="I69" s="213"/>
-      <c r="J69" s="214"/>
-      <c r="K69" s="214"/>
+      <c r="I69" s="215"/>
+      <c r="J69" s="216"/>
+      <c r="K69" s="216"/>
       <c r="L69" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M69" s="116">
         <v>19</v>
       </c>
-      <c r="N69" s="214"/>
+      <c r="N69" s="216"/>
       <c r="O69" s="18"/>
     </row>
     <row r="70" spans="1:15" s="48" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6148,16 +6148,16 @@
         <v>159</v>
       </c>
       <c r="H70" s="20"/>
-      <c r="I70" s="213"/>
-      <c r="J70" s="214"/>
-      <c r="K70" s="214"/>
+      <c r="I70" s="215"/>
+      <c r="J70" s="216"/>
+      <c r="K70" s="216"/>
       <c r="L70" s="116" t="s">
         <v>344</v>
       </c>
       <c r="M70" s="116">
         <v>10</v>
       </c>
-      <c r="N70" s="214"/>
+      <c r="N70" s="216"/>
       <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6169,16 +6169,16 @@
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
       <c r="H71" s="20"/>
-      <c r="I71" s="213"/>
-      <c r="J71" s="214"/>
-      <c r="K71" s="214"/>
+      <c r="I71" s="215"/>
+      <c r="J71" s="216"/>
+      <c r="K71" s="216"/>
       <c r="L71" s="116" t="s">
         <v>187</v>
       </c>
       <c r="M71" s="116">
         <v>13</v>
       </c>
-      <c r="N71" s="214"/>
+      <c r="N71" s="216"/>
       <c r="O71" s="18"/>
     </row>
     <row r="72" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6204,16 +6204,16 @@
         <v>159</v>
       </c>
       <c r="H72" s="20"/>
-      <c r="I72" s="213"/>
-      <c r="J72" s="214"/>
-      <c r="K72" s="214"/>
+      <c r="I72" s="215"/>
+      <c r="J72" s="216"/>
+      <c r="K72" s="216"/>
       <c r="L72" s="116" t="s">
         <v>184</v>
       </c>
       <c r="M72" s="116">
         <v>10</v>
       </c>
-      <c r="N72" s="214"/>
+      <c r="N72" s="216"/>
       <c r="O72" s="18"/>
     </row>
     <row r="73" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6225,16 +6225,16 @@
       <c r="F73" s="65"/>
       <c r="G73" s="65"/>
       <c r="H73" s="52"/>
-      <c r="I73" s="213"/>
-      <c r="J73" s="214"/>
-      <c r="K73" s="214"/>
+      <c r="I73" s="215"/>
+      <c r="J73" s="216"/>
+      <c r="K73" s="216"/>
       <c r="L73" s="116" t="s">
         <v>190</v>
       </c>
       <c r="M73" s="116">
         <v>50</v>
       </c>
-      <c r="N73" s="214"/>
+      <c r="N73" s="216"/>
       <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6277,13 +6277,13 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
       <c r="H75" s="52"/>
-      <c r="I75" s="213">
+      <c r="I75" s="215">
         <v>45080</v>
       </c>
-      <c r="J75" s="214" t="s">
+      <c r="J75" s="216" t="s">
         <v>314</v>
       </c>
-      <c r="K75" s="214" t="s">
+      <c r="K75" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L75" s="116" t="s">
@@ -6292,7 +6292,7 @@
       <c r="M75" s="116">
         <v>7</v>
       </c>
-      <c r="N75" s="214" t="s">
+      <c r="N75" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O75" s="18"/>
@@ -6320,16 +6320,16 @@
         <v>159</v>
       </c>
       <c r="H76" s="20"/>
-      <c r="I76" s="213"/>
-      <c r="J76" s="214"/>
-      <c r="K76" s="214"/>
+      <c r="I76" s="215"/>
+      <c r="J76" s="216"/>
+      <c r="K76" s="216"/>
       <c r="L76" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M76" s="116">
         <v>4</v>
       </c>
-      <c r="N76" s="214"/>
+      <c r="N76" s="216"/>
       <c r="O76" s="18"/>
     </row>
     <row r="77" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6341,16 +6341,16 @@
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
       <c r="H77" s="52"/>
-      <c r="I77" s="213"/>
-      <c r="J77" s="214"/>
-      <c r="K77" s="214"/>
+      <c r="I77" s="215"/>
+      <c r="J77" s="216"/>
+      <c r="K77" s="216"/>
       <c r="L77" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M77" s="116">
         <v>1</v>
       </c>
-      <c r="N77" s="214"/>
+      <c r="N77" s="216"/>
       <c r="O77" s="18"/>
     </row>
     <row r="78" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6376,16 +6376,16 @@
         <v>159</v>
       </c>
       <c r="H78" s="20"/>
-      <c r="I78" s="213"/>
-      <c r="J78" s="214"/>
-      <c r="K78" s="214"/>
+      <c r="I78" s="215"/>
+      <c r="J78" s="216"/>
+      <c r="K78" s="216"/>
       <c r="L78" s="116" t="s">
         <v>182</v>
       </c>
       <c r="M78" s="116">
         <v>1</v>
       </c>
-      <c r="N78" s="214"/>
+      <c r="N78" s="216"/>
       <c r="O78" s="18"/>
     </row>
     <row r="79" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6406,13 +6406,13 @@
       <c r="O79" s="63"/>
     </row>
     <row r="80" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="213">
+      <c r="A80" s="215">
         <v>45078</v>
       </c>
-      <c r="B80" s="214" t="s">
+      <c r="B80" s="216" t="s">
         <v>301</v>
       </c>
-      <c r="C80" s="214" t="s">
+      <c r="C80" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D80" s="105" t="s">
@@ -6421,20 +6421,20 @@
       <c r="E80" s="105">
         <v>10</v>
       </c>
-      <c r="F80" s="214" t="s">
+      <c r="F80" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="G80" s="214" t="s">
+      <c r="G80" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H80" s="20"/>
-      <c r="I80" s="213">
+      <c r="I80" s="215">
         <v>45090</v>
       </c>
-      <c r="J80" s="214" t="s">
+      <c r="J80" s="216" t="s">
         <v>341</v>
       </c>
-      <c r="K80" s="214" t="s">
+      <c r="K80" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L80" s="116" t="s">
@@ -6443,73 +6443,73 @@
       <c r="M80" s="116">
         <v>17</v>
       </c>
-      <c r="N80" s="214" t="s">
+      <c r="N80" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O80" s="18"/>
     </row>
     <row r="81" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="213"/>
-      <c r="B81" s="214"/>
-      <c r="C81" s="214"/>
+      <c r="A81" s="215"/>
+      <c r="B81" s="216"/>
+      <c r="C81" s="216"/>
       <c r="D81" s="105" t="s">
         <v>171</v>
       </c>
       <c r="E81" s="105">
         <v>19</v>
       </c>
-      <c r="F81" s="214"/>
-      <c r="G81" s="214"/>
+      <c r="F81" s="216"/>
+      <c r="G81" s="216"/>
       <c r="H81" s="20"/>
-      <c r="I81" s="213"/>
-      <c r="J81" s="214"/>
-      <c r="K81" s="214"/>
+      <c r="I81" s="215"/>
+      <c r="J81" s="216"/>
+      <c r="K81" s="216"/>
       <c r="L81" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M81" s="116">
         <v>35</v>
       </c>
-      <c r="N81" s="214"/>
+      <c r="N81" s="216"/>
       <c r="O81" s="18"/>
     </row>
     <row r="82" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="213"/>
-      <c r="B82" s="214"/>
-      <c r="C82" s="214"/>
+      <c r="A82" s="215"/>
+      <c r="B82" s="216"/>
+      <c r="C82" s="216"/>
       <c r="D82" s="105" t="s">
         <v>170</v>
       </c>
       <c r="E82" s="105">
         <v>10</v>
       </c>
-      <c r="F82" s="214"/>
-      <c r="G82" s="214"/>
+      <c r="F82" s="216"/>
+      <c r="G82" s="216"/>
       <c r="H82" s="20"/>
-      <c r="I82" s="213"/>
-      <c r="J82" s="214"/>
-      <c r="K82" s="214"/>
+      <c r="I82" s="215"/>
+      <c r="J82" s="216"/>
+      <c r="K82" s="216"/>
       <c r="L82" s="116" t="s">
         <v>345</v>
       </c>
       <c r="M82" s="116">
         <v>1</v>
       </c>
-      <c r="N82" s="214"/>
+      <c r="N82" s="216"/>
       <c r="O82" s="18"/>
     </row>
     <row r="83" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="213"/>
-      <c r="B83" s="214"/>
-      <c r="C83" s="214"/>
+      <c r="A83" s="215"/>
+      <c r="B83" s="216"/>
+      <c r="C83" s="216"/>
       <c r="D83" s="105" t="s">
         <v>172</v>
       </c>
       <c r="E83" s="105">
         <v>13</v>
       </c>
-      <c r="F83" s="214"/>
-      <c r="G83" s="214"/>
+      <c r="F83" s="216"/>
+      <c r="G83" s="216"/>
       <c r="H83" s="62"/>
       <c r="I83" s="21"/>
       <c r="J83" s="21"/>
@@ -6528,13 +6528,13 @@
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
       <c r="H84" s="20"/>
-      <c r="I84" s="213">
+      <c r="I84" s="215">
         <v>45090</v>
       </c>
-      <c r="J84" s="214" t="s">
+      <c r="J84" s="216" t="s">
         <v>342</v>
       </c>
-      <c r="K84" s="214" t="s">
+      <c r="K84" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L84" s="100" t="s">
@@ -6543,7 +6543,7 @@
       <c r="M84" s="116">
         <v>16</v>
       </c>
-      <c r="N84" s="214" t="s">
+      <c r="N84" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O84" s="18"/>
@@ -6571,16 +6571,16 @@
         <v>159</v>
       </c>
       <c r="H85" s="20"/>
-      <c r="I85" s="213"/>
-      <c r="J85" s="214"/>
-      <c r="K85" s="214"/>
+      <c r="I85" s="215"/>
+      <c r="J85" s="216"/>
+      <c r="K85" s="216"/>
       <c r="L85" s="116" t="s">
         <v>346</v>
       </c>
       <c r="M85" s="116">
         <v>10</v>
       </c>
-      <c r="N85" s="214"/>
+      <c r="N85" s="216"/>
       <c r="O85" s="18"/>
     </row>
     <row r="86" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6592,16 +6592,16 @@
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
       <c r="H86" s="20"/>
-      <c r="I86" s="213"/>
-      <c r="J86" s="214"/>
-      <c r="K86" s="214"/>
+      <c r="I86" s="215"/>
+      <c r="J86" s="216"/>
+      <c r="K86" s="216"/>
       <c r="L86" s="116" t="s">
         <v>182</v>
       </c>
       <c r="M86" s="116">
         <v>14</v>
       </c>
-      <c r="N86" s="214"/>
+      <c r="N86" s="216"/>
       <c r="O86" s="18"/>
     </row>
     <row r="87" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6627,16 +6627,16 @@
         <v>159</v>
       </c>
       <c r="H87" s="20"/>
-      <c r="I87" s="213"/>
-      <c r="J87" s="214"/>
-      <c r="K87" s="214"/>
+      <c r="I87" s="215"/>
+      <c r="J87" s="216"/>
+      <c r="K87" s="216"/>
       <c r="L87" s="116" t="s">
         <v>347</v>
       </c>
       <c r="M87" s="116">
         <v>3</v>
       </c>
-      <c r="N87" s="214"/>
+      <c r="N87" s="216"/>
       <c r="O87" s="18"/>
     </row>
     <row r="88" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6648,26 +6648,26 @@
       <c r="F88" s="65"/>
       <c r="G88" s="65"/>
       <c r="H88" s="20"/>
-      <c r="I88" s="213"/>
-      <c r="J88" s="214"/>
-      <c r="K88" s="214"/>
+      <c r="I88" s="215"/>
+      <c r="J88" s="216"/>
+      <c r="K88" s="216"/>
       <c r="L88" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M88" s="116">
         <v>10</v>
       </c>
-      <c r="N88" s="214"/>
+      <c r="N88" s="216"/>
       <c r="O88" s="18"/>
     </row>
     <row r="89" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="213">
+      <c r="A89" s="215">
         <v>45084</v>
       </c>
-      <c r="B89" s="214" t="s">
+      <c r="B89" s="216" t="s">
         <v>317</v>
       </c>
-      <c r="C89" s="214" t="s">
+      <c r="C89" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D89" s="109" t="s">
@@ -6676,62 +6676,62 @@
       <c r="E89" s="109">
         <v>35</v>
       </c>
-      <c r="F89" s="214" t="s">
+      <c r="F89" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="G89" s="214" t="s">
+      <c r="G89" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H89" s="20"/>
-      <c r="I89" s="213"/>
-      <c r="J89" s="214"/>
-      <c r="K89" s="214"/>
+      <c r="I89" s="215"/>
+      <c r="J89" s="216"/>
+      <c r="K89" s="216"/>
       <c r="L89" s="116" t="s">
         <v>187</v>
       </c>
       <c r="M89" s="116">
         <v>8</v>
       </c>
-      <c r="N89" s="214"/>
+      <c r="N89" s="216"/>
       <c r="O89" s="18"/>
     </row>
     <row r="90" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="213"/>
-      <c r="B90" s="214"/>
-      <c r="C90" s="214"/>
+      <c r="A90" s="215"/>
+      <c r="B90" s="216"/>
+      <c r="C90" s="216"/>
       <c r="D90" s="109" t="s">
         <v>172</v>
       </c>
       <c r="E90" s="109">
         <v>17</v>
       </c>
-      <c r="F90" s="214"/>
-      <c r="G90" s="214"/>
+      <c r="F90" s="216"/>
+      <c r="G90" s="216"/>
       <c r="H90" s="20"/>
-      <c r="I90" s="213"/>
-      <c r="J90" s="214"/>
-      <c r="K90" s="214"/>
+      <c r="I90" s="215"/>
+      <c r="J90" s="216"/>
+      <c r="K90" s="216"/>
       <c r="L90" s="116" t="s">
         <v>348</v>
       </c>
       <c r="M90" s="116">
         <v>10</v>
       </c>
-      <c r="N90" s="214"/>
+      <c r="N90" s="216"/>
       <c r="O90" s="18"/>
     </row>
     <row r="91" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="213"/>
-      <c r="B91" s="214"/>
-      <c r="C91" s="214"/>
+      <c r="A91" s="215"/>
+      <c r="B91" s="216"/>
+      <c r="C91" s="216"/>
       <c r="D91" s="109" t="s">
         <v>174</v>
       </c>
       <c r="E91" s="109">
         <v>10</v>
       </c>
-      <c r="F91" s="214"/>
-      <c r="G91" s="214"/>
+      <c r="F91" s="216"/>
+      <c r="G91" s="216"/>
       <c r="H91" s="62"/>
       <c r="I91" s="74"/>
       <c r="J91" s="65"/>
@@ -6742,25 +6742,25 @@
       <c r="O91" s="63"/>
     </row>
     <row r="92" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="213"/>
-      <c r="B92" s="214"/>
-      <c r="C92" s="214"/>
+      <c r="A92" s="215"/>
+      <c r="B92" s="216"/>
+      <c r="C92" s="216"/>
       <c r="D92" s="109" t="s">
         <v>318</v>
       </c>
       <c r="E92" s="109">
         <v>5</v>
       </c>
-      <c r="F92" s="214"/>
-      <c r="G92" s="214"/>
+      <c r="F92" s="216"/>
+      <c r="G92" s="216"/>
       <c r="H92" s="20"/>
-      <c r="I92" s="213">
+      <c r="I92" s="215">
         <v>45097</v>
       </c>
-      <c r="J92" s="214" t="s">
+      <c r="J92" s="216" t="s">
         <v>358</v>
       </c>
-      <c r="K92" s="214" t="s">
+      <c r="K92" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L92" s="121" t="s">
@@ -6769,7 +6769,7 @@
       <c r="M92" s="121">
         <v>3</v>
       </c>
-      <c r="N92" s="214" t="s">
+      <c r="N92" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O92" s="18"/>
@@ -6783,16 +6783,16 @@
       <c r="F93" s="65"/>
       <c r="G93" s="65"/>
       <c r="H93" s="20"/>
-      <c r="I93" s="213"/>
-      <c r="J93" s="214"/>
-      <c r="K93" s="214"/>
+      <c r="I93" s="215"/>
+      <c r="J93" s="216"/>
+      <c r="K93" s="216"/>
       <c r="L93" s="121" t="s">
         <v>187</v>
       </c>
       <c r="M93" s="121">
         <v>12</v>
       </c>
-      <c r="N93" s="214"/>
+      <c r="N93" s="216"/>
       <c r="O93" s="18"/>
     </row>
     <row r="94" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6818,16 +6818,16 @@
         <v>159</v>
       </c>
       <c r="H94" s="20"/>
-      <c r="I94" s="213"/>
-      <c r="J94" s="214"/>
-      <c r="K94" s="214"/>
+      <c r="I94" s="215"/>
+      <c r="J94" s="216"/>
+      <c r="K94" s="216"/>
       <c r="L94" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M94" s="121">
         <v>10</v>
       </c>
-      <c r="N94" s="214"/>
+      <c r="N94" s="216"/>
       <c r="O94" s="18"/>
     </row>
     <row r="95" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6839,16 +6839,16 @@
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
       <c r="H95" s="20"/>
-      <c r="I95" s="213"/>
-      <c r="J95" s="214"/>
-      <c r="K95" s="214"/>
+      <c r="I95" s="215"/>
+      <c r="J95" s="216"/>
+      <c r="K95" s="216"/>
       <c r="L95" s="121" t="s">
         <v>344</v>
       </c>
       <c r="M95" s="121">
         <v>10</v>
       </c>
-      <c r="N95" s="214"/>
+      <c r="N95" s="216"/>
       <c r="O95" s="18"/>
     </row>
     <row r="96" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6912,13 +6912,13 @@
       <c r="O97" s="18"/>
     </row>
     <row r="98" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="213">
+      <c r="A98" s="215">
         <v>45089</v>
       </c>
-      <c r="B98" s="214" t="s">
+      <c r="B98" s="216" t="s">
         <v>336</v>
       </c>
-      <c r="C98" s="214" t="s">
+      <c r="C98" s="216" t="s">
         <v>294</v>
       </c>
       <c r="D98" s="115" t="s">
@@ -6927,10 +6927,10 @@
       <c r="E98" s="115">
         <v>1</v>
       </c>
-      <c r="F98" s="214" t="s">
+      <c r="F98" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="G98" s="214" t="s">
+      <c r="G98" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H98" s="62"/>
@@ -6943,17 +6943,17 @@
       <c r="O98" s="63"/>
     </row>
     <row r="99" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="213"/>
-      <c r="B99" s="214"/>
-      <c r="C99" s="214"/>
+      <c r="A99" s="215"/>
+      <c r="B99" s="216"/>
+      <c r="C99" s="216"/>
       <c r="D99" s="115" t="s">
         <v>338</v>
       </c>
       <c r="E99" s="115">
         <v>1</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="G99" s="214"/>
+      <c r="F99" s="216"/>
+      <c r="G99" s="216"/>
       <c r="H99" s="20"/>
       <c r="I99" s="123">
         <v>45101</v>
@@ -7015,13 +7015,13 @@
         <v>159</v>
       </c>
       <c r="H101" s="20"/>
-      <c r="I101" s="213">
+      <c r="I101" s="215">
         <v>45122</v>
       </c>
-      <c r="J101" s="214" t="s">
+      <c r="J101" s="216" t="s">
         <v>399</v>
       </c>
-      <c r="K101" s="214" t="s">
+      <c r="K101" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L101" s="100" t="s">
@@ -7030,7 +7030,7 @@
       <c r="M101" s="131">
         <v>10</v>
       </c>
-      <c r="N101" s="214" t="s">
+      <c r="N101" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O101" s="18"/>
@@ -7044,26 +7044,26 @@
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
       <c r="H102" s="20"/>
-      <c r="I102" s="213"/>
-      <c r="J102" s="214"/>
-      <c r="K102" s="214"/>
+      <c r="I102" s="215"/>
+      <c r="J102" s="216"/>
+      <c r="K102" s="216"/>
       <c r="L102" s="131" t="s">
         <v>185</v>
       </c>
       <c r="M102" s="131">
         <v>10</v>
       </c>
-      <c r="N102" s="214"/>
+      <c r="N102" s="216"/>
       <c r="O102" s="18"/>
     </row>
     <row r="103" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="213">
+      <c r="A103" s="215">
         <v>45090</v>
       </c>
-      <c r="B103" s="214" t="s">
+      <c r="B103" s="216" t="s">
         <v>330</v>
       </c>
-      <c r="C103" s="214" t="s">
+      <c r="C103" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D103" s="115" t="s">
@@ -7072,10 +7072,10 @@
       <c r="E103" s="115">
         <v>10</v>
       </c>
-      <c r="F103" s="214" t="s">
+      <c r="F103" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="G103" s="214" t="s">
+      <c r="G103" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H103" s="64"/>
@@ -7088,17 +7088,17 @@
       <c r="O103" s="63"/>
     </row>
     <row r="104" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="213"/>
-      <c r="B104" s="214"/>
-      <c r="C104" s="214"/>
+      <c r="A104" s="215"/>
+      <c r="B104" s="216"/>
+      <c r="C104" s="216"/>
       <c r="D104" s="115" t="s">
         <v>172</v>
       </c>
       <c r="E104" s="115">
         <v>8</v>
       </c>
-      <c r="F104" s="214"/>
-      <c r="G104" s="214"/>
+      <c r="F104" s="216"/>
+      <c r="G104" s="216"/>
       <c r="H104" s="52"/>
       <c r="I104" s="130">
         <v>45122</v>
@@ -7121,17 +7121,17 @@
       <c r="O104" s="18"/>
     </row>
     <row r="105" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="213"/>
-      <c r="B105" s="214"/>
-      <c r="C105" s="214"/>
+      <c r="A105" s="215"/>
+      <c r="B105" s="216"/>
+      <c r="C105" s="216"/>
       <c r="D105" s="115" t="s">
         <v>174</v>
       </c>
       <c r="E105" s="115">
         <v>10</v>
       </c>
-      <c r="F105" s="214"/>
-      <c r="G105" s="214"/>
+      <c r="F105" s="216"/>
+      <c r="G105" s="216"/>
       <c r="H105" s="64"/>
       <c r="I105" s="53"/>
       <c r="J105" s="21"/>
@@ -7142,25 +7142,25 @@
       <c r="O105" s="63"/>
     </row>
     <row r="106" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="213"/>
-      <c r="B106" s="214"/>
-      <c r="C106" s="214"/>
+      <c r="A106" s="215"/>
+      <c r="B106" s="216"/>
+      <c r="C106" s="216"/>
       <c r="D106" s="115" t="s">
         <v>318</v>
       </c>
       <c r="E106" s="115">
         <v>5</v>
       </c>
-      <c r="F106" s="214"/>
-      <c r="G106" s="214"/>
+      <c r="F106" s="216"/>
+      <c r="G106" s="216"/>
       <c r="H106" s="64"/>
-      <c r="I106" s="213">
+      <c r="I106" s="215">
         <v>45143</v>
       </c>
-      <c r="J106" s="214" t="s">
+      <c r="J106" s="216" t="s">
         <v>430</v>
       </c>
-      <c r="K106" s="214" t="s">
+      <c r="K106" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L106" s="167" t="s">
@@ -7169,34 +7169,34 @@
       <c r="M106" s="167">
         <v>10</v>
       </c>
-      <c r="N106" s="214" t="s">
+      <c r="N106" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O106" s="63"/>
     </row>
     <row r="107" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="213"/>
-      <c r="B107" s="214"/>
-      <c r="C107" s="214"/>
+      <c r="A107" s="215"/>
+      <c r="B107" s="216"/>
+      <c r="C107" s="216"/>
       <c r="D107" s="115" t="s">
         <v>339</v>
       </c>
       <c r="E107" s="115">
         <v>10</v>
       </c>
-      <c r="F107" s="214"/>
-      <c r="G107" s="214"/>
+      <c r="F107" s="216"/>
+      <c r="G107" s="216"/>
       <c r="H107" s="52"/>
-      <c r="I107" s="213"/>
-      <c r="J107" s="214"/>
-      <c r="K107" s="214"/>
+      <c r="I107" s="215"/>
+      <c r="J107" s="216"/>
+      <c r="K107" s="216"/>
       <c r="L107" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M107" s="167">
         <v>10</v>
       </c>
-      <c r="N107" s="214"/>
+      <c r="N107" s="216"/>
       <c r="O107" s="18"/>
     </row>
     <row r="108" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -7208,26 +7208,26 @@
       <c r="F108" s="65"/>
       <c r="G108" s="65"/>
       <c r="H108" s="52"/>
-      <c r="I108" s="213"/>
-      <c r="J108" s="214"/>
-      <c r="K108" s="214"/>
+      <c r="I108" s="215"/>
+      <c r="J108" s="216"/>
+      <c r="K108" s="216"/>
       <c r="L108" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M108" s="167">
         <v>10</v>
       </c>
-      <c r="N108" s="214"/>
+      <c r="N108" s="216"/>
       <c r="O108" s="18"/>
     </row>
     <row r="109" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="213">
+      <c r="A109" s="215">
         <v>45093</v>
       </c>
-      <c r="B109" s="214" t="s">
+      <c r="B109" s="216" t="s">
         <v>357</v>
       </c>
-      <c r="C109" s="214" t="s">
+      <c r="C109" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D109" s="117" t="s">
@@ -7236,87 +7236,87 @@
       <c r="E109" s="117">
         <v>10</v>
       </c>
-      <c r="F109" s="214" t="s">
+      <c r="F109" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G109" s="214" t="s">
+      <c r="G109" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H109" s="20"/>
-      <c r="I109" s="213"/>
-      <c r="J109" s="214"/>
-      <c r="K109" s="214"/>
+      <c r="I109" s="215"/>
+      <c r="J109" s="216"/>
+      <c r="K109" s="216"/>
       <c r="L109" s="167" t="s">
         <v>185</v>
       </c>
       <c r="M109" s="167">
         <v>10</v>
       </c>
-      <c r="N109" s="214"/>
+      <c r="N109" s="216"/>
       <c r="O109" s="18"/>
     </row>
     <row r="110" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="213"/>
-      <c r="B110" s="214"/>
-      <c r="C110" s="214"/>
+      <c r="A110" s="215"/>
+      <c r="B110" s="216"/>
+      <c r="C110" s="216"/>
       <c r="D110" s="117" t="s">
         <v>171</v>
       </c>
       <c r="E110" s="117">
         <v>10</v>
       </c>
-      <c r="F110" s="214"/>
-      <c r="G110" s="214"/>
+      <c r="F110" s="216"/>
+      <c r="G110" s="216"/>
       <c r="H110" s="20"/>
-      <c r="I110" s="213"/>
-      <c r="J110" s="214"/>
-      <c r="K110" s="214"/>
+      <c r="I110" s="215"/>
+      <c r="J110" s="216"/>
+      <c r="K110" s="216"/>
       <c r="L110" s="167" t="s">
         <v>284</v>
       </c>
       <c r="M110" s="167">
         <v>10</v>
       </c>
-      <c r="N110" s="214"/>
+      <c r="N110" s="216"/>
       <c r="O110" s="18"/>
     </row>
     <row r="111" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="213"/>
-      <c r="B111" s="214"/>
-      <c r="C111" s="214"/>
+      <c r="A111" s="215"/>
+      <c r="B111" s="216"/>
+      <c r="C111" s="216"/>
       <c r="D111" s="117" t="s">
         <v>172</v>
       </c>
       <c r="E111" s="117">
         <v>12</v>
       </c>
-      <c r="F111" s="214"/>
-      <c r="G111" s="214"/>
+      <c r="F111" s="216"/>
+      <c r="G111" s="216"/>
       <c r="H111" s="20"/>
-      <c r="I111" s="213"/>
-      <c r="J111" s="214"/>
-      <c r="K111" s="214"/>
+      <c r="I111" s="215"/>
+      <c r="J111" s="216"/>
+      <c r="K111" s="216"/>
       <c r="L111" s="167" t="s">
         <v>728</v>
       </c>
       <c r="M111" s="167">
         <v>30</v>
       </c>
-      <c r="N111" s="214"/>
+      <c r="N111" s="216"/>
       <c r="O111" s="18"/>
     </row>
     <row r="112" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="213"/>
-      <c r="B112" s="214"/>
-      <c r="C112" s="214"/>
+      <c r="A112" s="215"/>
+      <c r="B112" s="216"/>
+      <c r="C112" s="216"/>
       <c r="D112" s="117" t="s">
         <v>291</v>
       </c>
       <c r="E112" s="117">
         <v>10</v>
       </c>
-      <c r="F112" s="214"/>
-      <c r="G112" s="214"/>
+      <c r="F112" s="216"/>
+      <c r="G112" s="216"/>
       <c r="H112" s="62"/>
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
@@ -7335,13 +7335,13 @@
       <c r="F113" s="21"/>
       <c r="G113" s="21"/>
       <c r="H113" s="52"/>
-      <c r="I113" s="213">
+      <c r="I113" s="215">
         <v>45148</v>
       </c>
-      <c r="J113" s="214" t="s">
+      <c r="J113" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="K113" s="214" t="s">
+      <c r="K113" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L113" s="167" t="s">
@@ -7350,7 +7350,7 @@
       <c r="M113" s="167">
         <v>16</v>
       </c>
-      <c r="N113" s="214" t="s">
+      <c r="N113" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O113" s="18"/>
@@ -7378,16 +7378,16 @@
         <v>159</v>
       </c>
       <c r="H114" s="20"/>
-      <c r="I114" s="213"/>
-      <c r="J114" s="214"/>
-      <c r="K114" s="214"/>
+      <c r="I114" s="215"/>
+      <c r="J114" s="216"/>
+      <c r="K114" s="216"/>
       <c r="L114" s="167" t="s">
         <v>190</v>
       </c>
       <c r="M114" s="167">
         <v>20</v>
       </c>
-      <c r="N114" s="214"/>
+      <c r="N114" s="216"/>
       <c r="O114" s="18"/>
     </row>
     <row r="115" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -7399,16 +7399,16 @@
       <c r="F115" s="65"/>
       <c r="G115" s="65"/>
       <c r="H115" s="52"/>
-      <c r="I115" s="213"/>
-      <c r="J115" s="214"/>
-      <c r="K115" s="214"/>
+      <c r="I115" s="215"/>
+      <c r="J115" s="216"/>
+      <c r="K115" s="216"/>
       <c r="L115" s="167" t="s">
         <v>191</v>
       </c>
       <c r="M115" s="167">
         <v>140</v>
       </c>
-      <c r="N115" s="214"/>
+      <c r="N115" s="216"/>
       <c r="O115" s="18"/>
     </row>
     <row r="116" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
@@ -7451,13 +7451,13 @@
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
       <c r="H117" s="52"/>
-      <c r="I117" s="213">
+      <c r="I117" s="215">
         <v>45156</v>
       </c>
-      <c r="J117" s="214" t="s">
+      <c r="J117" s="216" t="s">
         <v>448</v>
       </c>
-      <c r="K117" s="214" t="s">
+      <c r="K117" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L117" s="167" t="s">
@@ -7466,19 +7466,19 @@
       <c r="M117" s="167">
         <v>14</v>
       </c>
-      <c r="N117" s="214" t="s">
+      <c r="N117" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O117" s="18"/>
     </row>
     <row r="118" spans="1:15" s="122" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="213">
+      <c r="A118" s="215">
         <v>45119</v>
       </c>
-      <c r="B118" s="214" t="s">
+      <c r="B118" s="216" t="s">
         <v>387</v>
       </c>
-      <c r="C118" s="214" t="s">
+      <c r="C118" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D118" s="128" t="s">
@@ -7487,48 +7487,48 @@
       <c r="E118" s="128">
         <v>8</v>
       </c>
-      <c r="F118" s="214" t="s">
+      <c r="F118" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="G118" s="214" t="s">
+      <c r="G118" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H118" s="20"/>
-      <c r="I118" s="213"/>
-      <c r="J118" s="214"/>
-      <c r="K118" s="214"/>
+      <c r="I118" s="215"/>
+      <c r="J118" s="216"/>
+      <c r="K118" s="216"/>
       <c r="L118" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M118" s="167">
         <v>10</v>
       </c>
-      <c r="N118" s="214"/>
+      <c r="N118" s="216"/>
       <c r="O118" s="18"/>
     </row>
     <row r="119" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="213"/>
-      <c r="B119" s="214"/>
-      <c r="C119" s="214"/>
+      <c r="A119" s="215"/>
+      <c r="B119" s="216"/>
+      <c r="C119" s="216"/>
       <c r="D119" s="128" t="s">
         <v>205</v>
       </c>
       <c r="E119" s="128">
         <v>4</v>
       </c>
-      <c r="F119" s="214"/>
-      <c r="G119" s="214"/>
+      <c r="F119" s="216"/>
+      <c r="G119" s="216"/>
       <c r="H119" s="20"/>
-      <c r="I119" s="213"/>
-      <c r="J119" s="214"/>
-      <c r="K119" s="214"/>
+      <c r="I119" s="215"/>
+      <c r="J119" s="216"/>
+      <c r="K119" s="216"/>
       <c r="L119" s="167" t="s">
         <v>191</v>
       </c>
       <c r="M119" s="167">
         <v>10</v>
       </c>
-      <c r="N119" s="214"/>
+      <c r="N119" s="216"/>
       <c r="O119" s="18"/>
     </row>
     <row r="120" spans="1:15" s="122" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7549,13 +7549,13 @@
       <c r="O120" s="63"/>
     </row>
     <row r="121" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="213">
+      <c r="A121" s="215">
         <v>45121</v>
       </c>
-      <c r="B121" s="214" t="s">
+      <c r="B121" s="216" t="s">
         <v>392</v>
       </c>
-      <c r="C121" s="214" t="s">
+      <c r="C121" s="216" t="s">
         <v>326</v>
       </c>
       <c r="D121" s="129" t="s">
@@ -7564,10 +7564,10 @@
       <c r="E121" s="129">
         <v>2</v>
       </c>
-      <c r="F121" s="214" t="s">
+      <c r="F121" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G121" s="214" t="s">
+      <c r="G121" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H121" s="20"/>
@@ -7592,17 +7592,17 @@
       <c r="O121" s="18"/>
     </row>
     <row r="122" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="213"/>
-      <c r="B122" s="214"/>
-      <c r="C122" s="214"/>
+      <c r="A122" s="215"/>
+      <c r="B122" s="216"/>
+      <c r="C122" s="216"/>
       <c r="D122" s="129" t="s">
         <v>395</v>
       </c>
       <c r="E122" s="129">
         <v>2</v>
       </c>
-      <c r="F122" s="214"/>
-      <c r="G122" s="214"/>
+      <c r="F122" s="216"/>
+      <c r="G122" s="216"/>
       <c r="H122" s="62"/>
       <c r="I122" s="53"/>
       <c r="J122" s="21"/>
@@ -7690,13 +7690,13 @@
       <c r="O125" s="63"/>
     </row>
     <row r="126" spans="1:15" s="122" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="213">
+      <c r="A126" s="215">
         <v>45142</v>
       </c>
-      <c r="B126" s="214" t="s">
+      <c r="B126" s="216" t="s">
         <v>425</v>
       </c>
-      <c r="C126" s="214" t="s">
+      <c r="C126" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D126" s="135" t="s">
@@ -7705,68 +7705,68 @@
       <c r="E126" s="135">
         <v>10</v>
       </c>
-      <c r="F126" s="214" t="s">
+      <c r="F126" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="G126" s="214" t="s">
+      <c r="G126" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H126" s="20"/>
-      <c r="I126" s="213">
+      <c r="I126" s="215">
         <v>45190</v>
       </c>
-      <c r="J126" s="214" t="s">
+      <c r="J126" s="216" t="s">
         <v>491</v>
       </c>
-      <c r="K126" s="214" t="s">
+      <c r="K126" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L126" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="M126" s="220">
+      <c r="M126" s="217">
         <v>10</v>
       </c>
-      <c r="N126" s="214" t="s">
+      <c r="N126" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O126" s="18"/>
     </row>
     <row r="127" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="213"/>
-      <c r="B127" s="214"/>
-      <c r="C127" s="214"/>
+      <c r="A127" s="215"/>
+      <c r="B127" s="216"/>
+      <c r="C127" s="216"/>
       <c r="D127" s="135" t="s">
         <v>171</v>
       </c>
       <c r="E127" s="135">
         <v>10</v>
       </c>
-      <c r="F127" s="214"/>
-      <c r="G127" s="214"/>
+      <c r="F127" s="216"/>
+      <c r="G127" s="216"/>
       <c r="H127" s="20"/>
-      <c r="I127" s="213"/>
-      <c r="J127" s="214"/>
-      <c r="K127" s="214"/>
+      <c r="I127" s="215"/>
+      <c r="J127" s="216"/>
+      <c r="K127" s="216"/>
       <c r="L127" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="M127" s="220"/>
-      <c r="N127" s="214"/>
+      <c r="M127" s="217"/>
+      <c r="N127" s="216"/>
       <c r="O127" s="18"/>
     </row>
     <row r="128" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="213"/>
-      <c r="B128" s="214"/>
-      <c r="C128" s="214"/>
+      <c r="A128" s="215"/>
+      <c r="B128" s="216"/>
+      <c r="C128" s="216"/>
       <c r="D128" s="135" t="s">
         <v>291</v>
       </c>
       <c r="E128" s="135">
         <v>10</v>
       </c>
-      <c r="F128" s="214"/>
-      <c r="G128" s="214"/>
+      <c r="F128" s="216"/>
+      <c r="G128" s="216"/>
       <c r="H128" s="62"/>
       <c r="I128" s="53"/>
       <c r="J128" s="21"/>
@@ -7777,17 +7777,17 @@
       <c r="O128" s="63"/>
     </row>
     <row r="129" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="213"/>
-      <c r="B129" s="214"/>
-      <c r="C129" s="214"/>
+      <c r="A129" s="215"/>
+      <c r="B129" s="216"/>
+      <c r="C129" s="216"/>
       <c r="D129" s="135" t="s">
         <v>205</v>
       </c>
       <c r="E129" s="135">
         <v>10</v>
       </c>
-      <c r="F129" s="214"/>
-      <c r="G129" s="214"/>
+      <c r="F129" s="216"/>
+      <c r="G129" s="216"/>
       <c r="H129" s="20"/>
       <c r="I129" s="170">
         <v>45199</v>
@@ -7849,13 +7849,13 @@
         <v>176</v>
       </c>
       <c r="H131" s="20"/>
-      <c r="I131" s="213">
+      <c r="I131" s="215">
         <v>45211</v>
       </c>
-      <c r="J131" s="214" t="s">
+      <c r="J131" s="216" t="s">
         <v>546</v>
       </c>
-      <c r="K131" s="214" t="s">
+      <c r="K131" s="216" t="s">
         <v>132</v>
       </c>
       <c r="L131" s="172" t="s">
@@ -7864,7 +7864,7 @@
       <c r="M131" s="172">
         <v>4</v>
       </c>
-      <c r="N131" s="214" t="s">
+      <c r="N131" s="216" t="s">
         <v>472</v>
       </c>
       <c r="O131" s="18"/>
@@ -7878,16 +7878,16 @@
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
       <c r="H132" s="52"/>
-      <c r="I132" s="213"/>
-      <c r="J132" s="214"/>
-      <c r="K132" s="214"/>
+      <c r="I132" s="215"/>
+      <c r="J132" s="216"/>
+      <c r="K132" s="216"/>
       <c r="L132" s="172" t="s">
         <v>742</v>
       </c>
       <c r="M132" s="172">
         <v>12</v>
       </c>
-      <c r="N132" s="214"/>
+      <c r="N132" s="216"/>
       <c r="O132" s="18"/>
     </row>
     <row r="133" spans="1:15" s="122" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -7913,16 +7913,16 @@
         <v>159</v>
       </c>
       <c r="H133" s="20"/>
-      <c r="I133" s="213"/>
-      <c r="J133" s="214"/>
-      <c r="K133" s="214"/>
+      <c r="I133" s="215"/>
+      <c r="J133" s="216"/>
+      <c r="K133" s="216"/>
       <c r="L133" s="172" t="s">
         <v>743</v>
       </c>
       <c r="M133" s="172">
         <v>4</v>
       </c>
-      <c r="N133" s="214"/>
+      <c r="N133" s="216"/>
       <c r="O133" s="18"/>
     </row>
     <row r="134" spans="1:15" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -7934,16 +7934,16 @@
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
       <c r="H134" s="52"/>
-      <c r="I134" s="213"/>
-      <c r="J134" s="214"/>
-      <c r="K134" s="214"/>
+      <c r="I134" s="215"/>
+      <c r="J134" s="216"/>
+      <c r="K134" s="216"/>
       <c r="L134" s="172" t="s">
         <v>744</v>
       </c>
       <c r="M134" s="172">
         <v>1</v>
       </c>
-      <c r="N134" s="214"/>
+      <c r="N134" s="216"/>
       <c r="O134" s="18"/>
     </row>
     <row r="135" spans="1:15" s="122" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7955,16 +7955,16 @@
       <c r="F135" s="137"/>
       <c r="G135" s="137"/>
       <c r="H135" s="20"/>
-      <c r="I135" s="213"/>
-      <c r="J135" s="214"/>
-      <c r="K135" s="214"/>
+      <c r="I135" s="215"/>
+      <c r="J135" s="216"/>
+      <c r="K135" s="216"/>
       <c r="L135" s="172" t="s">
         <v>745</v>
       </c>
       <c r="M135" s="172">
         <v>1</v>
       </c>
-      <c r="N135" s="214"/>
+      <c r="N135" s="216"/>
       <c r="O135" s="18"/>
     </row>
     <row r="136" spans="1:15" s="122" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
@@ -7990,16 +7990,16 @@
         <v>159</v>
       </c>
       <c r="H136" s="20"/>
-      <c r="I136" s="213"/>
-      <c r="J136" s="214"/>
-      <c r="K136" s="214"/>
+      <c r="I136" s="215"/>
+      <c r="J136" s="216"/>
+      <c r="K136" s="216"/>
       <c r="L136" s="172" t="s">
         <v>746</v>
       </c>
       <c r="M136" s="172">
         <v>4</v>
       </c>
-      <c r="N136" s="214"/>
+      <c r="N136" s="216"/>
       <c r="O136" s="18"/>
     </row>
     <row r="137" spans="1:15" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8011,16 +8011,16 @@
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
       <c r="H137" s="52"/>
-      <c r="I137" s="213"/>
-      <c r="J137" s="214"/>
-      <c r="K137" s="214"/>
+      <c r="I137" s="215"/>
+      <c r="J137" s="216"/>
+      <c r="K137" s="216"/>
       <c r="L137" s="172" t="s">
         <v>747</v>
       </c>
       <c r="M137" s="172">
         <v>2</v>
       </c>
-      <c r="N137" s="214"/>
+      <c r="N137" s="216"/>
       <c r="O137" s="18"/>
     </row>
     <row r="138" spans="1:15" s="122" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -8046,16 +8046,16 @@
         <v>159</v>
       </c>
       <c r="H138" s="52"/>
-      <c r="I138" s="213"/>
-      <c r="J138" s="214"/>
-      <c r="K138" s="214"/>
+      <c r="I138" s="215"/>
+      <c r="J138" s="216"/>
+      <c r="K138" s="216"/>
       <c r="L138" s="172" t="s">
         <v>748</v>
       </c>
       <c r="M138" s="172">
         <v>8</v>
       </c>
-      <c r="N138" s="214"/>
+      <c r="N138" s="216"/>
       <c r="O138" s="18"/>
     </row>
     <row r="139" spans="1:15" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8067,26 +8067,26 @@
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
       <c r="H139" s="52"/>
-      <c r="I139" s="213"/>
-      <c r="J139" s="214"/>
-      <c r="K139" s="214"/>
+      <c r="I139" s="215"/>
+      <c r="J139" s="216"/>
+      <c r="K139" s="216"/>
       <c r="L139" s="172" t="s">
         <v>749</v>
       </c>
       <c r="M139" s="172">
         <v>2</v>
       </c>
-      <c r="N139" s="214"/>
+      <c r="N139" s="216"/>
       <c r="O139" s="18"/>
     </row>
     <row r="140" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="213">
+      <c r="A140" s="215">
         <v>45154</v>
       </c>
-      <c r="B140" s="214" t="s">
+      <c r="B140" s="216" t="s">
         <v>439</v>
       </c>
-      <c r="C140" s="214" t="s">
+      <c r="C140" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D140" s="141" t="s">
@@ -8095,48 +8095,48 @@
       <c r="E140" s="141">
         <v>10</v>
       </c>
-      <c r="F140" s="214" t="s">
+      <c r="F140" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G140" s="214" t="s">
+      <c r="G140" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H140" s="52"/>
-      <c r="I140" s="213"/>
-      <c r="J140" s="214"/>
-      <c r="K140" s="214"/>
+      <c r="I140" s="215"/>
+      <c r="J140" s="216"/>
+      <c r="K140" s="216"/>
       <c r="L140" s="172" t="s">
         <v>750</v>
       </c>
       <c r="M140" s="172">
         <v>1</v>
       </c>
-      <c r="N140" s="214"/>
+      <c r="N140" s="216"/>
       <c r="O140" s="18"/>
     </row>
     <row r="141" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="213"/>
-      <c r="B141" s="214"/>
-      <c r="C141" s="214"/>
+      <c r="A141" s="215"/>
+      <c r="B141" s="216"/>
+      <c r="C141" s="216"/>
       <c r="D141" s="141" t="s">
         <v>174</v>
       </c>
       <c r="E141" s="141">
         <v>10</v>
       </c>
-      <c r="F141" s="214"/>
-      <c r="G141" s="214"/>
+      <c r="F141" s="216"/>
+      <c r="G141" s="216"/>
       <c r="H141" s="52"/>
-      <c r="I141" s="213"/>
-      <c r="J141" s="214"/>
-      <c r="K141" s="214"/>
+      <c r="I141" s="215"/>
+      <c r="J141" s="216"/>
+      <c r="K141" s="216"/>
       <c r="L141" s="172" t="s">
         <v>751</v>
       </c>
       <c r="M141" s="172">
         <v>4</v>
       </c>
-      <c r="N141" s="214"/>
+      <c r="N141" s="216"/>
       <c r="O141" s="18"/>
     </row>
     <row r="142" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8148,16 +8148,16 @@
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
       <c r="H142" s="52"/>
-      <c r="I142" s="213"/>
-      <c r="J142" s="214"/>
-      <c r="K142" s="214"/>
+      <c r="I142" s="215"/>
+      <c r="J142" s="216"/>
+      <c r="K142" s="216"/>
       <c r="L142" s="172" t="s">
         <v>752</v>
       </c>
       <c r="M142" s="172">
         <v>1</v>
       </c>
-      <c r="N142" s="214"/>
+      <c r="N142" s="216"/>
       <c r="O142" s="18"/>
     </row>
     <row r="143" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8183,16 +8183,16 @@
         <v>159</v>
       </c>
       <c r="H143" s="20"/>
-      <c r="I143" s="213"/>
-      <c r="J143" s="214"/>
-      <c r="K143" s="214"/>
+      <c r="I143" s="215"/>
+      <c r="J143" s="216"/>
+      <c r="K143" s="216"/>
       <c r="L143" s="172" t="s">
         <v>753</v>
       </c>
       <c r="M143" s="172">
         <v>6</v>
       </c>
-      <c r="N143" s="214"/>
+      <c r="N143" s="216"/>
       <c r="O143" s="18"/>
     </row>
     <row r="144" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8204,16 +8204,16 @@
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
       <c r="H144" s="54"/>
-      <c r="I144" s="213"/>
-      <c r="J144" s="214"/>
-      <c r="K144" s="214"/>
+      <c r="I144" s="215"/>
+      <c r="J144" s="216"/>
+      <c r="K144" s="216"/>
       <c r="L144" s="172" t="s">
         <v>754</v>
       </c>
       <c r="M144" s="172">
         <v>36</v>
       </c>
-      <c r="N144" s="214"/>
+      <c r="N144" s="216"/>
       <c r="O144" s="18"/>
     </row>
     <row r="145" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8239,16 +8239,16 @@
         <v>159</v>
       </c>
       <c r="H145" s="20"/>
-      <c r="I145" s="213"/>
-      <c r="J145" s="214"/>
-      <c r="K145" s="214"/>
+      <c r="I145" s="215"/>
+      <c r="J145" s="216"/>
+      <c r="K145" s="216"/>
       <c r="L145" s="169" t="s">
         <v>755</v>
       </c>
       <c r="M145" s="172">
         <v>60</v>
       </c>
-      <c r="N145" s="214"/>
+      <c r="N145" s="216"/>
       <c r="O145" s="18"/>
     </row>
     <row r="146" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8260,16 +8260,16 @@
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
       <c r="H146" s="54"/>
-      <c r="I146" s="213"/>
-      <c r="J146" s="214"/>
-      <c r="K146" s="214"/>
+      <c r="I146" s="215"/>
+      <c r="J146" s="216"/>
+      <c r="K146" s="216"/>
       <c r="L146" s="172" t="s">
         <v>756</v>
       </c>
       <c r="M146" s="172">
         <v>1</v>
       </c>
-      <c r="N146" s="214"/>
+      <c r="N146" s="216"/>
       <c r="O146" s="18"/>
     </row>
     <row r="147" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8295,16 +8295,16 @@
         <v>159</v>
       </c>
       <c r="H147" s="20"/>
-      <c r="I147" s="213"/>
-      <c r="J147" s="214"/>
-      <c r="K147" s="214"/>
+      <c r="I147" s="215"/>
+      <c r="J147" s="216"/>
+      <c r="K147" s="216"/>
       <c r="L147" s="172" t="s">
         <v>757</v>
       </c>
       <c r="M147" s="172">
         <v>36</v>
       </c>
-      <c r="N147" s="214"/>
+      <c r="N147" s="216"/>
       <c r="O147" s="18"/>
     </row>
     <row r="148" spans="1:15" s="48" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -8316,16 +8316,16 @@
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
       <c r="H148" s="52"/>
-      <c r="I148" s="213"/>
-      <c r="J148" s="214"/>
-      <c r="K148" s="214"/>
+      <c r="I148" s="215"/>
+      <c r="J148" s="216"/>
+      <c r="K148" s="216"/>
       <c r="L148" s="172" t="s">
         <v>758</v>
       </c>
       <c r="M148" s="172">
         <v>3189</v>
       </c>
-      <c r="N148" s="214"/>
+      <c r="N148" s="216"/>
       <c r="O148" s="18"/>
     </row>
     <row r="149" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8351,16 +8351,16 @@
         <v>472</v>
       </c>
       <c r="H149" s="20"/>
-      <c r="I149" s="213"/>
-      <c r="J149" s="214"/>
-      <c r="K149" s="214"/>
+      <c r="I149" s="215"/>
+      <c r="J149" s="216"/>
+      <c r="K149" s="216"/>
       <c r="L149" s="172" t="s">
         <v>759</v>
       </c>
       <c r="M149" s="172">
         <v>4</v>
       </c>
-      <c r="N149" s="214"/>
+      <c r="N149" s="216"/>
       <c r="O149" s="18"/>
     </row>
     <row r="150" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8372,16 +8372,16 @@
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
       <c r="H150" s="52"/>
-      <c r="I150" s="213"/>
-      <c r="J150" s="214"/>
-      <c r="K150" s="214"/>
+      <c r="I150" s="215"/>
+      <c r="J150" s="216"/>
+      <c r="K150" s="216"/>
       <c r="L150" s="172" t="s">
         <v>760</v>
       </c>
       <c r="M150" s="172">
         <v>2</v>
       </c>
-      <c r="N150" s="214"/>
+      <c r="N150" s="216"/>
       <c r="O150" s="18"/>
     </row>
     <row r="151" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8407,16 +8407,16 @@
         <v>159</v>
       </c>
       <c r="H151" s="52"/>
-      <c r="I151" s="213"/>
-      <c r="J151" s="214"/>
-      <c r="K151" s="214"/>
+      <c r="I151" s="215"/>
+      <c r="J151" s="216"/>
+      <c r="K151" s="216"/>
       <c r="L151" s="172" t="s">
         <v>761</v>
       </c>
       <c r="M151" s="172">
         <v>60</v>
       </c>
-      <c r="N151" s="214"/>
+      <c r="N151" s="216"/>
       <c r="O151" s="18"/>
     </row>
     <row r="152" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8428,16 +8428,16 @@
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
       <c r="H152" s="52"/>
-      <c r="I152" s="213"/>
-      <c r="J152" s="214"/>
-      <c r="K152" s="214"/>
+      <c r="I152" s="215"/>
+      <c r="J152" s="216"/>
+      <c r="K152" s="216"/>
       <c r="L152" s="172" t="s">
         <v>762</v>
       </c>
       <c r="M152" s="172">
         <v>10</v>
       </c>
-      <c r="N152" s="214"/>
+      <c r="N152" s="216"/>
       <c r="O152" s="18"/>
     </row>
     <row r="153" spans="1:15" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8463,16 +8463,16 @@
         <v>159</v>
       </c>
       <c r="H153" s="52"/>
-      <c r="I153" s="213"/>
-      <c r="J153" s="214"/>
-      <c r="K153" s="214"/>
+      <c r="I153" s="215"/>
+      <c r="J153" s="216"/>
+      <c r="K153" s="216"/>
       <c r="L153" s="172" t="s">
         <v>763</v>
       </c>
       <c r="M153" s="172">
         <v>21</v>
       </c>
-      <c r="N153" s="214"/>
+      <c r="N153" s="216"/>
       <c r="O153" s="18"/>
     </row>
     <row r="154" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8515,13 +8515,13 @@
         <v>159</v>
       </c>
       <c r="H155" s="52"/>
-      <c r="I155" s="213">
+      <c r="I155" s="215">
         <v>45233</v>
       </c>
-      <c r="J155" s="214" t="s">
+      <c r="J155" s="216" t="s">
         <v>562</v>
       </c>
-      <c r="K155" s="214" t="s">
+      <c r="K155" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L155" s="169" t="s">
@@ -8530,7 +8530,7 @@
       <c r="M155" s="169">
         <v>2</v>
       </c>
-      <c r="N155" s="214" t="s">
+      <c r="N155" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O155" s="18"/>
@@ -8544,16 +8544,16 @@
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
       <c r="H156" s="52"/>
-      <c r="I156" s="213"/>
-      <c r="J156" s="214"/>
-      <c r="K156" s="214"/>
+      <c r="I156" s="215"/>
+      <c r="J156" s="216"/>
+      <c r="K156" s="216"/>
       <c r="L156" s="169" t="s">
         <v>765</v>
       </c>
       <c r="M156" s="169">
         <v>2</v>
       </c>
-      <c r="N156" s="214"/>
+      <c r="N156" s="216"/>
       <c r="O156" s="18"/>
     </row>
     <row r="157" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8596,13 +8596,13 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
       <c r="H158" s="52"/>
-      <c r="I158" s="213">
+      <c r="I158" s="215">
         <v>45233</v>
       </c>
-      <c r="J158" s="214" t="s">
+      <c r="J158" s="216" t="s">
         <v>561</v>
       </c>
-      <c r="K158" s="214" t="s">
+      <c r="K158" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L158" s="169" t="s">
@@ -8611,7 +8611,7 @@
       <c r="M158" s="169">
         <v>20</v>
       </c>
-      <c r="N158" s="214" t="s">
+      <c r="N158" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O158" s="18"/>
@@ -8639,16 +8639,16 @@
         <v>159</v>
       </c>
       <c r="H159" s="20"/>
-      <c r="I159" s="213"/>
-      <c r="J159" s="214"/>
-      <c r="K159" s="214"/>
+      <c r="I159" s="215"/>
+      <c r="J159" s="216"/>
+      <c r="K159" s="216"/>
       <c r="L159" s="169" t="s">
         <v>191</v>
       </c>
       <c r="M159" s="169">
         <v>100</v>
       </c>
-      <c r="N159" s="214"/>
+      <c r="N159" s="216"/>
       <c r="O159" s="18"/>
     </row>
     <row r="160" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8660,16 +8660,16 @@
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
       <c r="H160" s="52"/>
-      <c r="I160" s="213"/>
-      <c r="J160" s="214"/>
-      <c r="K160" s="214"/>
+      <c r="I160" s="215"/>
+      <c r="J160" s="216"/>
+      <c r="K160" s="216"/>
       <c r="L160" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M160" s="169">
         <v>5</v>
       </c>
-      <c r="N160" s="214"/>
+      <c r="N160" s="216"/>
       <c r="O160" s="18"/>
     </row>
     <row r="161" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8695,16 +8695,16 @@
         <v>159</v>
       </c>
       <c r="H161" s="20"/>
-      <c r="I161" s="213"/>
-      <c r="J161" s="214"/>
-      <c r="K161" s="214"/>
+      <c r="I161" s="215"/>
+      <c r="J161" s="216"/>
+      <c r="K161" s="216"/>
       <c r="L161" s="169" t="s">
         <v>184</v>
       </c>
       <c r="M161" s="169">
         <v>10</v>
       </c>
-      <c r="N161" s="214"/>
+      <c r="N161" s="216"/>
       <c r="O161" s="18"/>
     </row>
     <row r="162" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8716,26 +8716,26 @@
       <c r="F162" s="21"/>
       <c r="G162" s="21"/>
       <c r="H162" s="52"/>
-      <c r="I162" s="213"/>
-      <c r="J162" s="214"/>
-      <c r="K162" s="214"/>
+      <c r="I162" s="215"/>
+      <c r="J162" s="216"/>
+      <c r="K162" s="216"/>
       <c r="L162" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M162" s="169">
         <v>7</v>
       </c>
-      <c r="N162" s="214"/>
+      <c r="N162" s="216"/>
       <c r="O162" s="18"/>
     </row>
     <row r="163" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="213">
+      <c r="A163" s="215">
         <v>45199</v>
       </c>
-      <c r="B163" s="214" t="s">
+      <c r="B163" s="216" t="s">
         <v>506</v>
       </c>
-      <c r="C163" s="214" t="s">
+      <c r="C163" s="216" t="s">
         <v>476</v>
       </c>
       <c r="D163" s="152" t="s">
@@ -8744,48 +8744,48 @@
       <c r="E163" s="152">
         <v>6</v>
       </c>
-      <c r="F163" s="214" t="s">
+      <c r="F163" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G163" s="214" t="s">
+      <c r="G163" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H163" s="20"/>
-      <c r="I163" s="213"/>
-      <c r="J163" s="214"/>
-      <c r="K163" s="214"/>
+      <c r="I163" s="215"/>
+      <c r="J163" s="216"/>
+      <c r="K163" s="216"/>
       <c r="L163" s="169" t="s">
         <v>187</v>
       </c>
       <c r="M163" s="169">
         <v>9</v>
       </c>
-      <c r="N163" s="214"/>
+      <c r="N163" s="216"/>
       <c r="O163" s="18"/>
     </row>
     <row r="164" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="213"/>
-      <c r="B164" s="214"/>
-      <c r="C164" s="214"/>
+      <c r="A164" s="215"/>
+      <c r="B164" s="216"/>
+      <c r="C164" s="216"/>
       <c r="D164" s="152" t="s">
         <v>508</v>
       </c>
       <c r="E164" s="152">
         <v>1</v>
       </c>
-      <c r="F164" s="214"/>
-      <c r="G164" s="214"/>
+      <c r="F164" s="216"/>
+      <c r="G164" s="216"/>
       <c r="H164" s="20"/>
-      <c r="I164" s="213"/>
-      <c r="J164" s="214"/>
-      <c r="K164" s="214"/>
+      <c r="I164" s="215"/>
+      <c r="J164" s="216"/>
+      <c r="K164" s="216"/>
       <c r="L164" s="169" t="s">
         <v>185</v>
       </c>
       <c r="M164" s="169">
         <v>5</v>
       </c>
-      <c r="N164" s="214"/>
+      <c r="N164" s="216"/>
       <c r="O164" s="18"/>
     </row>
     <row r="165" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8806,13 +8806,13 @@
       <c r="O165" s="63"/>
     </row>
     <row r="166" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="213">
+      <c r="A166" s="215">
         <v>45199</v>
       </c>
-      <c r="B166" s="214" t="s">
+      <c r="B166" s="216" t="s">
         <v>510</v>
       </c>
-      <c r="C166" s="214" t="s">
+      <c r="C166" s="216" t="s">
         <v>509</v>
       </c>
       <c r="D166" s="152" t="s">
@@ -8821,20 +8821,20 @@
       <c r="E166" s="152">
         <v>20</v>
       </c>
-      <c r="F166" s="214" t="s">
+      <c r="F166" s="216" t="s">
         <v>140</v>
       </c>
-      <c r="G166" s="214" t="s">
+      <c r="G166" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H166" s="20"/>
-      <c r="I166" s="213">
+      <c r="I166" s="215">
         <v>45239</v>
       </c>
-      <c r="J166" s="214" t="s">
+      <c r="J166" s="216" t="s">
         <v>570</v>
       </c>
-      <c r="K166" s="214" t="s">
+      <c r="K166" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L166" s="100" t="s">
@@ -8843,34 +8843,34 @@
       <c r="M166" s="169">
         <v>5</v>
       </c>
-      <c r="N166" s="214" t="s">
+      <c r="N166" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O166" s="18"/>
     </row>
     <row r="167" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="213"/>
-      <c r="B167" s="214"/>
-      <c r="C167" s="214"/>
+      <c r="A167" s="215"/>
+      <c r="B167" s="216"/>
+      <c r="C167" s="216"/>
       <c r="D167" s="152" t="s">
         <v>512</v>
       </c>
       <c r="E167" s="152">
         <v>20</v>
       </c>
-      <c r="F167" s="214"/>
-      <c r="G167" s="214"/>
+      <c r="F167" s="216"/>
+      <c r="G167" s="216"/>
       <c r="H167" s="20"/>
-      <c r="I167" s="213"/>
-      <c r="J167" s="214"/>
-      <c r="K167" s="214"/>
+      <c r="I167" s="215"/>
+      <c r="J167" s="216"/>
+      <c r="K167" s="216"/>
       <c r="L167" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M167" s="169">
         <v>23</v>
       </c>
-      <c r="N167" s="214"/>
+      <c r="N167" s="216"/>
       <c r="O167" s="18"/>
     </row>
     <row r="168" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8882,26 +8882,26 @@
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
       <c r="H168" s="52"/>
-      <c r="I168" s="213"/>
-      <c r="J168" s="214"/>
-      <c r="K168" s="214"/>
+      <c r="I168" s="215"/>
+      <c r="J168" s="216"/>
+      <c r="K168" s="216"/>
       <c r="L168" s="169" t="s">
         <v>187</v>
       </c>
       <c r="M168" s="169">
         <v>21</v>
       </c>
-      <c r="N168" s="214"/>
+      <c r="N168" s="216"/>
       <c r="O168" s="18"/>
     </row>
     <row r="169" spans="1:15" s="48" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="213">
+      <c r="A169" s="215">
         <v>45202</v>
       </c>
-      <c r="B169" s="214" t="s">
+      <c r="B169" s="216" t="s">
         <v>516</v>
       </c>
-      <c r="C169" s="214" t="s">
+      <c r="C169" s="216" t="s">
         <v>517</v>
       </c>
       <c r="D169" s="154" t="s">
@@ -8910,10 +8910,10 @@
       <c r="E169" s="154">
         <v>4</v>
       </c>
-      <c r="F169" s="214" t="s">
+      <c r="F169" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G169" s="214" t="s">
+      <c r="G169" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H169" s="62"/>
@@ -8926,25 +8926,25 @@
       <c r="O169" s="63"/>
     </row>
     <row r="170" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A170" s="213"/>
-      <c r="B170" s="214"/>
-      <c r="C170" s="214"/>
+      <c r="A170" s="215"/>
+      <c r="B170" s="216"/>
+      <c r="C170" s="216"/>
       <c r="D170" s="154" t="s">
         <v>519</v>
       </c>
       <c r="E170" s="154">
         <v>4</v>
       </c>
-      <c r="F170" s="214"/>
-      <c r="G170" s="214"/>
+      <c r="F170" s="216"/>
+      <c r="G170" s="216"/>
       <c r="H170" s="20"/>
-      <c r="I170" s="213">
+      <c r="I170" s="215">
         <v>45239</v>
       </c>
-      <c r="J170" s="214" t="s">
+      <c r="J170" s="216" t="s">
         <v>571</v>
       </c>
-      <c r="K170" s="214" t="s">
+      <c r="K170" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L170" s="173" t="s">
@@ -8953,7 +8953,7 @@
       <c r="M170" s="169">
         <v>2</v>
       </c>
-      <c r="N170" s="214" t="s">
+      <c r="N170" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O170" s="18"/>
@@ -8967,16 +8967,16 @@
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
       <c r="H171" s="52"/>
-      <c r="I171" s="213"/>
-      <c r="J171" s="214"/>
-      <c r="K171" s="214"/>
+      <c r="I171" s="215"/>
+      <c r="J171" s="216"/>
+      <c r="K171" s="216"/>
       <c r="L171" s="99" t="s">
         <v>181</v>
       </c>
       <c r="M171" s="169">
         <v>16</v>
       </c>
-      <c r="N171" s="214"/>
+      <c r="N171" s="216"/>
       <c r="O171" s="18"/>
     </row>
     <row r="172" spans="1:15" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9160,13 +9160,13 @@
       <c r="O177" s="18"/>
     </row>
     <row r="178" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="213">
+      <c r="A178" s="215">
         <v>45233</v>
       </c>
-      <c r="B178" s="214" t="s">
+      <c r="B178" s="216" t="s">
         <v>556</v>
       </c>
-      <c r="C178" s="214" t="s">
+      <c r="C178" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D178" s="160" t="s">
@@ -9175,10 +9175,10 @@
       <c r="E178" s="160">
         <v>10</v>
       </c>
-      <c r="F178" s="214" t="s">
+      <c r="F178" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G178" s="214" t="s">
+      <c r="G178" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H178" s="62"/>
@@ -9191,17 +9191,17 @@
       <c r="O178" s="63"/>
     </row>
     <row r="179" spans="1:15" s="48" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A179" s="213"/>
-      <c r="B179" s="214"/>
-      <c r="C179" s="214"/>
+      <c r="A179" s="215"/>
+      <c r="B179" s="216"/>
+      <c r="C179" s="216"/>
       <c r="D179" s="160" t="s">
         <v>171</v>
       </c>
       <c r="E179" s="160">
         <v>7</v>
       </c>
-      <c r="F179" s="214"/>
-      <c r="G179" s="214"/>
+      <c r="F179" s="216"/>
+      <c r="G179" s="216"/>
       <c r="H179" s="20"/>
       <c r="I179" s="170">
         <v>45257</v>
@@ -9224,17 +9224,17 @@
       <c r="O179" s="18"/>
     </row>
     <row r="180" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="213"/>
-      <c r="B180" s="214"/>
-      <c r="C180" s="214"/>
+      <c r="A180" s="215"/>
+      <c r="B180" s="216"/>
+      <c r="C180" s="216"/>
       <c r="D180" s="160" t="s">
         <v>172</v>
       </c>
       <c r="E180" s="160">
         <v>9</v>
       </c>
-      <c r="F180" s="214"/>
-      <c r="G180" s="214"/>
+      <c r="F180" s="216"/>
+      <c r="G180" s="216"/>
       <c r="H180" s="62"/>
       <c r="I180" s="21"/>
       <c r="J180" s="21"/>
@@ -9245,17 +9245,17 @@
       <c r="O180" s="63"/>
     </row>
     <row r="181" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="213"/>
-      <c r="B181" s="214"/>
-      <c r="C181" s="214"/>
+      <c r="A181" s="215"/>
+      <c r="B181" s="216"/>
+      <c r="C181" s="216"/>
       <c r="D181" s="160" t="s">
         <v>205</v>
       </c>
       <c r="E181" s="160">
         <v>5</v>
       </c>
-      <c r="F181" s="214"/>
-      <c r="G181" s="214"/>
+      <c r="F181" s="216"/>
+      <c r="G181" s="216"/>
       <c r="H181" s="20"/>
       <c r="I181" s="192">
         <v>45258</v>
@@ -9355,13 +9355,13 @@
       <c r="O184" s="63"/>
     </row>
     <row r="185" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="213">
+      <c r="A185" s="215">
         <v>45232</v>
       </c>
-      <c r="B185" s="214" t="s">
+      <c r="B185" s="216" t="s">
         <v>563</v>
       </c>
-      <c r="C185" s="214" t="s">
+      <c r="C185" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D185" s="161" t="s">
@@ -9370,10 +9370,10 @@
       <c r="E185" s="161">
         <v>12</v>
       </c>
-      <c r="F185" s="214" t="s">
+      <c r="F185" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G185" s="214" t="s">
+      <c r="G185" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H185" s="20"/>
@@ -9398,17 +9398,17 @@
       <c r="O185" s="18"/>
     </row>
     <row r="186" spans="1:15" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="213"/>
-      <c r="B186" s="214"/>
-      <c r="C186" s="214"/>
+      <c r="A186" s="215"/>
+      <c r="B186" s="216"/>
+      <c r="C186" s="216"/>
       <c r="D186" s="161" t="s">
         <v>174</v>
       </c>
       <c r="E186" s="161">
         <v>10</v>
       </c>
-      <c r="F186" s="214"/>
-      <c r="G186" s="214"/>
+      <c r="F186" s="216"/>
+      <c r="G186" s="216"/>
       <c r="H186" s="62"/>
       <c r="I186" s="21"/>
       <c r="J186" s="21"/>
@@ -9487,13 +9487,13 @@
       <c r="F189" s="65"/>
       <c r="G189" s="65"/>
       <c r="H189" s="52"/>
-      <c r="I189" s="213">
+      <c r="I189" s="215">
         <v>45297</v>
       </c>
-      <c r="J189" s="214" t="s">
+      <c r="J189" s="216" t="s">
         <v>843</v>
       </c>
-      <c r="K189" s="214" t="s">
+      <c r="K189" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L189" s="100" t="s">
@@ -9502,7 +9502,7 @@
       <c r="M189" s="193">
         <v>15</v>
       </c>
-      <c r="N189" s="214" t="s">
+      <c r="N189" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O189" s="18"/>
@@ -9530,16 +9530,16 @@
         <v>159</v>
       </c>
       <c r="H190" s="20"/>
-      <c r="I190" s="213"/>
-      <c r="J190" s="214"/>
-      <c r="K190" s="214"/>
+      <c r="I190" s="215"/>
+      <c r="J190" s="216"/>
+      <c r="K190" s="216"/>
       <c r="L190" s="193" t="s">
         <v>191</v>
       </c>
       <c r="M190" s="193">
         <v>250</v>
       </c>
-      <c r="N190" s="214"/>
+      <c r="N190" s="216"/>
       <c r="O190" s="18"/>
     </row>
     <row r="191" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9551,16 +9551,16 @@
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
       <c r="H191" s="52"/>
-      <c r="I191" s="213"/>
-      <c r="J191" s="214"/>
-      <c r="K191" s="214"/>
+      <c r="I191" s="215"/>
+      <c r="J191" s="216"/>
+      <c r="K191" s="216"/>
       <c r="L191" s="193" t="s">
         <v>187</v>
       </c>
       <c r="M191" s="193">
         <v>19</v>
       </c>
-      <c r="N191" s="214"/>
+      <c r="N191" s="216"/>
       <c r="O191" s="18"/>
     </row>
     <row r="192" spans="1:15" s="48" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9586,16 +9586,16 @@
         <v>159</v>
       </c>
       <c r="H192" s="20"/>
-      <c r="I192" s="213"/>
-      <c r="J192" s="214"/>
-      <c r="K192" s="214"/>
+      <c r="I192" s="215"/>
+      <c r="J192" s="216"/>
+      <c r="K192" s="216"/>
       <c r="L192" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M192" s="193">
         <v>14</v>
       </c>
-      <c r="N192" s="214"/>
+      <c r="N192" s="216"/>
       <c r="O192" s="18"/>
     </row>
     <row r="193" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9607,16 +9607,16 @@
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
       <c r="H193" s="52"/>
-      <c r="I193" s="213"/>
-      <c r="J193" s="214"/>
-      <c r="K193" s="214"/>
+      <c r="I193" s="215"/>
+      <c r="J193" s="216"/>
+      <c r="K193" s="216"/>
       <c r="L193" s="193" t="s">
         <v>185</v>
       </c>
       <c r="M193" s="193">
         <v>5</v>
       </c>
-      <c r="N193" s="214"/>
+      <c r="N193" s="216"/>
       <c r="O193" s="18"/>
     </row>
     <row r="194" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9642,16 +9642,16 @@
         <v>159</v>
       </c>
       <c r="H194" s="20"/>
-      <c r="I194" s="213"/>
-      <c r="J194" s="214"/>
-      <c r="K194" s="214"/>
+      <c r="I194" s="215"/>
+      <c r="J194" s="216"/>
+      <c r="K194" s="216"/>
       <c r="L194" s="193" t="s">
         <v>284</v>
       </c>
       <c r="M194" s="193">
         <v>4</v>
       </c>
-      <c r="N194" s="214"/>
+      <c r="N194" s="216"/>
       <c r="O194" s="18"/>
     </row>
     <row r="195" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9814,13 +9814,13 @@
         <v>159</v>
       </c>
       <c r="H200" s="20"/>
-      <c r="I200" s="213">
+      <c r="I200" s="215">
         <v>45301</v>
       </c>
-      <c r="J200" s="214" t="s">
+      <c r="J200" s="216" t="s">
         <v>859</v>
       </c>
-      <c r="K200" s="214" t="s">
+      <c r="K200" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L200" s="198" t="s">
@@ -9829,7 +9829,7 @@
       <c r="M200" s="198">
         <v>50</v>
       </c>
-      <c r="N200" s="214" t="s">
+      <c r="N200" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O200" s="18"/>
@@ -9843,111 +9843,111 @@
       <c r="F201" s="65"/>
       <c r="G201" s="65"/>
       <c r="H201" s="52"/>
-      <c r="I201" s="213"/>
-      <c r="J201" s="214"/>
-      <c r="K201" s="214"/>
+      <c r="I201" s="215"/>
+      <c r="J201" s="216"/>
+      <c r="K201" s="216"/>
       <c r="L201" s="198" t="s">
         <v>862</v>
       </c>
       <c r="M201" s="198">
         <v>10</v>
       </c>
-      <c r="N201" s="214"/>
+      <c r="N201" s="216"/>
       <c r="O201" s="18"/>
     </row>
     <row r="202" spans="1:15" s="48" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="213">
+      <c r="A202" s="215">
         <v>45265</v>
       </c>
-      <c r="B202" s="214" t="s">
+      <c r="B202" s="216" t="s">
         <v>777</v>
       </c>
-      <c r="C202" s="214" t="s">
+      <c r="C202" s="216" t="s">
         <v>724</v>
       </c>
       <c r="D202" s="176" t="s">
         <v>779</v>
       </c>
-      <c r="E202" s="214">
+      <c r="E202" s="216">
         <v>6</v>
       </c>
-      <c r="F202" s="214" t="s">
+      <c r="F202" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G202" s="214" t="s">
+      <c r="G202" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H202" s="20"/>
-      <c r="I202" s="213"/>
-      <c r="J202" s="214"/>
-      <c r="K202" s="214"/>
+      <c r="I202" s="215"/>
+      <c r="J202" s="216"/>
+      <c r="K202" s="216"/>
       <c r="L202" s="198" t="s">
         <v>187</v>
       </c>
       <c r="M202" s="198">
         <v>1</v>
       </c>
-      <c r="N202" s="214"/>
+      <c r="N202" s="216"/>
       <c r="O202" s="18"/>
     </row>
     <row r="203" spans="1:15" s="48" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="213"/>
-      <c r="B203" s="214"/>
-      <c r="C203" s="214"/>
+      <c r="A203" s="215"/>
+      <c r="B203" s="216"/>
+      <c r="C203" s="216"/>
       <c r="D203" s="176" t="s">
         <v>780</v>
       </c>
-      <c r="E203" s="214"/>
-      <c r="F203" s="214"/>
-      <c r="G203" s="214"/>
+      <c r="E203" s="216"/>
+      <c r="F203" s="216"/>
+      <c r="G203" s="216"/>
       <c r="H203" s="20"/>
-      <c r="I203" s="213"/>
-      <c r="J203" s="214"/>
-      <c r="K203" s="214"/>
+      <c r="I203" s="215"/>
+      <c r="J203" s="216"/>
+      <c r="K203" s="216"/>
       <c r="L203" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M203" s="198">
         <v>16</v>
       </c>
-      <c r="N203" s="214"/>
+      <c r="N203" s="216"/>
       <c r="O203" s="18"/>
     </row>
     <row r="204" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="213"/>
-      <c r="B204" s="214"/>
-      <c r="C204" s="214"/>
+      <c r="A204" s="215"/>
+      <c r="B204" s="216"/>
+      <c r="C204" s="216"/>
       <c r="D204" s="176" t="s">
         <v>781</v>
       </c>
-      <c r="E204" s="214"/>
-      <c r="F204" s="214"/>
-      <c r="G204" s="214"/>
+      <c r="E204" s="216"/>
+      <c r="F204" s="216"/>
+      <c r="G204" s="216"/>
       <c r="H204" s="20"/>
-      <c r="I204" s="213"/>
-      <c r="J204" s="214"/>
-      <c r="K204" s="214"/>
+      <c r="I204" s="215"/>
+      <c r="J204" s="216"/>
+      <c r="K204" s="216"/>
       <c r="L204" s="198" t="s">
         <v>284</v>
       </c>
       <c r="M204" s="198">
         <v>6</v>
       </c>
-      <c r="N204" s="214"/>
+      <c r="N204" s="216"/>
       <c r="O204" s="18"/>
     </row>
     <row r="205" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="213"/>
-      <c r="B205" s="214"/>
-      <c r="C205" s="214"/>
+      <c r="A205" s="215"/>
+      <c r="B205" s="216"/>
+      <c r="C205" s="216"/>
       <c r="D205" s="176" t="s">
         <v>779</v>
       </c>
-      <c r="E205" s="214">
+      <c r="E205" s="216">
         <v>6</v>
       </c>
-      <c r="F205" s="214"/>
-      <c r="G205" s="214"/>
+      <c r="F205" s="216"/>
+      <c r="G205" s="216"/>
       <c r="H205" s="62"/>
       <c r="I205" s="21"/>
       <c r="J205" s="21"/>
@@ -9958,23 +9958,23 @@
       <c r="O205" s="63"/>
     </row>
     <row r="206" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="213"/>
-      <c r="B206" s="214"/>
-      <c r="C206" s="214"/>
+      <c r="A206" s="215"/>
+      <c r="B206" s="216"/>
+      <c r="C206" s="216"/>
       <c r="D206" s="176" t="s">
         <v>782</v>
       </c>
-      <c r="E206" s="214"/>
-      <c r="F206" s="214"/>
-      <c r="G206" s="214"/>
+      <c r="E206" s="216"/>
+      <c r="F206" s="216"/>
+      <c r="G206" s="216"/>
       <c r="H206" s="20"/>
-      <c r="I206" s="213">
+      <c r="I206" s="215">
         <v>45342</v>
       </c>
-      <c r="J206" s="214" t="s">
+      <c r="J206" s="216" t="s">
         <v>896</v>
       </c>
-      <c r="K206" s="214" t="s">
+      <c r="K206" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L206" s="100" t="s">
@@ -9983,32 +9983,32 @@
       <c r="M206" s="207">
         <v>10</v>
       </c>
-      <c r="N206" s="214" t="s">
+      <c r="N206" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O206" s="18"/>
     </row>
     <row r="207" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="213"/>
-      <c r="B207" s="214"/>
-      <c r="C207" s="214"/>
+      <c r="A207" s="215"/>
+      <c r="B207" s="216"/>
+      <c r="C207" s="216"/>
       <c r="D207" s="176" t="s">
         <v>781</v>
       </c>
-      <c r="E207" s="214"/>
-      <c r="F207" s="214"/>
-      <c r="G207" s="214"/>
+      <c r="E207" s="216"/>
+      <c r="F207" s="216"/>
+      <c r="G207" s="216"/>
       <c r="H207" s="20"/>
-      <c r="I207" s="213"/>
-      <c r="J207" s="214"/>
-      <c r="K207" s="214"/>
+      <c r="I207" s="215"/>
+      <c r="J207" s="216"/>
+      <c r="K207" s="216"/>
       <c r="L207" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M207" s="207">
         <v>10</v>
       </c>
-      <c r="N207" s="214"/>
+      <c r="N207" s="216"/>
       <c r="O207" s="18"/>
     </row>
     <row r="208" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10020,26 +10020,26 @@
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
       <c r="H208" s="52"/>
-      <c r="I208" s="213"/>
-      <c r="J208" s="214"/>
-      <c r="K208" s="214"/>
+      <c r="I208" s="215"/>
+      <c r="J208" s="216"/>
+      <c r="K208" s="216"/>
       <c r="L208" s="207" t="s">
         <v>849</v>
       </c>
       <c r="M208" s="207">
         <v>4</v>
       </c>
-      <c r="N208" s="214"/>
+      <c r="N208" s="216"/>
       <c r="O208" s="18"/>
     </row>
     <row r="209" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="213">
+      <c r="A209" s="215">
         <v>45265</v>
       </c>
-      <c r="B209" s="214">
+      <c r="B209" s="216">
         <v>4270</v>
       </c>
-      <c r="C209" s="214" t="s">
+      <c r="C209" s="216" t="s">
         <v>271</v>
       </c>
       <c r="D209" s="177" t="s">
@@ -10055,22 +10055,22 @@
         <v>159</v>
       </c>
       <c r="H209" s="52"/>
-      <c r="I209" s="213"/>
-      <c r="J209" s="214"/>
-      <c r="K209" s="214"/>
+      <c r="I209" s="215"/>
+      <c r="J209" s="216"/>
+      <c r="K209" s="216"/>
       <c r="L209" s="207" t="s">
         <v>914</v>
       </c>
       <c r="M209" s="207">
         <v>5</v>
       </c>
-      <c r="N209" s="214"/>
+      <c r="N209" s="216"/>
       <c r="O209" s="18"/>
     </row>
     <row r="210" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="213"/>
-      <c r="B210" s="214"/>
-      <c r="C210" s="214"/>
+      <c r="A210" s="215"/>
+      <c r="B210" s="216"/>
+      <c r="C210" s="216"/>
       <c r="D210" s="177" t="s">
         <v>789</v>
       </c>
@@ -10080,22 +10080,22 @@
       <c r="F210" s="177"/>
       <c r="G210" s="177"/>
       <c r="H210" s="52"/>
-      <c r="I210" s="213"/>
-      <c r="J210" s="214"/>
-      <c r="K210" s="214"/>
+      <c r="I210" s="215"/>
+      <c r="J210" s="216"/>
+      <c r="K210" s="216"/>
       <c r="L210" s="207" t="s">
         <v>190</v>
       </c>
       <c r="M210" s="207">
         <v>30</v>
       </c>
-      <c r="N210" s="214"/>
+      <c r="N210" s="216"/>
       <c r="O210" s="18"/>
     </row>
     <row r="211" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="213"/>
-      <c r="B211" s="214"/>
-      <c r="C211" s="214"/>
+      <c r="A211" s="215"/>
+      <c r="B211" s="216"/>
+      <c r="C211" s="216"/>
       <c r="D211" s="177" t="s">
         <v>790</v>
       </c>
@@ -10105,16 +10105,16 @@
       <c r="F211" s="177"/>
       <c r="G211" s="177"/>
       <c r="H211" s="52"/>
-      <c r="I211" s="213"/>
-      <c r="J211" s="214"/>
-      <c r="K211" s="214"/>
+      <c r="I211" s="215"/>
+      <c r="J211" s="216"/>
+      <c r="K211" s="216"/>
       <c r="L211" s="207" t="s">
         <v>191</v>
       </c>
       <c r="M211" s="207">
         <v>30</v>
       </c>
-      <c r="N211" s="214"/>
+      <c r="N211" s="216"/>
       <c r="O211" s="18"/>
     </row>
     <row r="212" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10157,13 +10157,13 @@
         <v>159</v>
       </c>
       <c r="H213" s="20"/>
-      <c r="I213" s="213">
+      <c r="I213" s="215">
         <v>45358</v>
       </c>
-      <c r="J213" s="214" t="s">
+      <c r="J213" s="216" t="s">
         <v>935</v>
       </c>
-      <c r="K213" s="214" t="s">
+      <c r="K213" s="216" t="s">
         <v>178</v>
       </c>
       <c r="L213" s="211" t="s">
@@ -10172,7 +10172,7 @@
       <c r="M213" s="211">
         <v>11</v>
       </c>
-      <c r="N213" s="214" t="s">
+      <c r="N213" s="216" t="s">
         <v>176</v>
       </c>
       <c r="O213" s="18"/>
@@ -10186,16 +10186,16 @@
       <c r="F214" s="65"/>
       <c r="G214" s="65"/>
       <c r="H214" s="52"/>
-      <c r="I214" s="213"/>
-      <c r="J214" s="214"/>
-      <c r="K214" s="214"/>
+      <c r="I214" s="215"/>
+      <c r="J214" s="216"/>
+      <c r="K214" s="216"/>
       <c r="L214" s="211" t="s">
         <v>728</v>
       </c>
       <c r="M214" s="211">
         <v>15</v>
       </c>
-      <c r="N214" s="214"/>
+      <c r="N214" s="216"/>
       <c r="O214" s="18"/>
     </row>
     <row r="215" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10221,16 +10221,16 @@
         <v>159</v>
       </c>
       <c r="H215" s="20"/>
-      <c r="I215" s="213"/>
-      <c r="J215" s="214"/>
-      <c r="K215" s="214"/>
+      <c r="I215" s="215"/>
+      <c r="J215" s="216"/>
+      <c r="K215" s="216"/>
       <c r="L215" s="211" t="s">
         <v>936</v>
       </c>
       <c r="M215" s="211">
         <v>10</v>
       </c>
-      <c r="N215" s="214"/>
+      <c r="N215" s="216"/>
       <c r="O215" s="18"/>
     </row>
     <row r="216" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10395,13 +10395,13 @@
       <c r="O222" s="18"/>
     </row>
     <row r="223" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="213">
+      <c r="A223" s="215">
         <v>45290</v>
       </c>
-      <c r="B223" s="214" t="s">
+      <c r="B223" s="216" t="s">
         <v>821</v>
       </c>
-      <c r="C223" s="214" t="s">
+      <c r="C223" s="216" t="s">
         <v>811</v>
       </c>
       <c r="D223" s="186" t="s">
@@ -10410,10 +10410,10 @@
       <c r="E223" s="186">
         <v>1</v>
       </c>
-      <c r="F223" s="214" t="s">
+      <c r="F223" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G223" s="214" t="s">
+      <c r="G223" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H223" s="20"/>
@@ -10426,17 +10426,17 @@
       <c r="O223" s="18"/>
     </row>
     <row r="224" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="213"/>
-      <c r="B224" s="214"/>
-      <c r="C224" s="214"/>
+      <c r="A224" s="215"/>
+      <c r="B224" s="216"/>
+      <c r="C224" s="216"/>
       <c r="D224" s="186" t="s">
         <v>825</v>
       </c>
       <c r="E224" s="186">
         <v>100</v>
       </c>
-      <c r="F224" s="214"/>
-      <c r="G224" s="214"/>
+      <c r="F224" s="216"/>
+      <c r="G224" s="216"/>
       <c r="H224" s="20"/>
       <c r="I224" s="207"/>
       <c r="J224" s="207"/>
@@ -10447,17 +10447,17 @@
       <c r="O224" s="18"/>
     </row>
     <row r="225" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="213"/>
-      <c r="B225" s="214"/>
-      <c r="C225" s="214"/>
+      <c r="A225" s="215"/>
+      <c r="B225" s="216"/>
+      <c r="C225" s="216"/>
       <c r="D225" s="186" t="s">
         <v>826</v>
       </c>
       <c r="E225" s="186">
         <v>1</v>
       </c>
-      <c r="F225" s="214"/>
-      <c r="G225" s="214"/>
+      <c r="F225" s="216"/>
+      <c r="G225" s="216"/>
       <c r="H225" s="20"/>
       <c r="I225" s="207"/>
       <c r="J225" s="207"/>
@@ -10468,17 +10468,17 @@
       <c r="O225" s="18"/>
     </row>
     <row r="226" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="213"/>
-      <c r="B226" s="214"/>
-      <c r="C226" s="214"/>
+      <c r="A226" s="215"/>
+      <c r="B226" s="216"/>
+      <c r="C226" s="216"/>
       <c r="D226" s="186" t="s">
         <v>827</v>
       </c>
       <c r="E226" s="186">
         <v>1</v>
       </c>
-      <c r="F226" s="214"/>
-      <c r="G226" s="214"/>
+      <c r="F226" s="216"/>
+      <c r="G226" s="216"/>
       <c r="H226" s="20"/>
       <c r="I226" s="207"/>
       <c r="J226" s="207"/>
@@ -10554,13 +10554,13 @@
       <c r="O229" s="18"/>
     </row>
     <row r="230" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="213">
+      <c r="A230" s="215">
         <v>45292</v>
       </c>
-      <c r="B230" s="214" t="s">
+      <c r="B230" s="216" t="s">
         <v>823</v>
       </c>
-      <c r="C230" s="214" t="s">
+      <c r="C230" s="216" t="s">
         <v>242</v>
       </c>
       <c r="D230" s="186" t="s">
@@ -10569,10 +10569,10 @@
       <c r="E230" s="186">
         <v>1</v>
       </c>
-      <c r="F230" s="214" t="s">
+      <c r="F230" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G230" s="214" t="s">
+      <c r="G230" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H230" s="20"/>
@@ -10585,17 +10585,17 @@
       <c r="O230" s="18"/>
     </row>
     <row r="231" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="213"/>
-      <c r="B231" s="214"/>
-      <c r="C231" s="214"/>
+      <c r="A231" s="215"/>
+      <c r="B231" s="216"/>
+      <c r="C231" s="216"/>
       <c r="D231" s="186" t="s">
         <v>830</v>
       </c>
       <c r="E231" s="186">
         <v>1</v>
       </c>
-      <c r="F231" s="214"/>
-      <c r="G231" s="214"/>
+      <c r="F231" s="216"/>
+      <c r="G231" s="216"/>
       <c r="H231" s="20"/>
       <c r="I231" s="207"/>
       <c r="J231" s="207"/>
@@ -10671,13 +10671,13 @@
       <c r="O234" s="18"/>
     </row>
     <row r="235" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="213">
+      <c r="A235" s="215">
         <v>45297</v>
       </c>
-      <c r="B235" s="214" t="s">
+      <c r="B235" s="216" t="s">
         <v>839</v>
       </c>
-      <c r="C235" s="214" t="s">
+      <c r="C235" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D235" s="189" t="s">
@@ -10686,10 +10686,10 @@
       <c r="E235" s="189">
         <v>10</v>
       </c>
-      <c r="F235" s="214" t="s">
+      <c r="F235" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G235" s="214" t="s">
+      <c r="G235" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H235" s="20"/>
@@ -10702,17 +10702,17 @@
       <c r="O235" s="18"/>
     </row>
     <row r="236" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="213"/>
-      <c r="B236" s="214"/>
-      <c r="C236" s="214"/>
+      <c r="A236" s="215"/>
+      <c r="B236" s="216"/>
+      <c r="C236" s="216"/>
       <c r="D236" s="189" t="s">
         <v>172</v>
       </c>
       <c r="E236" s="189">
         <v>19</v>
       </c>
-      <c r="F236" s="214"/>
-      <c r="G236" s="214"/>
+      <c r="F236" s="216"/>
+      <c r="G236" s="216"/>
       <c r="H236" s="20"/>
       <c r="I236" s="207"/>
       <c r="J236" s="207"/>
@@ -10723,17 +10723,17 @@
       <c r="O236" s="18"/>
     </row>
     <row r="237" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="213"/>
-      <c r="B237" s="214"/>
-      <c r="C237" s="214"/>
+      <c r="A237" s="215"/>
+      <c r="B237" s="216"/>
+      <c r="C237" s="216"/>
       <c r="D237" s="189" t="s">
         <v>171</v>
       </c>
       <c r="E237" s="189">
         <v>14</v>
       </c>
-      <c r="F237" s="214"/>
-      <c r="G237" s="214"/>
+      <c r="F237" s="216"/>
+      <c r="G237" s="216"/>
       <c r="H237" s="20"/>
       <c r="I237" s="207"/>
       <c r="J237" s="207"/>
@@ -10744,17 +10744,17 @@
       <c r="O237" s="18"/>
     </row>
     <row r="238" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="213"/>
-      <c r="B238" s="214"/>
-      <c r="C238" s="214"/>
+      <c r="A238" s="215"/>
+      <c r="B238" s="216"/>
+      <c r="C238" s="216"/>
       <c r="D238" s="189" t="s">
         <v>840</v>
       </c>
       <c r="E238" s="189">
         <v>5</v>
       </c>
-      <c r="F238" s="214"/>
-      <c r="G238" s="214"/>
+      <c r="F238" s="216"/>
+      <c r="G238" s="216"/>
       <c r="H238" s="20"/>
       <c r="I238" s="207"/>
       <c r="J238" s="207"/>
@@ -10765,17 +10765,17 @@
       <c r="O238" s="18"/>
     </row>
     <row r="239" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="213"/>
-      <c r="B239" s="214"/>
-      <c r="C239" s="214"/>
+      <c r="A239" s="215"/>
+      <c r="B239" s="216"/>
+      <c r="C239" s="216"/>
       <c r="D239" s="189" t="s">
         <v>291</v>
       </c>
       <c r="E239" s="189">
         <v>10</v>
       </c>
-      <c r="F239" s="214"/>
-      <c r="G239" s="214"/>
+      <c r="F239" s="216"/>
+      <c r="G239" s="216"/>
       <c r="H239" s="20"/>
       <c r="I239" s="207"/>
       <c r="J239" s="207"/>
@@ -10851,25 +10851,25 @@
       <c r="O242" s="18"/>
     </row>
     <row r="243" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="213">
+      <c r="A243" s="215">
         <v>45299</v>
       </c>
-      <c r="B243" s="214" t="s">
+      <c r="B243" s="216" t="s">
         <v>853</v>
       </c>
-      <c r="C243" s="214" t="s">
+      <c r="C243" s="216" t="s">
         <v>724</v>
       </c>
       <c r="D243" s="194" t="s">
         <v>779</v>
       </c>
-      <c r="E243" s="214">
+      <c r="E243" s="216">
         <v>2</v>
       </c>
-      <c r="F243" s="214" t="s">
+      <c r="F243" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G243" s="214" t="s">
+      <c r="G243" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H243" s="20"/>
@@ -10882,15 +10882,15 @@
       <c r="O243" s="18"/>
     </row>
     <row r="244" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="213"/>
-      <c r="B244" s="214"/>
-      <c r="C244" s="214"/>
+      <c r="A244" s="215"/>
+      <c r="B244" s="216"/>
+      <c r="C244" s="216"/>
       <c r="D244" s="194" t="s">
         <v>780</v>
       </c>
-      <c r="E244" s="214"/>
-      <c r="F244" s="214"/>
-      <c r="G244" s="214"/>
+      <c r="E244" s="216"/>
+      <c r="F244" s="216"/>
+      <c r="G244" s="216"/>
       <c r="H244" s="20"/>
       <c r="I244" s="207"/>
       <c r="J244" s="207"/>
@@ -10901,15 +10901,15 @@
       <c r="O244" s="18"/>
     </row>
     <row r="245" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="213"/>
-      <c r="B245" s="214"/>
-      <c r="C245" s="214"/>
+      <c r="A245" s="215"/>
+      <c r="B245" s="216"/>
+      <c r="C245" s="216"/>
       <c r="D245" s="194" t="s">
         <v>781</v>
       </c>
-      <c r="E245" s="214"/>
-      <c r="F245" s="214"/>
-      <c r="G245" s="214"/>
+      <c r="E245" s="216"/>
+      <c r="F245" s="216"/>
+      <c r="G245" s="216"/>
       <c r="H245" s="20"/>
       <c r="I245" s="207"/>
       <c r="J245" s="207"/>
@@ -11033,13 +11033,13 @@
       <c r="O250" s="18"/>
     </row>
     <row r="251" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="213">
+      <c r="A251" s="215">
         <v>45301</v>
       </c>
-      <c r="B251" s="214" t="s">
+      <c r="B251" s="216" t="s">
         <v>860</v>
       </c>
-      <c r="C251" s="214" t="s">
+      <c r="C251" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D251" s="197" t="s">
@@ -11048,10 +11048,10 @@
       <c r="E251" s="197">
         <v>1</v>
       </c>
-      <c r="F251" s="214" t="s">
+      <c r="F251" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="G251" s="214" t="s">
+      <c r="G251" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H251" s="20"/>
@@ -11064,17 +11064,17 @@
       <c r="O251" s="18"/>
     </row>
     <row r="252" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="213"/>
-      <c r="B252" s="214"/>
-      <c r="C252" s="214"/>
+      <c r="A252" s="215"/>
+      <c r="B252" s="216"/>
+      <c r="C252" s="216"/>
       <c r="D252" s="197" t="s">
         <v>171</v>
       </c>
       <c r="E252" s="197">
         <v>16</v>
       </c>
-      <c r="F252" s="214"/>
-      <c r="G252" s="214"/>
+      <c r="F252" s="216"/>
+      <c r="G252" s="216"/>
       <c r="H252" s="20"/>
       <c r="O252" s="18"/>
     </row>
@@ -11198,94 +11198,94 @@
       <c r="O259" s="18"/>
     </row>
     <row r="260" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="213">
+      <c r="A260" s="215">
         <v>45328</v>
       </c>
-      <c r="B260" s="214" t="s">
+      <c r="B260" s="216" t="s">
         <v>883</v>
       </c>
-      <c r="C260" s="214" t="s">
+      <c r="C260" s="216" t="s">
         <v>724</v>
       </c>
       <c r="D260" s="204" t="s">
         <v>779</v>
       </c>
-      <c r="E260" s="214">
+      <c r="E260" s="216">
         <v>2</v>
       </c>
-      <c r="F260" s="214" t="s">
+      <c r="F260" s="216" t="s">
         <v>140</v>
       </c>
-      <c r="G260" s="214" t="s">
+      <c r="G260" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H260" s="20"/>
       <c r="O260" s="18"/>
     </row>
     <row r="261" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="213"/>
-      <c r="B261" s="214"/>
-      <c r="C261" s="214"/>
+      <c r="A261" s="215"/>
+      <c r="B261" s="216"/>
+      <c r="C261" s="216"/>
       <c r="D261" s="204" t="s">
         <v>780</v>
       </c>
-      <c r="E261" s="214"/>
-      <c r="F261" s="214"/>
-      <c r="G261" s="214"/>
+      <c r="E261" s="216"/>
+      <c r="F261" s="216"/>
+      <c r="G261" s="216"/>
       <c r="H261" s="20"/>
       <c r="O261" s="18"/>
     </row>
     <row r="262" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="213"/>
-      <c r="B262" s="214"/>
-      <c r="C262" s="214"/>
+      <c r="A262" s="215"/>
+      <c r="B262" s="216"/>
+      <c r="C262" s="216"/>
       <c r="D262" s="204" t="s">
         <v>781</v>
       </c>
-      <c r="E262" s="214"/>
-      <c r="F262" s="214"/>
-      <c r="G262" s="214"/>
+      <c r="E262" s="216"/>
+      <c r="F262" s="216"/>
+      <c r="G262" s="216"/>
       <c r="H262" s="20"/>
       <c r="O262" s="18"/>
     </row>
     <row r="263" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="213"/>
-      <c r="B263" s="214"/>
-      <c r="C263" s="214"/>
+      <c r="A263" s="215"/>
+      <c r="B263" s="216"/>
+      <c r="C263" s="216"/>
       <c r="D263" s="204" t="s">
         <v>779</v>
       </c>
-      <c r="E263" s="214">
+      <c r="E263" s="216">
         <v>2</v>
       </c>
-      <c r="F263" s="214"/>
-      <c r="G263" s="214"/>
+      <c r="F263" s="216"/>
+      <c r="G263" s="216"/>
       <c r="H263" s="20"/>
       <c r="O263" s="18"/>
     </row>
     <row r="264" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="213"/>
-      <c r="B264" s="214"/>
-      <c r="C264" s="214"/>
+      <c r="A264" s="215"/>
+      <c r="B264" s="216"/>
+      <c r="C264" s="216"/>
       <c r="D264" s="204" t="s">
         <v>782</v>
       </c>
-      <c r="E264" s="214"/>
-      <c r="F264" s="214"/>
-      <c r="G264" s="214"/>
+      <c r="E264" s="216"/>
+      <c r="F264" s="216"/>
+      <c r="G264" s="216"/>
       <c r="H264" s="20"/>
       <c r="O264" s="18"/>
     </row>
     <row r="265" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="213"/>
-      <c r="B265" s="214"/>
-      <c r="C265" s="214"/>
+      <c r="A265" s="215"/>
+      <c r="B265" s="216"/>
+      <c r="C265" s="216"/>
       <c r="D265" s="204" t="s">
         <v>781</v>
       </c>
-      <c r="E265" s="214"/>
-      <c r="F265" s="214"/>
-      <c r="G265" s="214"/>
+      <c r="E265" s="216"/>
+      <c r="F265" s="216"/>
+      <c r="G265" s="216"/>
       <c r="H265" s="20"/>
       <c r="O265" s="18"/>
     </row>
@@ -11301,13 +11301,13 @@
       <c r="O266" s="18"/>
     </row>
     <row r="267" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="213">
+      <c r="A267" s="215">
         <v>45334</v>
       </c>
-      <c r="B267" s="214" t="s">
+      <c r="B267" s="216" t="s">
         <v>888</v>
       </c>
-      <c r="C267" s="214" t="s">
+      <c r="C267" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D267" s="204" t="s">
@@ -11316,42 +11316,42 @@
       <c r="E267" s="204">
         <v>10</v>
       </c>
-      <c r="F267" s="214" t="s">
+      <c r="F267" s="216" t="s">
         <v>887</v>
       </c>
-      <c r="G267" s="214" t="s">
+      <c r="G267" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H267" s="20"/>
       <c r="O267" s="18"/>
     </row>
     <row r="268" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="213"/>
-      <c r="B268" s="214"/>
-      <c r="C268" s="214"/>
+      <c r="A268" s="215"/>
+      <c r="B268" s="216"/>
+      <c r="C268" s="216"/>
       <c r="D268" s="204" t="s">
         <v>171</v>
       </c>
       <c r="E268" s="204">
         <v>10</v>
       </c>
-      <c r="F268" s="214"/>
-      <c r="G268" s="214"/>
+      <c r="F268" s="216"/>
+      <c r="G268" s="216"/>
       <c r="H268" s="20"/>
       <c r="O268" s="18"/>
     </row>
     <row r="269" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="213"/>
-      <c r="B269" s="214"/>
-      <c r="C269" s="214"/>
+      <c r="A269" s="215"/>
+      <c r="B269" s="216"/>
+      <c r="C269" s="216"/>
       <c r="D269" s="204" t="s">
         <v>318</v>
       </c>
       <c r="E269" s="204">
         <v>5</v>
       </c>
-      <c r="F269" s="214"/>
-      <c r="G269" s="214"/>
+      <c r="F269" s="216"/>
+      <c r="G269" s="216"/>
       <c r="H269" s="20"/>
       <c r="O269" s="18"/>
     </row>
@@ -11367,13 +11367,13 @@
       <c r="O270" s="18"/>
     </row>
     <row r="271" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="213">
+      <c r="A271" s="215">
         <v>45336</v>
       </c>
-      <c r="B271" s="214" t="s">
+      <c r="B271" s="216" t="s">
         <v>891</v>
       </c>
-      <c r="C271" s="215" t="s">
+      <c r="C271" s="222" t="s">
         <v>163</v>
       </c>
       <c r="D271" s="206" t="s">
@@ -11382,27 +11382,27 @@
       <c r="E271" s="206">
         <v>30</v>
       </c>
-      <c r="F271" s="214" t="s">
+      <c r="F271" s="216" t="s">
         <v>887</v>
       </c>
-      <c r="G271" s="214" t="s">
+      <c r="G271" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H271" s="20"/>
       <c r="O271" s="18"/>
     </row>
     <row r="272" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="213"/>
-      <c r="B272" s="214"/>
-      <c r="C272" s="215"/>
+      <c r="A272" s="215"/>
+      <c r="B272" s="216"/>
+      <c r="C272" s="222"/>
       <c r="D272" s="206" t="s">
         <v>175</v>
       </c>
       <c r="E272" s="206">
         <v>30</v>
       </c>
-      <c r="F272" s="214"/>
-      <c r="G272" s="214"/>
+      <c r="F272" s="216"/>
+      <c r="G272" s="216"/>
       <c r="H272" s="20"/>
       <c r="O272" s="18"/>
     </row>
@@ -11454,13 +11454,13 @@
       <c r="O275" s="18"/>
     </row>
     <row r="276" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="213">
+      <c r="A276" s="215">
         <v>45357</v>
       </c>
-      <c r="B276" s="214" t="s">
+      <c r="B276" s="216" t="s">
         <v>929</v>
       </c>
-      <c r="C276" s="214" t="s">
+      <c r="C276" s="216" t="s">
         <v>169</v>
       </c>
       <c r="D276" s="209" t="s">
@@ -11469,27 +11469,27 @@
       <c r="E276" s="209">
         <v>11</v>
       </c>
-      <c r="F276" s="214" t="s">
+      <c r="F276" s="216" t="s">
         <v>887</v>
       </c>
-      <c r="G276" s="214" t="s">
+      <c r="G276" s="216" t="s">
         <v>159</v>
       </c>
       <c r="H276" s="20"/>
       <c r="O276" s="18"/>
     </row>
     <row r="277" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="213"/>
-      <c r="B277" s="214"/>
-      <c r="C277" s="214"/>
+      <c r="A277" s="215"/>
+      <c r="B277" s="216"/>
+      <c r="C277" s="216"/>
       <c r="D277" s="209" t="s">
         <v>171</v>
       </c>
       <c r="E277" s="209">
         <v>5</v>
       </c>
-      <c r="F277" s="214"/>
-      <c r="G277" s="214"/>
+      <c r="F277" s="216"/>
+      <c r="G277" s="216"/>
       <c r="H277" s="20"/>
       <c r="O277" s="18"/>
     </row>
@@ -11505,13 +11505,13 @@
       <c r="O278" s="18"/>
     </row>
     <row r="279" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="213">
+      <c r="A279" s="215">
         <v>45358</v>
       </c>
-      <c r="B279" s="214" t="s">
+      <c r="B279" s="216" t="s">
         <v>933</v>
       </c>
-      <c r="C279" s="214" t="s">
+      <c r="C279" s="216" t="s">
         <v>432</v>
       </c>
       <c r="D279" s="209" t="s">
@@ -11520,27 +11520,27 @@
       <c r="E279" s="209">
         <v>15</v>
       </c>
-      <c r="F279" s="214" t="s">
+      <c r="F279" s="216" t="s">
         <v>887</v>
       </c>
-      <c r="G279" s="214" t="s">
+      <c r="G279" s="216" t="s">
         <v>176</v>
       </c>
       <c r="H279" s="20"/>
       <c r="O279" s="18"/>
     </row>
     <row r="280" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="213"/>
-      <c r="B280" s="214"/>
-      <c r="C280" s="214"/>
+      <c r="A280" s="215"/>
+      <c r="B280" s="216"/>
+      <c r="C280" s="216"/>
       <c r="D280" s="209" t="s">
         <v>934</v>
       </c>
       <c r="E280" s="209">
         <v>10</v>
       </c>
-      <c r="F280" s="214"/>
-      <c r="G280" s="214"/>
+      <c r="F280" s="216"/>
+      <c r="G280" s="216"/>
       <c r="H280" s="20"/>
       <c r="O280" s="18"/>
     </row>
@@ -12032,22 +12032,266 @@
     </row>
   </sheetData>
   <mergeCells count="300">
-    <mergeCell ref="I213:I215"/>
-    <mergeCell ref="J213:J215"/>
-    <mergeCell ref="K213:K215"/>
-    <mergeCell ref="N213:N215"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="F276:F277"/>
-    <mergeCell ref="G276:G277"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="E243:E245"/>
-    <mergeCell ref="F243:F245"/>
-    <mergeCell ref="G243:G245"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="B235:B239"/>
-    <mergeCell ref="C235:C239"/>
+    <mergeCell ref="I206:I211"/>
+    <mergeCell ref="J206:J211"/>
+    <mergeCell ref="K206:K211"/>
+    <mergeCell ref="N206:N211"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="F271:F272"/>
+    <mergeCell ref="G271:G272"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="F251:F252"/>
+    <mergeCell ref="G251:G252"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="F267:F269"/>
+    <mergeCell ref="G267:G269"/>
+    <mergeCell ref="E260:E262"/>
+    <mergeCell ref="E263:E265"/>
+    <mergeCell ref="F260:F265"/>
+    <mergeCell ref="G260:G265"/>
+    <mergeCell ref="A260:A265"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="A202:A207"/>
+    <mergeCell ref="B202:B207"/>
+    <mergeCell ref="C202:C207"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="E205:E207"/>
+    <mergeCell ref="F202:F207"/>
+    <mergeCell ref="G202:G207"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="F103:F107"/>
+    <mergeCell ref="I106:I111"/>
+    <mergeCell ref="J106:J111"/>
+    <mergeCell ref="K106:K111"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="N106:N111"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="N113:N115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="I117:I119"/>
+    <mergeCell ref="J117:J119"/>
+    <mergeCell ref="K117:K119"/>
+    <mergeCell ref="N117:N119"/>
+    <mergeCell ref="K113:K115"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="G103:G107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="N92:N95"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="I18:I24"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="K18:K24"/>
+    <mergeCell ref="N18:N24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="N9:N14"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="F178:F181"/>
+    <mergeCell ref="G178:G181"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="N80:N82"/>
+    <mergeCell ref="I84:I90"/>
+    <mergeCell ref="J84:J90"/>
+    <mergeCell ref="K84:K90"/>
+    <mergeCell ref="N84:N90"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="I66:I73"/>
+    <mergeCell ref="J66:J73"/>
+    <mergeCell ref="K66:K73"/>
+    <mergeCell ref="N66:N73"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="N75:N78"/>
+    <mergeCell ref="M126:M127"/>
+    <mergeCell ref="N126:N127"/>
+    <mergeCell ref="I131:I153"/>
+    <mergeCell ref="J131:J153"/>
+    <mergeCell ref="K131:K153"/>
+    <mergeCell ref="N131:N153"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="I200:I204"/>
+    <mergeCell ref="J200:J204"/>
+    <mergeCell ref="K158:K164"/>
+    <mergeCell ref="N158:N164"/>
+    <mergeCell ref="I166:I168"/>
+    <mergeCell ref="J166:J168"/>
+    <mergeCell ref="K166:K168"/>
+    <mergeCell ref="N166:N168"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="I158:I164"/>
+    <mergeCell ref="J158:J164"/>
+    <mergeCell ref="K200:K204"/>
+    <mergeCell ref="N200:N204"/>
+    <mergeCell ref="I189:I194"/>
+    <mergeCell ref="J189:J194"/>
+    <mergeCell ref="K189:K194"/>
+    <mergeCell ref="N189:N194"/>
     <mergeCell ref="A279:A280"/>
     <mergeCell ref="B279:B280"/>
     <mergeCell ref="C279:C280"/>
@@ -12072,266 +12316,22 @@
     <mergeCell ref="C260:C265"/>
     <mergeCell ref="A243:A245"/>
     <mergeCell ref="B243:B245"/>
-    <mergeCell ref="I200:I204"/>
-    <mergeCell ref="J200:J204"/>
-    <mergeCell ref="K158:K164"/>
-    <mergeCell ref="N158:N164"/>
-    <mergeCell ref="I166:I168"/>
-    <mergeCell ref="J166:J168"/>
-    <mergeCell ref="K166:K168"/>
-    <mergeCell ref="N166:N168"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="I158:I164"/>
-    <mergeCell ref="J158:J164"/>
-    <mergeCell ref="K200:K204"/>
-    <mergeCell ref="N200:N204"/>
-    <mergeCell ref="I189:I194"/>
-    <mergeCell ref="J189:J194"/>
-    <mergeCell ref="K189:K194"/>
-    <mergeCell ref="N189:N194"/>
-    <mergeCell ref="M126:M127"/>
-    <mergeCell ref="N126:N127"/>
-    <mergeCell ref="I131:I153"/>
-    <mergeCell ref="J131:J153"/>
-    <mergeCell ref="K131:K153"/>
-    <mergeCell ref="N131:N153"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="N80:N82"/>
-    <mergeCell ref="I84:I90"/>
-    <mergeCell ref="J84:J90"/>
-    <mergeCell ref="K84:K90"/>
-    <mergeCell ref="N84:N90"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="J66:J73"/>
-    <mergeCell ref="K66:K73"/>
-    <mergeCell ref="N66:N73"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="N75:N78"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="F178:F181"/>
-    <mergeCell ref="G178:G181"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="K9:K14"/>
-    <mergeCell ref="N9:N14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="I18:I24"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="K18:K24"/>
-    <mergeCell ref="N18:N24"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="N92:N95"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="G103:G107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="N106:N111"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="N113:N115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="I117:I119"/>
-    <mergeCell ref="J117:J119"/>
-    <mergeCell ref="K117:K119"/>
-    <mergeCell ref="N117:N119"/>
-    <mergeCell ref="K113:K115"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="F103:F107"/>
-    <mergeCell ref="I106:I111"/>
-    <mergeCell ref="J106:J111"/>
-    <mergeCell ref="K106:K111"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="A202:A207"/>
-    <mergeCell ref="B202:B207"/>
-    <mergeCell ref="C202:C207"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="E205:E207"/>
-    <mergeCell ref="F202:F207"/>
-    <mergeCell ref="G202:G207"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="I206:I211"/>
-    <mergeCell ref="J206:J211"/>
-    <mergeCell ref="K206:K211"/>
-    <mergeCell ref="N206:N211"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="F271:F272"/>
-    <mergeCell ref="G271:G272"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="F251:F252"/>
-    <mergeCell ref="G251:G252"/>
-    <mergeCell ref="A267:A269"/>
-    <mergeCell ref="B267:B269"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="F267:F269"/>
-    <mergeCell ref="G267:G269"/>
-    <mergeCell ref="E260:E262"/>
-    <mergeCell ref="E263:E265"/>
-    <mergeCell ref="F260:F265"/>
-    <mergeCell ref="G260:G265"/>
-    <mergeCell ref="A260:A265"/>
+    <mergeCell ref="I213:I215"/>
+    <mergeCell ref="J213:J215"/>
+    <mergeCell ref="K213:K215"/>
+    <mergeCell ref="N213:N215"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="F276:F277"/>
+    <mergeCell ref="G276:G277"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="E243:E245"/>
+    <mergeCell ref="F243:F245"/>
+    <mergeCell ref="G243:G245"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="C235:C239"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -12343,9 +12343,9 @@
   <dimension ref="A1:H243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A54" sqref="A54"/>
-      <selection pane="bottomLeft" activeCell="C243" sqref="C241:C243"/>
+      <selection pane="bottomLeft" activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16956,133 +16956,92 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="212"/>
-      <c r="B221" s="224"/>
-      <c r="C221" s="224"/>
-      <c r="D221" s="224"/>
-      <c r="E221" s="224"/>
-      <c r="F221" s="224"/>
+      <c r="B221" s="213"/>
+      <c r="C221" s="213"/>
+      <c r="D221" s="213"/>
+      <c r="E221" s="213"/>
+      <c r="F221" s="213"/>
       <c r="G221" s="212"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="212"/>
-      <c r="B222" s="224">
-        <f>11400*2</f>
-        <v>22800</v>
-      </c>
-      <c r="C222" s="224">
-        <f>11537*2</f>
-        <v>23074</v>
-      </c>
-      <c r="D222" s="224">
-        <f>C222*2%</f>
-        <v>461.48</v>
-      </c>
-      <c r="E222" s="224"/>
-      <c r="F222" s="224"/>
+      <c r="B222" s="213"/>
+      <c r="C222" s="213"/>
+      <c r="D222" s="213"/>
+      <c r="E222" s="213"/>
+      <c r="F222" s="213"/>
       <c r="G222" s="212"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="212"/>
-      <c r="B223" s="224">
-        <f>4150*5</f>
-        <v>20750</v>
-      </c>
-      <c r="C223" s="224">
-        <f>4307*5</f>
-        <v>21535</v>
-      </c>
-      <c r="D223" s="224"/>
-      <c r="E223" s="224"/>
-      <c r="F223" s="224"/>
+      <c r="B223" s="213"/>
+      <c r="C223" s="213"/>
+      <c r="D223" s="213"/>
+      <c r="E223" s="213"/>
+      <c r="F223" s="213"/>
       <c r="G223" s="212"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="212"/>
-      <c r="B224" s="224">
-        <v>150</v>
-      </c>
-      <c r="C224" s="224">
-        <f>SUM(C222:C223)</f>
-        <v>44609</v>
-      </c>
-      <c r="D224" s="224"/>
-      <c r="E224" s="224"/>
-      <c r="F224" s="224"/>
+      <c r="B224" s="213"/>
+      <c r="C224" s="213"/>
+      <c r="D224" s="213"/>
+      <c r="E224" s="213"/>
+      <c r="F224" s="213"/>
       <c r="G224" s="212"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="212"/>
-      <c r="B225" s="224">
-        <f>SUM(B222:B224)</f>
-        <v>43700</v>
-      </c>
-      <c r="C225" s="224">
-        <f>C224*2%</f>
-        <v>892.18000000000006</v>
-      </c>
-      <c r="D225" s="224"/>
-      <c r="E225" s="224"/>
-      <c r="F225" s="224"/>
+      <c r="B225" s="213"/>
+      <c r="C225" s="213"/>
+      <c r="D225" s="213"/>
+      <c r="E225" s="213"/>
+      <c r="F225" s="213"/>
       <c r="G225" s="212"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="212"/>
-      <c r="B226" s="224">
-        <f>B225*1.5%</f>
-        <v>655.5</v>
-      </c>
-      <c r="C226" s="224">
-        <f>C224-C225</f>
-        <v>43716.82</v>
-      </c>
-      <c r="D226" s="224">
-        <f>C226-200</f>
-        <v>43516.82</v>
-      </c>
-      <c r="E226" s="224"/>
-      <c r="F226" s="224"/>
+      <c r="B226" s="213"/>
+      <c r="C226" s="213"/>
+      <c r="D226" s="213"/>
+      <c r="E226" s="213"/>
+      <c r="F226" s="213"/>
       <c r="G226" s="212"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="212"/>
-      <c r="B227" s="225">
-        <f>B225-B226</f>
-        <v>43044.5</v>
-      </c>
-      <c r="C227" s="224"/>
-      <c r="D227" s="224">
-        <f>D226-B227</f>
-        <v>472.31999999999971</v>
-      </c>
-      <c r="E227" s="224"/>
-      <c r="F227" s="224"/>
+      <c r="B227" s="214"/>
+      <c r="C227" s="213"/>
+      <c r="D227" s="213"/>
+      <c r="E227" s="213"/>
+      <c r="F227" s="213"/>
       <c r="G227" s="212"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="212"/>
-      <c r="B228" s="224"/>
-      <c r="C228" s="224"/>
-      <c r="D228" s="224"/>
-      <c r="E228" s="224"/>
-      <c r="F228" s="224"/>
+      <c r="B228" s="213"/>
+      <c r="C228" s="213"/>
+      <c r="D228" s="213"/>
+      <c r="E228" s="213"/>
+      <c r="F228" s="213"/>
       <c r="G228" s="212"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="212"/>
-      <c r="B229" s="224"/>
-      <c r="C229" s="224"/>
-      <c r="D229" s="224"/>
-      <c r="E229" s="224"/>
-      <c r="F229" s="224"/>
+      <c r="B229" s="213"/>
+      <c r="C229" s="213"/>
+      <c r="D229" s="213"/>
+      <c r="E229" s="213"/>
+      <c r="F229" s="213"/>
       <c r="G229" s="212"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="212"/>
-      <c r="B230" s="225"/>
-      <c r="C230" s="224"/>
-      <c r="D230" s="224"/>
-      <c r="E230" s="224"/>
-      <c r="F230" s="224"/>
+      <c r="B230" s="214"/>
+      <c r="C230" s="213"/>
+      <c r="D230" s="213"/>
+      <c r="E230" s="213"/>
+      <c r="F230" s="213"/>
       <c r="G230" s="212"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -17106,10 +17065,7 @@
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="212"/>
       <c r="B233" s="212"/>
-      <c r="C233" s="212">
-        <f>43712-B227</f>
-        <v>667.5</v>
-      </c>
+      <c r="C233" s="212"/>
       <c r="D233" s="212"/>
       <c r="E233" s="212"/>
       <c r="F233" s="212"/>
@@ -17339,10 +17295,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="222"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -18978,28 +18934,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="223"/>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="223"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="223"/>
-      <c r="T1" s="223"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="225"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -3818,7 +3818,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3827,13 +3833,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4177,25 +4177,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
       <c r="H1" s="32"/>
-      <c r="I1" s="219" t="s">
+      <c r="I1" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="221"/>
     </row>
     <row r="2" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -5448,13 +5448,13 @@
       <c r="O45" s="18"/>
     </row>
     <row r="46" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="220">
+      <c r="A46" s="218">
         <v>45056</v>
       </c>
-      <c r="B46" s="221" t="s">
+      <c r="B46" s="219" t="s">
         <v>255</v>
       </c>
-      <c r="C46" s="221" t="s">
+      <c r="C46" s="219" t="s">
         <v>233</v>
       </c>
       <c r="D46" s="88" t="s">
@@ -5463,10 +5463,10 @@
       <c r="E46" s="88">
         <v>1</v>
       </c>
-      <c r="F46" s="221" t="s">
+      <c r="F46" s="219" t="s">
         <v>198</v>
       </c>
-      <c r="G46" s="221" t="s">
+      <c r="G46" s="219" t="s">
         <v>159</v>
       </c>
       <c r="H46" s="52"/>
@@ -5483,17 +5483,17 @@
       <c r="O46" s="18"/>
     </row>
     <row r="47" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="220"/>
-      <c r="B47" s="221"/>
-      <c r="C47" s="221"/>
+      <c r="A47" s="218"/>
+      <c r="B47" s="219"/>
+      <c r="C47" s="219"/>
       <c r="D47" s="89" t="s">
         <v>257</v>
       </c>
       <c r="E47" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="F47" s="221"/>
-      <c r="G47" s="221"/>
+      <c r="F47" s="219"/>
+      <c r="G47" s="219"/>
       <c r="H47" s="62"/>
       <c r="I47" s="53"/>
       <c r="J47" s="21"/>
@@ -7724,7 +7724,7 @@
       <c r="L126" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="M126" s="217">
+      <c r="M126" s="222">
         <v>10</v>
       </c>
       <c r="N126" s="216" t="s">
@@ -7751,7 +7751,7 @@
       <c r="L127" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="M127" s="217"/>
+      <c r="M127" s="222"/>
       <c r="N127" s="216"/>
       <c r="O127" s="18"/>
     </row>
@@ -11373,7 +11373,7 @@
       <c r="B271" s="216" t="s">
         <v>891</v>
       </c>
-      <c r="C271" s="222" t="s">
+      <c r="C271" s="217" t="s">
         <v>163</v>
       </c>
       <c r="D271" s="206" t="s">
@@ -11394,7 +11394,7 @@
     <row r="272" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="215"/>
       <c r="B272" s="216"/>
-      <c r="C272" s="222"/>
+      <c r="C272" s="217"/>
       <c r="D272" s="206" t="s">
         <v>175</v>
       </c>
@@ -12032,6 +12032,282 @@
     </row>
   </sheetData>
   <mergeCells count="300">
+    <mergeCell ref="I213:I215"/>
+    <mergeCell ref="J213:J215"/>
+    <mergeCell ref="K213:K215"/>
+    <mergeCell ref="N213:N215"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="F276:F277"/>
+    <mergeCell ref="G276:G277"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="E243:E245"/>
+    <mergeCell ref="F243:F245"/>
+    <mergeCell ref="G243:G245"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="C235:C239"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="F279:F280"/>
+    <mergeCell ref="G279:G280"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="B209:B211"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="F223:F226"/>
+    <mergeCell ref="G223:G226"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="F230:F231"/>
+    <mergeCell ref="G230:G231"/>
+    <mergeCell ref="F235:F239"/>
+    <mergeCell ref="G235:G239"/>
+    <mergeCell ref="B260:B265"/>
+    <mergeCell ref="C260:C265"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="I200:I204"/>
+    <mergeCell ref="J200:J204"/>
+    <mergeCell ref="K158:K164"/>
+    <mergeCell ref="N158:N164"/>
+    <mergeCell ref="I166:I168"/>
+    <mergeCell ref="J166:J168"/>
+    <mergeCell ref="K166:K168"/>
+    <mergeCell ref="N166:N168"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="I158:I164"/>
+    <mergeCell ref="J158:J164"/>
+    <mergeCell ref="K200:K204"/>
+    <mergeCell ref="N200:N204"/>
+    <mergeCell ref="I189:I194"/>
+    <mergeCell ref="J189:J194"/>
+    <mergeCell ref="K189:K194"/>
+    <mergeCell ref="N189:N194"/>
+    <mergeCell ref="M126:M127"/>
+    <mergeCell ref="N126:N127"/>
+    <mergeCell ref="I131:I153"/>
+    <mergeCell ref="J131:J153"/>
+    <mergeCell ref="K131:K153"/>
+    <mergeCell ref="N131:N153"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="N80:N82"/>
+    <mergeCell ref="I84:I90"/>
+    <mergeCell ref="J84:J90"/>
+    <mergeCell ref="K84:K90"/>
+    <mergeCell ref="N84:N90"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="I66:I73"/>
+    <mergeCell ref="J66:J73"/>
+    <mergeCell ref="K66:K73"/>
+    <mergeCell ref="N66:N73"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="N75:N78"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="F178:F181"/>
+    <mergeCell ref="G178:G181"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="N9:N14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="I18:I24"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="K18:K24"/>
+    <mergeCell ref="N18:N24"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="N92:N95"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="G103:G107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="N106:N111"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="N113:N115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="I117:I119"/>
+    <mergeCell ref="J117:J119"/>
+    <mergeCell ref="K117:K119"/>
+    <mergeCell ref="N117:N119"/>
+    <mergeCell ref="K113:K115"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="F103:F107"/>
+    <mergeCell ref="I106:I111"/>
+    <mergeCell ref="J106:J111"/>
+    <mergeCell ref="K106:K111"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="A202:A207"/>
+    <mergeCell ref="B202:B207"/>
+    <mergeCell ref="C202:C207"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="E205:E207"/>
+    <mergeCell ref="F202:F207"/>
+    <mergeCell ref="G202:G207"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="A166:A167"/>
     <mergeCell ref="I206:I211"/>
     <mergeCell ref="J206:J211"/>
     <mergeCell ref="K206:K211"/>
@@ -12056,282 +12332,6 @@
     <mergeCell ref="F260:F265"/>
     <mergeCell ref="G260:G265"/>
     <mergeCell ref="A260:A265"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="A202:A207"/>
-    <mergeCell ref="B202:B207"/>
-    <mergeCell ref="C202:C207"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="E205:E207"/>
-    <mergeCell ref="F202:F207"/>
-    <mergeCell ref="G202:G207"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="F103:F107"/>
-    <mergeCell ref="I106:I111"/>
-    <mergeCell ref="J106:J111"/>
-    <mergeCell ref="K106:K111"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="N106:N111"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="N113:N115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="I117:I119"/>
-    <mergeCell ref="J117:J119"/>
-    <mergeCell ref="K117:K119"/>
-    <mergeCell ref="N117:N119"/>
-    <mergeCell ref="K113:K115"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="G103:G107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="N92:N95"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="I18:I24"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="K18:K24"/>
-    <mergeCell ref="N18:N24"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="K9:K14"/>
-    <mergeCell ref="N9:N14"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="F178:F181"/>
-    <mergeCell ref="G178:G181"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="N80:N82"/>
-    <mergeCell ref="I84:I90"/>
-    <mergeCell ref="J84:J90"/>
-    <mergeCell ref="K84:K90"/>
-    <mergeCell ref="N84:N90"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="J66:J73"/>
-    <mergeCell ref="K66:K73"/>
-    <mergeCell ref="N66:N73"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="N75:N78"/>
-    <mergeCell ref="M126:M127"/>
-    <mergeCell ref="N126:N127"/>
-    <mergeCell ref="I131:I153"/>
-    <mergeCell ref="J131:J153"/>
-    <mergeCell ref="K131:K153"/>
-    <mergeCell ref="N131:N153"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="I200:I204"/>
-    <mergeCell ref="J200:J204"/>
-    <mergeCell ref="K158:K164"/>
-    <mergeCell ref="N158:N164"/>
-    <mergeCell ref="I166:I168"/>
-    <mergeCell ref="J166:J168"/>
-    <mergeCell ref="K166:K168"/>
-    <mergeCell ref="N166:N168"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="I158:I164"/>
-    <mergeCell ref="J158:J164"/>
-    <mergeCell ref="K200:K204"/>
-    <mergeCell ref="N200:N204"/>
-    <mergeCell ref="I189:I194"/>
-    <mergeCell ref="J189:J194"/>
-    <mergeCell ref="K189:K194"/>
-    <mergeCell ref="N189:N194"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="F279:F280"/>
-    <mergeCell ref="G279:G280"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="B209:B211"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="F223:F226"/>
-    <mergeCell ref="G223:G226"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="B230:B231"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="F230:F231"/>
-    <mergeCell ref="G230:G231"/>
-    <mergeCell ref="F235:F239"/>
-    <mergeCell ref="G235:G239"/>
-    <mergeCell ref="B260:B265"/>
-    <mergeCell ref="C260:C265"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="I213:I215"/>
-    <mergeCell ref="J213:J215"/>
-    <mergeCell ref="K213:K215"/>
-    <mergeCell ref="N213:N215"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="F276:F277"/>
-    <mergeCell ref="G276:G277"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="E243:E245"/>
-    <mergeCell ref="F243:F245"/>
-    <mergeCell ref="G243:G245"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="B235:B239"/>
-    <mergeCell ref="C235:C239"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -12345,7 +12345,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A54" sqref="A54"/>
-      <selection pane="bottomLeft" activeCell="C209" sqref="C209"/>
+      <selection pane="bottomLeft" activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17423,7 +17423,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H617" sqref="H617"/>
-      <selection pane="bottomLeft" activeCell="H617" sqref="H617"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="953">
   <si>
     <t>Date</t>
   </si>
@@ -2854,6 +2854,48 @@
   </si>
   <si>
     <t>Petrol (7597)</t>
+  </si>
+  <si>
+    <t>INV-017490</t>
+  </si>
+  <si>
+    <t>Petrol (187426)</t>
+  </si>
+  <si>
+    <t>122/23-24</t>
+  </si>
+  <si>
+    <t>Midway</t>
+  </si>
+  <si>
+    <t>b23-24MQ409</t>
+  </si>
+  <si>
+    <t>Red Silicone Pipe ID 605 X 600 Long X 3mm Part number - 663094</t>
+  </si>
+  <si>
+    <t>Petrol (963818)</t>
+  </si>
+  <si>
+    <t>119/23-24</t>
+  </si>
+  <si>
+    <t>Urgent Requirement</t>
+  </si>
+  <si>
+    <t>Electrical Engineer / Network Planner</t>
+  </si>
+  <si>
+    <t>Location - Panjim Goa</t>
+  </si>
+  <si>
+    <t>Kindly contact 9403061199</t>
+  </si>
+  <si>
+    <t>Job Type: Full-time</t>
+  </si>
+  <si>
+    <t>Salary: ₹5,000.00 - ₹20,000.00 per month</t>
   </si>
 </sst>
 </file>
@@ -2864,7 +2906,7 @@
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;&quot;0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2992,6 +3034,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF595959"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3174,7 +3222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3818,6 +3866,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3844,6 +3910,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4152,8 +4221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4177,25 +4246,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
       <c r="H1" s="32"/>
-      <c r="I1" s="221" t="s">
+      <c r="I1" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="221"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="227"/>
     </row>
     <row r="2" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -4276,13 +4345,13 @@
         <v>140</v>
       </c>
       <c r="H4" s="52"/>
-      <c r="I4" s="215">
+      <c r="I4" s="221">
         <v>45020</v>
       </c>
-      <c r="J4" s="216" t="s">
+      <c r="J4" s="222" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="216" t="s">
+      <c r="K4" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L4" s="59" t="s">
@@ -4291,7 +4360,7 @@
       <c r="M4" s="59">
         <v>5</v>
       </c>
-      <c r="N4" s="216" t="s">
+      <c r="N4" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O4" s="18"/>
@@ -4305,16 +4374,16 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="54"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
       <c r="L5" s="59" t="s">
         <v>180</v>
       </c>
       <c r="M5" s="59">
         <v>5</v>
       </c>
-      <c r="N5" s="216"/>
+      <c r="N5" s="222"/>
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4340,16 +4409,16 @@
         <v>140</v>
       </c>
       <c r="H6" s="20"/>
-      <c r="I6" s="215"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
       <c r="L6" s="59" t="s">
         <v>181</v>
       </c>
       <c r="M6" s="59">
         <v>6</v>
       </c>
-      <c r="N6" s="216"/>
+      <c r="N6" s="222"/>
       <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4361,26 +4430,26 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="52"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="216"/>
-      <c r="K7" s="216"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
       <c r="L7" s="59" t="s">
         <v>182</v>
       </c>
       <c r="M7" s="59">
         <v>2</v>
       </c>
-      <c r="N7" s="216"/>
+      <c r="N7" s="222"/>
       <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="215">
+      <c r="A8" s="221">
         <v>45033</v>
       </c>
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="222" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="216" t="s">
+      <c r="C8" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="48" t="s">
@@ -4389,10 +4458,10 @@
       <c r="E8" s="48">
         <v>10</v>
       </c>
-      <c r="F8" s="216" t="s">
+      <c r="F8" s="222" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="216" t="s">
+      <c r="G8" s="222" t="s">
         <v>140</v>
       </c>
       <c r="H8" s="62"/>
@@ -4405,25 +4474,25 @@
       <c r="O8" s="63"/>
     </row>
     <row r="9" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="215"/>
-      <c r="B9" s="216"/>
-      <c r="C9" s="216"/>
+      <c r="A9" s="221"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="222"/>
       <c r="D9" s="48" t="s">
         <v>171</v>
       </c>
       <c r="E9" s="48">
         <v>20</v>
       </c>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="215">
+      <c r="I9" s="221">
         <v>45020</v>
       </c>
-      <c r="J9" s="216" t="s">
+      <c r="J9" s="222" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="216" t="s">
+      <c r="K9" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L9" s="59" t="s">
@@ -4432,59 +4501,59 @@
       <c r="M9" s="59">
         <v>10</v>
       </c>
-      <c r="N9" s="216" t="s">
+      <c r="N9" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="215"/>
-      <c r="B10" s="216"/>
-      <c r="C10" s="216"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="222"/>
       <c r="D10" s="48" t="s">
         <v>172</v>
       </c>
       <c r="E10" s="48">
         <v>5</v>
       </c>
-      <c r="F10" s="216"/>
-      <c r="G10" s="216"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="216"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="222"/>
       <c r="L10" s="59" t="s">
         <v>183</v>
       </c>
       <c r="M10" s="59">
         <v>10</v>
       </c>
-      <c r="N10" s="216"/>
+      <c r="N10" s="222"/>
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="215"/>
-      <c r="B11" s="216"/>
-      <c r="C11" s="216"/>
+      <c r="A11" s="221"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="222"/>
       <c r="D11" s="48" t="s">
         <v>174</v>
       </c>
       <c r="E11" s="48">
         <v>5</v>
       </c>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="216"/>
-      <c r="K11" s="216"/>
+      <c r="I11" s="221"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="222"/>
       <c r="L11" s="59" t="s">
         <v>184</v>
       </c>
       <c r="M11" s="59">
         <v>19</v>
       </c>
-      <c r="N11" s="216"/>
+      <c r="N11" s="222"/>
       <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4496,16 +4565,16 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="52"/>
-      <c r="I12" s="215"/>
-      <c r="J12" s="216"/>
-      <c r="K12" s="216"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="222"/>
+      <c r="K12" s="222"/>
       <c r="L12" s="59" t="s">
         <v>185</v>
       </c>
       <c r="M12" s="59">
         <v>2</v>
       </c>
-      <c r="N12" s="216"/>
+      <c r="N12" s="222"/>
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" s="48" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -4531,16 +4600,16 @@
         <v>140</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="215"/>
-      <c r="J13" s="216"/>
-      <c r="K13" s="216"/>
+      <c r="I13" s="221"/>
+      <c r="J13" s="222"/>
+      <c r="K13" s="222"/>
       <c r="L13" s="59" t="s">
         <v>186</v>
       </c>
       <c r="M13" s="59">
         <v>2</v>
       </c>
-      <c r="N13" s="216"/>
+      <c r="N13" s="222"/>
       <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4552,16 +4621,16 @@
       <c r="F14" s="55"/>
       <c r="G14" s="55"/>
       <c r="H14" s="52"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="216"/>
-      <c r="K14" s="216"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="222"/>
+      <c r="K14" s="222"/>
       <c r="L14" s="59" t="s">
         <v>187</v>
       </c>
       <c r="M14" s="59">
         <v>10</v>
       </c>
-      <c r="N14" s="216"/>
+      <c r="N14" s="222"/>
       <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4625,13 +4694,13 @@
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="215">
+      <c r="A17" s="221">
         <v>45033</v>
       </c>
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="222" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="216" t="s">
+      <c r="C17" s="222" t="s">
         <v>163</v>
       </c>
       <c r="D17" s="57" t="s">
@@ -4640,10 +4709,10 @@
       <c r="E17" s="57">
         <v>10</v>
       </c>
-      <c r="F17" s="216" t="s">
+      <c r="F17" s="222" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="216" t="s">
+      <c r="G17" s="222" t="s">
         <v>140</v>
       </c>
       <c r="H17" s="64"/>
@@ -4656,25 +4725,25 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="215"/>
-      <c r="B18" s="216"/>
-      <c r="C18" s="216"/>
+      <c r="A18" s="221"/>
+      <c r="B18" s="222"/>
+      <c r="C18" s="222"/>
       <c r="D18" s="57" t="s">
         <v>177</v>
       </c>
       <c r="E18" s="57">
         <v>100</v>
       </c>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="222"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="215">
+      <c r="I18" s="221">
         <v>45033</v>
       </c>
-      <c r="J18" s="216" t="s">
+      <c r="J18" s="222" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="216" t="s">
+      <c r="K18" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L18" s="59" t="s">
@@ -4683,7 +4752,7 @@
       <c r="M18" s="59">
         <v>10</v>
       </c>
-      <c r="N18" s="216" t="s">
+      <c r="N18" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O18" s="18"/>
@@ -4697,16 +4766,16 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="52"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="216"/>
-      <c r="K19" s="216"/>
+      <c r="I19" s="221"/>
+      <c r="J19" s="222"/>
+      <c r="K19" s="222"/>
       <c r="L19" s="59" t="s">
         <v>179</v>
       </c>
       <c r="M19" s="59">
         <v>15</v>
       </c>
-      <c r="N19" s="216"/>
+      <c r="N19" s="222"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" s="48" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4732,16 +4801,16 @@
         <v>159</v>
       </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="215"/>
-      <c r="J20" s="216"/>
-      <c r="K20" s="216"/>
+      <c r="I20" s="221"/>
+      <c r="J20" s="222"/>
+      <c r="K20" s="222"/>
       <c r="L20" s="59" t="s">
         <v>181</v>
       </c>
       <c r="M20" s="59">
         <v>9</v>
       </c>
-      <c r="N20" s="216"/>
+      <c r="N20" s="222"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4753,16 +4822,16 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="52"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="216"/>
-      <c r="K21" s="216"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="222"/>
+      <c r="K21" s="222"/>
       <c r="L21" s="59" t="s">
         <v>187</v>
       </c>
       <c r="M21" s="59">
         <v>5</v>
       </c>
-      <c r="N21" s="216"/>
+      <c r="N21" s="222"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4788,16 +4857,16 @@
         <v>159</v>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="215"/>
-      <c r="J22" s="216"/>
-      <c r="K22" s="216"/>
+      <c r="I22" s="221"/>
+      <c r="J22" s="222"/>
+      <c r="K22" s="222"/>
       <c r="L22" s="59" t="s">
         <v>183</v>
       </c>
       <c r="M22" s="59">
         <v>20</v>
       </c>
-      <c r="N22" s="216"/>
+      <c r="N22" s="222"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4809,26 +4878,26 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="52"/>
-      <c r="I23" s="215"/>
-      <c r="J23" s="216"/>
-      <c r="K23" s="216"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="222"/>
+      <c r="K23" s="222"/>
       <c r="L23" s="59" t="s">
         <v>188</v>
       </c>
       <c r="M23" s="59">
         <v>30.5</v>
       </c>
-      <c r="N23" s="216"/>
+      <c r="N23" s="222"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="215">
+      <c r="A24" s="221">
         <v>45042</v>
       </c>
-      <c r="B24" s="216" t="s">
+      <c r="B24" s="222" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="216" t="s">
+      <c r="C24" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="71" t="s">
@@ -4837,37 +4906,37 @@
       <c r="E24" s="71">
         <v>15</v>
       </c>
-      <c r="F24" s="216" t="s">
+      <c r="F24" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="216" t="s">
+      <c r="G24" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H24" s="20"/>
-      <c r="I24" s="215"/>
-      <c r="J24" s="216"/>
-      <c r="K24" s="216"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="222"/>
+      <c r="K24" s="222"/>
       <c r="L24" s="59" t="s">
         <v>189</v>
       </c>
       <c r="M24" s="59">
         <v>10</v>
       </c>
-      <c r="N24" s="216"/>
+      <c r="N24" s="222"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="215"/>
-      <c r="B25" s="216"/>
-      <c r="C25" s="216"/>
+      <c r="A25" s="221"/>
+      <c r="B25" s="222"/>
+      <c r="C25" s="222"/>
       <c r="D25" s="71" t="s">
         <v>172</v>
       </c>
       <c r="E25" s="71">
         <v>17</v>
       </c>
-      <c r="F25" s="216"/>
-      <c r="G25" s="216"/>
+      <c r="F25" s="222"/>
+      <c r="G25" s="222"/>
       <c r="H25" s="62"/>
       <c r="I25" s="53"/>
       <c r="J25" s="21"/>
@@ -4886,13 +4955,13 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="52"/>
-      <c r="I26" s="215">
+      <c r="I26" s="221">
         <v>45033</v>
       </c>
-      <c r="J26" s="216" t="s">
+      <c r="J26" s="222" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="216" t="s">
+      <c r="K26" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L26" s="59" t="s">
@@ -4901,7 +4970,7 @@
       <c r="M26" s="59">
         <v>40</v>
       </c>
-      <c r="N26" s="216" t="s">
+      <c r="N26" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O26" s="18"/>
@@ -4929,16 +4998,16 @@
         <v>159</v>
       </c>
       <c r="H27" s="20"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="216"/>
-      <c r="K27" s="216"/>
+      <c r="I27" s="221"/>
+      <c r="J27" s="222"/>
+      <c r="K27" s="222"/>
       <c r="L27" s="59" t="s">
         <v>191</v>
       </c>
       <c r="M27" s="59">
         <v>100</v>
       </c>
-      <c r="N27" s="216"/>
+      <c r="N27" s="222"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -4981,13 +5050,13 @@
         <v>159</v>
       </c>
       <c r="H29" s="20"/>
-      <c r="I29" s="215">
+      <c r="I29" s="221">
         <v>45038</v>
       </c>
-      <c r="J29" s="216" t="s">
+      <c r="J29" s="222" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="216" t="s">
+      <c r="K29" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L29" s="79" t="s">
@@ -4996,7 +5065,7 @@
       <c r="M29" s="79">
         <v>12</v>
       </c>
-      <c r="N29" s="216" t="s">
+      <c r="N29" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O29" s="18"/>
@@ -5010,26 +5079,26 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="52"/>
-      <c r="I30" s="215"/>
-      <c r="J30" s="216"/>
-      <c r="K30" s="216"/>
+      <c r="I30" s="221"/>
+      <c r="J30" s="222"/>
+      <c r="K30" s="222"/>
       <c r="L30" s="79" t="s">
         <v>216</v>
       </c>
       <c r="M30" s="79">
         <v>10</v>
       </c>
-      <c r="N30" s="216"/>
+      <c r="N30" s="222"/>
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="215">
+      <c r="A31" s="221">
         <v>45049</v>
       </c>
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="222" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="216" t="s">
+      <c r="C31" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D31" s="77" t="s">
@@ -5038,10 +5107,10 @@
       <c r="E31" s="77">
         <v>20</v>
       </c>
-      <c r="F31" s="216" t="s">
+      <c r="F31" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="G31" s="216" t="s">
+      <c r="G31" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H31" s="62"/>
@@ -5054,25 +5123,25 @@
       <c r="O31" s="63"/>
     </row>
     <row r="32" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="215"/>
-      <c r="B32" s="216"/>
-      <c r="C32" s="216"/>
+      <c r="A32" s="221"/>
+      <c r="B32" s="222"/>
+      <c r="C32" s="222"/>
       <c r="D32" s="77" t="s">
         <v>205</v>
       </c>
       <c r="E32" s="77">
         <v>5</v>
       </c>
-      <c r="F32" s="216"/>
-      <c r="G32" s="216"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="222"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="215">
+      <c r="I32" s="221">
         <v>45043</v>
       </c>
-      <c r="J32" s="216" t="s">
+      <c r="J32" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="K32" s="216" t="s">
+      <c r="K32" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L32" s="79" t="s">
@@ -5081,34 +5150,34 @@
       <c r="M32" s="79">
         <v>17</v>
       </c>
-      <c r="N32" s="216" t="s">
+      <c r="N32" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="215"/>
-      <c r="B33" s="216"/>
-      <c r="C33" s="216"/>
+      <c r="A33" s="221"/>
+      <c r="B33" s="222"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="77" t="s">
         <v>174</v>
       </c>
       <c r="E33" s="77">
         <v>4</v>
       </c>
-      <c r="F33" s="216"/>
-      <c r="G33" s="216"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="222"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="216"/>
-      <c r="K33" s="216"/>
+      <c r="I33" s="221"/>
+      <c r="J33" s="222"/>
+      <c r="K33" s="222"/>
       <c r="L33" s="79" t="s">
         <v>185</v>
       </c>
       <c r="M33" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="N33" s="216"/>
+      <c r="N33" s="222"/>
       <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5151,13 +5220,13 @@
         <v>159</v>
       </c>
       <c r="H35" s="20"/>
-      <c r="I35" s="215">
+      <c r="I35" s="221">
         <v>45051</v>
       </c>
-      <c r="J35" s="216" t="s">
+      <c r="J35" s="222" t="s">
         <v>219</v>
       </c>
-      <c r="K35" s="216" t="s">
+      <c r="K35" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L35" s="80" t="s">
@@ -5166,7 +5235,7 @@
       <c r="M35" s="80">
         <v>20</v>
       </c>
-      <c r="N35" s="216" t="s">
+      <c r="N35" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O35" s="18"/>
@@ -5180,26 +5249,26 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="52"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="216"/>
-      <c r="K36" s="216"/>
+      <c r="I36" s="221"/>
+      <c r="J36" s="222"/>
+      <c r="K36" s="222"/>
       <c r="L36" s="80" t="s">
         <v>187</v>
       </c>
       <c r="M36" s="80">
         <v>3</v>
       </c>
-      <c r="N36" s="216"/>
+      <c r="N36" s="222"/>
       <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="215">
+      <c r="A37" s="221">
         <v>45051</v>
       </c>
-      <c r="B37" s="216" t="s">
+      <c r="B37" s="222" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="216" t="s">
+      <c r="C37" s="222" t="s">
         <v>226</v>
       </c>
       <c r="D37" s="84" t="s">
@@ -5208,37 +5277,37 @@
       <c r="E37" s="84">
         <v>33</v>
       </c>
-      <c r="F37" s="216" t="s">
+      <c r="F37" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="G37" s="216" t="s">
+      <c r="G37" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H37" s="20"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="216"/>
-      <c r="K37" s="216"/>
+      <c r="I37" s="221"/>
+      <c r="J37" s="222"/>
+      <c r="K37" s="222"/>
       <c r="L37" s="80" t="s">
         <v>190</v>
       </c>
       <c r="M37" s="80">
         <v>30</v>
       </c>
-      <c r="N37" s="216"/>
+      <c r="N37" s="222"/>
       <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="215"/>
-      <c r="B38" s="216"/>
-      <c r="C38" s="216"/>
+      <c r="A38" s="221"/>
+      <c r="B38" s="222"/>
+      <c r="C38" s="222"/>
       <c r="D38" s="84" t="s">
         <v>251</v>
       </c>
       <c r="E38" s="84">
         <v>1</v>
       </c>
-      <c r="F38" s="216"/>
-      <c r="G38" s="216"/>
+      <c r="F38" s="222"/>
+      <c r="G38" s="222"/>
       <c r="H38" s="62"/>
       <c r="I38" s="53"/>
       <c r="J38" s="21"/>
@@ -5249,25 +5318,25 @@
       <c r="O38" s="63"/>
     </row>
     <row r="39" spans="1:15" s="48" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="215"/>
-      <c r="B39" s="216"/>
-      <c r="C39" s="216"/>
+      <c r="A39" s="221"/>
+      <c r="B39" s="222"/>
+      <c r="C39" s="222"/>
       <c r="D39" s="84" t="s">
         <v>252</v>
       </c>
       <c r="E39" s="84">
         <v>1</v>
       </c>
-      <c r="F39" s="216"/>
-      <c r="G39" s="216"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="222"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="215">
+      <c r="I39" s="221">
         <v>45051</v>
       </c>
-      <c r="J39" s="216" t="s">
+      <c r="J39" s="222" t="s">
         <v>220</v>
       </c>
-      <c r="K39" s="216" t="s">
+      <c r="K39" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L39" s="80" t="s">
@@ -5276,34 +5345,34 @@
       <c r="M39" s="80">
         <v>15</v>
       </c>
-      <c r="N39" s="216" t="s">
+      <c r="N39" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="215"/>
-      <c r="B40" s="216"/>
-      <c r="C40" s="216"/>
+      <c r="A40" s="221"/>
+      <c r="B40" s="222"/>
+      <c r="C40" s="222"/>
       <c r="D40" s="84" t="s">
         <v>253</v>
       </c>
       <c r="E40" s="84">
         <v>1</v>
       </c>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="222"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="216"/>
-      <c r="K40" s="216"/>
+      <c r="I40" s="221"/>
+      <c r="J40" s="222"/>
+      <c r="K40" s="222"/>
       <c r="L40" s="80" t="s">
         <v>185</v>
       </c>
       <c r="M40" s="80">
         <v>5</v>
       </c>
-      <c r="N40" s="216"/>
+      <c r="N40" s="222"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5315,16 +5384,16 @@
       <c r="F41" s="65"/>
       <c r="G41" s="65"/>
       <c r="H41" s="52"/>
-      <c r="I41" s="215"/>
-      <c r="J41" s="216"/>
-      <c r="K41" s="216"/>
+      <c r="I41" s="221"/>
+      <c r="J41" s="222"/>
+      <c r="K41" s="222"/>
       <c r="L41" s="80" t="s">
         <v>222</v>
       </c>
       <c r="M41" s="80">
         <v>2</v>
       </c>
-      <c r="N41" s="216"/>
+      <c r="N41" s="222"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5427,13 +5496,13 @@
       <c r="F45" s="90"/>
       <c r="G45" s="90"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="215">
+      <c r="I45" s="221">
         <v>45058</v>
       </c>
-      <c r="J45" s="216" t="s">
+      <c r="J45" s="222" t="s">
         <v>244</v>
       </c>
-      <c r="K45" s="216" t="s">
+      <c r="K45" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L45" s="97" t="s">
@@ -5442,19 +5511,19 @@
       <c r="M45" s="97">
         <v>1</v>
       </c>
-      <c r="N45" s="216" t="s">
+      <c r="N45" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O45" s="18"/>
     </row>
     <row r="46" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="218">
+      <c r="A46" s="224">
         <v>45056</v>
       </c>
-      <c r="B46" s="219" t="s">
+      <c r="B46" s="225" t="s">
         <v>255</v>
       </c>
-      <c r="C46" s="219" t="s">
+      <c r="C46" s="225" t="s">
         <v>233</v>
       </c>
       <c r="D46" s="88" t="s">
@@ -5463,37 +5532,37 @@
       <c r="E46" s="88">
         <v>1</v>
       </c>
-      <c r="F46" s="219" t="s">
+      <c r="F46" s="225" t="s">
         <v>198</v>
       </c>
-      <c r="G46" s="219" t="s">
+      <c r="G46" s="225" t="s">
         <v>159</v>
       </c>
       <c r="H46" s="52"/>
-      <c r="I46" s="215"/>
-      <c r="J46" s="216"/>
-      <c r="K46" s="216"/>
+      <c r="I46" s="221"/>
+      <c r="J46" s="222"/>
+      <c r="K46" s="222"/>
       <c r="L46" s="97" t="s">
         <v>269</v>
       </c>
       <c r="M46" s="97">
         <v>4</v>
       </c>
-      <c r="N46" s="216"/>
+      <c r="N46" s="222"/>
       <c r="O46" s="18"/>
     </row>
     <row r="47" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="218"/>
-      <c r="B47" s="219"/>
-      <c r="C47" s="219"/>
+      <c r="A47" s="224"/>
+      <c r="B47" s="225"/>
+      <c r="C47" s="225"/>
       <c r="D47" s="89" t="s">
         <v>257</v>
       </c>
       <c r="E47" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="F47" s="219"/>
-      <c r="G47" s="219"/>
+      <c r="F47" s="225"/>
+      <c r="G47" s="225"/>
       <c r="H47" s="62"/>
       <c r="I47" s="53"/>
       <c r="J47" s="21"/>
@@ -5572,13 +5641,13 @@
       <c r="F50" s="95"/>
       <c r="G50" s="95"/>
       <c r="H50" s="52"/>
-      <c r="I50" s="215">
+      <c r="I50" s="221">
         <v>45063</v>
       </c>
-      <c r="J50" s="216" t="s">
+      <c r="J50" s="222" t="s">
         <v>267</v>
       </c>
-      <c r="K50" s="216" t="s">
+      <c r="K50" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L50" s="97" t="s">
@@ -5587,7 +5656,7 @@
       <c r="M50" s="97">
         <v>8</v>
       </c>
-      <c r="N50" s="216" t="s">
+      <c r="N50" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O50" s="18"/>
@@ -5615,16 +5684,16 @@
         <v>159</v>
       </c>
       <c r="H51" s="20"/>
-      <c r="I51" s="215"/>
-      <c r="J51" s="216"/>
-      <c r="K51" s="216"/>
+      <c r="I51" s="221"/>
+      <c r="J51" s="222"/>
+      <c r="K51" s="222"/>
       <c r="L51" s="97" t="s">
         <v>183</v>
       </c>
       <c r="M51" s="97">
         <v>7</v>
       </c>
-      <c r="N51" s="216"/>
+      <c r="N51" s="222"/>
       <c r="O51" s="18"/>
     </row>
     <row r="52" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5636,16 +5705,16 @@
       <c r="F52" s="90"/>
       <c r="G52" s="90"/>
       <c r="H52" s="52"/>
-      <c r="I52" s="215"/>
-      <c r="J52" s="216"/>
-      <c r="K52" s="216"/>
+      <c r="I52" s="221"/>
+      <c r="J52" s="222"/>
+      <c r="K52" s="222"/>
       <c r="L52" s="97" t="s">
         <v>185</v>
       </c>
       <c r="M52" s="97">
         <v>5</v>
       </c>
-      <c r="N52" s="216"/>
+      <c r="N52" s="222"/>
       <c r="O52" s="18"/>
     </row>
     <row r="53" spans="1:15" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5671,16 +5740,16 @@
         <v>159</v>
       </c>
       <c r="H53" s="20"/>
-      <c r="I53" s="215"/>
-      <c r="J53" s="216"/>
-      <c r="K53" s="216"/>
+      <c r="I53" s="221"/>
+      <c r="J53" s="222"/>
+      <c r="K53" s="222"/>
       <c r="L53" s="97" t="s">
         <v>270</v>
       </c>
       <c r="M53" s="97">
         <v>25</v>
       </c>
-      <c r="N53" s="216"/>
+      <c r="N53" s="222"/>
       <c r="O53" s="18"/>
     </row>
     <row r="54" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5761,13 +5830,13 @@
       <c r="O56" s="63"/>
     </row>
     <row r="57" spans="1:15" s="48" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="215">
+      <c r="A57" s="221">
         <v>45061</v>
       </c>
-      <c r="B57" s="216" t="s">
+      <c r="B57" s="222" t="s">
         <v>263</v>
       </c>
-      <c r="C57" s="216" t="s">
+      <c r="C57" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D57" s="86" t="s">
@@ -5776,20 +5845,20 @@
       <c r="E57" s="86">
         <v>4</v>
       </c>
-      <c r="F57" s="216" t="s">
+      <c r="F57" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="G57" s="216" t="s">
+      <c r="G57" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="215">
+      <c r="I57" s="221">
         <v>45070</v>
       </c>
-      <c r="J57" s="216" t="s">
+      <c r="J57" s="222" t="s">
         <v>278</v>
       </c>
-      <c r="K57" s="216" t="s">
+      <c r="K57" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L57" s="99" t="s">
@@ -5798,48 +5867,48 @@
       <c r="M57" s="98">
         <v>14</v>
       </c>
-      <c r="N57" s="216" t="s">
+      <c r="N57" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O57" s="18"/>
     </row>
     <row r="58" spans="1:15" s="48" customFormat="1" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="215"/>
-      <c r="B58" s="216"/>
-      <c r="C58" s="216"/>
+      <c r="A58" s="221"/>
+      <c r="B58" s="222"/>
+      <c r="C58" s="222"/>
       <c r="D58" s="86" t="s">
         <v>171</v>
       </c>
       <c r="E58" s="86">
         <v>7</v>
       </c>
-      <c r="F58" s="216"/>
-      <c r="G58" s="216"/>
+      <c r="F58" s="222"/>
+      <c r="G58" s="222"/>
       <c r="H58" s="20"/>
-      <c r="I58" s="215"/>
-      <c r="J58" s="216"/>
-      <c r="K58" s="216"/>
+      <c r="I58" s="221"/>
+      <c r="J58" s="222"/>
+      <c r="K58" s="222"/>
       <c r="L58" s="99" t="s">
         <v>281</v>
       </c>
       <c r="M58" s="98">
         <v>10</v>
       </c>
-      <c r="N58" s="216"/>
+      <c r="N58" s="222"/>
       <c r="O58" s="18"/>
     </row>
     <row r="59" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="215"/>
-      <c r="B59" s="216"/>
-      <c r="C59" s="216"/>
+      <c r="A59" s="221"/>
+      <c r="B59" s="222"/>
+      <c r="C59" s="222"/>
       <c r="D59" s="86" t="s">
         <v>205</v>
       </c>
       <c r="E59" s="86">
         <v>5</v>
       </c>
-      <c r="F59" s="216"/>
-      <c r="G59" s="216"/>
+      <c r="F59" s="222"/>
+      <c r="G59" s="222"/>
       <c r="H59" s="62"/>
       <c r="I59" s="53"/>
       <c r="J59" s="21"/>
@@ -5858,13 +5927,13 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
       <c r="H60" s="52"/>
-      <c r="I60" s="215">
+      <c r="I60" s="221">
         <v>45070</v>
       </c>
-      <c r="J60" s="216" t="s">
+      <c r="J60" s="222" t="s">
         <v>279</v>
       </c>
-      <c r="K60" s="216" t="s">
+      <c r="K60" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L60" s="99" t="s">
@@ -5873,7 +5942,7 @@
       <c r="M60" s="98">
         <v>3</v>
       </c>
-      <c r="N60" s="216" t="s">
+      <c r="N60" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O60" s="18"/>
@@ -5901,16 +5970,16 @@
         <v>159</v>
       </c>
       <c r="H61" s="20"/>
-      <c r="I61" s="215"/>
-      <c r="J61" s="216"/>
-      <c r="K61" s="216"/>
+      <c r="I61" s="221"/>
+      <c r="J61" s="222"/>
+      <c r="K61" s="222"/>
       <c r="L61" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M61" s="98">
         <v>2</v>
       </c>
-      <c r="N61" s="216"/>
+      <c r="N61" s="222"/>
       <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -5922,26 +5991,26 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="52"/>
-      <c r="I62" s="215"/>
-      <c r="J62" s="216"/>
-      <c r="K62" s="216"/>
+      <c r="I62" s="221"/>
+      <c r="J62" s="222"/>
+      <c r="K62" s="222"/>
       <c r="L62" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M62" s="98">
         <v>7</v>
       </c>
-      <c r="N62" s="216"/>
+      <c r="N62" s="222"/>
       <c r="O62" s="18"/>
     </row>
     <row r="63" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="215">
+      <c r="A63" s="221">
         <v>45065</v>
       </c>
-      <c r="B63" s="216" t="s">
+      <c r="B63" s="222" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="216" t="s">
+      <c r="C63" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D63" s="102" t="s">
@@ -5950,62 +6019,62 @@
       <c r="E63" s="102">
         <v>6</v>
       </c>
-      <c r="F63" s="216" t="s">
+      <c r="F63" s="222" t="s">
         <v>228</v>
       </c>
-      <c r="G63" s="216" t="s">
+      <c r="G63" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H63" s="52"/>
-      <c r="I63" s="215"/>
-      <c r="J63" s="216"/>
-      <c r="K63" s="216"/>
+      <c r="I63" s="221"/>
+      <c r="J63" s="222"/>
+      <c r="K63" s="222"/>
       <c r="L63" s="99" t="s">
         <v>283</v>
       </c>
       <c r="M63" s="98">
         <v>10</v>
       </c>
-      <c r="N63" s="216"/>
+      <c r="N63" s="222"/>
       <c r="O63" s="18"/>
     </row>
     <row r="64" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="215"/>
-      <c r="B64" s="216"/>
-      <c r="C64" s="216"/>
+      <c r="A64" s="221"/>
+      <c r="B64" s="222"/>
+      <c r="C64" s="222"/>
       <c r="D64" s="102" t="s">
         <v>171</v>
       </c>
       <c r="E64" s="102">
         <v>8</v>
       </c>
-      <c r="F64" s="216"/>
-      <c r="G64" s="216"/>
+      <c r="F64" s="222"/>
+      <c r="G64" s="222"/>
       <c r="H64" s="52"/>
-      <c r="I64" s="215"/>
-      <c r="J64" s="216"/>
-      <c r="K64" s="216"/>
+      <c r="I64" s="221"/>
+      <c r="J64" s="222"/>
+      <c r="K64" s="222"/>
       <c r="L64" s="100" t="s">
         <v>284</v>
       </c>
       <c r="M64" s="98">
         <v>3</v>
       </c>
-      <c r="N64" s="216"/>
+      <c r="N64" s="222"/>
       <c r="O64" s="18"/>
     </row>
     <row r="65" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="215"/>
-      <c r="B65" s="216"/>
-      <c r="C65" s="216"/>
+      <c r="A65" s="221"/>
+      <c r="B65" s="222"/>
+      <c r="C65" s="222"/>
       <c r="D65" s="102" t="s">
         <v>290</v>
       </c>
       <c r="E65" s="102">
         <v>10</v>
       </c>
-      <c r="F65" s="216"/>
-      <c r="G65" s="216"/>
+      <c r="F65" s="222"/>
+      <c r="G65" s="222"/>
       <c r="H65" s="64"/>
       <c r="I65" s="53"/>
       <c r="J65" s="21"/>
@@ -6016,25 +6085,25 @@
       <c r="O65" s="63"/>
     </row>
     <row r="66" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="215"/>
-      <c r="B66" s="216"/>
-      <c r="C66" s="216"/>
+      <c r="A66" s="221"/>
+      <c r="B66" s="222"/>
+      <c r="C66" s="222"/>
       <c r="D66" s="102" t="s">
         <v>291</v>
       </c>
       <c r="E66" s="102">
         <v>3</v>
       </c>
-      <c r="F66" s="216"/>
-      <c r="G66" s="216"/>
+      <c r="F66" s="222"/>
+      <c r="G66" s="222"/>
       <c r="H66" s="52"/>
-      <c r="I66" s="215">
+      <c r="I66" s="221">
         <v>45080</v>
       </c>
-      <c r="J66" s="216" t="s">
+      <c r="J66" s="222" t="s">
         <v>313</v>
       </c>
-      <c r="K66" s="216" t="s">
+      <c r="K66" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L66" s="116" t="s">
@@ -6043,7 +6112,7 @@
       <c r="M66" s="116">
         <v>50</v>
       </c>
-      <c r="N66" s="216" t="s">
+      <c r="N66" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O66" s="18"/>
@@ -6057,16 +6126,16 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
       <c r="H67" s="52"/>
-      <c r="I67" s="215"/>
-      <c r="J67" s="216"/>
-      <c r="K67" s="216"/>
+      <c r="I67" s="221"/>
+      <c r="J67" s="222"/>
+      <c r="K67" s="222"/>
       <c r="L67" s="116" t="s">
         <v>222</v>
       </c>
       <c r="M67" s="116">
         <v>54</v>
       </c>
-      <c r="N67" s="216"/>
+      <c r="N67" s="222"/>
       <c r="O67" s="18"/>
     </row>
     <row r="68" spans="1:15" s="48" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
@@ -6092,16 +6161,16 @@
         <v>159</v>
       </c>
       <c r="H68" s="20"/>
-      <c r="I68" s="215"/>
-      <c r="J68" s="216"/>
-      <c r="K68" s="216"/>
+      <c r="I68" s="221"/>
+      <c r="J68" s="222"/>
+      <c r="K68" s="222"/>
       <c r="L68" s="116" t="s">
         <v>191</v>
       </c>
       <c r="M68" s="116">
         <v>70</v>
       </c>
-      <c r="N68" s="216"/>
+      <c r="N68" s="222"/>
       <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6113,16 +6182,16 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
       <c r="H69" s="20"/>
-      <c r="I69" s="215"/>
-      <c r="J69" s="216"/>
-      <c r="K69" s="216"/>
+      <c r="I69" s="221"/>
+      <c r="J69" s="222"/>
+      <c r="K69" s="222"/>
       <c r="L69" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M69" s="116">
         <v>19</v>
       </c>
-      <c r="N69" s="216"/>
+      <c r="N69" s="222"/>
       <c r="O69" s="18"/>
     </row>
     <row r="70" spans="1:15" s="48" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6148,16 +6217,16 @@
         <v>159</v>
       </c>
       <c r="H70" s="20"/>
-      <c r="I70" s="215"/>
-      <c r="J70" s="216"/>
-      <c r="K70" s="216"/>
+      <c r="I70" s="221"/>
+      <c r="J70" s="222"/>
+      <c r="K70" s="222"/>
       <c r="L70" s="116" t="s">
         <v>344</v>
       </c>
       <c r="M70" s="116">
         <v>10</v>
       </c>
-      <c r="N70" s="216"/>
+      <c r="N70" s="222"/>
       <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6169,16 +6238,16 @@
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
       <c r="H71" s="20"/>
-      <c r="I71" s="215"/>
-      <c r="J71" s="216"/>
-      <c r="K71" s="216"/>
+      <c r="I71" s="221"/>
+      <c r="J71" s="222"/>
+      <c r="K71" s="222"/>
       <c r="L71" s="116" t="s">
         <v>187</v>
       </c>
       <c r="M71" s="116">
         <v>13</v>
       </c>
-      <c r="N71" s="216"/>
+      <c r="N71" s="222"/>
       <c r="O71" s="18"/>
     </row>
     <row r="72" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6204,16 +6273,16 @@
         <v>159</v>
       </c>
       <c r="H72" s="20"/>
-      <c r="I72" s="215"/>
-      <c r="J72" s="216"/>
-      <c r="K72" s="216"/>
+      <c r="I72" s="221"/>
+      <c r="J72" s="222"/>
+      <c r="K72" s="222"/>
       <c r="L72" s="116" t="s">
         <v>184</v>
       </c>
       <c r="M72" s="116">
         <v>10</v>
       </c>
-      <c r="N72" s="216"/>
+      <c r="N72" s="222"/>
       <c r="O72" s="18"/>
     </row>
     <row r="73" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6225,16 +6294,16 @@
       <c r="F73" s="65"/>
       <c r="G73" s="65"/>
       <c r="H73" s="52"/>
-      <c r="I73" s="215"/>
-      <c r="J73" s="216"/>
-      <c r="K73" s="216"/>
+      <c r="I73" s="221"/>
+      <c r="J73" s="222"/>
+      <c r="K73" s="222"/>
       <c r="L73" s="116" t="s">
         <v>190</v>
       </c>
       <c r="M73" s="116">
         <v>50</v>
       </c>
-      <c r="N73" s="216"/>
+      <c r="N73" s="222"/>
       <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6277,13 +6346,13 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
       <c r="H75" s="52"/>
-      <c r="I75" s="215">
+      <c r="I75" s="221">
         <v>45080</v>
       </c>
-      <c r="J75" s="216" t="s">
+      <c r="J75" s="222" t="s">
         <v>314</v>
       </c>
-      <c r="K75" s="216" t="s">
+      <c r="K75" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L75" s="116" t="s">
@@ -6292,7 +6361,7 @@
       <c r="M75" s="116">
         <v>7</v>
       </c>
-      <c r="N75" s="216" t="s">
+      <c r="N75" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O75" s="18"/>
@@ -6320,16 +6389,16 @@
         <v>159</v>
       </c>
       <c r="H76" s="20"/>
-      <c r="I76" s="215"/>
-      <c r="J76" s="216"/>
-      <c r="K76" s="216"/>
+      <c r="I76" s="221"/>
+      <c r="J76" s="222"/>
+      <c r="K76" s="222"/>
       <c r="L76" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M76" s="116">
         <v>4</v>
       </c>
-      <c r="N76" s="216"/>
+      <c r="N76" s="222"/>
       <c r="O76" s="18"/>
     </row>
     <row r="77" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6341,16 +6410,16 @@
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
       <c r="H77" s="52"/>
-      <c r="I77" s="215"/>
-      <c r="J77" s="216"/>
-      <c r="K77" s="216"/>
+      <c r="I77" s="221"/>
+      <c r="J77" s="222"/>
+      <c r="K77" s="222"/>
       <c r="L77" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M77" s="116">
         <v>1</v>
       </c>
-      <c r="N77" s="216"/>
+      <c r="N77" s="222"/>
       <c r="O77" s="18"/>
     </row>
     <row r="78" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6376,16 +6445,16 @@
         <v>159</v>
       </c>
       <c r="H78" s="20"/>
-      <c r="I78" s="215"/>
-      <c r="J78" s="216"/>
-      <c r="K78" s="216"/>
+      <c r="I78" s="221"/>
+      <c r="J78" s="222"/>
+      <c r="K78" s="222"/>
       <c r="L78" s="116" t="s">
         <v>182</v>
       </c>
       <c r="M78" s="116">
         <v>1</v>
       </c>
-      <c r="N78" s="216"/>
+      <c r="N78" s="222"/>
       <c r="O78" s="18"/>
     </row>
     <row r="79" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6406,13 +6475,13 @@
       <c r="O79" s="63"/>
     </row>
     <row r="80" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="215">
+      <c r="A80" s="221">
         <v>45078</v>
       </c>
-      <c r="B80" s="216" t="s">
+      <c r="B80" s="222" t="s">
         <v>301</v>
       </c>
-      <c r="C80" s="216" t="s">
+      <c r="C80" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D80" s="105" t="s">
@@ -6421,20 +6490,20 @@
       <c r="E80" s="105">
         <v>10</v>
       </c>
-      <c r="F80" s="216" t="s">
+      <c r="F80" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="G80" s="216" t="s">
+      <c r="G80" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H80" s="20"/>
-      <c r="I80" s="215">
+      <c r="I80" s="221">
         <v>45090</v>
       </c>
-      <c r="J80" s="216" t="s">
+      <c r="J80" s="222" t="s">
         <v>341</v>
       </c>
-      <c r="K80" s="216" t="s">
+      <c r="K80" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L80" s="116" t="s">
@@ -6443,73 +6512,73 @@
       <c r="M80" s="116">
         <v>17</v>
       </c>
-      <c r="N80" s="216" t="s">
+      <c r="N80" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O80" s="18"/>
     </row>
     <row r="81" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="215"/>
-      <c r="B81" s="216"/>
-      <c r="C81" s="216"/>
+      <c r="A81" s="221"/>
+      <c r="B81" s="222"/>
+      <c r="C81" s="222"/>
       <c r="D81" s="105" t="s">
         <v>171</v>
       </c>
       <c r="E81" s="105">
         <v>19</v>
       </c>
-      <c r="F81" s="216"/>
-      <c r="G81" s="216"/>
+      <c r="F81" s="222"/>
+      <c r="G81" s="222"/>
       <c r="H81" s="20"/>
-      <c r="I81" s="215"/>
-      <c r="J81" s="216"/>
-      <c r="K81" s="216"/>
+      <c r="I81" s="221"/>
+      <c r="J81" s="222"/>
+      <c r="K81" s="222"/>
       <c r="L81" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M81" s="116">
         <v>35</v>
       </c>
-      <c r="N81" s="216"/>
+      <c r="N81" s="222"/>
       <c r="O81" s="18"/>
     </row>
     <row r="82" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="215"/>
-      <c r="B82" s="216"/>
-      <c r="C82" s="216"/>
+      <c r="A82" s="221"/>
+      <c r="B82" s="222"/>
+      <c r="C82" s="222"/>
       <c r="D82" s="105" t="s">
         <v>170</v>
       </c>
       <c r="E82" s="105">
         <v>10</v>
       </c>
-      <c r="F82" s="216"/>
-      <c r="G82" s="216"/>
+      <c r="F82" s="222"/>
+      <c r="G82" s="222"/>
       <c r="H82" s="20"/>
-      <c r="I82" s="215"/>
-      <c r="J82" s="216"/>
-      <c r="K82" s="216"/>
+      <c r="I82" s="221"/>
+      <c r="J82" s="222"/>
+      <c r="K82" s="222"/>
       <c r="L82" s="116" t="s">
         <v>345</v>
       </c>
       <c r="M82" s="116">
         <v>1</v>
       </c>
-      <c r="N82" s="216"/>
+      <c r="N82" s="222"/>
       <c r="O82" s="18"/>
     </row>
     <row r="83" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="215"/>
-      <c r="B83" s="216"/>
-      <c r="C83" s="216"/>
+      <c r="A83" s="221"/>
+      <c r="B83" s="222"/>
+      <c r="C83" s="222"/>
       <c r="D83" s="105" t="s">
         <v>172</v>
       </c>
       <c r="E83" s="105">
         <v>13</v>
       </c>
-      <c r="F83" s="216"/>
-      <c r="G83" s="216"/>
+      <c r="F83" s="222"/>
+      <c r="G83" s="222"/>
       <c r="H83" s="62"/>
       <c r="I83" s="21"/>
       <c r="J83" s="21"/>
@@ -6528,13 +6597,13 @@
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
       <c r="H84" s="20"/>
-      <c r="I84" s="215">
+      <c r="I84" s="221">
         <v>45090</v>
       </c>
-      <c r="J84" s="216" t="s">
+      <c r="J84" s="222" t="s">
         <v>342</v>
       </c>
-      <c r="K84" s="216" t="s">
+      <c r="K84" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L84" s="100" t="s">
@@ -6543,7 +6612,7 @@
       <c r="M84" s="116">
         <v>16</v>
       </c>
-      <c r="N84" s="216" t="s">
+      <c r="N84" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O84" s="18"/>
@@ -6571,16 +6640,16 @@
         <v>159</v>
       </c>
       <c r="H85" s="20"/>
-      <c r="I85" s="215"/>
-      <c r="J85" s="216"/>
-      <c r="K85" s="216"/>
+      <c r="I85" s="221"/>
+      <c r="J85" s="222"/>
+      <c r="K85" s="222"/>
       <c r="L85" s="116" t="s">
         <v>346</v>
       </c>
       <c r="M85" s="116">
         <v>10</v>
       </c>
-      <c r="N85" s="216"/>
+      <c r="N85" s="222"/>
       <c r="O85" s="18"/>
     </row>
     <row r="86" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6592,16 +6661,16 @@
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
       <c r="H86" s="20"/>
-      <c r="I86" s="215"/>
-      <c r="J86" s="216"/>
-      <c r="K86" s="216"/>
+      <c r="I86" s="221"/>
+      <c r="J86" s="222"/>
+      <c r="K86" s="222"/>
       <c r="L86" s="116" t="s">
         <v>182</v>
       </c>
       <c r="M86" s="116">
         <v>14</v>
       </c>
-      <c r="N86" s="216"/>
+      <c r="N86" s="222"/>
       <c r="O86" s="18"/>
     </row>
     <row r="87" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6627,16 +6696,16 @@
         <v>159</v>
       </c>
       <c r="H87" s="20"/>
-      <c r="I87" s="215"/>
-      <c r="J87" s="216"/>
-      <c r="K87" s="216"/>
+      <c r="I87" s="221"/>
+      <c r="J87" s="222"/>
+      <c r="K87" s="222"/>
       <c r="L87" s="116" t="s">
         <v>347</v>
       </c>
       <c r="M87" s="116">
         <v>3</v>
       </c>
-      <c r="N87" s="216"/>
+      <c r="N87" s="222"/>
       <c r="O87" s="18"/>
     </row>
     <row r="88" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6648,26 +6717,26 @@
       <c r="F88" s="65"/>
       <c r="G88" s="65"/>
       <c r="H88" s="20"/>
-      <c r="I88" s="215"/>
-      <c r="J88" s="216"/>
-      <c r="K88" s="216"/>
+      <c r="I88" s="221"/>
+      <c r="J88" s="222"/>
+      <c r="K88" s="222"/>
       <c r="L88" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M88" s="116">
         <v>10</v>
       </c>
-      <c r="N88" s="216"/>
+      <c r="N88" s="222"/>
       <c r="O88" s="18"/>
     </row>
     <row r="89" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="215">
+      <c r="A89" s="221">
         <v>45084</v>
       </c>
-      <c r="B89" s="216" t="s">
+      <c r="B89" s="222" t="s">
         <v>317</v>
       </c>
-      <c r="C89" s="216" t="s">
+      <c r="C89" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D89" s="109" t="s">
@@ -6676,62 +6745,62 @@
       <c r="E89" s="109">
         <v>35</v>
       </c>
-      <c r="F89" s="216" t="s">
+      <c r="F89" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="G89" s="216" t="s">
+      <c r="G89" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H89" s="20"/>
-      <c r="I89" s="215"/>
-      <c r="J89" s="216"/>
-      <c r="K89" s="216"/>
+      <c r="I89" s="221"/>
+      <c r="J89" s="222"/>
+      <c r="K89" s="222"/>
       <c r="L89" s="116" t="s">
         <v>187</v>
       </c>
       <c r="M89" s="116">
         <v>8</v>
       </c>
-      <c r="N89" s="216"/>
+      <c r="N89" s="222"/>
       <c r="O89" s="18"/>
     </row>
     <row r="90" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="215"/>
-      <c r="B90" s="216"/>
-      <c r="C90" s="216"/>
+      <c r="A90" s="221"/>
+      <c r="B90" s="222"/>
+      <c r="C90" s="222"/>
       <c r="D90" s="109" t="s">
         <v>172</v>
       </c>
       <c r="E90" s="109">
         <v>17</v>
       </c>
-      <c r="F90" s="216"/>
-      <c r="G90" s="216"/>
+      <c r="F90" s="222"/>
+      <c r="G90" s="222"/>
       <c r="H90" s="20"/>
-      <c r="I90" s="215"/>
-      <c r="J90" s="216"/>
-      <c r="K90" s="216"/>
+      <c r="I90" s="221"/>
+      <c r="J90" s="222"/>
+      <c r="K90" s="222"/>
       <c r="L90" s="116" t="s">
         <v>348</v>
       </c>
       <c r="M90" s="116">
         <v>10</v>
       </c>
-      <c r="N90" s="216"/>
+      <c r="N90" s="222"/>
       <c r="O90" s="18"/>
     </row>
     <row r="91" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="215"/>
-      <c r="B91" s="216"/>
-      <c r="C91" s="216"/>
+      <c r="A91" s="221"/>
+      <c r="B91" s="222"/>
+      <c r="C91" s="222"/>
       <c r="D91" s="109" t="s">
         <v>174</v>
       </c>
       <c r="E91" s="109">
         <v>10</v>
       </c>
-      <c r="F91" s="216"/>
-      <c r="G91" s="216"/>
+      <c r="F91" s="222"/>
+      <c r="G91" s="222"/>
       <c r="H91" s="62"/>
       <c r="I91" s="74"/>
       <c r="J91" s="65"/>
@@ -6742,25 +6811,25 @@
       <c r="O91" s="63"/>
     </row>
     <row r="92" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="215"/>
-      <c r="B92" s="216"/>
-      <c r="C92" s="216"/>
+      <c r="A92" s="221"/>
+      <c r="B92" s="222"/>
+      <c r="C92" s="222"/>
       <c r="D92" s="109" t="s">
         <v>318</v>
       </c>
       <c r="E92" s="109">
         <v>5</v>
       </c>
-      <c r="F92" s="216"/>
-      <c r="G92" s="216"/>
+      <c r="F92" s="222"/>
+      <c r="G92" s="222"/>
       <c r="H92" s="20"/>
-      <c r="I92" s="215">
+      <c r="I92" s="221">
         <v>45097</v>
       </c>
-      <c r="J92" s="216" t="s">
+      <c r="J92" s="222" t="s">
         <v>358</v>
       </c>
-      <c r="K92" s="216" t="s">
+      <c r="K92" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L92" s="121" t="s">
@@ -6769,7 +6838,7 @@
       <c r="M92" s="121">
         <v>3</v>
       </c>
-      <c r="N92" s="216" t="s">
+      <c r="N92" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O92" s="18"/>
@@ -6783,16 +6852,16 @@
       <c r="F93" s="65"/>
       <c r="G93" s="65"/>
       <c r="H93" s="20"/>
-      <c r="I93" s="215"/>
-      <c r="J93" s="216"/>
-      <c r="K93" s="216"/>
+      <c r="I93" s="221"/>
+      <c r="J93" s="222"/>
+      <c r="K93" s="222"/>
       <c r="L93" s="121" t="s">
         <v>187</v>
       </c>
       <c r="M93" s="121">
         <v>12</v>
       </c>
-      <c r="N93" s="216"/>
+      <c r="N93" s="222"/>
       <c r="O93" s="18"/>
     </row>
     <row r="94" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6818,16 +6887,16 @@
         <v>159</v>
       </c>
       <c r="H94" s="20"/>
-      <c r="I94" s="215"/>
-      <c r="J94" s="216"/>
-      <c r="K94" s="216"/>
+      <c r="I94" s="221"/>
+      <c r="J94" s="222"/>
+      <c r="K94" s="222"/>
       <c r="L94" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M94" s="121">
         <v>10</v>
       </c>
-      <c r="N94" s="216"/>
+      <c r="N94" s="222"/>
       <c r="O94" s="18"/>
     </row>
     <row r="95" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -6839,16 +6908,16 @@
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
       <c r="H95" s="20"/>
-      <c r="I95" s="215"/>
-      <c r="J95" s="216"/>
-      <c r="K95" s="216"/>
+      <c r="I95" s="221"/>
+      <c r="J95" s="222"/>
+      <c r="K95" s="222"/>
       <c r="L95" s="121" t="s">
         <v>344</v>
       </c>
       <c r="M95" s="121">
         <v>10</v>
       </c>
-      <c r="N95" s="216"/>
+      <c r="N95" s="222"/>
       <c r="O95" s="18"/>
     </row>
     <row r="96" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6912,13 +6981,13 @@
       <c r="O97" s="18"/>
     </row>
     <row r="98" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="215">
+      <c r="A98" s="221">
         <v>45089</v>
       </c>
-      <c r="B98" s="216" t="s">
+      <c r="B98" s="222" t="s">
         <v>336</v>
       </c>
-      <c r="C98" s="216" t="s">
+      <c r="C98" s="222" t="s">
         <v>294</v>
       </c>
       <c r="D98" s="115" t="s">
@@ -6927,10 +6996,10 @@
       <c r="E98" s="115">
         <v>1</v>
       </c>
-      <c r="F98" s="216" t="s">
+      <c r="F98" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="G98" s="216" t="s">
+      <c r="G98" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H98" s="62"/>
@@ -6943,17 +7012,17 @@
       <c r="O98" s="63"/>
     </row>
     <row r="99" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="215"/>
-      <c r="B99" s="216"/>
-      <c r="C99" s="216"/>
+      <c r="A99" s="221"/>
+      <c r="B99" s="222"/>
+      <c r="C99" s="222"/>
       <c r="D99" s="115" t="s">
         <v>338</v>
       </c>
       <c r="E99" s="115">
         <v>1</v>
       </c>
-      <c r="F99" s="216"/>
-      <c r="G99" s="216"/>
+      <c r="F99" s="222"/>
+      <c r="G99" s="222"/>
       <c r="H99" s="20"/>
       <c r="I99" s="123">
         <v>45101</v>
@@ -7015,13 +7084,13 @@
         <v>159</v>
       </c>
       <c r="H101" s="20"/>
-      <c r="I101" s="215">
+      <c r="I101" s="221">
         <v>45122</v>
       </c>
-      <c r="J101" s="216" t="s">
+      <c r="J101" s="222" t="s">
         <v>399</v>
       </c>
-      <c r="K101" s="216" t="s">
+      <c r="K101" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L101" s="100" t="s">
@@ -7030,7 +7099,7 @@
       <c r="M101" s="131">
         <v>10</v>
       </c>
-      <c r="N101" s="216" t="s">
+      <c r="N101" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O101" s="18"/>
@@ -7044,26 +7113,26 @@
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
       <c r="H102" s="20"/>
-      <c r="I102" s="215"/>
-      <c r="J102" s="216"/>
-      <c r="K102" s="216"/>
+      <c r="I102" s="221"/>
+      <c r="J102" s="222"/>
+      <c r="K102" s="222"/>
       <c r="L102" s="131" t="s">
         <v>185</v>
       </c>
       <c r="M102" s="131">
         <v>10</v>
       </c>
-      <c r="N102" s="216"/>
+      <c r="N102" s="222"/>
       <c r="O102" s="18"/>
     </row>
     <row r="103" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="215">
+      <c r="A103" s="221">
         <v>45090</v>
       </c>
-      <c r="B103" s="216" t="s">
+      <c r="B103" s="222" t="s">
         <v>330</v>
       </c>
-      <c r="C103" s="216" t="s">
+      <c r="C103" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D103" s="115" t="s">
@@ -7072,10 +7141,10 @@
       <c r="E103" s="115">
         <v>10</v>
       </c>
-      <c r="F103" s="216" t="s">
+      <c r="F103" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="G103" s="216" t="s">
+      <c r="G103" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H103" s="64"/>
@@ -7088,17 +7157,17 @@
       <c r="O103" s="63"/>
     </row>
     <row r="104" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="215"/>
-      <c r="B104" s="216"/>
-      <c r="C104" s="216"/>
+      <c r="A104" s="221"/>
+      <c r="B104" s="222"/>
+      <c r="C104" s="222"/>
       <c r="D104" s="115" t="s">
         <v>172</v>
       </c>
       <c r="E104" s="115">
         <v>8</v>
       </c>
-      <c r="F104" s="216"/>
-      <c r="G104" s="216"/>
+      <c r="F104" s="222"/>
+      <c r="G104" s="222"/>
       <c r="H104" s="52"/>
       <c r="I104" s="130">
         <v>45122</v>
@@ -7121,17 +7190,17 @@
       <c r="O104" s="18"/>
     </row>
     <row r="105" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="215"/>
-      <c r="B105" s="216"/>
-      <c r="C105" s="216"/>
+      <c r="A105" s="221"/>
+      <c r="B105" s="222"/>
+      <c r="C105" s="222"/>
       <c r="D105" s="115" t="s">
         <v>174</v>
       </c>
       <c r="E105" s="115">
         <v>10</v>
       </c>
-      <c r="F105" s="216"/>
-      <c r="G105" s="216"/>
+      <c r="F105" s="222"/>
+      <c r="G105" s="222"/>
       <c r="H105" s="64"/>
       <c r="I105" s="53"/>
       <c r="J105" s="21"/>
@@ -7142,25 +7211,25 @@
       <c r="O105" s="63"/>
     </row>
     <row r="106" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="215"/>
-      <c r="B106" s="216"/>
-      <c r="C106" s="216"/>
+      <c r="A106" s="221"/>
+      <c r="B106" s="222"/>
+      <c r="C106" s="222"/>
       <c r="D106" s="115" t="s">
         <v>318</v>
       </c>
       <c r="E106" s="115">
         <v>5</v>
       </c>
-      <c r="F106" s="216"/>
-      <c r="G106" s="216"/>
+      <c r="F106" s="222"/>
+      <c r="G106" s="222"/>
       <c r="H106" s="64"/>
-      <c r="I106" s="215">
+      <c r="I106" s="221">
         <v>45143</v>
       </c>
-      <c r="J106" s="216" t="s">
+      <c r="J106" s="222" t="s">
         <v>430</v>
       </c>
-      <c r="K106" s="216" t="s">
+      <c r="K106" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L106" s="167" t="s">
@@ -7169,34 +7238,34 @@
       <c r="M106" s="167">
         <v>10</v>
       </c>
-      <c r="N106" s="216" t="s">
+      <c r="N106" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O106" s="63"/>
     </row>
     <row r="107" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="215"/>
-      <c r="B107" s="216"/>
-      <c r="C107" s="216"/>
+      <c r="A107" s="221"/>
+      <c r="B107" s="222"/>
+      <c r="C107" s="222"/>
       <c r="D107" s="115" t="s">
         <v>339</v>
       </c>
       <c r="E107" s="115">
         <v>10</v>
       </c>
-      <c r="F107" s="216"/>
-      <c r="G107" s="216"/>
+      <c r="F107" s="222"/>
+      <c r="G107" s="222"/>
       <c r="H107" s="52"/>
-      <c r="I107" s="215"/>
-      <c r="J107" s="216"/>
-      <c r="K107" s="216"/>
+      <c r="I107" s="221"/>
+      <c r="J107" s="222"/>
+      <c r="K107" s="222"/>
       <c r="L107" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M107" s="167">
         <v>10</v>
       </c>
-      <c r="N107" s="216"/>
+      <c r="N107" s="222"/>
       <c r="O107" s="18"/>
     </row>
     <row r="108" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -7208,26 +7277,26 @@
       <c r="F108" s="65"/>
       <c r="G108" s="65"/>
       <c r="H108" s="52"/>
-      <c r="I108" s="215"/>
-      <c r="J108" s="216"/>
-      <c r="K108" s="216"/>
+      <c r="I108" s="221"/>
+      <c r="J108" s="222"/>
+      <c r="K108" s="222"/>
       <c r="L108" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M108" s="167">
         <v>10</v>
       </c>
-      <c r="N108" s="216"/>
+      <c r="N108" s="222"/>
       <c r="O108" s="18"/>
     </row>
     <row r="109" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="215">
+      <c r="A109" s="221">
         <v>45093</v>
       </c>
-      <c r="B109" s="216" t="s">
+      <c r="B109" s="222" t="s">
         <v>357</v>
       </c>
-      <c r="C109" s="216" t="s">
+      <c r="C109" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D109" s="117" t="s">
@@ -7236,87 +7305,87 @@
       <c r="E109" s="117">
         <v>10</v>
       </c>
-      <c r="F109" s="216" t="s">
+      <c r="F109" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G109" s="216" t="s">
+      <c r="G109" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H109" s="20"/>
-      <c r="I109" s="215"/>
-      <c r="J109" s="216"/>
-      <c r="K109" s="216"/>
+      <c r="I109" s="221"/>
+      <c r="J109" s="222"/>
+      <c r="K109" s="222"/>
       <c r="L109" s="167" t="s">
         <v>185</v>
       </c>
       <c r="M109" s="167">
         <v>10</v>
       </c>
-      <c r="N109" s="216"/>
+      <c r="N109" s="222"/>
       <c r="O109" s="18"/>
     </row>
     <row r="110" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="215"/>
-      <c r="B110" s="216"/>
-      <c r="C110" s="216"/>
+      <c r="A110" s="221"/>
+      <c r="B110" s="222"/>
+      <c r="C110" s="222"/>
       <c r="D110" s="117" t="s">
         <v>171</v>
       </c>
       <c r="E110" s="117">
         <v>10</v>
       </c>
-      <c r="F110" s="216"/>
-      <c r="G110" s="216"/>
+      <c r="F110" s="222"/>
+      <c r="G110" s="222"/>
       <c r="H110" s="20"/>
-      <c r="I110" s="215"/>
-      <c r="J110" s="216"/>
-      <c r="K110" s="216"/>
+      <c r="I110" s="221"/>
+      <c r="J110" s="222"/>
+      <c r="K110" s="222"/>
       <c r="L110" s="167" t="s">
         <v>284</v>
       </c>
       <c r="M110" s="167">
         <v>10</v>
       </c>
-      <c r="N110" s="216"/>
+      <c r="N110" s="222"/>
       <c r="O110" s="18"/>
     </row>
     <row r="111" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="215"/>
-      <c r="B111" s="216"/>
-      <c r="C111" s="216"/>
+      <c r="A111" s="221"/>
+      <c r="B111" s="222"/>
+      <c r="C111" s="222"/>
       <c r="D111" s="117" t="s">
         <v>172</v>
       </c>
       <c r="E111" s="117">
         <v>12</v>
       </c>
-      <c r="F111" s="216"/>
-      <c r="G111" s="216"/>
+      <c r="F111" s="222"/>
+      <c r="G111" s="222"/>
       <c r="H111" s="20"/>
-      <c r="I111" s="215"/>
-      <c r="J111" s="216"/>
-      <c r="K111" s="216"/>
+      <c r="I111" s="221"/>
+      <c r="J111" s="222"/>
+      <c r="K111" s="222"/>
       <c r="L111" s="167" t="s">
         <v>728</v>
       </c>
       <c r="M111" s="167">
         <v>30</v>
       </c>
-      <c r="N111" s="216"/>
+      <c r="N111" s="222"/>
       <c r="O111" s="18"/>
     </row>
     <row r="112" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="215"/>
-      <c r="B112" s="216"/>
-      <c r="C112" s="216"/>
+      <c r="A112" s="221"/>
+      <c r="B112" s="222"/>
+      <c r="C112" s="222"/>
       <c r="D112" s="117" t="s">
         <v>291</v>
       </c>
       <c r="E112" s="117">
         <v>10</v>
       </c>
-      <c r="F112" s="216"/>
-      <c r="G112" s="216"/>
+      <c r="F112" s="222"/>
+      <c r="G112" s="222"/>
       <c r="H112" s="62"/>
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
@@ -7335,13 +7404,13 @@
       <c r="F113" s="21"/>
       <c r="G113" s="21"/>
       <c r="H113" s="52"/>
-      <c r="I113" s="215">
+      <c r="I113" s="221">
         <v>45148</v>
       </c>
-      <c r="J113" s="216" t="s">
+      <c r="J113" s="222" t="s">
         <v>437</v>
       </c>
-      <c r="K113" s="216" t="s">
+      <c r="K113" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L113" s="167" t="s">
@@ -7350,7 +7419,7 @@
       <c r="M113" s="167">
         <v>16</v>
       </c>
-      <c r="N113" s="216" t="s">
+      <c r="N113" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O113" s="18"/>
@@ -7378,16 +7447,16 @@
         <v>159</v>
       </c>
       <c r="H114" s="20"/>
-      <c r="I114" s="215"/>
-      <c r="J114" s="216"/>
-      <c r="K114" s="216"/>
+      <c r="I114" s="221"/>
+      <c r="J114" s="222"/>
+      <c r="K114" s="222"/>
       <c r="L114" s="167" t="s">
         <v>190</v>
       </c>
       <c r="M114" s="167">
         <v>20</v>
       </c>
-      <c r="N114" s="216"/>
+      <c r="N114" s="222"/>
       <c r="O114" s="18"/>
     </row>
     <row r="115" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -7399,16 +7468,16 @@
       <c r="F115" s="65"/>
       <c r="G115" s="65"/>
       <c r="H115" s="52"/>
-      <c r="I115" s="215"/>
-      <c r="J115" s="216"/>
-      <c r="K115" s="216"/>
+      <c r="I115" s="221"/>
+      <c r="J115" s="222"/>
+      <c r="K115" s="222"/>
       <c r="L115" s="167" t="s">
         <v>191</v>
       </c>
       <c r="M115" s="167">
         <v>140</v>
       </c>
-      <c r="N115" s="216"/>
+      <c r="N115" s="222"/>
       <c r="O115" s="18"/>
     </row>
     <row r="116" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
@@ -7451,13 +7520,13 @@
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
       <c r="H117" s="52"/>
-      <c r="I117" s="215">
+      <c r="I117" s="221">
         <v>45156</v>
       </c>
-      <c r="J117" s="216" t="s">
+      <c r="J117" s="222" t="s">
         <v>448</v>
       </c>
-      <c r="K117" s="216" t="s">
+      <c r="K117" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L117" s="167" t="s">
@@ -7466,19 +7535,19 @@
       <c r="M117" s="167">
         <v>14</v>
       </c>
-      <c r="N117" s="216" t="s">
+      <c r="N117" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O117" s="18"/>
     </row>
     <row r="118" spans="1:15" s="122" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="215">
+      <c r="A118" s="221">
         <v>45119</v>
       </c>
-      <c r="B118" s="216" t="s">
+      <c r="B118" s="222" t="s">
         <v>387</v>
       </c>
-      <c r="C118" s="216" t="s">
+      <c r="C118" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D118" s="128" t="s">
@@ -7487,48 +7556,48 @@
       <c r="E118" s="128">
         <v>8</v>
       </c>
-      <c r="F118" s="216" t="s">
+      <c r="F118" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="G118" s="216" t="s">
+      <c r="G118" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H118" s="20"/>
-      <c r="I118" s="215"/>
-      <c r="J118" s="216"/>
-      <c r="K118" s="216"/>
+      <c r="I118" s="221"/>
+      <c r="J118" s="222"/>
+      <c r="K118" s="222"/>
       <c r="L118" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M118" s="167">
         <v>10</v>
       </c>
-      <c r="N118" s="216"/>
+      <c r="N118" s="222"/>
       <c r="O118" s="18"/>
     </row>
     <row r="119" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="215"/>
-      <c r="B119" s="216"/>
-      <c r="C119" s="216"/>
+      <c r="A119" s="221"/>
+      <c r="B119" s="222"/>
+      <c r="C119" s="222"/>
       <c r="D119" s="128" t="s">
         <v>205</v>
       </c>
       <c r="E119" s="128">
         <v>4</v>
       </c>
-      <c r="F119" s="216"/>
-      <c r="G119" s="216"/>
+      <c r="F119" s="222"/>
+      <c r="G119" s="222"/>
       <c r="H119" s="20"/>
-      <c r="I119" s="215"/>
-      <c r="J119" s="216"/>
-      <c r="K119" s="216"/>
+      <c r="I119" s="221"/>
+      <c r="J119" s="222"/>
+      <c r="K119" s="222"/>
       <c r="L119" s="167" t="s">
         <v>191</v>
       </c>
       <c r="M119" s="167">
         <v>10</v>
       </c>
-      <c r="N119" s="216"/>
+      <c r="N119" s="222"/>
       <c r="O119" s="18"/>
     </row>
     <row r="120" spans="1:15" s="122" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7549,13 +7618,13 @@
       <c r="O120" s="63"/>
     </row>
     <row r="121" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="215">
+      <c r="A121" s="221">
         <v>45121</v>
       </c>
-      <c r="B121" s="216" t="s">
+      <c r="B121" s="222" t="s">
         <v>392</v>
       </c>
-      <c r="C121" s="216" t="s">
+      <c r="C121" s="222" t="s">
         <v>326</v>
       </c>
       <c r="D121" s="129" t="s">
@@ -7564,10 +7633,10 @@
       <c r="E121" s="129">
         <v>2</v>
       </c>
-      <c r="F121" s="216" t="s">
+      <c r="F121" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G121" s="216" t="s">
+      <c r="G121" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H121" s="20"/>
@@ -7592,17 +7661,17 @@
       <c r="O121" s="18"/>
     </row>
     <row r="122" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="215"/>
-      <c r="B122" s="216"/>
-      <c r="C122" s="216"/>
+      <c r="A122" s="221"/>
+      <c r="B122" s="222"/>
+      <c r="C122" s="222"/>
       <c r="D122" s="129" t="s">
         <v>395</v>
       </c>
       <c r="E122" s="129">
         <v>2</v>
       </c>
-      <c r="F122" s="216"/>
-      <c r="G122" s="216"/>
+      <c r="F122" s="222"/>
+      <c r="G122" s="222"/>
       <c r="H122" s="62"/>
       <c r="I122" s="53"/>
       <c r="J122" s="21"/>
@@ -7690,13 +7759,13 @@
       <c r="O125" s="63"/>
     </row>
     <row r="126" spans="1:15" s="122" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="215">
+      <c r="A126" s="221">
         <v>45142</v>
       </c>
-      <c r="B126" s="216" t="s">
+      <c r="B126" s="222" t="s">
         <v>425</v>
       </c>
-      <c r="C126" s="216" t="s">
+      <c r="C126" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D126" s="135" t="s">
@@ -7705,68 +7774,68 @@
       <c r="E126" s="135">
         <v>10</v>
       </c>
-      <c r="F126" s="216" t="s">
+      <c r="F126" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="G126" s="216" t="s">
+      <c r="G126" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H126" s="20"/>
-      <c r="I126" s="215">
+      <c r="I126" s="221">
         <v>45190</v>
       </c>
-      <c r="J126" s="216" t="s">
+      <c r="J126" s="222" t="s">
         <v>491</v>
       </c>
-      <c r="K126" s="216" t="s">
+      <c r="K126" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L126" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="M126" s="222">
+      <c r="M126" s="228">
         <v>10</v>
       </c>
-      <c r="N126" s="216" t="s">
+      <c r="N126" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O126" s="18"/>
     </row>
     <row r="127" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="215"/>
-      <c r="B127" s="216"/>
-      <c r="C127" s="216"/>
+      <c r="A127" s="221"/>
+      <c r="B127" s="222"/>
+      <c r="C127" s="222"/>
       <c r="D127" s="135" t="s">
         <v>171</v>
       </c>
       <c r="E127" s="135">
         <v>10</v>
       </c>
-      <c r="F127" s="216"/>
-      <c r="G127" s="216"/>
+      <c r="F127" s="222"/>
+      <c r="G127" s="222"/>
       <c r="H127" s="20"/>
-      <c r="I127" s="215"/>
-      <c r="J127" s="216"/>
-      <c r="K127" s="216"/>
+      <c r="I127" s="221"/>
+      <c r="J127" s="222"/>
+      <c r="K127" s="222"/>
       <c r="L127" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="M127" s="222"/>
-      <c r="N127" s="216"/>
+      <c r="M127" s="228"/>
+      <c r="N127" s="222"/>
       <c r="O127" s="18"/>
     </row>
     <row r="128" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="215"/>
-      <c r="B128" s="216"/>
-      <c r="C128" s="216"/>
+      <c r="A128" s="221"/>
+      <c r="B128" s="222"/>
+      <c r="C128" s="222"/>
       <c r="D128" s="135" t="s">
         <v>291</v>
       </c>
       <c r="E128" s="135">
         <v>10</v>
       </c>
-      <c r="F128" s="216"/>
-      <c r="G128" s="216"/>
+      <c r="F128" s="222"/>
+      <c r="G128" s="222"/>
       <c r="H128" s="62"/>
       <c r="I128" s="53"/>
       <c r="J128" s="21"/>
@@ -7777,17 +7846,17 @@
       <c r="O128" s="63"/>
     </row>
     <row r="129" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="215"/>
-      <c r="B129" s="216"/>
-      <c r="C129" s="216"/>
+      <c r="A129" s="221"/>
+      <c r="B129" s="222"/>
+      <c r="C129" s="222"/>
       <c r="D129" s="135" t="s">
         <v>205</v>
       </c>
       <c r="E129" s="135">
         <v>10</v>
       </c>
-      <c r="F129" s="216"/>
-      <c r="G129" s="216"/>
+      <c r="F129" s="222"/>
+      <c r="G129" s="222"/>
       <c r="H129" s="20"/>
       <c r="I129" s="170">
         <v>45199</v>
@@ -7849,13 +7918,13 @@
         <v>176</v>
       </c>
       <c r="H131" s="20"/>
-      <c r="I131" s="215">
+      <c r="I131" s="221">
         <v>45211</v>
       </c>
-      <c r="J131" s="216" t="s">
+      <c r="J131" s="222" t="s">
         <v>546</v>
       </c>
-      <c r="K131" s="216" t="s">
+      <c r="K131" s="222" t="s">
         <v>132</v>
       </c>
       <c r="L131" s="172" t="s">
@@ -7864,7 +7933,7 @@
       <c r="M131" s="172">
         <v>4</v>
       </c>
-      <c r="N131" s="216" t="s">
+      <c r="N131" s="222" t="s">
         <v>472</v>
       </c>
       <c r="O131" s="18"/>
@@ -7878,16 +7947,16 @@
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
       <c r="H132" s="52"/>
-      <c r="I132" s="215"/>
-      <c r="J132" s="216"/>
-      <c r="K132" s="216"/>
+      <c r="I132" s="221"/>
+      <c r="J132" s="222"/>
+      <c r="K132" s="222"/>
       <c r="L132" s="172" t="s">
         <v>742</v>
       </c>
       <c r="M132" s="172">
         <v>12</v>
       </c>
-      <c r="N132" s="216"/>
+      <c r="N132" s="222"/>
       <c r="O132" s="18"/>
     </row>
     <row r="133" spans="1:15" s="122" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -7913,16 +7982,16 @@
         <v>159</v>
       </c>
       <c r="H133" s="20"/>
-      <c r="I133" s="215"/>
-      <c r="J133" s="216"/>
-      <c r="K133" s="216"/>
+      <c r="I133" s="221"/>
+      <c r="J133" s="222"/>
+      <c r="K133" s="222"/>
       <c r="L133" s="172" t="s">
         <v>743</v>
       </c>
       <c r="M133" s="172">
         <v>4</v>
       </c>
-      <c r="N133" s="216"/>
+      <c r="N133" s="222"/>
       <c r="O133" s="18"/>
     </row>
     <row r="134" spans="1:15" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -7934,16 +8003,16 @@
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
       <c r="H134" s="52"/>
-      <c r="I134" s="215"/>
-      <c r="J134" s="216"/>
-      <c r="K134" s="216"/>
+      <c r="I134" s="221"/>
+      <c r="J134" s="222"/>
+      <c r="K134" s="222"/>
       <c r="L134" s="172" t="s">
         <v>744</v>
       </c>
       <c r="M134" s="172">
         <v>1</v>
       </c>
-      <c r="N134" s="216"/>
+      <c r="N134" s="222"/>
       <c r="O134" s="18"/>
     </row>
     <row r="135" spans="1:15" s="122" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7955,16 +8024,16 @@
       <c r="F135" s="137"/>
       <c r="G135" s="137"/>
       <c r="H135" s="20"/>
-      <c r="I135" s="215"/>
-      <c r="J135" s="216"/>
-      <c r="K135" s="216"/>
+      <c r="I135" s="221"/>
+      <c r="J135" s="222"/>
+      <c r="K135" s="222"/>
       <c r="L135" s="172" t="s">
         <v>745</v>
       </c>
       <c r="M135" s="172">
         <v>1</v>
       </c>
-      <c r="N135" s="216"/>
+      <c r="N135" s="222"/>
       <c r="O135" s="18"/>
     </row>
     <row r="136" spans="1:15" s="122" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
@@ -7990,16 +8059,16 @@
         <v>159</v>
       </c>
       <c r="H136" s="20"/>
-      <c r="I136" s="215"/>
-      <c r="J136" s="216"/>
-      <c r="K136" s="216"/>
+      <c r="I136" s="221"/>
+      <c r="J136" s="222"/>
+      <c r="K136" s="222"/>
       <c r="L136" s="172" t="s">
         <v>746</v>
       </c>
       <c r="M136" s="172">
         <v>4</v>
       </c>
-      <c r="N136" s="216"/>
+      <c r="N136" s="222"/>
       <c r="O136" s="18"/>
     </row>
     <row r="137" spans="1:15" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8011,16 +8080,16 @@
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
       <c r="H137" s="52"/>
-      <c r="I137" s="215"/>
-      <c r="J137" s="216"/>
-      <c r="K137" s="216"/>
+      <c r="I137" s="221"/>
+      <c r="J137" s="222"/>
+      <c r="K137" s="222"/>
       <c r="L137" s="172" t="s">
         <v>747</v>
       </c>
       <c r="M137" s="172">
         <v>2</v>
       </c>
-      <c r="N137" s="216"/>
+      <c r="N137" s="222"/>
       <c r="O137" s="18"/>
     </row>
     <row r="138" spans="1:15" s="122" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -8046,16 +8115,16 @@
         <v>159</v>
       </c>
       <c r="H138" s="52"/>
-      <c r="I138" s="215"/>
-      <c r="J138" s="216"/>
-      <c r="K138" s="216"/>
+      <c r="I138" s="221"/>
+      <c r="J138" s="222"/>
+      <c r="K138" s="222"/>
       <c r="L138" s="172" t="s">
         <v>748</v>
       </c>
       <c r="M138" s="172">
         <v>8</v>
       </c>
-      <c r="N138" s="216"/>
+      <c r="N138" s="222"/>
       <c r="O138" s="18"/>
     </row>
     <row r="139" spans="1:15" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8067,26 +8136,26 @@
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
       <c r="H139" s="52"/>
-      <c r="I139" s="215"/>
-      <c r="J139" s="216"/>
-      <c r="K139" s="216"/>
+      <c r="I139" s="221"/>
+      <c r="J139" s="222"/>
+      <c r="K139" s="222"/>
       <c r="L139" s="172" t="s">
         <v>749</v>
       </c>
       <c r="M139" s="172">
         <v>2</v>
       </c>
-      <c r="N139" s="216"/>
+      <c r="N139" s="222"/>
       <c r="O139" s="18"/>
     </row>
     <row r="140" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="215">
+      <c r="A140" s="221">
         <v>45154</v>
       </c>
-      <c r="B140" s="216" t="s">
+      <c r="B140" s="222" t="s">
         <v>439</v>
       </c>
-      <c r="C140" s="216" t="s">
+      <c r="C140" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D140" s="141" t="s">
@@ -8095,48 +8164,48 @@
       <c r="E140" s="141">
         <v>10</v>
       </c>
-      <c r="F140" s="216" t="s">
+      <c r="F140" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G140" s="216" t="s">
+      <c r="G140" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H140" s="52"/>
-      <c r="I140" s="215"/>
-      <c r="J140" s="216"/>
-      <c r="K140" s="216"/>
+      <c r="I140" s="221"/>
+      <c r="J140" s="222"/>
+      <c r="K140" s="222"/>
       <c r="L140" s="172" t="s">
         <v>750</v>
       </c>
       <c r="M140" s="172">
         <v>1</v>
       </c>
-      <c r="N140" s="216"/>
+      <c r="N140" s="222"/>
       <c r="O140" s="18"/>
     </row>
     <row r="141" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="215"/>
-      <c r="B141" s="216"/>
-      <c r="C141" s="216"/>
+      <c r="A141" s="221"/>
+      <c r="B141" s="222"/>
+      <c r="C141" s="222"/>
       <c r="D141" s="141" t="s">
         <v>174</v>
       </c>
       <c r="E141" s="141">
         <v>10</v>
       </c>
-      <c r="F141" s="216"/>
-      <c r="G141" s="216"/>
+      <c r="F141" s="222"/>
+      <c r="G141" s="222"/>
       <c r="H141" s="52"/>
-      <c r="I141" s="215"/>
-      <c r="J141" s="216"/>
-      <c r="K141" s="216"/>
+      <c r="I141" s="221"/>
+      <c r="J141" s="222"/>
+      <c r="K141" s="222"/>
       <c r="L141" s="172" t="s">
         <v>751</v>
       </c>
       <c r="M141" s="172">
         <v>4</v>
       </c>
-      <c r="N141" s="216"/>
+      <c r="N141" s="222"/>
       <c r="O141" s="18"/>
     </row>
     <row r="142" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8148,16 +8217,16 @@
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
       <c r="H142" s="52"/>
-      <c r="I142" s="215"/>
-      <c r="J142" s="216"/>
-      <c r="K142" s="216"/>
+      <c r="I142" s="221"/>
+      <c r="J142" s="222"/>
+      <c r="K142" s="222"/>
       <c r="L142" s="172" t="s">
         <v>752</v>
       </c>
       <c r="M142" s="172">
         <v>1</v>
       </c>
-      <c r="N142" s="216"/>
+      <c r="N142" s="222"/>
       <c r="O142" s="18"/>
     </row>
     <row r="143" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8183,16 +8252,16 @@
         <v>159</v>
       </c>
       <c r="H143" s="20"/>
-      <c r="I143" s="215"/>
-      <c r="J143" s="216"/>
-      <c r="K143" s="216"/>
+      <c r="I143" s="221"/>
+      <c r="J143" s="222"/>
+      <c r="K143" s="222"/>
       <c r="L143" s="172" t="s">
         <v>753</v>
       </c>
       <c r="M143" s="172">
         <v>6</v>
       </c>
-      <c r="N143" s="216"/>
+      <c r="N143" s="222"/>
       <c r="O143" s="18"/>
     </row>
     <row r="144" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8204,16 +8273,16 @@
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
       <c r="H144" s="54"/>
-      <c r="I144" s="215"/>
-      <c r="J144" s="216"/>
-      <c r="K144" s="216"/>
+      <c r="I144" s="221"/>
+      <c r="J144" s="222"/>
+      <c r="K144" s="222"/>
       <c r="L144" s="172" t="s">
         <v>754</v>
       </c>
       <c r="M144" s="172">
         <v>36</v>
       </c>
-      <c r="N144" s="216"/>
+      <c r="N144" s="222"/>
       <c r="O144" s="18"/>
     </row>
     <row r="145" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8239,16 +8308,16 @@
         <v>159</v>
       </c>
       <c r="H145" s="20"/>
-      <c r="I145" s="215"/>
-      <c r="J145" s="216"/>
-      <c r="K145" s="216"/>
+      <c r="I145" s="221"/>
+      <c r="J145" s="222"/>
+      <c r="K145" s="222"/>
       <c r="L145" s="169" t="s">
         <v>755</v>
       </c>
       <c r="M145" s="172">
         <v>60</v>
       </c>
-      <c r="N145" s="216"/>
+      <c r="N145" s="222"/>
       <c r="O145" s="18"/>
     </row>
     <row r="146" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8260,16 +8329,16 @@
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
       <c r="H146" s="54"/>
-      <c r="I146" s="215"/>
-      <c r="J146" s="216"/>
-      <c r="K146" s="216"/>
+      <c r="I146" s="221"/>
+      <c r="J146" s="222"/>
+      <c r="K146" s="222"/>
       <c r="L146" s="172" t="s">
         <v>756</v>
       </c>
       <c r="M146" s="172">
         <v>1</v>
       </c>
-      <c r="N146" s="216"/>
+      <c r="N146" s="222"/>
       <c r="O146" s="18"/>
     </row>
     <row r="147" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8295,16 +8364,16 @@
         <v>159</v>
       </c>
       <c r="H147" s="20"/>
-      <c r="I147" s="215"/>
-      <c r="J147" s="216"/>
-      <c r="K147" s="216"/>
+      <c r="I147" s="221"/>
+      <c r="J147" s="222"/>
+      <c r="K147" s="222"/>
       <c r="L147" s="172" t="s">
         <v>757</v>
       </c>
       <c r="M147" s="172">
         <v>36</v>
       </c>
-      <c r="N147" s="216"/>
+      <c r="N147" s="222"/>
       <c r="O147" s="18"/>
     </row>
     <row r="148" spans="1:15" s="48" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -8316,16 +8385,16 @@
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
       <c r="H148" s="52"/>
-      <c r="I148" s="215"/>
-      <c r="J148" s="216"/>
-      <c r="K148" s="216"/>
+      <c r="I148" s="221"/>
+      <c r="J148" s="222"/>
+      <c r="K148" s="222"/>
       <c r="L148" s="172" t="s">
         <v>758</v>
       </c>
       <c r="M148" s="172">
         <v>3189</v>
       </c>
-      <c r="N148" s="216"/>
+      <c r="N148" s="222"/>
       <c r="O148" s="18"/>
     </row>
     <row r="149" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8351,16 +8420,16 @@
         <v>472</v>
       </c>
       <c r="H149" s="20"/>
-      <c r="I149" s="215"/>
-      <c r="J149" s="216"/>
-      <c r="K149" s="216"/>
+      <c r="I149" s="221"/>
+      <c r="J149" s="222"/>
+      <c r="K149" s="222"/>
       <c r="L149" s="172" t="s">
         <v>759</v>
       </c>
       <c r="M149" s="172">
         <v>4</v>
       </c>
-      <c r="N149" s="216"/>
+      <c r="N149" s="222"/>
       <c r="O149" s="18"/>
     </row>
     <row r="150" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8372,16 +8441,16 @@
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
       <c r="H150" s="52"/>
-      <c r="I150" s="215"/>
-      <c r="J150" s="216"/>
-      <c r="K150" s="216"/>
+      <c r="I150" s="221"/>
+      <c r="J150" s="222"/>
+      <c r="K150" s="222"/>
       <c r="L150" s="172" t="s">
         <v>760</v>
       </c>
       <c r="M150" s="172">
         <v>2</v>
       </c>
-      <c r="N150" s="216"/>
+      <c r="N150" s="222"/>
       <c r="O150" s="18"/>
     </row>
     <row r="151" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8407,16 +8476,16 @@
         <v>159</v>
       </c>
       <c r="H151" s="52"/>
-      <c r="I151" s="215"/>
-      <c r="J151" s="216"/>
-      <c r="K151" s="216"/>
+      <c r="I151" s="221"/>
+      <c r="J151" s="222"/>
+      <c r="K151" s="222"/>
       <c r="L151" s="172" t="s">
         <v>761</v>
       </c>
       <c r="M151" s="172">
         <v>60</v>
       </c>
-      <c r="N151" s="216"/>
+      <c r="N151" s="222"/>
       <c r="O151" s="18"/>
     </row>
     <row r="152" spans="1:15" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8428,16 +8497,16 @@
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
       <c r="H152" s="52"/>
-      <c r="I152" s="215"/>
-      <c r="J152" s="216"/>
-      <c r="K152" s="216"/>
+      <c r="I152" s="221"/>
+      <c r="J152" s="222"/>
+      <c r="K152" s="222"/>
       <c r="L152" s="172" t="s">
         <v>762</v>
       </c>
       <c r="M152" s="172">
         <v>10</v>
       </c>
-      <c r="N152" s="216"/>
+      <c r="N152" s="222"/>
       <c r="O152" s="18"/>
     </row>
     <row r="153" spans="1:15" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8463,16 +8532,16 @@
         <v>159</v>
       </c>
       <c r="H153" s="52"/>
-      <c r="I153" s="215"/>
-      <c r="J153" s="216"/>
-      <c r="K153" s="216"/>
+      <c r="I153" s="221"/>
+      <c r="J153" s="222"/>
+      <c r="K153" s="222"/>
       <c r="L153" s="172" t="s">
         <v>763</v>
       </c>
       <c r="M153" s="172">
         <v>21</v>
       </c>
-      <c r="N153" s="216"/>
+      <c r="N153" s="222"/>
       <c r="O153" s="18"/>
     </row>
     <row r="154" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8515,13 +8584,13 @@
         <v>159</v>
       </c>
       <c r="H155" s="52"/>
-      <c r="I155" s="215">
+      <c r="I155" s="221">
         <v>45233</v>
       </c>
-      <c r="J155" s="216" t="s">
+      <c r="J155" s="222" t="s">
         <v>562</v>
       </c>
-      <c r="K155" s="216" t="s">
+      <c r="K155" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L155" s="169" t="s">
@@ -8530,7 +8599,7 @@
       <c r="M155" s="169">
         <v>2</v>
       </c>
-      <c r="N155" s="216" t="s">
+      <c r="N155" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O155" s="18"/>
@@ -8544,16 +8613,16 @@
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
       <c r="H156" s="52"/>
-      <c r="I156" s="215"/>
-      <c r="J156" s="216"/>
-      <c r="K156" s="216"/>
+      <c r="I156" s="221"/>
+      <c r="J156" s="222"/>
+      <c r="K156" s="222"/>
       <c r="L156" s="169" t="s">
         <v>765</v>
       </c>
       <c r="M156" s="169">
         <v>2</v>
       </c>
-      <c r="N156" s="216"/>
+      <c r="N156" s="222"/>
       <c r="O156" s="18"/>
     </row>
     <row r="157" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8596,13 +8665,13 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
       <c r="H158" s="52"/>
-      <c r="I158" s="215">
+      <c r="I158" s="221">
         <v>45233</v>
       </c>
-      <c r="J158" s="216" t="s">
+      <c r="J158" s="222" t="s">
         <v>561</v>
       </c>
-      <c r="K158" s="216" t="s">
+      <c r="K158" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L158" s="169" t="s">
@@ -8611,7 +8680,7 @@
       <c r="M158" s="169">
         <v>20</v>
       </c>
-      <c r="N158" s="216" t="s">
+      <c r="N158" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O158" s="18"/>
@@ -8639,16 +8708,16 @@
         <v>159</v>
       </c>
       <c r="H159" s="20"/>
-      <c r="I159" s="215"/>
-      <c r="J159" s="216"/>
-      <c r="K159" s="216"/>
+      <c r="I159" s="221"/>
+      <c r="J159" s="222"/>
+      <c r="K159" s="222"/>
       <c r="L159" s="169" t="s">
         <v>191</v>
       </c>
       <c r="M159" s="169">
         <v>100</v>
       </c>
-      <c r="N159" s="216"/>
+      <c r="N159" s="222"/>
       <c r="O159" s="18"/>
     </row>
     <row r="160" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8660,16 +8729,16 @@
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
       <c r="H160" s="52"/>
-      <c r="I160" s="215"/>
-      <c r="J160" s="216"/>
-      <c r="K160" s="216"/>
+      <c r="I160" s="221"/>
+      <c r="J160" s="222"/>
+      <c r="K160" s="222"/>
       <c r="L160" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M160" s="169">
         <v>5</v>
       </c>
-      <c r="N160" s="216"/>
+      <c r="N160" s="222"/>
       <c r="O160" s="18"/>
     </row>
     <row r="161" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8695,16 +8764,16 @@
         <v>159</v>
       </c>
       <c r="H161" s="20"/>
-      <c r="I161" s="215"/>
-      <c r="J161" s="216"/>
-      <c r="K161" s="216"/>
+      <c r="I161" s="221"/>
+      <c r="J161" s="222"/>
+      <c r="K161" s="222"/>
       <c r="L161" s="169" t="s">
         <v>184</v>
       </c>
       <c r="M161" s="169">
         <v>10</v>
       </c>
-      <c r="N161" s="216"/>
+      <c r="N161" s="222"/>
       <c r="O161" s="18"/>
     </row>
     <row r="162" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8716,26 +8785,26 @@
       <c r="F162" s="21"/>
       <c r="G162" s="21"/>
       <c r="H162" s="52"/>
-      <c r="I162" s="215"/>
-      <c r="J162" s="216"/>
-      <c r="K162" s="216"/>
+      <c r="I162" s="221"/>
+      <c r="J162" s="222"/>
+      <c r="K162" s="222"/>
       <c r="L162" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M162" s="169">
         <v>7</v>
       </c>
-      <c r="N162" s="216"/>
+      <c r="N162" s="222"/>
       <c r="O162" s="18"/>
     </row>
     <row r="163" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="215">
+      <c r="A163" s="221">
         <v>45199</v>
       </c>
-      <c r="B163" s="216" t="s">
+      <c r="B163" s="222" t="s">
         <v>506</v>
       </c>
-      <c r="C163" s="216" t="s">
+      <c r="C163" s="222" t="s">
         <v>476</v>
       </c>
       <c r="D163" s="152" t="s">
@@ -8744,48 +8813,48 @@
       <c r="E163" s="152">
         <v>6</v>
       </c>
-      <c r="F163" s="216" t="s">
+      <c r="F163" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G163" s="216" t="s">
+      <c r="G163" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H163" s="20"/>
-      <c r="I163" s="215"/>
-      <c r="J163" s="216"/>
-      <c r="K163" s="216"/>
+      <c r="I163" s="221"/>
+      <c r="J163" s="222"/>
+      <c r="K163" s="222"/>
       <c r="L163" s="169" t="s">
         <v>187</v>
       </c>
       <c r="M163" s="169">
         <v>9</v>
       </c>
-      <c r="N163" s="216"/>
+      <c r="N163" s="222"/>
       <c r="O163" s="18"/>
     </row>
     <row r="164" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="215"/>
-      <c r="B164" s="216"/>
-      <c r="C164" s="216"/>
+      <c r="A164" s="221"/>
+      <c r="B164" s="222"/>
+      <c r="C164" s="222"/>
       <c r="D164" s="152" t="s">
         <v>508</v>
       </c>
       <c r="E164" s="152">
         <v>1</v>
       </c>
-      <c r="F164" s="216"/>
-      <c r="G164" s="216"/>
+      <c r="F164" s="222"/>
+      <c r="G164" s="222"/>
       <c r="H164" s="20"/>
-      <c r="I164" s="215"/>
-      <c r="J164" s="216"/>
-      <c r="K164" s="216"/>
+      <c r="I164" s="221"/>
+      <c r="J164" s="222"/>
+      <c r="K164" s="222"/>
       <c r="L164" s="169" t="s">
         <v>185</v>
       </c>
       <c r="M164" s="169">
         <v>5</v>
       </c>
-      <c r="N164" s="216"/>
+      <c r="N164" s="222"/>
       <c r="O164" s="18"/>
     </row>
     <row r="165" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8806,13 +8875,13 @@
       <c r="O165" s="63"/>
     </row>
     <row r="166" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="215">
+      <c r="A166" s="221">
         <v>45199</v>
       </c>
-      <c r="B166" s="216" t="s">
+      <c r="B166" s="222" t="s">
         <v>510</v>
       </c>
-      <c r="C166" s="216" t="s">
+      <c r="C166" s="222" t="s">
         <v>509</v>
       </c>
       <c r="D166" s="152" t="s">
@@ -8821,20 +8890,20 @@
       <c r="E166" s="152">
         <v>20</v>
       </c>
-      <c r="F166" s="216" t="s">
+      <c r="F166" s="222" t="s">
         <v>140</v>
       </c>
-      <c r="G166" s="216" t="s">
+      <c r="G166" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H166" s="20"/>
-      <c r="I166" s="215">
+      <c r="I166" s="221">
         <v>45239</v>
       </c>
-      <c r="J166" s="216" t="s">
+      <c r="J166" s="222" t="s">
         <v>570</v>
       </c>
-      <c r="K166" s="216" t="s">
+      <c r="K166" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L166" s="100" t="s">
@@ -8843,34 +8912,34 @@
       <c r="M166" s="169">
         <v>5</v>
       </c>
-      <c r="N166" s="216" t="s">
+      <c r="N166" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O166" s="18"/>
     </row>
     <row r="167" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="215"/>
-      <c r="B167" s="216"/>
-      <c r="C167" s="216"/>
+      <c r="A167" s="221"/>
+      <c r="B167" s="222"/>
+      <c r="C167" s="222"/>
       <c r="D167" s="152" t="s">
         <v>512</v>
       </c>
       <c r="E167" s="152">
         <v>20</v>
       </c>
-      <c r="F167" s="216"/>
-      <c r="G167" s="216"/>
+      <c r="F167" s="222"/>
+      <c r="G167" s="222"/>
       <c r="H167" s="20"/>
-      <c r="I167" s="215"/>
-      <c r="J167" s="216"/>
-      <c r="K167" s="216"/>
+      <c r="I167" s="221"/>
+      <c r="J167" s="222"/>
+      <c r="K167" s="222"/>
       <c r="L167" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M167" s="169">
         <v>23</v>
       </c>
-      <c r="N167" s="216"/>
+      <c r="N167" s="222"/>
       <c r="O167" s="18"/>
     </row>
     <row r="168" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -8882,26 +8951,26 @@
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
       <c r="H168" s="52"/>
-      <c r="I168" s="215"/>
-      <c r="J168" s="216"/>
-      <c r="K168" s="216"/>
+      <c r="I168" s="221"/>
+      <c r="J168" s="222"/>
+      <c r="K168" s="222"/>
       <c r="L168" s="169" t="s">
         <v>187</v>
       </c>
       <c r="M168" s="169">
         <v>21</v>
       </c>
-      <c r="N168" s="216"/>
+      <c r="N168" s="222"/>
       <c r="O168" s="18"/>
     </row>
     <row r="169" spans="1:15" s="48" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="215">
+      <c r="A169" s="221">
         <v>45202</v>
       </c>
-      <c r="B169" s="216" t="s">
+      <c r="B169" s="222" t="s">
         <v>516</v>
       </c>
-      <c r="C169" s="216" t="s">
+      <c r="C169" s="222" t="s">
         <v>517</v>
       </c>
       <c r="D169" s="154" t="s">
@@ -8910,10 +8979,10 @@
       <c r="E169" s="154">
         <v>4</v>
       </c>
-      <c r="F169" s="216" t="s">
+      <c r="F169" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G169" s="216" t="s">
+      <c r="G169" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H169" s="62"/>
@@ -8926,25 +8995,25 @@
       <c r="O169" s="63"/>
     </row>
     <row r="170" spans="1:15" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A170" s="215"/>
-      <c r="B170" s="216"/>
-      <c r="C170" s="216"/>
+      <c r="A170" s="221"/>
+      <c r="B170" s="222"/>
+      <c r="C170" s="222"/>
       <c r="D170" s="154" t="s">
         <v>519</v>
       </c>
       <c r="E170" s="154">
         <v>4</v>
       </c>
-      <c r="F170" s="216"/>
-      <c r="G170" s="216"/>
+      <c r="F170" s="222"/>
+      <c r="G170" s="222"/>
       <c r="H170" s="20"/>
-      <c r="I170" s="215">
+      <c r="I170" s="221">
         <v>45239</v>
       </c>
-      <c r="J170" s="216" t="s">
+      <c r="J170" s="222" t="s">
         <v>571</v>
       </c>
-      <c r="K170" s="216" t="s">
+      <c r="K170" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L170" s="173" t="s">
@@ -8953,7 +9022,7 @@
       <c r="M170" s="169">
         <v>2</v>
       </c>
-      <c r="N170" s="216" t="s">
+      <c r="N170" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O170" s="18"/>
@@ -8967,16 +9036,16 @@
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
       <c r="H171" s="52"/>
-      <c r="I171" s="215"/>
-      <c r="J171" s="216"/>
-      <c r="K171" s="216"/>
+      <c r="I171" s="221"/>
+      <c r="J171" s="222"/>
+      <c r="K171" s="222"/>
       <c r="L171" s="99" t="s">
         <v>181</v>
       </c>
       <c r="M171" s="169">
         <v>16</v>
       </c>
-      <c r="N171" s="216"/>
+      <c r="N171" s="222"/>
       <c r="O171" s="18"/>
     </row>
     <row r="172" spans="1:15" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9160,13 +9229,13 @@
       <c r="O177" s="18"/>
     </row>
     <row r="178" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="215">
+      <c r="A178" s="221">
         <v>45233</v>
       </c>
-      <c r="B178" s="216" t="s">
+      <c r="B178" s="222" t="s">
         <v>556</v>
       </c>
-      <c r="C178" s="216" t="s">
+      <c r="C178" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D178" s="160" t="s">
@@ -9175,10 +9244,10 @@
       <c r="E178" s="160">
         <v>10</v>
       </c>
-      <c r="F178" s="216" t="s">
+      <c r="F178" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G178" s="216" t="s">
+      <c r="G178" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H178" s="62"/>
@@ -9191,17 +9260,17 @@
       <c r="O178" s="63"/>
     </row>
     <row r="179" spans="1:15" s="48" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A179" s="215"/>
-      <c r="B179" s="216"/>
-      <c r="C179" s="216"/>
+      <c r="A179" s="221"/>
+      <c r="B179" s="222"/>
+      <c r="C179" s="222"/>
       <c r="D179" s="160" t="s">
         <v>171</v>
       </c>
       <c r="E179" s="160">
         <v>7</v>
       </c>
-      <c r="F179" s="216"/>
-      <c r="G179" s="216"/>
+      <c r="F179" s="222"/>
+      <c r="G179" s="222"/>
       <c r="H179" s="20"/>
       <c r="I179" s="170">
         <v>45257</v>
@@ -9224,17 +9293,17 @@
       <c r="O179" s="18"/>
     </row>
     <row r="180" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="215"/>
-      <c r="B180" s="216"/>
-      <c r="C180" s="216"/>
+      <c r="A180" s="221"/>
+      <c r="B180" s="222"/>
+      <c r="C180" s="222"/>
       <c r="D180" s="160" t="s">
         <v>172</v>
       </c>
       <c r="E180" s="160">
         <v>9</v>
       </c>
-      <c r="F180" s="216"/>
-      <c r="G180" s="216"/>
+      <c r="F180" s="222"/>
+      <c r="G180" s="222"/>
       <c r="H180" s="62"/>
       <c r="I180" s="21"/>
       <c r="J180" s="21"/>
@@ -9245,17 +9314,17 @@
       <c r="O180" s="63"/>
     </row>
     <row r="181" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="215"/>
-      <c r="B181" s="216"/>
-      <c r="C181" s="216"/>
+      <c r="A181" s="221"/>
+      <c r="B181" s="222"/>
+      <c r="C181" s="222"/>
       <c r="D181" s="160" t="s">
         <v>205</v>
       </c>
       <c r="E181" s="160">
         <v>5</v>
       </c>
-      <c r="F181" s="216"/>
-      <c r="G181" s="216"/>
+      <c r="F181" s="222"/>
+      <c r="G181" s="222"/>
       <c r="H181" s="20"/>
       <c r="I181" s="192">
         <v>45258</v>
@@ -9355,13 +9424,13 @@
       <c r="O184" s="63"/>
     </row>
     <row r="185" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="215">
+      <c r="A185" s="221">
         <v>45232</v>
       </c>
-      <c r="B185" s="216" t="s">
+      <c r="B185" s="222" t="s">
         <v>563</v>
       </c>
-      <c r="C185" s="216" t="s">
+      <c r="C185" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D185" s="161" t="s">
@@ -9370,10 +9439,10 @@
       <c r="E185" s="161">
         <v>12</v>
       </c>
-      <c r="F185" s="216" t="s">
+      <c r="F185" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G185" s="216" t="s">
+      <c r="G185" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H185" s="20"/>
@@ -9398,17 +9467,17 @@
       <c r="O185" s="18"/>
     </row>
     <row r="186" spans="1:15" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="215"/>
-      <c r="B186" s="216"/>
-      <c r="C186" s="216"/>
+      <c r="A186" s="221"/>
+      <c r="B186" s="222"/>
+      <c r="C186" s="222"/>
       <c r="D186" s="161" t="s">
         <v>174</v>
       </c>
       <c r="E186" s="161">
         <v>10</v>
       </c>
-      <c r="F186" s="216"/>
-      <c r="G186" s="216"/>
+      <c r="F186" s="222"/>
+      <c r="G186" s="222"/>
       <c r="H186" s="62"/>
       <c r="I186" s="21"/>
       <c r="J186" s="21"/>
@@ -9487,13 +9556,13 @@
       <c r="F189" s="65"/>
       <c r="G189" s="65"/>
       <c r="H189" s="52"/>
-      <c r="I189" s="215">
+      <c r="I189" s="221">
         <v>45297</v>
       </c>
-      <c r="J189" s="216" t="s">
+      <c r="J189" s="222" t="s">
         <v>843</v>
       </c>
-      <c r="K189" s="216" t="s">
+      <c r="K189" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L189" s="100" t="s">
@@ -9502,7 +9571,7 @@
       <c r="M189" s="193">
         <v>15</v>
       </c>
-      <c r="N189" s="216" t="s">
+      <c r="N189" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O189" s="18"/>
@@ -9530,16 +9599,16 @@
         <v>159</v>
       </c>
       <c r="H190" s="20"/>
-      <c r="I190" s="215"/>
-      <c r="J190" s="216"/>
-      <c r="K190" s="216"/>
+      <c r="I190" s="221"/>
+      <c r="J190" s="222"/>
+      <c r="K190" s="222"/>
       <c r="L190" s="193" t="s">
         <v>191</v>
       </c>
       <c r="M190" s="193">
         <v>250</v>
       </c>
-      <c r="N190" s="216"/>
+      <c r="N190" s="222"/>
       <c r="O190" s="18"/>
     </row>
     <row r="191" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9551,16 +9620,16 @@
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
       <c r="H191" s="52"/>
-      <c r="I191" s="215"/>
-      <c r="J191" s="216"/>
-      <c r="K191" s="216"/>
+      <c r="I191" s="221"/>
+      <c r="J191" s="222"/>
+      <c r="K191" s="222"/>
       <c r="L191" s="193" t="s">
         <v>187</v>
       </c>
       <c r="M191" s="193">
         <v>19</v>
       </c>
-      <c r="N191" s="216"/>
+      <c r="N191" s="222"/>
       <c r="O191" s="18"/>
     </row>
     <row r="192" spans="1:15" s="48" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9586,16 +9655,16 @@
         <v>159</v>
       </c>
       <c r="H192" s="20"/>
-      <c r="I192" s="215"/>
-      <c r="J192" s="216"/>
-      <c r="K192" s="216"/>
+      <c r="I192" s="221"/>
+      <c r="J192" s="222"/>
+      <c r="K192" s="222"/>
       <c r="L192" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M192" s="193">
         <v>14</v>
       </c>
-      <c r="N192" s="216"/>
+      <c r="N192" s="222"/>
       <c r="O192" s="18"/>
     </row>
     <row r="193" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9607,16 +9676,16 @@
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
       <c r="H193" s="52"/>
-      <c r="I193" s="215"/>
-      <c r="J193" s="216"/>
-      <c r="K193" s="216"/>
+      <c r="I193" s="221"/>
+      <c r="J193" s="222"/>
+      <c r="K193" s="222"/>
       <c r="L193" s="193" t="s">
         <v>185</v>
       </c>
       <c r="M193" s="193">
         <v>5</v>
       </c>
-      <c r="N193" s="216"/>
+      <c r="N193" s="222"/>
       <c r="O193" s="18"/>
     </row>
     <row r="194" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9642,16 +9711,16 @@
         <v>159</v>
       </c>
       <c r="H194" s="20"/>
-      <c r="I194" s="215"/>
-      <c r="J194" s="216"/>
-      <c r="K194" s="216"/>
+      <c r="I194" s="221"/>
+      <c r="J194" s="222"/>
+      <c r="K194" s="222"/>
       <c r="L194" s="193" t="s">
         <v>284</v>
       </c>
       <c r="M194" s="193">
         <v>4</v>
       </c>
-      <c r="N194" s="216"/>
+      <c r="N194" s="222"/>
       <c r="O194" s="18"/>
     </row>
     <row r="195" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -9814,13 +9883,13 @@
         <v>159</v>
       </c>
       <c r="H200" s="20"/>
-      <c r="I200" s="215">
+      <c r="I200" s="221">
         <v>45301</v>
       </c>
-      <c r="J200" s="216" t="s">
+      <c r="J200" s="222" t="s">
         <v>859</v>
       </c>
-      <c r="K200" s="216" t="s">
+      <c r="K200" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L200" s="198" t="s">
@@ -9829,7 +9898,7 @@
       <c r="M200" s="198">
         <v>50</v>
       </c>
-      <c r="N200" s="216" t="s">
+      <c r="N200" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O200" s="18"/>
@@ -9843,111 +9912,111 @@
       <c r="F201" s="65"/>
       <c r="G201" s="65"/>
       <c r="H201" s="52"/>
-      <c r="I201" s="215"/>
-      <c r="J201" s="216"/>
-      <c r="K201" s="216"/>
+      <c r="I201" s="221"/>
+      <c r="J201" s="222"/>
+      <c r="K201" s="222"/>
       <c r="L201" s="198" t="s">
         <v>862</v>
       </c>
       <c r="M201" s="198">
         <v>10</v>
       </c>
-      <c r="N201" s="216"/>
+      <c r="N201" s="222"/>
       <c r="O201" s="18"/>
     </row>
     <row r="202" spans="1:15" s="48" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="215">
+      <c r="A202" s="221">
         <v>45265</v>
       </c>
-      <c r="B202" s="216" t="s">
+      <c r="B202" s="222" t="s">
         <v>777</v>
       </c>
-      <c r="C202" s="216" t="s">
+      <c r="C202" s="222" t="s">
         <v>724</v>
       </c>
       <c r="D202" s="176" t="s">
         <v>779</v>
       </c>
-      <c r="E202" s="216">
+      <c r="E202" s="222">
         <v>6</v>
       </c>
-      <c r="F202" s="216" t="s">
+      <c r="F202" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G202" s="216" t="s">
+      <c r="G202" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H202" s="20"/>
-      <c r="I202" s="215"/>
-      <c r="J202" s="216"/>
-      <c r="K202" s="216"/>
+      <c r="I202" s="221"/>
+      <c r="J202" s="222"/>
+      <c r="K202" s="222"/>
       <c r="L202" s="198" t="s">
         <v>187</v>
       </c>
       <c r="M202" s="198">
         <v>1</v>
       </c>
-      <c r="N202" s="216"/>
+      <c r="N202" s="222"/>
       <c r="O202" s="18"/>
     </row>
     <row r="203" spans="1:15" s="48" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="215"/>
-      <c r="B203" s="216"/>
-      <c r="C203" s="216"/>
+      <c r="A203" s="221"/>
+      <c r="B203" s="222"/>
+      <c r="C203" s="222"/>
       <c r="D203" s="176" t="s">
         <v>780</v>
       </c>
-      <c r="E203" s="216"/>
-      <c r="F203" s="216"/>
-      <c r="G203" s="216"/>
+      <c r="E203" s="222"/>
+      <c r="F203" s="222"/>
+      <c r="G203" s="222"/>
       <c r="H203" s="20"/>
-      <c r="I203" s="215"/>
-      <c r="J203" s="216"/>
-      <c r="K203" s="216"/>
+      <c r="I203" s="221"/>
+      <c r="J203" s="222"/>
+      <c r="K203" s="222"/>
       <c r="L203" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M203" s="198">
         <v>16</v>
       </c>
-      <c r="N203" s="216"/>
+      <c r="N203" s="222"/>
       <c r="O203" s="18"/>
     </row>
     <row r="204" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="215"/>
-      <c r="B204" s="216"/>
-      <c r="C204" s="216"/>
+      <c r="A204" s="221"/>
+      <c r="B204" s="222"/>
+      <c r="C204" s="222"/>
       <c r="D204" s="176" t="s">
         <v>781</v>
       </c>
-      <c r="E204" s="216"/>
-      <c r="F204" s="216"/>
-      <c r="G204" s="216"/>
+      <c r="E204" s="222"/>
+      <c r="F204" s="222"/>
+      <c r="G204" s="222"/>
       <c r="H204" s="20"/>
-      <c r="I204" s="215"/>
-      <c r="J204" s="216"/>
-      <c r="K204" s="216"/>
+      <c r="I204" s="221"/>
+      <c r="J204" s="222"/>
+      <c r="K204" s="222"/>
       <c r="L204" s="198" t="s">
         <v>284</v>
       </c>
       <c r="M204" s="198">
         <v>6</v>
       </c>
-      <c r="N204" s="216"/>
+      <c r="N204" s="222"/>
       <c r="O204" s="18"/>
     </row>
     <row r="205" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="215"/>
-      <c r="B205" s="216"/>
-      <c r="C205" s="216"/>
+      <c r="A205" s="221"/>
+      <c r="B205" s="222"/>
+      <c r="C205" s="222"/>
       <c r="D205" s="176" t="s">
         <v>779</v>
       </c>
-      <c r="E205" s="216">
+      <c r="E205" s="222">
         <v>6</v>
       </c>
-      <c r="F205" s="216"/>
-      <c r="G205" s="216"/>
+      <c r="F205" s="222"/>
+      <c r="G205" s="222"/>
       <c r="H205" s="62"/>
       <c r="I205" s="21"/>
       <c r="J205" s="21"/>
@@ -9958,23 +10027,23 @@
       <c r="O205" s="63"/>
     </row>
     <row r="206" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="215"/>
-      <c r="B206" s="216"/>
-      <c r="C206" s="216"/>
+      <c r="A206" s="221"/>
+      <c r="B206" s="222"/>
+      <c r="C206" s="222"/>
       <c r="D206" s="176" t="s">
         <v>782</v>
       </c>
-      <c r="E206" s="216"/>
-      <c r="F206" s="216"/>
-      <c r="G206" s="216"/>
+      <c r="E206" s="222"/>
+      <c r="F206" s="222"/>
+      <c r="G206" s="222"/>
       <c r="H206" s="20"/>
-      <c r="I206" s="215">
+      <c r="I206" s="221">
         <v>45342</v>
       </c>
-      <c r="J206" s="216" t="s">
+      <c r="J206" s="222" t="s">
         <v>896</v>
       </c>
-      <c r="K206" s="216" t="s">
+      <c r="K206" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L206" s="100" t="s">
@@ -9983,32 +10052,32 @@
       <c r="M206" s="207">
         <v>10</v>
       </c>
-      <c r="N206" s="216" t="s">
+      <c r="N206" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O206" s="18"/>
     </row>
     <row r="207" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="215"/>
-      <c r="B207" s="216"/>
-      <c r="C207" s="216"/>
+      <c r="A207" s="221"/>
+      <c r="B207" s="222"/>
+      <c r="C207" s="222"/>
       <c r="D207" s="176" t="s">
         <v>781</v>
       </c>
-      <c r="E207" s="216"/>
-      <c r="F207" s="216"/>
-      <c r="G207" s="216"/>
+      <c r="E207" s="222"/>
+      <c r="F207" s="222"/>
+      <c r="G207" s="222"/>
       <c r="H207" s="20"/>
-      <c r="I207" s="215"/>
-      <c r="J207" s="216"/>
-      <c r="K207" s="216"/>
+      <c r="I207" s="221"/>
+      <c r="J207" s="222"/>
+      <c r="K207" s="222"/>
       <c r="L207" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M207" s="207">
         <v>10</v>
       </c>
-      <c r="N207" s="216"/>
+      <c r="N207" s="222"/>
       <c r="O207" s="18"/>
     </row>
     <row r="208" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10020,26 +10089,26 @@
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
       <c r="H208" s="52"/>
-      <c r="I208" s="215"/>
-      <c r="J208" s="216"/>
-      <c r="K208" s="216"/>
+      <c r="I208" s="221"/>
+      <c r="J208" s="222"/>
+      <c r="K208" s="222"/>
       <c r="L208" s="207" t="s">
         <v>849</v>
       </c>
       <c r="M208" s="207">
         <v>4</v>
       </c>
-      <c r="N208" s="216"/>
+      <c r="N208" s="222"/>
       <c r="O208" s="18"/>
     </row>
     <row r="209" spans="1:15" s="48" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="215">
+      <c r="A209" s="221">
         <v>45265</v>
       </c>
-      <c r="B209" s="216">
+      <c r="B209" s="222">
         <v>4270</v>
       </c>
-      <c r="C209" s="216" t="s">
+      <c r="C209" s="222" t="s">
         <v>271</v>
       </c>
       <c r="D209" s="177" t="s">
@@ -10055,22 +10124,22 @@
         <v>159</v>
       </c>
       <c r="H209" s="52"/>
-      <c r="I209" s="215"/>
-      <c r="J209" s="216"/>
-      <c r="K209" s="216"/>
+      <c r="I209" s="221"/>
+      <c r="J209" s="222"/>
+      <c r="K209" s="222"/>
       <c r="L209" s="207" t="s">
         <v>914</v>
       </c>
       <c r="M209" s="207">
         <v>5</v>
       </c>
-      <c r="N209" s="216"/>
+      <c r="N209" s="222"/>
       <c r="O209" s="18"/>
     </row>
     <row r="210" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="215"/>
-      <c r="B210" s="216"/>
-      <c r="C210" s="216"/>
+      <c r="A210" s="221"/>
+      <c r="B210" s="222"/>
+      <c r="C210" s="222"/>
       <c r="D210" s="177" t="s">
         <v>789</v>
       </c>
@@ -10080,22 +10149,22 @@
       <c r="F210" s="177"/>
       <c r="G210" s="177"/>
       <c r="H210" s="52"/>
-      <c r="I210" s="215"/>
-      <c r="J210" s="216"/>
-      <c r="K210" s="216"/>
+      <c r="I210" s="221"/>
+      <c r="J210" s="222"/>
+      <c r="K210" s="222"/>
       <c r="L210" s="207" t="s">
         <v>190</v>
       </c>
       <c r="M210" s="207">
         <v>30</v>
       </c>
-      <c r="N210" s="216"/>
+      <c r="N210" s="222"/>
       <c r="O210" s="18"/>
     </row>
     <row r="211" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="215"/>
-      <c r="B211" s="216"/>
-      <c r="C211" s="216"/>
+      <c r="A211" s="221"/>
+      <c r="B211" s="222"/>
+      <c r="C211" s="222"/>
       <c r="D211" s="177" t="s">
         <v>790</v>
       </c>
@@ -10105,16 +10174,16 @@
       <c r="F211" s="177"/>
       <c r="G211" s="177"/>
       <c r="H211" s="52"/>
-      <c r="I211" s="215"/>
-      <c r="J211" s="216"/>
-      <c r="K211" s="216"/>
+      <c r="I211" s="221"/>
+      <c r="J211" s="222"/>
+      <c r="K211" s="222"/>
       <c r="L211" s="207" t="s">
         <v>191</v>
       </c>
       <c r="M211" s="207">
         <v>30</v>
       </c>
-      <c r="N211" s="216"/>
+      <c r="N211" s="222"/>
       <c r="O211" s="18"/>
     </row>
     <row r="212" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10157,13 +10226,13 @@
         <v>159</v>
       </c>
       <c r="H213" s="20"/>
-      <c r="I213" s="215">
+      <c r="I213" s="221">
         <v>45358</v>
       </c>
-      <c r="J213" s="216" t="s">
+      <c r="J213" s="222" t="s">
         <v>935</v>
       </c>
-      <c r="K213" s="216" t="s">
+      <c r="K213" s="222" t="s">
         <v>178</v>
       </c>
       <c r="L213" s="211" t="s">
@@ -10172,7 +10241,7 @@
       <c r="M213" s="211">
         <v>11</v>
       </c>
-      <c r="N213" s="216" t="s">
+      <c r="N213" s="222" t="s">
         <v>176</v>
       </c>
       <c r="O213" s="18"/>
@@ -10186,16 +10255,16 @@
       <c r="F214" s="65"/>
       <c r="G214" s="65"/>
       <c r="H214" s="52"/>
-      <c r="I214" s="215"/>
-      <c r="J214" s="216"/>
-      <c r="K214" s="216"/>
+      <c r="I214" s="221"/>
+      <c r="J214" s="222"/>
+      <c r="K214" s="222"/>
       <c r="L214" s="211" t="s">
         <v>728</v>
       </c>
       <c r="M214" s="211">
         <v>15</v>
       </c>
-      <c r="N214" s="216"/>
+      <c r="N214" s="222"/>
       <c r="O214" s="18"/>
     </row>
     <row r="215" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10221,16 +10290,16 @@
         <v>159</v>
       </c>
       <c r="H215" s="20"/>
-      <c r="I215" s="215"/>
-      <c r="J215" s="216"/>
-      <c r="K215" s="216"/>
+      <c r="I215" s="221"/>
+      <c r="J215" s="222"/>
+      <c r="K215" s="222"/>
       <c r="L215" s="211" t="s">
         <v>936</v>
       </c>
       <c r="M215" s="211">
         <v>10</v>
       </c>
-      <c r="N215" s="216"/>
+      <c r="N215" s="222"/>
       <c r="O215" s="18"/>
     </row>
     <row r="216" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10290,12 +10359,12 @@
       <c r="F218" s="65"/>
       <c r="G218" s="65"/>
       <c r="H218" s="52"/>
-      <c r="I218" s="211"/>
-      <c r="J218" s="211"/>
-      <c r="K218" s="211"/>
+      <c r="I218" s="218"/>
+      <c r="J218" s="218"/>
+      <c r="K218" s="218"/>
       <c r="L218" s="211"/>
       <c r="M218" s="211"/>
-      <c r="N218" s="211"/>
+      <c r="N218" s="218"/>
       <c r="O218" s="18"/>
     </row>
     <row r="219" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10321,12 +10390,12 @@
         <v>159</v>
       </c>
       <c r="H219" s="20"/>
-      <c r="I219" s="211"/>
-      <c r="J219" s="211"/>
-      <c r="K219" s="211"/>
+      <c r="I219" s="218"/>
+      <c r="J219" s="218"/>
+      <c r="K219" s="218"/>
       <c r="L219" s="211"/>
       <c r="M219" s="211"/>
-      <c r="N219" s="211"/>
+      <c r="N219" s="218"/>
       <c r="O219" s="18"/>
     </row>
     <row r="220" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10338,12 +10407,12 @@
       <c r="F220" s="65"/>
       <c r="G220" s="65"/>
       <c r="H220" s="52"/>
-      <c r="I220" s="211"/>
-      <c r="J220" s="211"/>
-      <c r="K220" s="211"/>
+      <c r="I220" s="218"/>
+      <c r="J220" s="218"/>
+      <c r="K220" s="218"/>
       <c r="L220" s="211"/>
       <c r="M220" s="211"/>
-      <c r="N220" s="211"/>
+      <c r="N220" s="218"/>
       <c r="O220" s="18"/>
     </row>
     <row r="221" spans="1:15" s="48" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10369,12 +10438,12 @@
         <v>159</v>
       </c>
       <c r="H221" s="20"/>
-      <c r="I221" s="207"/>
-      <c r="J221" s="207"/>
-      <c r="K221" s="207"/>
+      <c r="I221" s="218"/>
+      <c r="J221" s="218"/>
+      <c r="K221" s="218"/>
       <c r="L221" s="207"/>
       <c r="M221" s="207"/>
-      <c r="N221" s="207"/>
+      <c r="N221" s="218"/>
       <c r="O221" s="18"/>
     </row>
     <row r="222" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -10386,22 +10455,22 @@
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
       <c r="H222" s="52"/>
-      <c r="I222" s="207"/>
-      <c r="J222" s="207"/>
-      <c r="K222" s="207"/>
+      <c r="I222" s="218"/>
+      <c r="J222" s="218"/>
+      <c r="K222" s="218"/>
       <c r="L222" s="207"/>
       <c r="M222" s="207"/>
-      <c r="N222" s="207"/>
+      <c r="N222" s="218"/>
       <c r="O222" s="18"/>
     </row>
     <row r="223" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="215">
+      <c r="A223" s="221">
         <v>45290</v>
       </c>
-      <c r="B223" s="216" t="s">
+      <c r="B223" s="222" t="s">
         <v>821</v>
       </c>
-      <c r="C223" s="216" t="s">
+      <c r="C223" s="222" t="s">
         <v>811</v>
       </c>
       <c r="D223" s="186" t="s">
@@ -10410,10 +10479,10 @@
       <c r="E223" s="186">
         <v>1</v>
       </c>
-      <c r="F223" s="216" t="s">
+      <c r="F223" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G223" s="216" t="s">
+      <c r="G223" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H223" s="20"/>
@@ -10426,17 +10495,17 @@
       <c r="O223" s="18"/>
     </row>
     <row r="224" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="215"/>
-      <c r="B224" s="216"/>
-      <c r="C224" s="216"/>
+      <c r="A224" s="221"/>
+      <c r="B224" s="222"/>
+      <c r="C224" s="222"/>
       <c r="D224" s="186" t="s">
         <v>825</v>
       </c>
       <c r="E224" s="186">
         <v>100</v>
       </c>
-      <c r="F224" s="216"/>
-      <c r="G224" s="216"/>
+      <c r="F224" s="222"/>
+      <c r="G224" s="222"/>
       <c r="H224" s="20"/>
       <c r="I224" s="207"/>
       <c r="J224" s="207"/>
@@ -10447,17 +10516,17 @@
       <c r="O224" s="18"/>
     </row>
     <row r="225" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="215"/>
-      <c r="B225" s="216"/>
-      <c r="C225" s="216"/>
+      <c r="A225" s="221"/>
+      <c r="B225" s="222"/>
+      <c r="C225" s="222"/>
       <c r="D225" s="186" t="s">
         <v>826</v>
       </c>
       <c r="E225" s="186">
         <v>1</v>
       </c>
-      <c r="F225" s="216"/>
-      <c r="G225" s="216"/>
+      <c r="F225" s="222"/>
+      <c r="G225" s="222"/>
       <c r="H225" s="20"/>
       <c r="I225" s="207"/>
       <c r="J225" s="207"/>
@@ -10468,17 +10537,17 @@
       <c r="O225" s="18"/>
     </row>
     <row r="226" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="215"/>
-      <c r="B226" s="216"/>
-      <c r="C226" s="216"/>
+      <c r="A226" s="221"/>
+      <c r="B226" s="222"/>
+      <c r="C226" s="222"/>
       <c r="D226" s="186" t="s">
         <v>827</v>
       </c>
       <c r="E226" s="186">
         <v>1</v>
       </c>
-      <c r="F226" s="216"/>
-      <c r="G226" s="216"/>
+      <c r="F226" s="222"/>
+      <c r="G226" s="222"/>
       <c r="H226" s="20"/>
       <c r="I226" s="207"/>
       <c r="J226" s="207"/>
@@ -10554,13 +10623,13 @@
       <c r="O229" s="18"/>
     </row>
     <row r="230" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="215">
+      <c r="A230" s="221">
         <v>45292</v>
       </c>
-      <c r="B230" s="216" t="s">
+      <c r="B230" s="222" t="s">
         <v>823</v>
       </c>
-      <c r="C230" s="216" t="s">
+      <c r="C230" s="222" t="s">
         <v>242</v>
       </c>
       <c r="D230" s="186" t="s">
@@ -10569,10 +10638,10 @@
       <c r="E230" s="186">
         <v>1</v>
       </c>
-      <c r="F230" s="216" t="s">
+      <c r="F230" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G230" s="216" t="s">
+      <c r="G230" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H230" s="20"/>
@@ -10585,17 +10654,17 @@
       <c r="O230" s="18"/>
     </row>
     <row r="231" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="215"/>
-      <c r="B231" s="216"/>
-      <c r="C231" s="216"/>
+      <c r="A231" s="221"/>
+      <c r="B231" s="222"/>
+      <c r="C231" s="222"/>
       <c r="D231" s="186" t="s">
         <v>830</v>
       </c>
       <c r="E231" s="186">
         <v>1</v>
       </c>
-      <c r="F231" s="216"/>
-      <c r="G231" s="216"/>
+      <c r="F231" s="222"/>
+      <c r="G231" s="222"/>
       <c r="H231" s="20"/>
       <c r="I231" s="207"/>
       <c r="J231" s="207"/>
@@ -10671,13 +10740,13 @@
       <c r="O234" s="18"/>
     </row>
     <row r="235" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="215">
+      <c r="A235" s="221">
         <v>45297</v>
       </c>
-      <c r="B235" s="216" t="s">
+      <c r="B235" s="222" t="s">
         <v>839</v>
       </c>
-      <c r="C235" s="216" t="s">
+      <c r="C235" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D235" s="189" t="s">
@@ -10686,10 +10755,10 @@
       <c r="E235" s="189">
         <v>10</v>
       </c>
-      <c r="F235" s="216" t="s">
+      <c r="F235" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G235" s="216" t="s">
+      <c r="G235" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H235" s="20"/>
@@ -10702,17 +10771,17 @@
       <c r="O235" s="18"/>
     </row>
     <row r="236" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="215"/>
-      <c r="B236" s="216"/>
-      <c r="C236" s="216"/>
+      <c r="A236" s="221"/>
+      <c r="B236" s="222"/>
+      <c r="C236" s="222"/>
       <c r="D236" s="189" t="s">
         <v>172</v>
       </c>
       <c r="E236" s="189">
         <v>19</v>
       </c>
-      <c r="F236" s="216"/>
-      <c r="G236" s="216"/>
+      <c r="F236" s="222"/>
+      <c r="G236" s="222"/>
       <c r="H236" s="20"/>
       <c r="I236" s="207"/>
       <c r="J236" s="207"/>
@@ -10723,17 +10792,17 @@
       <c r="O236" s="18"/>
     </row>
     <row r="237" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="215"/>
-      <c r="B237" s="216"/>
-      <c r="C237" s="216"/>
+      <c r="A237" s="221"/>
+      <c r="B237" s="222"/>
+      <c r="C237" s="222"/>
       <c r="D237" s="189" t="s">
         <v>171</v>
       </c>
       <c r="E237" s="189">
         <v>14</v>
       </c>
-      <c r="F237" s="216"/>
-      <c r="G237" s="216"/>
+      <c r="F237" s="222"/>
+      <c r="G237" s="222"/>
       <c r="H237" s="20"/>
       <c r="I237" s="207"/>
       <c r="J237" s="207"/>
@@ -10744,17 +10813,17 @@
       <c r="O237" s="18"/>
     </row>
     <row r="238" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="215"/>
-      <c r="B238" s="216"/>
-      <c r="C238" s="216"/>
+      <c r="A238" s="221"/>
+      <c r="B238" s="222"/>
+      <c r="C238" s="222"/>
       <c r="D238" s="189" t="s">
         <v>840</v>
       </c>
       <c r="E238" s="189">
         <v>5</v>
       </c>
-      <c r="F238" s="216"/>
-      <c r="G238" s="216"/>
+      <c r="F238" s="222"/>
+      <c r="G238" s="222"/>
       <c r="H238" s="20"/>
       <c r="I238" s="207"/>
       <c r="J238" s="207"/>
@@ -10765,17 +10834,17 @@
       <c r="O238" s="18"/>
     </row>
     <row r="239" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="215"/>
-      <c r="B239" s="216"/>
-      <c r="C239" s="216"/>
+      <c r="A239" s="221"/>
+      <c r="B239" s="222"/>
+      <c r="C239" s="222"/>
       <c r="D239" s="189" t="s">
         <v>291</v>
       </c>
       <c r="E239" s="189">
         <v>10</v>
       </c>
-      <c r="F239" s="216"/>
-      <c r="G239" s="216"/>
+      <c r="F239" s="222"/>
+      <c r="G239" s="222"/>
       <c r="H239" s="20"/>
       <c r="I239" s="207"/>
       <c r="J239" s="207"/>
@@ -10851,25 +10920,25 @@
       <c r="O242" s="18"/>
     </row>
     <row r="243" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="215">
+      <c r="A243" s="221">
         <v>45299</v>
       </c>
-      <c r="B243" s="216" t="s">
+      <c r="B243" s="222" t="s">
         <v>853</v>
       </c>
-      <c r="C243" s="216" t="s">
+      <c r="C243" s="222" t="s">
         <v>724</v>
       </c>
       <c r="D243" s="194" t="s">
         <v>779</v>
       </c>
-      <c r="E243" s="216">
+      <c r="E243" s="222">
         <v>2</v>
       </c>
-      <c r="F243" s="216" t="s">
+      <c r="F243" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G243" s="216" t="s">
+      <c r="G243" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H243" s="20"/>
@@ -10882,15 +10951,15 @@
       <c r="O243" s="18"/>
     </row>
     <row r="244" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="215"/>
-      <c r="B244" s="216"/>
-      <c r="C244" s="216"/>
+      <c r="A244" s="221"/>
+      <c r="B244" s="222"/>
+      <c r="C244" s="222"/>
       <c r="D244" s="194" t="s">
         <v>780</v>
       </c>
-      <c r="E244" s="216"/>
-      <c r="F244" s="216"/>
-      <c r="G244" s="216"/>
+      <c r="E244" s="222"/>
+      <c r="F244" s="222"/>
+      <c r="G244" s="222"/>
       <c r="H244" s="20"/>
       <c r="I244" s="207"/>
       <c r="J244" s="207"/>
@@ -10901,15 +10970,15 @@
       <c r="O244" s="18"/>
     </row>
     <row r="245" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="215"/>
-      <c r="B245" s="216"/>
-      <c r="C245" s="216"/>
+      <c r="A245" s="221"/>
+      <c r="B245" s="222"/>
+      <c r="C245" s="222"/>
       <c r="D245" s="194" t="s">
         <v>781</v>
       </c>
-      <c r="E245" s="216"/>
-      <c r="F245" s="216"/>
-      <c r="G245" s="216"/>
+      <c r="E245" s="222"/>
+      <c r="F245" s="222"/>
+      <c r="G245" s="222"/>
       <c r="H245" s="20"/>
       <c r="I245" s="207"/>
       <c r="J245" s="207"/>
@@ -11033,13 +11102,13 @@
       <c r="O250" s="18"/>
     </row>
     <row r="251" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="215">
+      <c r="A251" s="221">
         <v>45301</v>
       </c>
-      <c r="B251" s="216" t="s">
+      <c r="B251" s="222" t="s">
         <v>860</v>
       </c>
-      <c r="C251" s="216" t="s">
+      <c r="C251" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D251" s="197" t="s">
@@ -11048,10 +11117,10 @@
       <c r="E251" s="197">
         <v>1</v>
       </c>
-      <c r="F251" s="216" t="s">
+      <c r="F251" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="G251" s="216" t="s">
+      <c r="G251" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H251" s="20"/>
@@ -11064,17 +11133,17 @@
       <c r="O251" s="18"/>
     </row>
     <row r="252" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="215"/>
-      <c r="B252" s="216"/>
-      <c r="C252" s="216"/>
+      <c r="A252" s="221"/>
+      <c r="B252" s="222"/>
+      <c r="C252" s="222"/>
       <c r="D252" s="197" t="s">
         <v>171</v>
       </c>
       <c r="E252" s="197">
         <v>16</v>
       </c>
-      <c r="F252" s="216"/>
-      <c r="G252" s="216"/>
+      <c r="F252" s="222"/>
+      <c r="G252" s="222"/>
       <c r="H252" s="20"/>
       <c r="O252" s="18"/>
     </row>
@@ -11198,94 +11267,94 @@
       <c r="O259" s="18"/>
     </row>
     <row r="260" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="215">
+      <c r="A260" s="221">
         <v>45328</v>
       </c>
-      <c r="B260" s="216" t="s">
+      <c r="B260" s="222" t="s">
         <v>883</v>
       </c>
-      <c r="C260" s="216" t="s">
+      <c r="C260" s="222" t="s">
         <v>724</v>
       </c>
       <c r="D260" s="204" t="s">
         <v>779</v>
       </c>
-      <c r="E260" s="216">
+      <c r="E260" s="222">
         <v>2</v>
       </c>
-      <c r="F260" s="216" t="s">
+      <c r="F260" s="222" t="s">
         <v>140</v>
       </c>
-      <c r="G260" s="216" t="s">
+      <c r="G260" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H260" s="20"/>
       <c r="O260" s="18"/>
     </row>
     <row r="261" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="215"/>
-      <c r="B261" s="216"/>
-      <c r="C261" s="216"/>
+      <c r="A261" s="221"/>
+      <c r="B261" s="222"/>
+      <c r="C261" s="222"/>
       <c r="D261" s="204" t="s">
         <v>780</v>
       </c>
-      <c r="E261" s="216"/>
-      <c r="F261" s="216"/>
-      <c r="G261" s="216"/>
+      <c r="E261" s="222"/>
+      <c r="F261" s="222"/>
+      <c r="G261" s="222"/>
       <c r="H261" s="20"/>
       <c r="O261" s="18"/>
     </row>
     <row r="262" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="215"/>
-      <c r="B262" s="216"/>
-      <c r="C262" s="216"/>
+      <c r="A262" s="221"/>
+      <c r="B262" s="222"/>
+      <c r="C262" s="222"/>
       <c r="D262" s="204" t="s">
         <v>781</v>
       </c>
-      <c r="E262" s="216"/>
-      <c r="F262" s="216"/>
-      <c r="G262" s="216"/>
+      <c r="E262" s="222"/>
+      <c r="F262" s="222"/>
+      <c r="G262" s="222"/>
       <c r="H262" s="20"/>
       <c r="O262" s="18"/>
     </row>
     <row r="263" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="215"/>
-      <c r="B263" s="216"/>
-      <c r="C263" s="216"/>
+      <c r="A263" s="221"/>
+      <c r="B263" s="222"/>
+      <c r="C263" s="222"/>
       <c r="D263" s="204" t="s">
         <v>779</v>
       </c>
-      <c r="E263" s="216">
+      <c r="E263" s="222">
         <v>2</v>
       </c>
-      <c r="F263" s="216"/>
-      <c r="G263" s="216"/>
+      <c r="F263" s="222"/>
+      <c r="G263" s="222"/>
       <c r="H263" s="20"/>
       <c r="O263" s="18"/>
     </row>
     <row r="264" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="215"/>
-      <c r="B264" s="216"/>
-      <c r="C264" s="216"/>
+      <c r="A264" s="221"/>
+      <c r="B264" s="222"/>
+      <c r="C264" s="222"/>
       <c r="D264" s="204" t="s">
         <v>782</v>
       </c>
-      <c r="E264" s="216"/>
-      <c r="F264" s="216"/>
-      <c r="G264" s="216"/>
+      <c r="E264" s="222"/>
+      <c r="F264" s="222"/>
+      <c r="G264" s="222"/>
       <c r="H264" s="20"/>
       <c r="O264" s="18"/>
     </row>
     <row r="265" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="215"/>
-      <c r="B265" s="216"/>
-      <c r="C265" s="216"/>
+      <c r="A265" s="221"/>
+      <c r="B265" s="222"/>
+      <c r="C265" s="222"/>
       <c r="D265" s="204" t="s">
         <v>781</v>
       </c>
-      <c r="E265" s="216"/>
-      <c r="F265" s="216"/>
-      <c r="G265" s="216"/>
+      <c r="E265" s="222"/>
+      <c r="F265" s="222"/>
+      <c r="G265" s="222"/>
       <c r="H265" s="20"/>
       <c r="O265" s="18"/>
     </row>
@@ -11301,13 +11370,13 @@
       <c r="O266" s="18"/>
     </row>
     <row r="267" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="215">
+      <c r="A267" s="221">
         <v>45334</v>
       </c>
-      <c r="B267" s="216" t="s">
+      <c r="B267" s="222" t="s">
         <v>888</v>
       </c>
-      <c r="C267" s="216" t="s">
+      <c r="C267" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D267" s="204" t="s">
@@ -11316,42 +11385,42 @@
       <c r="E267" s="204">
         <v>10</v>
       </c>
-      <c r="F267" s="216" t="s">
+      <c r="F267" s="222" t="s">
         <v>887</v>
       </c>
-      <c r="G267" s="216" t="s">
+      <c r="G267" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H267" s="20"/>
       <c r="O267" s="18"/>
     </row>
     <row r="268" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="215"/>
-      <c r="B268" s="216"/>
-      <c r="C268" s="216"/>
+      <c r="A268" s="221"/>
+      <c r="B268" s="222"/>
+      <c r="C268" s="222"/>
       <c r="D268" s="204" t="s">
         <v>171</v>
       </c>
       <c r="E268" s="204">
         <v>10</v>
       </c>
-      <c r="F268" s="216"/>
-      <c r="G268" s="216"/>
+      <c r="F268" s="222"/>
+      <c r="G268" s="222"/>
       <c r="H268" s="20"/>
       <c r="O268" s="18"/>
     </row>
     <row r="269" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="215"/>
-      <c r="B269" s="216"/>
-      <c r="C269" s="216"/>
+      <c r="A269" s="221"/>
+      <c r="B269" s="222"/>
+      <c r="C269" s="222"/>
       <c r="D269" s="204" t="s">
         <v>318</v>
       </c>
       <c r="E269" s="204">
         <v>5</v>
       </c>
-      <c r="F269" s="216"/>
-      <c r="G269" s="216"/>
+      <c r="F269" s="222"/>
+      <c r="G269" s="222"/>
       <c r="H269" s="20"/>
       <c r="O269" s="18"/>
     </row>
@@ -11367,13 +11436,13 @@
       <c r="O270" s="18"/>
     </row>
     <row r="271" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="215">
+      <c r="A271" s="221">
         <v>45336</v>
       </c>
-      <c r="B271" s="216" t="s">
+      <c r="B271" s="222" t="s">
         <v>891</v>
       </c>
-      <c r="C271" s="217" t="s">
+      <c r="C271" s="223" t="s">
         <v>163</v>
       </c>
       <c r="D271" s="206" t="s">
@@ -11382,27 +11451,27 @@
       <c r="E271" s="206">
         <v>30</v>
       </c>
-      <c r="F271" s="216" t="s">
+      <c r="F271" s="222" t="s">
         <v>887</v>
       </c>
-      <c r="G271" s="216" t="s">
+      <c r="G271" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H271" s="20"/>
       <c r="O271" s="18"/>
     </row>
     <row r="272" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="215"/>
-      <c r="B272" s="216"/>
-      <c r="C272" s="217"/>
+      <c r="A272" s="221"/>
+      <c r="B272" s="222"/>
+      <c r="C272" s="223"/>
       <c r="D272" s="206" t="s">
         <v>175</v>
       </c>
       <c r="E272" s="206">
         <v>30</v>
       </c>
-      <c r="F272" s="216"/>
-      <c r="G272" s="216"/>
+      <c r="F272" s="222"/>
+      <c r="G272" s="222"/>
       <c r="H272" s="20"/>
       <c r="O272" s="18"/>
     </row>
@@ -11454,13 +11523,13 @@
       <c r="O275" s="18"/>
     </row>
     <row r="276" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="215">
+      <c r="A276" s="221">
         <v>45357</v>
       </c>
-      <c r="B276" s="216" t="s">
+      <c r="B276" s="222" t="s">
         <v>929</v>
       </c>
-      <c r="C276" s="216" t="s">
+      <c r="C276" s="222" t="s">
         <v>169</v>
       </c>
       <c r="D276" s="209" t="s">
@@ -11469,27 +11538,27 @@
       <c r="E276" s="209">
         <v>11</v>
       </c>
-      <c r="F276" s="216" t="s">
+      <c r="F276" s="222" t="s">
         <v>887</v>
       </c>
-      <c r="G276" s="216" t="s">
+      <c r="G276" s="222" t="s">
         <v>159</v>
       </c>
       <c r="H276" s="20"/>
       <c r="O276" s="18"/>
     </row>
     <row r="277" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="215"/>
-      <c r="B277" s="216"/>
-      <c r="C277" s="216"/>
+      <c r="A277" s="221"/>
+      <c r="B277" s="222"/>
+      <c r="C277" s="222"/>
       <c r="D277" s="209" t="s">
         <v>171</v>
       </c>
       <c r="E277" s="209">
         <v>5</v>
       </c>
-      <c r="F277" s="216"/>
-      <c r="G277" s="216"/>
+      <c r="F277" s="222"/>
+      <c r="G277" s="222"/>
       <c r="H277" s="20"/>
       <c r="O277" s="18"/>
     </row>
@@ -11505,13 +11574,13 @@
       <c r="O278" s="18"/>
     </row>
     <row r="279" spans="1:15" s="48" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="215">
+      <c r="A279" s="221">
         <v>45358</v>
       </c>
-      <c r="B279" s="216" t="s">
+      <c r="B279" s="222" t="s">
         <v>933</v>
       </c>
-      <c r="C279" s="216" t="s">
+      <c r="C279" s="222" t="s">
         <v>432</v>
       </c>
       <c r="D279" s="209" t="s">
@@ -11520,27 +11589,27 @@
       <c r="E279" s="209">
         <v>15</v>
       </c>
-      <c r="F279" s="216" t="s">
+      <c r="F279" s="222" t="s">
         <v>887</v>
       </c>
-      <c r="G279" s="216" t="s">
+      <c r="G279" s="222" t="s">
         <v>176</v>
       </c>
       <c r="H279" s="20"/>
       <c r="O279" s="18"/>
     </row>
     <row r="280" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="215"/>
-      <c r="B280" s="216"/>
-      <c r="C280" s="216"/>
+      <c r="A280" s="221"/>
+      <c r="B280" s="222"/>
+      <c r="C280" s="222"/>
       <c r="D280" s="209" t="s">
         <v>934</v>
       </c>
       <c r="E280" s="209">
         <v>10</v>
       </c>
-      <c r="F280" s="216"/>
-      <c r="G280" s="216"/>
+      <c r="F280" s="222"/>
+      <c r="G280" s="222"/>
       <c r="H280" s="20"/>
       <c r="O280" s="18"/>
     </row>
@@ -11556,125 +11625,215 @@
       <c r="O281" s="18"/>
     </row>
     <row r="282" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="209"/>
-      <c r="B282" s="209"/>
-      <c r="C282" s="209"/>
-      <c r="D282" s="209"/>
-      <c r="E282" s="209"/>
-      <c r="F282" s="209"/>
-      <c r="G282" s="209"/>
+      <c r="A282" s="215">
+        <v>45366</v>
+      </c>
+      <c r="B282" s="216" t="s">
+        <v>939</v>
+      </c>
+      <c r="C282" s="216" t="s">
+        <v>247</v>
+      </c>
+      <c r="D282" s="217" t="s">
+        <v>261</v>
+      </c>
+      <c r="E282" s="216">
+        <v>50</v>
+      </c>
+      <c r="F282" s="216" t="s">
+        <v>887</v>
+      </c>
+      <c r="G282" s="216" t="s">
+        <v>159</v>
+      </c>
       <c r="H282" s="20"/>
       <c r="O282" s="18"/>
     </row>
     <row r="283" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="209"/>
-      <c r="B283" s="209"/>
-      <c r="C283" s="209"/>
-      <c r="D283" s="209"/>
-      <c r="E283" s="209"/>
-      <c r="F283" s="209"/>
-      <c r="G283" s="209"/>
-      <c r="H283" s="20"/>
+      <c r="A283" s="21"/>
+      <c r="B283" s="21"/>
+      <c r="C283" s="21"/>
+      <c r="D283" s="21"/>
+      <c r="E283" s="21"/>
+      <c r="F283" s="21"/>
+      <c r="G283" s="21"/>
+      <c r="H283" s="52"/>
       <c r="O283" s="18"/>
     </row>
-    <row r="284" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="209"/>
-      <c r="B284" s="209"/>
-      <c r="C284" s="209"/>
-      <c r="D284" s="209"/>
-      <c r="E284" s="209"/>
-      <c r="F284" s="209"/>
-      <c r="G284" s="209"/>
-      <c r="H284" s="20"/>
+    <row r="284" spans="1:15" s="48" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="221">
+        <v>45367</v>
+      </c>
+      <c r="B284" s="222" t="s">
+        <v>941</v>
+      </c>
+      <c r="C284" s="222" t="s">
+        <v>169</v>
+      </c>
+      <c r="D284" s="219" t="s">
+        <v>172</v>
+      </c>
+      <c r="E284" s="219">
+        <v>9</v>
+      </c>
+      <c r="F284" s="222" t="s">
+        <v>887</v>
+      </c>
+      <c r="G284" s="222" t="s">
+        <v>159</v>
+      </c>
+      <c r="H284" s="52"/>
       <c r="O284" s="18"/>
     </row>
     <row r="285" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="209"/>
-      <c r="B285" s="209"/>
-      <c r="C285" s="209"/>
-      <c r="D285" s="209"/>
-      <c r="E285" s="209"/>
-      <c r="F285" s="209"/>
-      <c r="G285" s="209"/>
-      <c r="H285" s="20"/>
+      <c r="A285" s="221"/>
+      <c r="B285" s="222"/>
+      <c r="C285" s="222"/>
+      <c r="D285" s="219" t="s">
+        <v>205</v>
+      </c>
+      <c r="E285" s="219">
+        <v>10</v>
+      </c>
+      <c r="F285" s="222"/>
+      <c r="G285" s="222"/>
+      <c r="H285" s="52"/>
       <c r="O285" s="18"/>
     </row>
     <row r="286" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="209"/>
-      <c r="B286" s="209"/>
-      <c r="C286" s="209"/>
-      <c r="D286" s="209"/>
-      <c r="E286" s="209"/>
-      <c r="F286" s="209"/>
-      <c r="G286" s="209"/>
-      <c r="H286" s="20"/>
+      <c r="A286" s="221"/>
+      <c r="B286" s="222"/>
+      <c r="C286" s="222"/>
+      <c r="D286" s="219" t="s">
+        <v>944</v>
+      </c>
+      <c r="E286" s="219">
+        <v>5</v>
+      </c>
+      <c r="F286" s="222"/>
+      <c r="G286" s="222"/>
+      <c r="H286" s="52"/>
       <c r="O286" s="18"/>
     </row>
     <row r="287" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="209"/>
-      <c r="B287" s="209"/>
-      <c r="C287" s="209"/>
-      <c r="D287" s="209"/>
-      <c r="E287" s="209"/>
-      <c r="F287" s="209"/>
-      <c r="G287" s="209"/>
-      <c r="H287" s="20"/>
+      <c r="A287" s="221"/>
+      <c r="B287" s="222"/>
+      <c r="C287" s="222"/>
+      <c r="D287" s="219" t="s">
+        <v>170</v>
+      </c>
+      <c r="E287" s="219">
+        <v>5</v>
+      </c>
+      <c r="F287" s="222"/>
+      <c r="G287" s="222"/>
+      <c r="H287" s="52"/>
       <c r="O287" s="18"/>
     </row>
     <row r="288" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="209"/>
-      <c r="B288" s="209"/>
-      <c r="C288" s="209"/>
-      <c r="D288" s="209"/>
-      <c r="E288" s="209"/>
-      <c r="F288" s="209"/>
-      <c r="G288" s="209"/>
-      <c r="H288" s="20"/>
+      <c r="A288" s="221"/>
+      <c r="B288" s="222"/>
+      <c r="C288" s="222"/>
+      <c r="D288" s="219" t="s">
+        <v>174</v>
+      </c>
+      <c r="E288" s="219">
+        <v>10</v>
+      </c>
+      <c r="F288" s="222"/>
+      <c r="G288" s="222"/>
+      <c r="H288" s="52"/>
       <c r="O288" s="18"/>
     </row>
     <row r="289" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="209"/>
-      <c r="B289" s="209"/>
-      <c r="C289" s="209"/>
-      <c r="D289" s="209"/>
-      <c r="E289" s="209"/>
-      <c r="F289" s="209"/>
-      <c r="G289" s="209"/>
-      <c r="H289" s="20"/>
+      <c r="A289" s="221"/>
+      <c r="B289" s="222"/>
+      <c r="C289" s="222"/>
+      <c r="D289" s="219" t="s">
+        <v>302</v>
+      </c>
+      <c r="E289" s="219">
+        <v>5</v>
+      </c>
+      <c r="F289" s="222"/>
+      <c r="G289" s="222"/>
+      <c r="H289" s="52"/>
       <c r="O289" s="18"/>
     </row>
     <row r="290" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="209"/>
-      <c r="B290" s="209"/>
-      <c r="C290" s="209"/>
-      <c r="D290" s="209"/>
-      <c r="E290" s="209"/>
-      <c r="F290" s="209"/>
-      <c r="G290" s="209"/>
-      <c r="H290" s="20"/>
+      <c r="A290" s="21"/>
+      <c r="B290" s="21"/>
+      <c r="C290" s="21"/>
+      <c r="D290" s="21"/>
+      <c r="E290" s="21"/>
+      <c r="F290" s="21"/>
+      <c r="G290" s="21"/>
+      <c r="H290" s="52"/>
       <c r="O290" s="18"/>
     </row>
     <row r="291" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="219"/>
+      <c r="B291" s="219"/>
+      <c r="C291" s="219"/>
+      <c r="D291" s="219"/>
+      <c r="E291" s="219"/>
+      <c r="F291" s="219"/>
+      <c r="G291" s="219"/>
       <c r="H291" s="20"/>
       <c r="O291" s="18"/>
     </row>
     <row r="292" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="218"/>
+      <c r="B292" s="218"/>
+      <c r="C292" s="218"/>
+      <c r="D292" s="218"/>
+      <c r="E292" s="218"/>
+      <c r="F292" s="218"/>
+      <c r="G292" s="218"/>
       <c r="H292" s="20"/>
       <c r="O292" s="18"/>
     </row>
     <row r="293" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="218"/>
+      <c r="B293" s="218"/>
+      <c r="C293" s="218"/>
+      <c r="D293" s="218"/>
+      <c r="E293" s="218"/>
+      <c r="F293" s="218"/>
+      <c r="G293" s="218"/>
       <c r="H293" s="20"/>
       <c r="O293" s="18"/>
     </row>
     <row r="294" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="218"/>
+      <c r="B294" s="218"/>
+      <c r="C294" s="218"/>
+      <c r="D294" s="218"/>
+      <c r="E294" s="218"/>
+      <c r="F294" s="218"/>
+      <c r="G294" s="218"/>
       <c r="H294" s="20"/>
       <c r="O294" s="18"/>
     </row>
     <row r="295" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="218"/>
+      <c r="B295" s="218"/>
+      <c r="C295" s="218"/>
+      <c r="D295" s="218"/>
+      <c r="E295" s="218"/>
+      <c r="F295" s="218"/>
+      <c r="G295" s="218"/>
       <c r="H295" s="20"/>
       <c r="O295" s="18"/>
     </row>
     <row r="296" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="218"/>
+      <c r="B296" s="218"/>
+      <c r="C296" s="218"/>
+      <c r="D296" s="218"/>
+      <c r="E296" s="218"/>
+      <c r="F296" s="218"/>
+      <c r="G296" s="218"/>
       <c r="H296" s="20"/>
       <c r="O296" s="18"/>
     </row>
@@ -12031,7 +12190,12 @@
       <c r="O344" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="300">
+  <mergeCells count="305">
+    <mergeCell ref="A284:A289"/>
+    <mergeCell ref="B284:B289"/>
+    <mergeCell ref="C284:C289"/>
+    <mergeCell ref="F284:F289"/>
+    <mergeCell ref="G284:G289"/>
     <mergeCell ref="I213:I215"/>
     <mergeCell ref="J213:J215"/>
     <mergeCell ref="K213:K215"/>
@@ -12092,8 +12256,6 @@
     <mergeCell ref="J189:J194"/>
     <mergeCell ref="K189:K194"/>
     <mergeCell ref="N189:N194"/>
-    <mergeCell ref="M126:M127"/>
-    <mergeCell ref="N126:N127"/>
     <mergeCell ref="I131:I153"/>
     <mergeCell ref="J131:J153"/>
     <mergeCell ref="K131:K153"/>
@@ -12261,6 +12423,12 @@
     <mergeCell ref="C98:C99"/>
     <mergeCell ref="F98:F99"/>
     <mergeCell ref="G98:G99"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="F103:F107"/>
+    <mergeCell ref="I106:I111"/>
+    <mergeCell ref="J106:J111"/>
+    <mergeCell ref="K106:K111"/>
+    <mergeCell ref="K126:K127"/>
     <mergeCell ref="N106:N111"/>
     <mergeCell ref="I101:I102"/>
     <mergeCell ref="J101:J102"/>
@@ -12274,16 +12442,22 @@
     <mergeCell ref="K113:K115"/>
     <mergeCell ref="K101:K102"/>
     <mergeCell ref="N101:N102"/>
+    <mergeCell ref="M126:M127"/>
+    <mergeCell ref="N126:N127"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="A166:A167"/>
     <mergeCell ref="B166:B167"/>
     <mergeCell ref="C166:C167"/>
     <mergeCell ref="F166:F167"/>
     <mergeCell ref="G166:G167"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="F103:F107"/>
-    <mergeCell ref="I106:I111"/>
-    <mergeCell ref="J106:J111"/>
-    <mergeCell ref="K106:K111"/>
-    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="E260:E262"/>
+    <mergeCell ref="E263:E265"/>
+    <mergeCell ref="F260:F265"/>
+    <mergeCell ref="G260:G265"/>
+    <mergeCell ref="A260:A265"/>
     <mergeCell ref="A118:A119"/>
     <mergeCell ref="B118:B119"/>
     <mergeCell ref="C118:C119"/>
@@ -12303,11 +12477,6 @@
     <mergeCell ref="F185:F186"/>
     <mergeCell ref="G185:G186"/>
     <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="A166:A167"/>
     <mergeCell ref="I206:I211"/>
     <mergeCell ref="J206:J211"/>
     <mergeCell ref="K206:K211"/>
@@ -12327,11 +12496,6 @@
     <mergeCell ref="C267:C269"/>
     <mergeCell ref="F267:F269"/>
     <mergeCell ref="G267:G269"/>
-    <mergeCell ref="E260:E262"/>
-    <mergeCell ref="E263:E265"/>
-    <mergeCell ref="F260:F265"/>
-    <mergeCell ref="G260:G265"/>
-    <mergeCell ref="A260:A265"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -12340,12 +12504,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H243"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A54" sqref="A54"/>
-      <selection pane="bottomLeft" activeCell="C220" sqref="C220"/>
+      <selection pane="bottomLeft" activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16492,21 +16656,27 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="40">
+      <c r="A184" s="42">
         <v>45328</v>
       </c>
-      <c r="B184" s="39" t="s">
+      <c r="B184" s="43" t="s">
         <v>888</v>
       </c>
-      <c r="C184" s="39" t="s">
+      <c r="C184" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="D184" s="39">
+      <c r="D184" s="43">
         <v>55401</v>
       </c>
-      <c r="E184" s="39"/>
-      <c r="F184" s="40"/>
-      <c r="G184" s="39"/>
+      <c r="E184" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F184" s="42">
+        <v>45367</v>
+      </c>
+      <c r="G184" s="43" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="42">
@@ -16945,22 +17115,88 @@
         <v>58</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="212"/>
-      <c r="B220" s="212"/>
-      <c r="C220" s="212"/>
-      <c r="D220" s="212"/>
-      <c r="E220" s="212"/>
-      <c r="F220" s="212"/>
-      <c r="G220" s="212"/>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="40">
+        <v>45363</v>
+      </c>
+      <c r="B205" s="220" t="s">
+        <v>946</v>
+      </c>
+      <c r="C205" s="220" t="s">
+        <v>169</v>
+      </c>
+      <c r="D205" s="220">
+        <v>10178</v>
+      </c>
+      <c r="E205" s="220"/>
+      <c r="F205" s="40"/>
+      <c r="G205" s="220"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="40">
+        <v>45364</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D206" s="14">
+        <v>192635</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="40">
+        <v>45365</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D207" s="14">
+        <v>129151</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C213" s="232" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C214" s="232" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C215" s="232" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C216" s="232" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C217" s="232" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="C218" s="232" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="212"/>
-      <c r="B221" s="213"/>
-      <c r="C221" s="213"/>
-      <c r="D221" s="213"/>
-      <c r="E221" s="213"/>
-      <c r="F221" s="213"/>
+      <c r="B221" s="212"/>
+      <c r="C221" s="212"/>
+      <c r="D221" s="212"/>
+      <c r="E221" s="212"/>
+      <c r="F221" s="212"/>
       <c r="G221" s="212"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -17010,7 +17246,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="212"/>
-      <c r="B227" s="214"/>
+      <c r="B227" s="213"/>
       <c r="C227" s="213"/>
       <c r="D227" s="213"/>
       <c r="E227" s="213"/>
@@ -17019,7 +17255,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="212"/>
-      <c r="B228" s="213"/>
+      <c r="B228" s="214"/>
       <c r="C228" s="213"/>
       <c r="D228" s="213"/>
       <c r="E228" s="213"/>
@@ -17037,7 +17273,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="212"/>
-      <c r="B230" s="214"/>
+      <c r="B230" s="213"/>
       <c r="C230" s="213"/>
       <c r="D230" s="213"/>
       <c r="E230" s="213"/>
@@ -17046,11 +17282,11 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="212"/>
-      <c r="B231" s="212"/>
-      <c r="C231" s="212"/>
-      <c r="D231" s="212"/>
-      <c r="E231" s="212"/>
-      <c r="F231" s="212"/>
+      <c r="B231" s="214"/>
+      <c r="C231" s="213"/>
+      <c r="D231" s="213"/>
+      <c r="E231" s="213"/>
+      <c r="F231" s="213"/>
       <c r="G231" s="212"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -17160,6 +17396,15 @@
       <c r="E243" s="212"/>
       <c r="F243" s="212"/>
       <c r="G243" s="212"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="212"/>
+      <c r="B244" s="212"/>
+      <c r="C244" s="212"/>
+      <c r="D244" s="212"/>
+      <c r="E244" s="212"/>
+      <c r="F244" s="212"/>
+      <c r="G244" s="212"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17295,10 +17540,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="229" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="224"/>
+      <c r="C2" s="230"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -17418,12 +17663,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H617" sqref="H617"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C52:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18882,6 +19127,20 @@
         <v>168741</v>
       </c>
     </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="44">
+        <v>45370</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>943</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="29">
+        <v>793578</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18894,7 +19153,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -18910,10 +19169,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T653"/>
+  <dimension ref="A1:T664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A654" sqref="A654"/>
+    <sheetView tabSelected="1" topLeftCell="A649" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A665" sqref="A665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -18934,28 +19193,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="225"/>
-      <c r="P1" s="225"/>
-      <c r="Q1" s="225"/>
-      <c r="R1" s="225"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="225"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="231"/>
+      <c r="T1" s="231"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -29414,8 +29673,8 @@
         <v>2686</v>
       </c>
       <c r="H617" s="22">
-        <f>+-263-51+3000+13426-13426-500+3700-3700-1900-65-1000-50+2000-200-80-200-80-208-142-150-112-51+500-100-2000+2000</f>
-        <v>348</v>
+        <f>+-263-51+3000+13426-13426-500+3700-3700-1900-65-1000-50+2000-200-80-200-80-208-142-150-112-51+500-100-2000+2000-95-10-50</f>
+        <v>193</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.3">
@@ -29903,11 +30162,11 @@
         <v>286</v>
       </c>
       <c r="E646" s="22">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F646" s="22">
         <f>F645-E646</f>
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.3">
@@ -29919,7 +30178,7 @@
       </c>
       <c r="F647" s="22">
         <f>F646+D647</f>
-        <v>599</v>
+        <v>559</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.3">
@@ -29937,7 +30196,7 @@
       </c>
       <c r="F648" s="22">
         <f>F647-E648</f>
-        <v>548</v>
+        <v>508</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.3">
@@ -29955,7 +30214,7 @@
       </c>
       <c r="F649" s="22">
         <f>F648-E649</f>
-        <v>508</v>
+        <v>468</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.3">
@@ -29973,7 +30232,7 @@
       </c>
       <c r="F650" s="22">
         <f>F649-E650</f>
-        <v>408</v>
+        <v>368</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.3">
@@ -29985,7 +30244,7 @@
       </c>
       <c r="F651" s="22">
         <f>F650+D651</f>
-        <v>2408</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.3">
@@ -30003,7 +30262,7 @@
       </c>
       <c r="F652" s="22">
         <f>F651-E652</f>
-        <v>408</v>
+        <v>368</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.3">
@@ -30015,7 +30274,199 @@
       </c>
       <c r="F653" s="22">
         <f>F652+D653</f>
-        <v>1408</v>
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A654" s="24">
+        <v>45367</v>
+      </c>
+      <c r="B654" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C654" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="E654" s="22">
+        <v>200</v>
+      </c>
+      <c r="F654" s="22">
+        <f>F653-E654</f>
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A655" s="24">
+        <v>45367</v>
+      </c>
+      <c r="B655" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C655" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E655" s="22">
+        <v>800</v>
+      </c>
+      <c r="F655" s="22">
+        <f>F654-E655</f>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A656" s="24">
+        <v>45369</v>
+      </c>
+      <c r="B656" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C656" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E656" s="22">
+        <v>95</v>
+      </c>
+      <c r="F656" s="22">
+        <f>F655-E656</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A657" s="24">
+        <v>45369</v>
+      </c>
+      <c r="D657" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F657" s="22">
+        <f>F656+D657</f>
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A658" s="24">
+        <v>45369</v>
+      </c>
+      <c r="B658" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C658" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E658" s="22">
+        <v>10</v>
+      </c>
+      <c r="F658" s="22">
+        <f>F657-E658</f>
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A659" s="24">
+        <v>45369</v>
+      </c>
+      <c r="B659" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C659" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="E659" s="22">
+        <v>80</v>
+      </c>
+      <c r="F659" s="22">
+        <f>F658-E659</f>
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A660" s="24">
+        <v>45370</v>
+      </c>
+      <c r="B660" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C660" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E660" s="22">
+        <v>80</v>
+      </c>
+      <c r="F660" s="22">
+        <f>F659-E660</f>
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A661" s="24">
+        <v>45370</v>
+      </c>
+      <c r="B661" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C661" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E661" s="22">
+        <v>50</v>
+      </c>
+      <c r="F661" s="22">
+        <f>F660-E661</f>
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A662" s="24">
+        <v>45370</v>
+      </c>
+      <c r="B662" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C662" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E662" s="22">
+        <v>300</v>
+      </c>
+      <c r="F662" s="22">
+        <f>F661-E662</f>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A663" s="24">
+        <v>45371</v>
+      </c>
+      <c r="B663" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C663" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="E663" s="22">
+        <v>500</v>
+      </c>
+      <c r="F663" s="22">
+        <f>F662-E663</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A664" s="24">
+        <v>45371</v>
+      </c>
+      <c r="B664" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C664" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E664" s="22">
+        <v>50</v>
+      </c>
+      <c r="F664" s="22">
+        <f>F663-E664</f>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -30029,11 +30480,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D196" sqref="D196"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -33418,7 +33869,7 @@
         <v>21</v>
       </c>
       <c r="I188" s="11">
-        <f t="shared" ref="I188:I195" si="3">E188-H188</f>
+        <f t="shared" ref="I188:I196" si="3">E188-H188</f>
         <v>1</v>
       </c>
     </row>
@@ -33529,6 +33980,21 @@
         <v>5</v>
       </c>
       <c r="I195" s="11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="11">
+        <v>195</v>
+      </c>
+      <c r="D196" s="11">
+        <v>646872</v>
+      </c>
+      <c r="E196" s="11">
+        <v>5</v>
+      </c>
+      <c r="I196" s="11">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
